--- a/excels/units/monster/normal.xlsx
+++ b/excels/units/monster/normal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="140">
   <si>
     <t>主键</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>models/items/courier/mighty_chicken/mighty_chicken.vmdl</t>
+  </si>
+  <si>
+    <t>base_creature</t>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
@@ -1724,10 +1727,10 @@
   <sheetPr/>
   <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G9" sqref="G9"/>
+      <selection pane="topRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1998,7 +2001,9 @@
       <c r="R3" s="26">
         <v>170</v>
       </c>
-      <c r="S3" s="13"/>
+      <c r="S3" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13">
@@ -2008,13 +2013,13 @@
         <v>180</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y3" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z3" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA3" s="13">
         <v>0</v>
@@ -2023,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD3" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE3" s="13">
         <v>20000</v>
@@ -2044,13 +2049,13 @@
     </row>
     <row r="4" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A4" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="15">
         <v>2</v>
@@ -2089,7 +2094,7 @@
         <v>55</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P4" s="15">
         <v>1</v>
@@ -2100,7 +2105,9 @@
       <c r="R4" s="28">
         <v>170</v>
       </c>
-      <c r="S4" s="15"/>
+      <c r="S4" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15">
@@ -2110,13 +2117,13 @@
         <v>180</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y4" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z4" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA4" s="15">
         <v>0</v>
@@ -2125,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="AC4" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD4" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE4" s="15">
         <v>20000</v>
@@ -2146,13 +2153,13 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A5" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="13">
         <v>3</v>
@@ -2191,7 +2198,7 @@
         <v>55</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P5" s="13">
         <v>1</v>
@@ -2202,7 +2209,9 @@
       <c r="R5" s="26">
         <v>170</v>
       </c>
-      <c r="S5" s="13"/>
+      <c r="S5" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13">
@@ -2212,13 +2221,13 @@
         <v>180</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y5" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z5" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA5" s="13">
         <v>0</v>
@@ -2227,10 +2236,10 @@
         <v>0</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD5" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE5" s="13">
         <v>20000</v>
@@ -2248,13 +2257,13 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A6" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="15">
         <v>4</v>
@@ -2293,7 +2302,7 @@
         <v>55</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P6" s="15">
         <v>1</v>
@@ -2304,7 +2313,9 @@
       <c r="R6" s="28">
         <v>170</v>
       </c>
-      <c r="S6" s="15"/>
+      <c r="S6" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="15">
@@ -2314,13 +2325,13 @@
         <v>180</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y6" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA6" s="15">
         <v>0</v>
@@ -2329,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="AC6" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD6" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE6" s="15">
         <v>20000</v>
@@ -2350,13 +2361,13 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A7" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="13">
         <v>5</v>
@@ -2395,7 +2406,7 @@
         <v>55</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P7" s="13">
         <v>1.1</v>
@@ -2406,7 +2417,9 @@
       <c r="R7" s="26">
         <v>170</v>
       </c>
-      <c r="S7" s="13"/>
+      <c r="S7" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
       <c r="V7" s="13">
@@ -2416,13 +2429,13 @@
         <v>180</v>
       </c>
       <c r="X7" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y7" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z7" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA7" s="13">
         <v>0</v>
@@ -2431,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD7" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE7" s="13">
         <v>20000</v>
@@ -2452,13 +2465,13 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A8" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="15">
         <v>6</v>
@@ -2497,7 +2510,7 @@
         <v>55</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P8" s="15">
         <v>1.1</v>
@@ -2508,7 +2521,9 @@
       <c r="R8" s="28">
         <v>170</v>
       </c>
-      <c r="S8" s="15"/>
+      <c r="S8" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15">
@@ -2518,13 +2533,13 @@
         <v>180</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y8" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z8" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA8" s="15">
         <v>0</v>
@@ -2533,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="AC8" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD8" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE8" s="15">
         <v>20000</v>
@@ -2554,13 +2569,13 @@
     </row>
     <row r="9" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A9" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" s="13">
         <v>7</v>
@@ -2599,7 +2614,7 @@
         <v>55</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P9" s="13">
         <v>1.3</v>
@@ -2610,7 +2625,9 @@
       <c r="R9" s="26">
         <v>190</v>
       </c>
-      <c r="S9" s="13"/>
+      <c r="S9" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13">
@@ -2620,13 +2637,13 @@
         <v>180</v>
       </c>
       <c r="X9" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y9" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z9" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA9" s="13">
         <v>0</v>
@@ -2635,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD9" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE9" s="13">
         <v>20000</v>
@@ -2656,13 +2673,13 @@
     </row>
     <row r="10" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A10" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" s="15">
         <v>8</v>
@@ -2701,7 +2718,7 @@
         <v>55</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P10" s="15">
         <v>1.3</v>
@@ -2712,7 +2729,9 @@
       <c r="R10" s="28">
         <v>190</v>
       </c>
-      <c r="S10" s="15"/>
+      <c r="S10" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15">
@@ -2722,13 +2741,13 @@
         <v>180</v>
       </c>
       <c r="X10" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y10" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z10" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA10" s="15">
         <v>0</v>
@@ -2737,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="AC10" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD10" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE10" s="15">
         <v>20000</v>
@@ -2758,13 +2777,13 @@
     </row>
     <row r="11" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A11" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D11" s="13">
         <v>9</v>
@@ -2803,7 +2822,7 @@
         <v>55</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P11" s="13">
         <v>1.3</v>
@@ -2814,7 +2833,9 @@
       <c r="R11" s="26">
         <v>180</v>
       </c>
-      <c r="S11" s="13"/>
+      <c r="S11" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13">
@@ -2824,13 +2845,13 @@
         <v>180</v>
       </c>
       <c r="X11" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y11" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z11" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA11" s="13">
         <v>0</v>
@@ -2839,10 +2860,10 @@
         <v>0</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD11" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE11" s="13">
         <v>20000</v>
@@ -2860,13 +2881,13 @@
     </row>
     <row r="12" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A12" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D12" s="15">
         <v>10</v>
@@ -2905,7 +2926,7 @@
         <v>55</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P12" s="15">
         <v>1.3</v>
@@ -2916,7 +2937,9 @@
       <c r="R12" s="28">
         <v>190</v>
       </c>
-      <c r="S12" s="15"/>
+      <c r="S12" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
       <c r="V12" s="15">
@@ -2926,13 +2949,13 @@
         <v>180</v>
       </c>
       <c r="X12" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y12" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z12" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA12" s="15">
         <v>0</v>
@@ -2941,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="AC12" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD12" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE12" s="15">
         <v>20000</v>
@@ -2962,13 +2985,13 @@
     </row>
     <row r="13" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A13" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" s="13">
         <v>11</v>
@@ -3007,7 +3030,7 @@
         <v>55</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P13" s="13">
         <v>1.4</v>
@@ -3018,7 +3041,9 @@
       <c r="R13" s="26">
         <v>195</v>
       </c>
-      <c r="S13" s="13"/>
+      <c r="S13" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
       <c r="V13" s="13">
@@ -3028,13 +3053,13 @@
         <v>180</v>
       </c>
       <c r="X13" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y13" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z13" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA13" s="13">
         <v>0</v>
@@ -3043,10 +3068,10 @@
         <v>0</v>
       </c>
       <c r="AC13" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD13" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE13" s="13">
         <v>20000</v>
@@ -3064,13 +3089,13 @@
     </row>
     <row r="14" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A14" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D14" s="15">
         <v>12</v>
@@ -3109,7 +3134,7 @@
         <v>55</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P14" s="15">
         <v>1.4</v>
@@ -3120,7 +3145,9 @@
       <c r="R14" s="28">
         <v>210</v>
       </c>
-      <c r="S14" s="15"/>
+      <c r="S14" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15">
@@ -3130,13 +3157,13 @@
         <v>180</v>
       </c>
       <c r="X14" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y14" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z14" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA14" s="15">
         <v>0</v>
@@ -3145,10 +3172,10 @@
         <v>0</v>
       </c>
       <c r="AC14" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD14" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE14" s="15">
         <v>20000</v>
@@ -3166,13 +3193,13 @@
     </row>
     <row r="15" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A15" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D15" s="13">
         <v>13</v>
@@ -3211,7 +3238,7 @@
         <v>55</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P15" s="13">
         <v>1.4</v>
@@ -3222,7 +3249,9 @@
       <c r="R15" s="26">
         <v>210</v>
       </c>
-      <c r="S15" s="13"/>
+      <c r="S15" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13">
@@ -3232,13 +3261,13 @@
         <v>180</v>
       </c>
       <c r="X15" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y15" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z15" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA15" s="13">
         <v>0</v>
@@ -3247,10 +3276,10 @@
         <v>0</v>
       </c>
       <c r="AC15" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD15" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE15" s="13">
         <v>20000</v>
@@ -3268,13 +3297,13 @@
     </row>
     <row r="16" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A16" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D16" s="15">
         <v>14</v>
@@ -3313,7 +3342,7 @@
         <v>55</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="15">
         <v>1.4</v>
@@ -3324,7 +3353,9 @@
       <c r="R16" s="28">
         <v>210</v>
       </c>
-      <c r="S16" s="15"/>
+      <c r="S16" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
       <c r="V16" s="15">
@@ -3334,13 +3365,13 @@
         <v>180</v>
       </c>
       <c r="X16" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y16" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z16" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA16" s="15">
         <v>0</v>
@@ -3349,10 +3380,10 @@
         <v>0</v>
       </c>
       <c r="AC16" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE16" s="15">
         <v>20000</v>
@@ -3370,13 +3401,13 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A17" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17" s="13">
         <v>15</v>
@@ -3415,7 +3446,7 @@
         <v>55</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P17" s="13">
         <v>1.4</v>
@@ -3426,7 +3457,9 @@
       <c r="R17" s="26">
         <v>210</v>
       </c>
-      <c r="S17" s="13"/>
+      <c r="S17" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
       <c r="V17" s="13">
@@ -3436,13 +3469,13 @@
         <v>180</v>
       </c>
       <c r="X17" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y17" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z17" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA17" s="13">
         <v>0</v>
@@ -3451,10 +3484,10 @@
         <v>0</v>
       </c>
       <c r="AC17" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD17" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE17" s="13">
         <v>20000</v>
@@ -3472,13 +3505,13 @@
     </row>
     <row r="18" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A18" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D18" s="15">
         <v>16</v>
@@ -3517,7 +3550,7 @@
         <v>55</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="15">
         <v>1.4</v>
@@ -3528,7 +3561,9 @@
       <c r="R18" s="28">
         <v>220</v>
       </c>
-      <c r="S18" s="15"/>
+      <c r="S18" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15">
@@ -3538,13 +3573,13 @@
         <v>180</v>
       </c>
       <c r="X18" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y18" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Z18" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA18" s="15">
         <v>0</v>
@@ -3553,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="AC18" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD18" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE18" s="15">
         <v>20000</v>
@@ -3574,13 +3609,13 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A19" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D19" s="13">
         <v>17</v>
@@ -3619,7 +3654,7 @@
         <v>55</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P19" s="13">
         <v>1.4</v>
@@ -3630,7 +3665,9 @@
       <c r="R19" s="26">
         <v>330</v>
       </c>
-      <c r="S19" s="13"/>
+      <c r="S19" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13">
@@ -3640,13 +3677,13 @@
         <v>180</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y19" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z19" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA19" s="13">
         <v>0</v>
@@ -3655,10 +3692,10 @@
         <v>0</v>
       </c>
       <c r="AC19" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD19" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE19" s="13">
         <v>20000</v>
@@ -3676,13 +3713,13 @@
     </row>
     <row r="20" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A20" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D20" s="15">
         <v>18</v>
@@ -3721,7 +3758,7 @@
         <v>55</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="15">
         <v>1.4</v>
@@ -3732,7 +3769,9 @@
       <c r="R20" s="28">
         <v>240</v>
       </c>
-      <c r="S20" s="15"/>
+      <c r="S20" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
       <c r="V20" s="15">
@@ -3742,13 +3781,13 @@
         <v>180</v>
       </c>
       <c r="X20" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y20" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z20" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA20" s="15">
         <v>0</v>
@@ -3757,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="AC20" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD20" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE20" s="15">
         <v>20000</v>
@@ -3778,13 +3817,13 @@
     </row>
     <row r="21" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A21" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D21" s="13">
         <v>19</v>
@@ -3823,7 +3862,7 @@
         <v>55</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P21" s="13">
         <v>1.4</v>
@@ -3834,7 +3873,9 @@
       <c r="R21" s="26">
         <v>210</v>
       </c>
-      <c r="S21" s="13"/>
+      <c r="S21" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
       <c r="V21" s="13">
@@ -3844,13 +3885,13 @@
         <v>180</v>
       </c>
       <c r="X21" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y21" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z21" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA21" s="13">
         <v>0</v>
@@ -3859,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="AC21" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD21" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE21" s="13">
         <v>20000</v>
@@ -3880,13 +3921,13 @@
     </row>
     <row r="22" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A22" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D22" s="15">
         <v>20</v>
@@ -3925,7 +3966,7 @@
         <v>55</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P22" s="15">
         <v>1.4</v>
@@ -3936,7 +3977,9 @@
       <c r="R22" s="28">
         <v>210</v>
       </c>
-      <c r="S22" s="15"/>
+      <c r="S22" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="T22" s="15"/>
       <c r="U22" s="15"/>
       <c r="V22" s="15">
@@ -3946,13 +3989,13 @@
         <v>180</v>
       </c>
       <c r="X22" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y22" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z22" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA22" s="15">
         <v>0</v>
@@ -3961,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="AC22" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD22" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE22" s="15">
         <v>20000</v>

--- a/excels/units/monster/normal.xlsx
+++ b/excels/units/monster/normal.xlsx
@@ -202,7 +202,7 @@
     <t>models/items/courier/mighty_chicken/mighty_chicken.vmdl</t>
   </si>
   <si>
-    <t>base_creature</t>
+    <t>public_creature</t>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
@@ -1728,9 +1728,9 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="T5" sqref="T5"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1957,11 +1957,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="14">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F3" s="14">
-        <f t="shared" ref="F3:F9" si="0">E3</f>
-        <v>15</v>
+        <f>E3</f>
+        <v>5</v>
       </c>
       <c r="G3" s="14">
         <v>0</v>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="I3" s="13">
         <f>F3</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J3" s="13">
         <v>1</v>
@@ -2061,11 +2061,11 @@
         <v>2</v>
       </c>
       <c r="E4" s="16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F4" s="16">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" ref="F3:F9" si="0">E4</f>
+        <v>15</v>
       </c>
       <c r="G4" s="16">
         <v>0</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="I4" s="13">
         <f t="shared" ref="I4:I27" si="1">F4</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J4" s="15">
         <v>6</v>
@@ -2165,11 +2165,11 @@
         <v>3</v>
       </c>
       <c r="E5" s="14">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G5" s="14">
         <v>0</v>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J5" s="13">
         <v>9</v>
@@ -2269,11 +2269,11 @@
         <v>4</v>
       </c>
       <c r="E6" s="16">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F6" s="16">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G6" s="16">
         <v>0</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="I6" s="13">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J6" s="15">
         <v>10</v>
@@ -2373,11 +2373,11 @@
         <v>5</v>
       </c>
       <c r="E7" s="14">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="F7" s="14">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="G7" s="14">
         <v>10</v>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="I7" s="13">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="J7" s="13">
         <v>20</v>
@@ -2477,11 +2477,11 @@
         <v>6</v>
       </c>
       <c r="E8" s="16">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="F8" s="16">
         <f t="shared" si="0"/>
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="G8" s="16">
         <v>0</v>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="I8" s="13">
         <f t="shared" si="1"/>
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="J8" s="15">
         <v>22</v>
@@ -2581,11 +2581,11 @@
         <v>7</v>
       </c>
       <c r="E9" s="14">
-        <v>589</v>
+        <v>500</v>
       </c>
       <c r="F9" s="14">
-        <f t="shared" si="0"/>
-        <v>589</v>
+        <f>E9</f>
+        <v>500</v>
       </c>
       <c r="G9" s="14">
         <v>0</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I9" s="13">
         <f t="shared" si="1"/>
-        <v>589</v>
+        <v>500</v>
       </c>
       <c r="J9" s="13">
         <v>25</v>
@@ -2685,11 +2685,11 @@
         <v>8</v>
       </c>
       <c r="E10" s="16">
-        <v>862</v>
+        <v>700</v>
       </c>
       <c r="F10" s="14">
         <f t="shared" ref="F10:F32" si="4">E10</f>
-        <v>862</v>
+        <v>700</v>
       </c>
       <c r="G10" s="16">
         <v>0</v>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="I10" s="13">
         <f t="shared" si="1"/>
-        <v>862</v>
+        <v>700</v>
       </c>
       <c r="J10" s="15">
         <v>28</v>

--- a/excels/units/monster/normal.xlsx
+++ b/excels/units/monster/normal.xlsx
@@ -1728,9 +1728,9 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="Z1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="topRight" activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2584,7 +2584,7 @@
         <v>500</v>
       </c>
       <c r="F9" s="14">
-        <f>E9</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="G9" s="14">

--- a/excels/units/monster/normal.xlsx
+++ b/excels/units/monster/normal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="135">
   <si>
     <t>主键</t>
   </si>
@@ -187,10 +187,7 @@
     <t>npc_monster_normal_1</t>
   </si>
   <si>
-    <t>普通怪物lv1</t>
-  </si>
-  <si>
-    <t>第1波怪物</t>
+    <t>小狗头人</t>
   </si>
   <si>
     <t>0|0|0|0</t>
@@ -199,7 +196,7 @@
     <t>npc_dota_creature</t>
   </si>
   <si>
-    <t>models/items/courier/mighty_chicken/mighty_chicken.vmdl</t>
+    <t>models/creeps/neutral_creeps/n_creep_kobold/kobold_c/n_creep_kobold_c.vmdl</t>
   </si>
   <si>
     <t>public_creature</t>
@@ -223,181 +220,136 @@
     <t>npc_monster_normal_2</t>
   </si>
   <si>
-    <t>普通怪物lv2</t>
-  </si>
-  <si>
-    <t>第2波怪物</t>
-  </si>
-  <si>
-    <t>models/items/furion/treant/furion_treant_nelum_red/furion_treant_nelum_red.vmdl</t>
+    <t>狗头人士兵</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_kobold/kobold_b/n_creep_kobold_b.vmdl</t>
   </si>
   <si>
     <t>npc_monster_normal_3</t>
   </si>
   <si>
-    <t>普通怪物lv3</t>
-  </si>
-  <si>
-    <t>第3波怪物</t>
-  </si>
-  <si>
-    <t>models/items/furion/treant/fungal_lord_shroomthing/fungal_lord_shroomthing.vmdl</t>
+    <t>狗头人长官</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_kobold/kobold_a/n_creep_kobold_a.vmdl</t>
   </si>
   <si>
     <t>npc_monster_normal_4</t>
   </si>
   <si>
-    <t>普通怪物lv4</t>
-  </si>
-  <si>
-    <t>第4波怪物</t>
-  </si>
-  <si>
-    <t>models/items/warlock/golem/greevil_master_greevil_golem/greevil_master_greevil_golem.vmdl</t>
+    <t>豺狼人刺客</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_gnoll/n_creep_gnoll.vmdl</t>
   </si>
   <si>
     <t>npc_monster_normal_5</t>
   </si>
   <si>
-    <t>普通怪物lv5</t>
-  </si>
-  <si>
-    <t>第5波怪物</t>
+    <t>冰霜豺狼人刺客</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_gnoll/n_creep_gnoll_frost.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_6</t>
+  </si>
+  <si>
+    <t>萨特放逐者</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_satyr_b/n_creep_satyr_b.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_7</t>
+  </si>
+  <si>
+    <t>萨特窃神者</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_satyr_c/n_creep_satyr_c.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_8</t>
+  </si>
+  <si>
+    <t>巨狼</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_worg_small/n_creep_worg_small.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_9</t>
+  </si>
+  <si>
+    <t>鹰眼女妖侦察者</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_harpy_a/n_creep_harpy_a.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_10</t>
+  </si>
+  <si>
+    <t>鹰眼女妖风暴巫师</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_harpy_b/n_creep_harpy_b.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_11</t>
+  </si>
+  <si>
+    <t>地狱熊怪</t>
   </si>
   <si>
     <t>models/creeps/neutral_creeps/n_creep_beast/n_creep_beast.vmdl</t>
   </si>
   <si>
-    <t>npc_monster_normal_6</t>
-  </si>
-  <si>
-    <t>普通怪物lv6</t>
-  </si>
-  <si>
-    <t>第6波怪物</t>
-  </si>
-  <si>
-    <t>models/items/furion/treant/shroomling_treant/shroomling_treant.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_7</t>
-  </si>
-  <si>
-    <t>普通怪物lv7</t>
-  </si>
-  <si>
-    <t>第7波怪物</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/ti9_chameleon_radiant/ti9_chameleon_radiant_melee_mega.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_8</t>
-  </si>
-  <si>
-    <t>普通怪物lv8</t>
-  </si>
-  <si>
-    <t>第8波怪物</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/ti9_crocodilian_dire/ti9_crocodilian_dire_melee_mega.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_9</t>
-  </si>
-  <si>
-    <t>普通怪物lv9</t>
-  </si>
-  <si>
-    <t>第9波怪物</t>
-  </si>
-  <si>
-    <t>models/items/warlock/golem/doom_of_ithogoaki/doom_of_ithogoaki.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_10</t>
-  </si>
-  <si>
-    <t>普通怪物lv10</t>
-  </si>
-  <si>
-    <t>第10波怪物</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/creep_2021_radiant/creep_2021_radiant_flagbearer_melee_mega.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_11</t>
-  </si>
-  <si>
-    <t>普通怪物lv11</t>
-  </si>
-  <si>
-    <t>第11波怪物</t>
-  </si>
-  <si>
-    <t>models/items/furion/treant/allfather_of_nature_treant/allfather_of_nature_treant.vmdl</t>
-  </si>
-  <si>
     <t>npc_monster_normal_12</t>
   </si>
   <si>
-    <t>普通怪物lv12</t>
-  </si>
-  <si>
-    <t>第12波怪物</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_golem_b/n_creep_golem_b.vmdl</t>
+    <t>魔能之魂</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_radiant_melee_diretide/creep_radiant_melee_diretide.vmdl</t>
   </si>
   <si>
     <t>npc_monster_normal_13</t>
   </si>
   <si>
-    <t>普通怪物lv13</t>
-  </si>
-  <si>
-    <t>第13波怪物</t>
-  </si>
-  <si>
-    <t>models/creeps/ice_biome/undeadtusk/undead_tuskskeleton01.vmdl</t>
+    <t>鬼魂</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_radiant_ranged_diretide/creep_radiant_ranged_diretide.vmdl</t>
   </si>
   <si>
     <t>npc_monster_normal_14</t>
   </si>
   <si>
-    <t>普通怪物lv14</t>
-  </si>
-  <si>
-    <t>第14波怪物</t>
-  </si>
-  <si>
-    <t>models/items/warlock/golem/hellsworn_golem/hellsworn_golem.vmdl</t>
+    <t>怨念之魂</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_ghost_b/n_creep_ghost_red.vmdl</t>
   </si>
   <si>
     <t>npc_monster_normal_15</t>
   </si>
   <si>
-    <t>普通怪物lv15</t>
-  </si>
-  <si>
-    <t>第15波怪物</t>
-  </si>
-  <si>
-    <t>models/creeps/ice_biome/frostbitten/n_creep_frostbitten_swollen01.vmdl</t>
+    <t>远古黑蜉蝣</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_black_drake/n_creep_black_drake.vmdl</t>
   </si>
   <si>
     <t>npc_monster_normal_16</t>
   </si>
   <si>
-    <t>普通怪物lv16</t>
-  </si>
-  <si>
-    <t>第16波怪物</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/creep_2021_radiant/creep_2021_radiant_ranged_mega.vmdl</t>
+    <t>枭兽</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_vulture_b/n_creep_vulture_b.vmdl</t>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_RANGED_ATTACK</t>
@@ -406,49 +358,82 @@
     <t>npc_monster_normal_17</t>
   </si>
   <si>
-    <t>普通怪物lv17</t>
-  </si>
-  <si>
-    <t>第17波怪物</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_golem_a/neutral_creep_golem_a.vmdl</t>
+    <t>枭兽撕裂者</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_vulture_a/n_creep_vulture_a.vmdl</t>
   </si>
   <si>
     <t>npc_monster_normal_18</t>
   </si>
   <si>
-    <t>普通怪物lv18</t>
-  </si>
-  <si>
-    <t>第18波怪物</t>
-  </si>
-  <si>
-    <t>models/items/warlock/golem/mdl_warlock_golem/mdl_warlock_golem.vmdl</t>
+    <t>地狱熊怪粉碎者</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_furbolg/n_creep_furbolg_disrupter.vmdl</t>
   </si>
   <si>
     <t>npc_monster_normal_19</t>
   </si>
   <si>
-    <t>普通怪物lv19</t>
-  </si>
-  <si>
-    <t>第19波怪物</t>
-  </si>
-  <si>
-    <t>models/items/warlock/golem/warlock_the_infernal_master_golem/warlock_the_infernal_master_golem.vmdl</t>
+    <t>半人马猎手</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_centaur_med/n_creep_centaur_med.vmdl</t>
   </si>
   <si>
     <t>npc_monster_normal_20</t>
   </si>
   <si>
-    <t>普通怪物lv20</t>
-  </si>
-  <si>
-    <t>第20波怪物</t>
-  </si>
-  <si>
-    <t>models/items/furion/treant/np_desert_traveller_treant/np_desert_traveller_treant.vmdl</t>
+    <t>半人马征服者</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_centaur_lrg/neutral_stash_centaur.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_21</t>
+  </si>
+  <si>
+    <t>丘陵巨魔狂战士</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_forest_trolls/n_creep_forest_troll_berserker.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_22</t>
+  </si>
+  <si>
+    <t>丘陵巨魔牧师</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_forest_trolls/n_creep_forest_troll_high_priest.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_23</t>
+  </si>
+  <si>
+    <t>丘陵巨魔</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_troll_dark_a/n_creep_troll_dark_a.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_24</t>
+  </si>
+  <si>
+    <t>远古岚肤兽</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_thunder_lizard/n_creep_thunder_lizard_small.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_25</t>
+  </si>
+  <si>
+    <t>远古侍僧潜行者</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_satyr_spawn_a/n_creep_satyr_spawn_b.vmdl</t>
   </si>
 </sst>
 </file>
@@ -463,7 +448,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +478,11 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -652,7 +642,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,12 +664,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,153 +1094,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1296,30 +1280,36 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1341,9 +1331,6 @@
     <xf numFmtId="177" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1356,7 +1343,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1725,19 +1712,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AE3" sqref="AE3"/>
+      <selection pane="topRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.5083333333333" customWidth="1"/>
-    <col min="2" max="2" width="15.0083333333333" customWidth="1"/>
-    <col min="3" max="3" width="13.675" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
     <col min="4" max="4" width="12.3416666666667" customWidth="1"/>
     <col min="5" max="5" width="16.0083333333333" customWidth="1"/>
     <col min="6" max="6" width="11.5083333333333" style="4" customWidth="1"/>
@@ -1794,7 +1781,7 @@
       <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="7" t="s">
@@ -1819,7 +1806,7 @@
       <c r="Q1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="S1" s="7"/>
@@ -1828,7 +1815,7 @@
       <c r="V1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="25" t="s">
         <v>17</v>
       </c>
       <c r="X1" s="7" t="s">
@@ -1856,7 +1843,7 @@
         <v>25</v>
       </c>
       <c r="AF1" s="7"/>
-      <c r="AG1" s="30"/>
+      <c r="AG1" s="31"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="39" customHeight="1" spans="1:33">
       <c r="A2" s="9" t="s">
@@ -1873,7 +1860,7 @@
       <c r="H2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="20" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="10" t="s">
@@ -1898,7 +1885,7 @@
       <c r="Q2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="26" t="s">
         <v>37</v>
       </c>
       <c r="S2" s="10" t="s">
@@ -1913,7 +1900,7 @@
       <c r="V2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="27" t="s">
         <v>42</v>
       </c>
       <c r="X2" s="10" t="s">
@@ -1941,7 +1928,7 @@
         <v>50</v>
       </c>
       <c r="AF2" s="10"/>
-      <c r="AG2" s="31"/>
+      <c r="AG2" s="32"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A3" s="12" t="s">
@@ -1951,113 +1938,113 @@
         <v>52</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="13">
+        <v>52</v>
+      </c>
+      <c r="D3" s="14">
         <v>1</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="15">
         <v>5</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="15">
         <f>E3</f>
         <v>5</v>
       </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="13">
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="14">
         <f>F3</f>
         <v>5</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="14">
         <v>1</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="14">
         <f>J3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="14">
         <v>1.5</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="14">
         <v>125</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="P3" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>1</v>
+      </c>
+      <c r="R3" s="28">
+        <v>170</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>1</v>
-      </c>
-      <c r="R3" s="26">
-        <v>170</v>
-      </c>
-      <c r="S3" s="13" t="s">
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14">
+        <v>250</v>
+      </c>
+      <c r="W3" s="29">
+        <v>180</v>
+      </c>
+      <c r="X3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13">
-        <v>250</v>
-      </c>
-      <c r="W3" s="27">
-        <v>180</v>
-      </c>
-      <c r="X3" s="13" t="s">
+      <c r="Y3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Z3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="AA3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AA3" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AD3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE3" s="13">
+      <c r="AE3" s="14">
         <v>20000</v>
       </c>
-      <c r="AF3" s="13">
+      <c r="AF3" s="14">
         <v>10</v>
       </c>
-      <c r="AG3" s="32">
+      <c r="AG3" s="33">
         <v>10</v>
       </c>
-      <c r="AH3" s="33" t="str">
+      <c r="AH3" s="34" t="str">
         <f>IF(AF3&lt;=AG3,"","数据出错")</f>
         <v/>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="C4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="14">
         <v>2</v>
       </c>
       <c r="E4" s="16">
@@ -2070,202 +2057,202 @@
       <c r="G4" s="16">
         <v>0</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="13">
+      <c r="H4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="14">
         <f t="shared" ref="I4:I27" si="1">F4</f>
         <v>15</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="22">
         <v>6</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="22">
         <f>J4</f>
         <v>6</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="22">
         <v>1.5</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="22">
         <v>125</v>
       </c>
-      <c r="N4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="15">
+      <c r="N4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="22">
         <v>1</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="14">
         <v>1</v>
       </c>
       <c r="R4" s="28">
         <v>170</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22">
+        <v>250</v>
+      </c>
+      <c r="W4" s="30">
+        <v>180</v>
+      </c>
+      <c r="X4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15">
-        <v>250</v>
-      </c>
-      <c r="W4" s="29">
-        <v>180</v>
-      </c>
-      <c r="X4" s="15" t="s">
+      <c r="Y4" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Z4" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="AA4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AA4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AD4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE4" s="15">
+      <c r="AE4" s="22">
         <v>20000</v>
       </c>
-      <c r="AF4" s="15">
+      <c r="AF4" s="22">
         <v>10</v>
       </c>
-      <c r="AG4" s="34">
+      <c r="AG4" s="35">
         <v>10</v>
       </c>
-      <c r="AH4" s="33" t="str">
+      <c r="AH4" s="34" t="str">
         <f t="shared" ref="AH4:AH32" si="2">IF(AF4&lt;=AG4,"","数据出错")</f>
         <v/>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A5" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="13">
+        <v>66</v>
+      </c>
+      <c r="D5" s="14">
         <v>3</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="15">
         <v>35</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="13">
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="14">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="14">
         <v>9</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="14">
         <f t="shared" ref="K5:K32" si="3">J5</f>
         <v>9</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="14">
         <v>1.5</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="14">
         <v>125</v>
       </c>
-      <c r="N5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="13">
+      <c r="N5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="14">
         <v>1</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="14">
         <v>1</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="28">
         <v>170</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14">
+        <v>250</v>
+      </c>
+      <c r="W5" s="29">
+        <v>180</v>
+      </c>
+      <c r="X5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13">
-        <v>250</v>
-      </c>
-      <c r="W5" s="27">
-        <v>180</v>
-      </c>
-      <c r="X5" s="13" t="s">
+      <c r="Y5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="Z5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z5" s="13" t="s">
+      <c r="AA5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AA5" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="13" t="s">
+      <c r="AD5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE5" s="13">
+      <c r="AE5" s="14">
         <v>20000</v>
       </c>
-      <c r="AF5" s="13">
+      <c r="AF5" s="14">
         <v>10</v>
       </c>
-      <c r="AG5" s="32">
+      <c r="AG5" s="33">
         <v>10</v>
       </c>
-      <c r="AH5" s="33" t="str">
+      <c r="AH5" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A6" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="15">
+        <v>69</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="14">
         <v>4</v>
       </c>
       <c r="E6" s="16">
@@ -2278,202 +2265,202 @@
       <c r="G6" s="16">
         <v>0</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="13">
+      <c r="H6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="14">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="22">
         <v>10</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="22">
         <v>1.5</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="22">
         <v>125</v>
       </c>
-      <c r="N6" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="15">
+      <c r="N6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="22">
         <v>1</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="14">
         <v>1</v>
       </c>
       <c r="R6" s="28">
         <v>170</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22">
+        <v>250</v>
+      </c>
+      <c r="W6" s="30">
+        <v>180</v>
+      </c>
+      <c r="X6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15">
-        <v>250</v>
-      </c>
-      <c r="W6" s="29">
-        <v>180</v>
-      </c>
-      <c r="X6" s="15" t="s">
+      <c r="Y6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="Y6" s="15" t="s">
+      <c r="Z6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="Z6" s="15" t="s">
+      <c r="AA6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AA6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="15" t="s">
+      <c r="AD6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE6" s="15">
+      <c r="AE6" s="22">
         <v>20000</v>
       </c>
-      <c r="AF6" s="15">
+      <c r="AF6" s="22">
         <v>10</v>
       </c>
-      <c r="AG6" s="34">
+      <c r="AG6" s="35">
         <v>10</v>
       </c>
-      <c r="AH6" s="33" t="str">
+      <c r="AH6" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A7" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="13">
+        <v>71</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="14">
         <v>5</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="15">
         <v>180</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="15">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="15">
         <v>10</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="13">
+      <c r="H7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="14">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="14">
         <v>20</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="14">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="14">
         <v>1.5</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="14">
         <v>125</v>
       </c>
-      <c r="N7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" s="13">
+      <c r="N7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="14">
         <v>1.1</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="14">
         <v>1</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="28">
         <v>170</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14">
+        <v>200</v>
+      </c>
+      <c r="W7" s="29">
+        <v>180</v>
+      </c>
+      <c r="X7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13">
-        <v>200</v>
-      </c>
-      <c r="W7" s="27">
-        <v>180</v>
-      </c>
-      <c r="X7" s="13" t="s">
+      <c r="Y7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Y7" s="13" t="s">
+      <c r="Z7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z7" s="13" t="s">
+      <c r="AA7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AA7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="13" t="s">
+      <c r="AD7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE7" s="13">
+      <c r="AE7" s="14">
         <v>20000</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AF7" s="14">
         <v>1</v>
       </c>
-      <c r="AG7" s="32">
+      <c r="AG7" s="33">
         <v>1</v>
       </c>
-      <c r="AH7" s="33" t="str">
+      <c r="AH7" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A8" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="15">
+        <v>74</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="14">
         <v>6</v>
       </c>
       <c r="E8" s="16">
@@ -2486,1539 +2473,2059 @@
       <c r="G8" s="16">
         <v>0</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="H8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="14">
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="22">
         <v>22</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="22">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="22">
         <v>1.5</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="22">
         <v>125</v>
       </c>
-      <c r="N8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="P8" s="15">
+      <c r="N8" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="22">
         <v>1.1</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="14">
         <v>1</v>
       </c>
       <c r="R8" s="28">
         <v>170</v>
       </c>
-      <c r="S8" s="13" t="s">
+      <c r="S8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22">
+        <v>250</v>
+      </c>
+      <c r="W8" s="30">
+        <v>180</v>
+      </c>
+      <c r="X8" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15">
-        <v>250</v>
-      </c>
-      <c r="W8" s="29">
-        <v>180</v>
-      </c>
-      <c r="X8" s="15" t="s">
+      <c r="Y8" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="Y8" s="15" t="s">
+      <c r="Z8" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="Z8" s="15" t="s">
+      <c r="AA8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AA8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="15" t="s">
+      <c r="AD8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD8" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE8" s="15">
+      <c r="AE8" s="22">
         <v>20000</v>
       </c>
-      <c r="AF8" s="15">
+      <c r="AF8" s="22">
         <v>11</v>
       </c>
-      <c r="AG8" s="34">
+      <c r="AG8" s="35">
         <v>11</v>
       </c>
-      <c r="AH8" s="33" t="str">
+      <c r="AH8" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A9" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="13">
+        <v>77</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="14">
         <v>7</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="15">
         <v>500</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="15">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="G9" s="14">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="14">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="14">
         <v>25</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="14">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="14">
         <v>1.5</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="14">
         <v>125</v>
       </c>
-      <c r="N9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" s="13">
+      <c r="N9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="14">
         <v>1.3</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="14">
         <v>1</v>
       </c>
-      <c r="R9" s="26">
-        <v>190</v>
-      </c>
-      <c r="S9" s="13" t="s">
+      <c r="R9" s="28">
+        <v>170</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14">
+        <v>250</v>
+      </c>
+      <c r="W9" s="29">
+        <v>180</v>
+      </c>
+      <c r="X9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13">
-        <v>250</v>
-      </c>
-      <c r="W9" s="27">
-        <v>180</v>
-      </c>
-      <c r="X9" s="13" t="s">
+      <c r="Y9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Y9" s="13" t="s">
+      <c r="Z9" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z9" s="13" t="s">
+      <c r="AA9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AA9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="13" t="s">
+      <c r="AD9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD9" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE9" s="13">
+      <c r="AE9" s="14">
         <v>20000</v>
       </c>
-      <c r="AF9" s="13">
+      <c r="AF9" s="14">
         <v>11</v>
       </c>
-      <c r="AG9" s="32">
+      <c r="AG9" s="33">
         <v>11</v>
       </c>
-      <c r="AH9" s="33" t="str">
+      <c r="AH9" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A10" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="15">
+        <v>80</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="14">
         <v>8</v>
       </c>
       <c r="E10" s="16">
         <v>700</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="15">
         <f t="shared" ref="F10:F32" si="4">E10</f>
         <v>700</v>
       </c>
       <c r="G10" s="16">
         <v>0</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="13">
+      <c r="H10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="14">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="22">
         <v>28</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="22">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="22">
         <v>1.5</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="22">
         <v>125</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="P10" s="15">
+      <c r="N10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="22">
         <v>1.3</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="14">
         <v>1</v>
       </c>
       <c r="R10" s="28">
-        <v>190</v>
-      </c>
-      <c r="S10" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22">
+        <v>250</v>
+      </c>
+      <c r="W10" s="30">
+        <v>180</v>
+      </c>
+      <c r="X10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15">
-        <v>250</v>
-      </c>
-      <c r="W10" s="29">
-        <v>180</v>
-      </c>
-      <c r="X10" s="15" t="s">
+      <c r="Y10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="Y10" s="15" t="s">
+      <c r="Z10" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="Z10" s="15" t="s">
+      <c r="AA10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AA10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="15" t="s">
+      <c r="AD10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD10" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE10" s="15">
+      <c r="AE10" s="22">
         <v>20000</v>
       </c>
-      <c r="AF10" s="15">
+      <c r="AF10" s="22">
         <v>11</v>
       </c>
-      <c r="AG10" s="34">
+      <c r="AG10" s="35">
         <v>11</v>
       </c>
-      <c r="AH10" s="33" t="str">
+      <c r="AH10" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A11" s="12" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="13">
+        <v>84</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="14">
         <v>9</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="15">
         <v>1050</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="15">
         <f t="shared" si="4"/>
         <v>1050</v>
       </c>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="13">
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="14">
         <f t="shared" si="1"/>
         <v>1050</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="14">
         <v>31</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="14">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="14">
         <v>1.5</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="14">
         <v>125</v>
       </c>
-      <c r="N11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" s="13">
+      <c r="N11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="14">
         <v>1.3</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="14">
         <v>1</v>
       </c>
-      <c r="R11" s="26">
+      <c r="R11" s="28">
+        <v>170</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14">
+        <v>250</v>
+      </c>
+      <c r="W11" s="29">
         <v>180</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="X11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13">
-        <v>250</v>
-      </c>
-      <c r="W11" s="27">
-        <v>180</v>
-      </c>
-      <c r="X11" s="13" t="s">
+      <c r="Y11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="13" t="s">
+      <c r="Z11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z11" s="13" t="s">
+      <c r="AA11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AA11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="13" t="s">
+      <c r="AD11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD11" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE11" s="13">
+      <c r="AE11" s="14">
         <v>20000</v>
       </c>
-      <c r="AF11" s="13">
+      <c r="AF11" s="14">
         <v>11</v>
       </c>
-      <c r="AG11" s="32">
+      <c r="AG11" s="33">
         <v>11</v>
       </c>
-      <c r="AH11" s="33" t="str">
+      <c r="AH11" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A12" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="15">
+        <v>86</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="14">
         <v>10</v>
       </c>
       <c r="E12" s="16">
         <v>1500</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="15">
         <f t="shared" si="4"/>
         <v>1500</v>
       </c>
       <c r="G12" s="16">
         <v>0</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="13">
+      <c r="H12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="14">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="22">
         <v>34</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="22">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="22">
         <v>1.5</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="22">
         <v>125</v>
       </c>
-      <c r="N12" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" s="15">
+      <c r="N12" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" s="22">
         <v>1.3</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="14">
         <v>1</v>
       </c>
       <c r="R12" s="28">
-        <v>190</v>
-      </c>
-      <c r="S12" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22">
+        <v>200</v>
+      </c>
+      <c r="W12" s="30">
+        <v>180</v>
+      </c>
+      <c r="X12" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15">
-        <v>200</v>
-      </c>
-      <c r="W12" s="29">
-        <v>180</v>
-      </c>
-      <c r="X12" s="15" t="s">
+      <c r="Y12" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="15" t="s">
+      <c r="Z12" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="Z12" s="15" t="s">
+      <c r="AA12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AA12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="15" t="s">
+      <c r="AD12" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD12" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE12" s="15">
+      <c r="AE12" s="22">
         <v>20000</v>
       </c>
-      <c r="AF12" s="15">
+      <c r="AF12" s="22">
         <v>1</v>
       </c>
-      <c r="AG12" s="34">
+      <c r="AG12" s="35">
         <v>1</v>
       </c>
-      <c r="AH12" s="33" t="str">
+      <c r="AH12" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A13" s="12" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="13">
+        <v>90</v>
+      </c>
+      <c r="D13" s="14">
         <v>11</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="15">
         <v>2000</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="15">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="13">
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="14">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="14">
         <v>37</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="14">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="14">
         <v>1.5</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="14">
         <v>125</v>
       </c>
-      <c r="N13" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="P13" s="13">
+      <c r="N13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="14">
         <v>1.4</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="14">
         <v>1</v>
       </c>
-      <c r="R13" s="26">
-        <v>195</v>
-      </c>
-      <c r="S13" s="13" t="s">
+      <c r="R13" s="28">
+        <v>170</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14">
+        <v>250</v>
+      </c>
+      <c r="W13" s="29">
+        <v>180</v>
+      </c>
+      <c r="X13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13">
-        <v>250</v>
-      </c>
-      <c r="W13" s="27">
-        <v>180</v>
-      </c>
-      <c r="X13" s="13" t="s">
+      <c r="Y13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="13" t="s">
+      <c r="Z13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z13" s="13" t="s">
+      <c r="AA13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AA13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="13" t="s">
+      <c r="AD13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD13" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE13" s="13">
+      <c r="AE13" s="14">
         <v>20000</v>
       </c>
-      <c r="AF13" s="13">
+      <c r="AF13" s="14">
         <v>12</v>
       </c>
-      <c r="AG13" s="32">
+      <c r="AG13" s="33">
         <v>12</v>
       </c>
-      <c r="AH13" s="33" t="str">
+      <c r="AH13" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A14" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="15">
+        <v>92</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="14">
         <v>12</v>
       </c>
       <c r="E14" s="16">
         <v>2800</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="15">
         <f t="shared" si="4"/>
         <v>2800</v>
       </c>
       <c r="G14" s="16">
         <v>20</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="13">
+      <c r="H14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="14">
         <f t="shared" si="1"/>
         <v>2800</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="22">
         <v>40</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="22">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="22">
         <v>1.5</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="22">
         <v>125</v>
       </c>
-      <c r="N14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="P14" s="15">
+      <c r="N14" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="22">
         <v>1.4</v>
       </c>
-      <c r="Q14" s="13">
-        <v>1.5</v>
+      <c r="Q14" s="14">
+        <v>1</v>
       </c>
       <c r="R14" s="28">
-        <v>210</v>
-      </c>
-      <c r="S14" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22">
+        <v>150</v>
+      </c>
+      <c r="W14" s="30">
+        <v>180</v>
+      </c>
+      <c r="X14" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15">
-        <v>150</v>
-      </c>
-      <c r="W14" s="29">
-        <v>180</v>
-      </c>
-      <c r="X14" s="15" t="s">
+      <c r="Y14" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="15" t="s">
+      <c r="Z14" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="Z14" s="15" t="s">
+      <c r="AA14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AA14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="15" t="s">
+      <c r="AD14" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD14" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE14" s="15">
+      <c r="AE14" s="22">
         <v>20000</v>
       </c>
-      <c r="AF14" s="15">
+      <c r="AF14" s="22">
         <v>12</v>
       </c>
-      <c r="AG14" s="34">
+      <c r="AG14" s="35">
         <v>12</v>
       </c>
-      <c r="AH14" s="33" t="str">
+      <c r="AH14" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A15" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="13">
+        <v>95</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="14">
         <v>13</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="15">
         <v>3500</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="15">
         <f t="shared" si="4"/>
         <v>3500</v>
       </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="13">
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="14">
         <f t="shared" si="1"/>
         <v>3500</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="14">
         <v>43</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="14">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="14">
         <v>1.5</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="14">
         <v>125</v>
       </c>
-      <c r="N15" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="P15" s="13">
+      <c r="N15" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" s="14">
         <v>1.4</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="14">
         <v>1</v>
       </c>
-      <c r="R15" s="26">
-        <v>210</v>
-      </c>
-      <c r="S15" s="13" t="s">
+      <c r="R15" s="28">
+        <v>170</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14">
+        <v>250</v>
+      </c>
+      <c r="W15" s="29">
+        <v>180</v>
+      </c>
+      <c r="X15" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13">
-        <v>250</v>
-      </c>
-      <c r="W15" s="27">
-        <v>180</v>
-      </c>
-      <c r="X15" s="13" t="s">
+      <c r="Y15" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="13" t="s">
+      <c r="Z15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z15" s="13" t="s">
+      <c r="AA15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AA15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="13" t="s">
+      <c r="AD15" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD15" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE15" s="13">
+      <c r="AE15" s="14">
         <v>20000</v>
       </c>
-      <c r="AF15" s="13">
+      <c r="AF15" s="14">
         <v>12</v>
       </c>
-      <c r="AG15" s="32">
+      <c r="AG15" s="33">
         <v>12</v>
       </c>
-      <c r="AH15" s="33" t="str">
+      <c r="AH15" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A16" s="12" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="15">
+        <v>99</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="14">
         <v>14</v>
       </c>
       <c r="E16" s="16">
         <v>4200</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="15">
         <f t="shared" si="4"/>
         <v>4200</v>
       </c>
       <c r="G16" s="16">
         <v>0</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="13">
+      <c r="H16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="14">
         <f t="shared" si="1"/>
         <v>4200</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="22">
         <v>46</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="22">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="22">
         <v>1.5</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="22">
         <v>125</v>
       </c>
-      <c r="N16" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="P16" s="15">
+      <c r="N16" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="22">
         <v>1.4</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="14">
         <v>1</v>
       </c>
       <c r="R16" s="28">
-        <v>210</v>
-      </c>
-      <c r="S16" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22">
+        <v>200</v>
+      </c>
+      <c r="W16" s="30">
+        <v>180</v>
+      </c>
+      <c r="X16" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15">
-        <v>200</v>
-      </c>
-      <c r="W16" s="29">
-        <v>180</v>
-      </c>
-      <c r="X16" s="15" t="s">
+      <c r="Y16" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="15" t="s">
+      <c r="Z16" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="Z16" s="15" t="s">
+      <c r="AA16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AA16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="15" t="s">
+      <c r="AD16" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD16" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE16" s="15">
+      <c r="AE16" s="22">
         <v>20000</v>
       </c>
-      <c r="AF16" s="15">
+      <c r="AF16" s="22">
         <v>12</v>
       </c>
-      <c r="AG16" s="34">
+      <c r="AG16" s="35">
         <v>12</v>
       </c>
-      <c r="AH16" s="33" t="str">
+      <c r="AH16" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A17" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="13">
+        <v>101</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="14">
         <v>15</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="15">
         <v>5000</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="15">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G17" s="14">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="13">
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="14">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="14">
         <v>49</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="14">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="14">
         <v>1.5</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="14">
         <v>125</v>
       </c>
-      <c r="N17" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O17" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="P17" s="13">
+      <c r="N17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="14">
         <v>1.4</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="14">
         <v>1</v>
       </c>
-      <c r="R17" s="26">
-        <v>210</v>
-      </c>
-      <c r="S17" s="13" t="s">
+      <c r="R17" s="28">
+        <v>170</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14">
+        <v>200</v>
+      </c>
+      <c r="W17" s="29">
+        <v>180</v>
+      </c>
+      <c r="X17" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13">
-        <v>200</v>
-      </c>
-      <c r="W17" s="27">
-        <v>180</v>
-      </c>
-      <c r="X17" s="13" t="s">
+      <c r="Y17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="13" t="s">
+      <c r="Z17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z17" s="13" t="s">
+      <c r="AA17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AA17" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="13" t="s">
+      <c r="AD17" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD17" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE17" s="13">
+      <c r="AE17" s="14">
         <v>20000</v>
       </c>
-      <c r="AF17" s="13">
+      <c r="AF17" s="14">
         <v>1</v>
       </c>
-      <c r="AG17" s="32">
+      <c r="AG17" s="33">
         <v>1</v>
       </c>
-      <c r="AH17" s="33" t="str">
+      <c r="AH17" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A18" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="15">
+        <v>104</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="14">
         <v>16</v>
       </c>
       <c r="E18" s="16">
         <v>6200</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="15">
         <f t="shared" si="4"/>
         <v>6200</v>
       </c>
       <c r="G18" s="16">
         <v>0</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="13">
+      <c r="H18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="14">
         <f t="shared" si="1"/>
         <v>6200</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="22">
         <v>52</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="22">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="22">
         <v>1.5</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="22">
         <v>125</v>
       </c>
-      <c r="N18" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O18" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="P18" s="15">
+      <c r="N18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" s="22">
         <v>1.4</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="14">
         <v>1</v>
       </c>
       <c r="R18" s="28">
-        <v>220</v>
-      </c>
-      <c r="S18" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22">
+        <v>300</v>
+      </c>
+      <c r="W18" s="30">
+        <v>180</v>
+      </c>
+      <c r="X18" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15">
-        <v>300</v>
-      </c>
-      <c r="W18" s="29">
-        <v>180</v>
-      </c>
-      <c r="X18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y18" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z18" s="15" t="s">
+      <c r="Y18" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z18" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AA18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="15" t="s">
+      <c r="AD18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD18" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE18" s="15">
+      <c r="AE18" s="22">
         <v>20000</v>
       </c>
-      <c r="AF18" s="15">
+      <c r="AF18" s="22">
         <v>13</v>
       </c>
-      <c r="AG18" s="34">
+      <c r="AG18" s="35">
         <v>13</v>
       </c>
-      <c r="AH18" s="33" t="str">
+      <c r="AH18" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A19" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="13">
+        <v>108</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="14">
         <v>17</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="15">
         <v>7349</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="15">
         <f t="shared" si="4"/>
         <v>7349</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="15">
         <v>30</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="13">
+      <c r="H19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="14">
         <f t="shared" si="1"/>
         <v>7349</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="14">
         <v>55</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="14">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="14">
         <v>1.5</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="14">
         <v>125</v>
       </c>
-      <c r="N19" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="P19" s="13">
+      <c r="N19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="14">
         <v>1.4</v>
       </c>
-      <c r="Q19" s="13">
-        <v>2</v>
-      </c>
-      <c r="R19" s="26">
-        <v>330</v>
-      </c>
-      <c r="S19" s="13" t="s">
+      <c r="Q19" s="14">
+        <v>1</v>
+      </c>
+      <c r="R19" s="28">
+        <v>170</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14">
+        <v>100</v>
+      </c>
+      <c r="W19" s="29">
+        <v>180</v>
+      </c>
+      <c r="X19" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13">
-        <v>100</v>
-      </c>
-      <c r="W19" s="27">
-        <v>180</v>
-      </c>
-      <c r="X19" s="13" t="s">
+      <c r="Y19" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Y19" s="13" t="s">
+      <c r="Z19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z19" s="13" t="s">
+      <c r="AA19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AA19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="13" t="s">
+      <c r="AD19" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD19" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE19" s="13">
+      <c r="AE19" s="14">
         <v>20000</v>
       </c>
-      <c r="AF19" s="13">
+      <c r="AF19" s="14">
         <v>13</v>
       </c>
-      <c r="AG19" s="32">
+      <c r="AG19" s="33">
         <v>13</v>
       </c>
-      <c r="AH19" s="33" t="str">
+      <c r="AH19" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A20" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="15">
+        <v>111</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="14">
         <v>18</v>
       </c>
       <c r="E20" s="16">
         <v>9200</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="15">
         <f t="shared" si="4"/>
         <v>9200</v>
       </c>
       <c r="G20" s="16">
         <v>0</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="13">
+      <c r="H20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="14">
         <f t="shared" si="1"/>
         <v>9200</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="22">
         <v>58</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="22">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="22">
         <v>1.5</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="22">
         <v>125</v>
       </c>
-      <c r="N20" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O20" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="P20" s="15">
+      <c r="N20" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="P20" s="22">
         <v>1.4</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="14">
         <v>1</v>
       </c>
       <c r="R20" s="28">
-        <v>240</v>
-      </c>
-      <c r="S20" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22">
+        <v>200</v>
+      </c>
+      <c r="W20" s="30">
+        <v>180</v>
+      </c>
+      <c r="X20" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15">
-        <v>200</v>
-      </c>
-      <c r="W20" s="29">
-        <v>180</v>
-      </c>
-      <c r="X20" s="15" t="s">
+      <c r="Y20" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="Y20" s="15" t="s">
+      <c r="Z20" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="Z20" s="15" t="s">
+      <c r="AA20" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AA20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="15" t="s">
+      <c r="AD20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD20" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE20" s="15">
+      <c r="AE20" s="22">
         <v>20000</v>
       </c>
-      <c r="AF20" s="15">
+      <c r="AF20" s="22">
         <v>13</v>
       </c>
-      <c r="AG20" s="34">
+      <c r="AG20" s="35">
         <v>13</v>
       </c>
-      <c r="AH20" s="33" t="str">
+      <c r="AH20" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A21" s="12" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="13">
+        <v>115</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="14">
         <v>19</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="15">
         <v>12000</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="15">
         <f t="shared" si="4"/>
         <v>12000</v>
       </c>
-      <c r="G21" s="14">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="13">
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="14">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="14">
         <v>61</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="14">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="14">
         <v>1.5</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="14">
         <v>125</v>
       </c>
-      <c r="N21" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O21" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="P21" s="13">
+      <c r="N21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="P21" s="14">
         <v>1.4</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="14">
         <v>1</v>
       </c>
-      <c r="R21" s="26">
-        <v>210</v>
-      </c>
-      <c r="S21" s="13" t="s">
+      <c r="R21" s="28">
+        <v>170</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14">
+        <v>200</v>
+      </c>
+      <c r="W21" s="29">
+        <v>180</v>
+      </c>
+      <c r="X21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13">
-        <v>200</v>
-      </c>
-      <c r="W21" s="27">
-        <v>180</v>
-      </c>
-      <c r="X21" s="13" t="s">
+      <c r="Y21" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Y21" s="13" t="s">
+      <c r="Z21" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z21" s="13" t="s">
+      <c r="AA21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AA21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="13" t="s">
+      <c r="AD21" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD21" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE21" s="13">
+      <c r="AE21" s="14">
         <v>20000</v>
       </c>
-      <c r="AF21" s="13">
+      <c r="AF21" s="14">
         <v>13</v>
       </c>
-      <c r="AG21" s="32">
+      <c r="AG21" s="33">
         <v>13</v>
       </c>
-      <c r="AH21" s="33" t="str">
+      <c r="AH21" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A22" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="15">
+        <v>117</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="14">
         <v>20</v>
       </c>
       <c r="E22" s="16">
         <v>15000</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="15">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="G22" s="14">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="13">
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="14">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="22">
         <v>64</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="22">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="22">
         <v>1.5</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="22">
         <v>125</v>
       </c>
-      <c r="N22" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="P22" s="15">
+      <c r="N22" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="22">
         <v>1.4</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="14">
         <v>1</v>
       </c>
       <c r="R22" s="28">
-        <v>210</v>
-      </c>
-      <c r="S22" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22">
+        <v>200</v>
+      </c>
+      <c r="W22" s="30">
+        <v>180</v>
+      </c>
+      <c r="X22" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15">
+      <c r="Y22" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z22" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA22" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD22" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE22" s="22">
+        <v>20000</v>
+      </c>
+      <c r="AF22" s="22">
+        <v>13</v>
+      </c>
+      <c r="AG22" s="35">
+        <v>13</v>
+      </c>
+      <c r="AH22" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+      <c r="A23" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="14">
+        <v>21</v>
+      </c>
+      <c r="E23" s="16">
+        <v>15000</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="4"/>
+        <v>15000</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="J23" s="22">
+        <v>64</v>
+      </c>
+      <c r="K23" s="22">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="L23" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="M23" s="22">
+        <v>125</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>1</v>
+      </c>
+      <c r="R23" s="28">
+        <v>170</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22">
         <v>200</v>
       </c>
-      <c r="W22" s="29">
+      <c r="W23" s="30">
         <v>180</v>
       </c>
-      <c r="X22" s="15" t="s">
+      <c r="X23" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y23" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="Y22" s="15" t="s">
+      <c r="Z23" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="Z22" s="15" t="s">
+      <c r="AA23" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AA22" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="15" t="s">
+      <c r="AD23" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD22" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE22" s="15">
+      <c r="AE23" s="22">
         <v>20000</v>
       </c>
-      <c r="AF22" s="15">
+      <c r="AF23" s="22">
         <v>13</v>
       </c>
-      <c r="AG22" s="34">
+      <c r="AG23" s="35">
         <v>13</v>
       </c>
-      <c r="AH22" s="33" t="str">
+      <c r="AH23" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+      <c r="A24" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="14">
+        <v>22</v>
+      </c>
+      <c r="E24" s="16">
+        <v>15000</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="4"/>
+        <v>15000</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="J24" s="22">
+        <v>64</v>
+      </c>
+      <c r="K24" s="22">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="L24" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="M24" s="22">
+        <v>125</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>1</v>
+      </c>
+      <c r="R24" s="28">
+        <v>170</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22">
+        <v>200</v>
+      </c>
+      <c r="W24" s="30">
+        <v>180</v>
+      </c>
+      <c r="X24" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y24" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z24" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA24" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD24" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE24" s="22">
+        <v>20000</v>
+      </c>
+      <c r="AF24" s="22">
+        <v>13</v>
+      </c>
+      <c r="AG24" s="35">
+        <v>13</v>
+      </c>
+      <c r="AH24" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+      <c r="A25" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="14">
+        <v>23</v>
+      </c>
+      <c r="E25" s="16">
+        <v>15000</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="4"/>
+        <v>15000</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="J25" s="22">
+        <v>64</v>
+      </c>
+      <c r="K25" s="22">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="L25" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="M25" s="22">
+        <v>125</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="P25" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>1</v>
+      </c>
+      <c r="R25" s="28">
+        <v>170</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22">
+        <v>200</v>
+      </c>
+      <c r="W25" s="30">
+        <v>180</v>
+      </c>
+      <c r="X25" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y25" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z25" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA25" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE25" s="22">
+        <v>20000</v>
+      </c>
+      <c r="AF25" s="22">
+        <v>13</v>
+      </c>
+      <c r="AG25" s="35">
+        <v>13</v>
+      </c>
+      <c r="AH25" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+      <c r="A26" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="14">
+        <v>24</v>
+      </c>
+      <c r="E26" s="16">
+        <v>15000</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="4"/>
+        <v>15000</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="J26" s="22">
+        <v>64</v>
+      </c>
+      <c r="K26" s="22">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="L26" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="M26" s="22">
+        <v>125</v>
+      </c>
+      <c r="N26" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="P26" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>1</v>
+      </c>
+      <c r="R26" s="28">
+        <v>170</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22">
+        <v>200</v>
+      </c>
+      <c r="W26" s="30">
+        <v>180</v>
+      </c>
+      <c r="X26" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y26" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z26" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA26" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE26" s="22">
+        <v>20000</v>
+      </c>
+      <c r="AF26" s="22">
+        <v>13</v>
+      </c>
+      <c r="AG26" s="35">
+        <v>13</v>
+      </c>
+      <c r="AH26" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+      <c r="A27" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="14">
+        <v>25</v>
+      </c>
+      <c r="E27" s="16">
+        <v>15000</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="4"/>
+        <v>15000</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="J27" s="22">
+        <v>64</v>
+      </c>
+      <c r="K27" s="22">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="L27" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="M27" s="22">
+        <v>125</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O27" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="P27" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>1</v>
+      </c>
+      <c r="R27" s="28">
+        <v>170</v>
+      </c>
+      <c r="S27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22">
+        <v>200</v>
+      </c>
+      <c r="W27" s="30">
+        <v>180</v>
+      </c>
+      <c r="X27" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y27" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z27" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA27" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD27" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE27" s="22">
+        <v>20000</v>
+      </c>
+      <c r="AF27" s="22">
+        <v>13</v>
+      </c>
+      <c r="AG27" s="35">
+        <v>13</v>
+      </c>
+      <c r="AH27" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>

--- a/excels/units/monster/normal.xlsx
+++ b/excels/units/monster/normal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="2" r:id="rId1"/>
@@ -1715,9 +1715,9 @@
   <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L4" sqref="L4"/>
+      <selection pane="topRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1971,7 +1971,7 @@
         <v>1.5</v>
       </c>
       <c r="M3" s="14">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>54</v>
@@ -2074,8 +2074,8 @@
       <c r="L4" s="22">
         <v>1.5</v>
       </c>
-      <c r="M4" s="22">
-        <v>125</v>
+      <c r="M4" s="14">
+        <v>25</v>
       </c>
       <c r="N4" s="22" t="s">
         <v>54</v>
@@ -2179,7 +2179,7 @@
         <v>1.5</v>
       </c>
       <c r="M5" s="14">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N5" s="14" t="s">
         <v>54</v>
@@ -2282,8 +2282,8 @@
       <c r="L6" s="22">
         <v>1.5</v>
       </c>
-      <c r="M6" s="22">
-        <v>125</v>
+      <c r="M6" s="14">
+        <v>25</v>
       </c>
       <c r="N6" s="22" t="s">
         <v>54</v>
@@ -2387,7 +2387,7 @@
         <v>1.5</v>
       </c>
       <c r="M7" s="14">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>54</v>
@@ -2490,8 +2490,8 @@
       <c r="L8" s="22">
         <v>1.5</v>
       </c>
-      <c r="M8" s="22">
-        <v>125</v>
+      <c r="M8" s="14">
+        <v>25</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>54</v>
@@ -2595,7 +2595,7 @@
         <v>1.5</v>
       </c>
       <c r="M9" s="14">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>54</v>
@@ -2698,8 +2698,8 @@
       <c r="L10" s="22">
         <v>1.5</v>
       </c>
-      <c r="M10" s="22">
-        <v>125</v>
+      <c r="M10" s="14">
+        <v>25</v>
       </c>
       <c r="N10" s="22" t="s">
         <v>54</v>
@@ -2803,7 +2803,7 @@
         <v>1.5</v>
       </c>
       <c r="M11" s="14">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N11" s="14" t="s">
         <v>54</v>
@@ -2906,8 +2906,8 @@
       <c r="L12" s="22">
         <v>1.5</v>
       </c>
-      <c r="M12" s="22">
-        <v>125</v>
+      <c r="M12" s="14">
+        <v>25</v>
       </c>
       <c r="N12" s="22" t="s">
         <v>54</v>
@@ -3011,7 +3011,7 @@
         <v>1.5</v>
       </c>
       <c r="M13" s="14">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>54</v>
@@ -3114,8 +3114,8 @@
       <c r="L14" s="22">
         <v>1.5</v>
       </c>
-      <c r="M14" s="22">
-        <v>125</v>
+      <c r="M14" s="14">
+        <v>25</v>
       </c>
       <c r="N14" s="22" t="s">
         <v>54</v>
@@ -3219,7 +3219,7 @@
         <v>1.5</v>
       </c>
       <c r="M15" s="14">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N15" s="14" t="s">
         <v>54</v>
@@ -3322,8 +3322,8 @@
       <c r="L16" s="22">
         <v>1.5</v>
       </c>
-      <c r="M16" s="22">
-        <v>125</v>
+      <c r="M16" s="14">
+        <v>25</v>
       </c>
       <c r="N16" s="22" t="s">
         <v>54</v>
@@ -3427,7 +3427,7 @@
         <v>1.5</v>
       </c>
       <c r="M17" s="14">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N17" s="14" t="s">
         <v>54</v>
@@ -3530,8 +3530,8 @@
       <c r="L18" s="22">
         <v>1.5</v>
       </c>
-      <c r="M18" s="22">
-        <v>125</v>
+      <c r="M18" s="14">
+        <v>25</v>
       </c>
       <c r="N18" s="22" t="s">
         <v>54</v>
@@ -3635,7 +3635,7 @@
         <v>1.5</v>
       </c>
       <c r="M19" s="14">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N19" s="14" t="s">
         <v>54</v>
@@ -3738,8 +3738,8 @@
       <c r="L20" s="22">
         <v>1.5</v>
       </c>
-      <c r="M20" s="22">
-        <v>125</v>
+      <c r="M20" s="14">
+        <v>25</v>
       </c>
       <c r="N20" s="22" t="s">
         <v>54</v>
@@ -3843,7 +3843,7 @@
         <v>1.5</v>
       </c>
       <c r="M21" s="14">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N21" s="14" t="s">
         <v>54</v>
@@ -3946,8 +3946,8 @@
       <c r="L22" s="22">
         <v>1.5</v>
       </c>
-      <c r="M22" s="22">
-        <v>125</v>
+      <c r="M22" s="14">
+        <v>25</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>54</v>
@@ -4050,8 +4050,8 @@
       <c r="L23" s="22">
         <v>1.5</v>
       </c>
-      <c r="M23" s="22">
-        <v>125</v>
+      <c r="M23" s="14">
+        <v>25</v>
       </c>
       <c r="N23" s="22" t="s">
         <v>54</v>
@@ -4154,8 +4154,8 @@
       <c r="L24" s="22">
         <v>1.5</v>
       </c>
-      <c r="M24" s="22">
-        <v>125</v>
+      <c r="M24" s="14">
+        <v>25</v>
       </c>
       <c r="N24" s="22" t="s">
         <v>54</v>
@@ -4258,8 +4258,8 @@
       <c r="L25" s="22">
         <v>1.5</v>
       </c>
-      <c r="M25" s="22">
-        <v>125</v>
+      <c r="M25" s="14">
+        <v>25</v>
       </c>
       <c r="N25" s="22" t="s">
         <v>54</v>
@@ -4362,8 +4362,8 @@
       <c r="L26" s="22">
         <v>1.5</v>
       </c>
-      <c r="M26" s="22">
-        <v>125</v>
+      <c r="M26" s="14">
+        <v>25</v>
       </c>
       <c r="N26" s="22" t="s">
         <v>54</v>
@@ -4466,8 +4466,8 @@
       <c r="L27" s="22">
         <v>1.5</v>
       </c>
-      <c r="M27" s="22">
-        <v>125</v>
+      <c r="M27" s="14">
+        <v>25</v>
       </c>
       <c r="N27" s="22" t="s">
         <v>54</v>

--- a/excels/units/monster/normal.xlsx
+++ b/excels/units/monster/normal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="137">
   <si>
     <t>主键</t>
   </si>
@@ -106,6 +106,9 @@
 [绿色2点经验|紫色5点经验|橙色10点经验]</t>
   </si>
   <si>
+    <t>击杀获得灵魂</t>
+  </si>
+  <si>
     <t>警戒范围</t>
   </si>
   <si>
@@ -178,7 +181,10 @@
     <t>BoundsHullName</t>
   </si>
   <si>
-    <t>KillSoulDrop</t>
+    <t>KillExpDrop</t>
+  </si>
+  <si>
+    <t>KillSoul</t>
   </si>
   <si>
     <t>AttackAcquisitionRange</t>
@@ -1712,12 +1718,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AI27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="Z1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L3" sqref="L3"/>
+      <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1751,14 +1757,14 @@
     <col min="27" max="27" width="14.625" customWidth="1"/>
     <col min="28" max="28" width="17.675" customWidth="1"/>
     <col min="29" max="29" width="27.0083333333333" customWidth="1"/>
-    <col min="30" max="30" width="20.375" customWidth="1"/>
-    <col min="31" max="31" width="14.625" customWidth="1"/>
-    <col min="32" max="33" width="7.00833333333333" customWidth="1"/>
-    <col min="34" max="34" width="18.625" customWidth="1"/>
-    <col min="35" max="35" width="15" customWidth="1"/>
+    <col min="30" max="31" width="20.375" customWidth="1"/>
+    <col min="32" max="32" width="14.625" customWidth="1"/>
+    <col min="33" max="34" width="7.00833333333333" customWidth="1"/>
+    <col min="35" max="35" width="18.625" customWidth="1"/>
+    <col min="36" max="36" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="77" customHeight="1" spans="1:33">
+    <row r="1" s="1" customFormat="1" ht="77" customHeight="1" spans="1:34">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1842,12 +1848,15 @@
       <c r="AE1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="31"/>
+      <c r="AF1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="31"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="39" customHeight="1" spans="1:33">
+    <row r="2" s="2" customFormat="1" ht="39" customHeight="1" spans="1:34">
       <c r="A2" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1855,90 +1864,93 @@
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" s="10"/>
       <c r="Q2" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W2" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD2" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="32"/>
+        <v>51</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="32"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="3" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A3" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
@@ -1954,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I3" s="14">
         <f>F3</f>
@@ -1974,10 +1986,10 @@
         <v>25</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P3" s="14">
         <v>1</v>
@@ -1989,7 +2001,7 @@
         <v>170</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
@@ -2000,13 +2012,13 @@
         <v>180</v>
       </c>
       <c r="X3" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y3" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z3" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA3" s="14">
         <v>0</v>
@@ -2015,34 +2027,37 @@
         <v>0</v>
       </c>
       <c r="AC3" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD3" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AE3" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="14">
         <v>20000</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AG3" s="14">
         <v>10</v>
       </c>
-      <c r="AG3" s="33">
+      <c r="AH3" s="33">
         <v>10</v>
       </c>
-      <c r="AH3" s="34" t="str">
-        <f>IF(AF3&lt;=AG3,"","数据出错")</f>
+      <c r="AI3" s="34" t="str">
+        <f>IF(AG3&lt;=AH3,"","数据出错")</f>
         <v/>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="4" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A4" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4" s="14">
         <v>2</v>
@@ -2058,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I4" s="14">
         <f t="shared" ref="I4:I27" si="1">F4</f>
@@ -2078,10 +2093,10 @@
         <v>25</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P4" s="22">
         <v>1</v>
@@ -2093,7 +2108,7 @@
         <v>170</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T4" s="22"/>
       <c r="U4" s="22"/>
@@ -2104,13 +2119,13 @@
         <v>180</v>
       </c>
       <c r="X4" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y4" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z4" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA4" s="22">
         <v>0</v>
@@ -2119,34 +2134,37 @@
         <v>0</v>
       </c>
       <c r="AC4" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE4" s="22">
+        <v>63</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="22">
         <v>20000</v>
       </c>
-      <c r="AF4" s="22">
+      <c r="AG4" s="22">
         <v>10</v>
       </c>
-      <c r="AG4" s="35">
+      <c r="AH4" s="35">
         <v>10</v>
       </c>
-      <c r="AH4" s="34" t="str">
-        <f t="shared" ref="AH4:AH32" si="2">IF(AF4&lt;=AG4,"","数据出错")</f>
+      <c r="AI4" s="34" t="str">
+        <f t="shared" ref="AI4:AI32" si="2">IF(AG4&lt;=AH4,"","数据出错")</f>
         <v/>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="5" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A5" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5" s="14">
         <v>3</v>
@@ -2162,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="1"/>
@@ -2182,10 +2200,10 @@
         <v>25</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P5" s="14">
         <v>1</v>
@@ -2197,7 +2215,7 @@
         <v>170</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -2208,13 +2226,13 @@
         <v>180</v>
       </c>
       <c r="X5" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y5" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z5" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA5" s="14">
         <v>0</v>
@@ -2223,34 +2241,37 @@
         <v>0</v>
       </c>
       <c r="AC5" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD5" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AE5" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="14">
         <v>20000</v>
       </c>
-      <c r="AF5" s="14">
+      <c r="AG5" s="14">
         <v>10</v>
       </c>
-      <c r="AG5" s="33">
+      <c r="AH5" s="33">
         <v>10</v>
       </c>
-      <c r="AH5" s="34" t="str">
+      <c r="AI5" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="6" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A6" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" s="14">
         <v>4</v>
@@ -2266,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="1"/>
@@ -2286,10 +2307,10 @@
         <v>25</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O6" s="23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P6" s="22">
         <v>1</v>
@@ -2301,7 +2322,7 @@
         <v>170</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
@@ -2312,13 +2333,13 @@
         <v>180</v>
       </c>
       <c r="X6" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y6" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z6" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA6" s="22">
         <v>0</v>
@@ -2327,34 +2348,37 @@
         <v>0</v>
       </c>
       <c r="AC6" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE6" s="22">
+        <v>63</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF6" s="22">
         <v>20000</v>
       </c>
-      <c r="AF6" s="22">
+      <c r="AG6" s="22">
         <v>10</v>
       </c>
-      <c r="AG6" s="35">
+      <c r="AH6" s="35">
         <v>10</v>
       </c>
-      <c r="AH6" s="34" t="str">
+      <c r="AI6" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="7" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A7" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="14">
         <v>5</v>
@@ -2370,7 +2394,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I7" s="14">
         <f t="shared" si="1"/>
@@ -2390,10 +2414,10 @@
         <v>25</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P7" s="14">
         <v>1.1</v>
@@ -2405,7 +2429,7 @@
         <v>170</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
@@ -2416,13 +2440,13 @@
         <v>180</v>
       </c>
       <c r="X7" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y7" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z7" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA7" s="14">
         <v>0</v>
@@ -2431,34 +2455,37 @@
         <v>0</v>
       </c>
       <c r="AC7" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD7" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AE7" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF7" s="14">
         <v>20000</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AG7" s="14">
         <v>1</v>
       </c>
-      <c r="AG7" s="33">
+      <c r="AH7" s="33">
         <v>1</v>
       </c>
-      <c r="AH7" s="34" t="str">
+      <c r="AI7" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="8" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A8" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D8" s="14">
         <v>6</v>
@@ -2474,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I8" s="14">
         <f t="shared" si="1"/>
@@ -2494,10 +2521,10 @@
         <v>25</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P8" s="22">
         <v>1.1</v>
@@ -2509,7 +2536,7 @@
         <v>170</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
@@ -2520,13 +2547,13 @@
         <v>180</v>
       </c>
       <c r="X8" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y8" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z8" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA8" s="22">
         <v>0</v>
@@ -2535,34 +2562,37 @@
         <v>0</v>
       </c>
       <c r="AC8" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE8" s="22">
+        <v>63</v>
+      </c>
+      <c r="AE8" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF8" s="22">
         <v>20000</v>
       </c>
-      <c r="AF8" s="22">
+      <c r="AG8" s="22">
         <v>11</v>
       </c>
-      <c r="AG8" s="35">
+      <c r="AH8" s="35">
         <v>11</v>
       </c>
-      <c r="AH8" s="34" t="str">
+      <c r="AI8" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="9" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A9" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9" s="14">
         <v>7</v>
@@ -2578,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I9" s="14">
         <f t="shared" si="1"/>
@@ -2598,10 +2628,10 @@
         <v>25</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P9" s="14">
         <v>1.3</v>
@@ -2613,7 +2643,7 @@
         <v>170</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
@@ -2624,13 +2654,13 @@
         <v>180</v>
       </c>
       <c r="X9" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y9" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z9" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA9" s="14">
         <v>0</v>
@@ -2639,34 +2669,37 @@
         <v>0</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD9" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AE9" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="14">
         <v>20000</v>
       </c>
-      <c r="AF9" s="14">
+      <c r="AG9" s="14">
         <v>11</v>
       </c>
-      <c r="AG9" s="33">
+      <c r="AH9" s="33">
         <v>11</v>
       </c>
-      <c r="AH9" s="34" t="str">
+      <c r="AI9" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="10" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A10" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D10" s="14">
         <v>8</v>
@@ -2682,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I10" s="14">
         <f t="shared" si="1"/>
@@ -2702,10 +2735,10 @@
         <v>25</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P10" s="22">
         <v>1.3</v>
@@ -2717,7 +2750,7 @@
         <v>170</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
@@ -2728,13 +2761,13 @@
         <v>180</v>
       </c>
       <c r="X10" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y10" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z10" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA10" s="22">
         <v>0</v>
@@ -2743,34 +2776,37 @@
         <v>0</v>
       </c>
       <c r="AC10" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD10" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE10" s="22">
+        <v>63</v>
+      </c>
+      <c r="AE10" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF10" s="22">
         <v>20000</v>
       </c>
-      <c r="AF10" s="22">
+      <c r="AG10" s="22">
         <v>11</v>
       </c>
-      <c r="AG10" s="35">
+      <c r="AH10" s="35">
         <v>11</v>
       </c>
-      <c r="AH10" s="34" t="str">
+      <c r="AI10" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="11" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A11" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D11" s="14">
         <v>9</v>
@@ -2786,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I11" s="14">
         <f t="shared" si="1"/>
@@ -2806,10 +2842,10 @@
         <v>25</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P11" s="14">
         <v>1.3</v>
@@ -2821,7 +2857,7 @@
         <v>170</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
@@ -2832,13 +2868,13 @@
         <v>180</v>
       </c>
       <c r="X11" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y11" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z11" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA11" s="14">
         <v>0</v>
@@ -2847,34 +2883,37 @@
         <v>0</v>
       </c>
       <c r="AC11" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD11" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AE11" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="14">
         <v>20000</v>
       </c>
-      <c r="AF11" s="14">
+      <c r="AG11" s="14">
         <v>11</v>
       </c>
-      <c r="AG11" s="33">
+      <c r="AH11" s="33">
         <v>11</v>
       </c>
-      <c r="AH11" s="34" t="str">
+      <c r="AI11" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="12" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A12" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D12" s="14">
         <v>10</v>
@@ -2890,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I12" s="14">
         <f t="shared" si="1"/>
@@ -2910,10 +2949,10 @@
         <v>25</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P12" s="22">
         <v>1.3</v>
@@ -2925,7 +2964,7 @@
         <v>170</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
@@ -2936,13 +2975,13 @@
         <v>180</v>
       </c>
       <c r="X12" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y12" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z12" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA12" s="22">
         <v>0</v>
@@ -2951,34 +2990,37 @@
         <v>0</v>
       </c>
       <c r="AC12" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD12" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE12" s="22">
+        <v>63</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="22">
         <v>20000</v>
       </c>
-      <c r="AF12" s="22">
+      <c r="AG12" s="22">
         <v>1</v>
       </c>
-      <c r="AG12" s="35">
+      <c r="AH12" s="35">
         <v>1</v>
       </c>
-      <c r="AH12" s="34" t="str">
+      <c r="AI12" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="13" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A13" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D13" s="14">
         <v>11</v>
@@ -2994,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I13" s="14">
         <f t="shared" si="1"/>
@@ -3014,10 +3056,10 @@
         <v>25</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P13" s="14">
         <v>1.4</v>
@@ -3029,7 +3071,7 @@
         <v>170</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
@@ -3040,13 +3082,13 @@
         <v>180</v>
       </c>
       <c r="X13" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y13" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z13" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA13" s="14">
         <v>0</v>
@@ -3055,34 +3097,37 @@
         <v>0</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD13" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AE13" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="14">
         <v>20000</v>
       </c>
-      <c r="AF13" s="14">
+      <c r="AG13" s="14">
         <v>12</v>
       </c>
-      <c r="AG13" s="33">
+      <c r="AH13" s="33">
         <v>12</v>
       </c>
-      <c r="AH13" s="34" t="str">
+      <c r="AI13" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="14" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A14" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D14" s="14">
         <v>12</v>
@@ -3098,7 +3143,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I14" s="14">
         <f t="shared" si="1"/>
@@ -3118,10 +3163,10 @@
         <v>25</v>
       </c>
       <c r="N14" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P14" s="22">
         <v>1.4</v>
@@ -3133,7 +3178,7 @@
         <v>170</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
@@ -3144,13 +3189,13 @@
         <v>180</v>
       </c>
       <c r="X14" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y14" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z14" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA14" s="22">
         <v>0</v>
@@ -3159,34 +3204,37 @@
         <v>0</v>
       </c>
       <c r="AC14" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE14" s="22">
+        <v>63</v>
+      </c>
+      <c r="AE14" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="22">
         <v>20000</v>
       </c>
-      <c r="AF14" s="22">
+      <c r="AG14" s="22">
         <v>12</v>
       </c>
-      <c r="AG14" s="35">
+      <c r="AH14" s="35">
         <v>12</v>
       </c>
-      <c r="AH14" s="34" t="str">
+      <c r="AI14" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="15" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A15" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D15" s="14">
         <v>13</v>
@@ -3202,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I15" s="14">
         <f t="shared" si="1"/>
@@ -3222,10 +3270,10 @@
         <v>25</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P15" s="14">
         <v>1.4</v>
@@ -3237,7 +3285,7 @@
         <v>170</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
@@ -3248,13 +3296,13 @@
         <v>180</v>
       </c>
       <c r="X15" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y15" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z15" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA15" s="14">
         <v>0</v>
@@ -3263,34 +3311,37 @@
         <v>0</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD15" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AE15" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF15" s="14">
         <v>20000</v>
       </c>
-      <c r="AF15" s="14">
+      <c r="AG15" s="14">
         <v>12</v>
       </c>
-      <c r="AG15" s="33">
+      <c r="AH15" s="33">
         <v>12</v>
       </c>
-      <c r="AH15" s="34" t="str">
+      <c r="AI15" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="16" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A16" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D16" s="14">
         <v>14</v>
@@ -3306,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I16" s="14">
         <f t="shared" si="1"/>
@@ -3326,10 +3377,10 @@
         <v>25</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P16" s="22">
         <v>1.4</v>
@@ -3341,7 +3392,7 @@
         <v>170</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
@@ -3352,13 +3403,13 @@
         <v>180</v>
       </c>
       <c r="X16" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y16" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z16" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA16" s="22">
         <v>0</v>
@@ -3367,34 +3418,37 @@
         <v>0</v>
       </c>
       <c r="AC16" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD16" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE16" s="22">
+        <v>63</v>
+      </c>
+      <c r="AE16" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF16" s="22">
         <v>20000</v>
       </c>
-      <c r="AF16" s="22">
+      <c r="AG16" s="22">
         <v>12</v>
       </c>
-      <c r="AG16" s="35">
+      <c r="AH16" s="35">
         <v>12</v>
       </c>
-      <c r="AH16" s="34" t="str">
+      <c r="AI16" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="17" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A17" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D17" s="14">
         <v>15</v>
@@ -3410,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I17" s="14">
         <f t="shared" si="1"/>
@@ -3430,10 +3484,10 @@
         <v>25</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P17" s="14">
         <v>1.4</v>
@@ -3445,7 +3499,7 @@
         <v>170</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
@@ -3456,13 +3510,13 @@
         <v>180</v>
       </c>
       <c r="X17" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y17" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z17" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA17" s="14">
         <v>0</v>
@@ -3471,34 +3525,37 @@
         <v>0</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD17" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AE17" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF17" s="14">
         <v>20000</v>
       </c>
-      <c r="AF17" s="14">
+      <c r="AG17" s="14">
         <v>1</v>
       </c>
-      <c r="AG17" s="33">
+      <c r="AH17" s="33">
         <v>1</v>
       </c>
-      <c r="AH17" s="34" t="str">
+      <c r="AI17" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="18" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A18" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D18" s="14">
         <v>16</v>
@@ -3514,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I18" s="14">
         <f t="shared" si="1"/>
@@ -3534,10 +3591,10 @@
         <v>25</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P18" s="22">
         <v>1.4</v>
@@ -3549,7 +3606,7 @@
         <v>170</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T18" s="22"/>
       <c r="U18" s="22"/>
@@ -3560,13 +3617,13 @@
         <v>180</v>
       </c>
       <c r="X18" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y18" s="22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Z18" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA18" s="22">
         <v>0</v>
@@ -3575,34 +3632,37 @@
         <v>0</v>
       </c>
       <c r="AC18" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD18" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE18" s="22">
+        <v>63</v>
+      </c>
+      <c r="AE18" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF18" s="22">
         <v>20000</v>
       </c>
-      <c r="AF18" s="22">
+      <c r="AG18" s="22">
         <v>13</v>
       </c>
-      <c r="AG18" s="35">
+      <c r="AH18" s="35">
         <v>13</v>
       </c>
-      <c r="AH18" s="34" t="str">
+      <c r="AI18" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="19" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A19" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D19" s="14">
         <v>17</v>
@@ -3618,7 +3678,7 @@
         <v>30</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I19" s="14">
         <f t="shared" si="1"/>
@@ -3638,10 +3698,10 @@
         <v>25</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="14">
         <v>1.4</v>
@@ -3653,7 +3713,7 @@
         <v>170</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
@@ -3664,13 +3724,13 @@
         <v>180</v>
       </c>
       <c r="X19" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y19" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z19" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA19" s="14">
         <v>0</v>
@@ -3679,34 +3739,37 @@
         <v>0</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD19" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AE19" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF19" s="14">
         <v>20000</v>
       </c>
-      <c r="AF19" s="14">
+      <c r="AG19" s="14">
         <v>13</v>
       </c>
-      <c r="AG19" s="33">
+      <c r="AH19" s="33">
         <v>13</v>
       </c>
-      <c r="AH19" s="34" t="str">
+      <c r="AI19" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="20" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A20" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D20" s="14">
         <v>18</v>
@@ -3722,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I20" s="14">
         <f t="shared" si="1"/>
@@ -3742,10 +3805,10 @@
         <v>25</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O20" s="23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P20" s="22">
         <v>1.4</v>
@@ -3757,7 +3820,7 @@
         <v>170</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T20" s="22"/>
       <c r="U20" s="22"/>
@@ -3768,13 +3831,13 @@
         <v>180</v>
       </c>
       <c r="X20" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y20" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z20" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA20" s="22">
         <v>0</v>
@@ -3783,34 +3846,37 @@
         <v>0</v>
       </c>
       <c r="AC20" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD20" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE20" s="22">
+        <v>63</v>
+      </c>
+      <c r="AE20" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF20" s="22">
         <v>20000</v>
       </c>
-      <c r="AF20" s="22">
+      <c r="AG20" s="22">
         <v>13</v>
       </c>
-      <c r="AG20" s="35">
+      <c r="AH20" s="35">
         <v>13</v>
       </c>
-      <c r="AH20" s="34" t="str">
+      <c r="AI20" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="21" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A21" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D21" s="14">
         <v>19</v>
@@ -3826,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I21" s="14">
         <f t="shared" si="1"/>
@@ -3846,10 +3912,10 @@
         <v>25</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P21" s="14">
         <v>1.4</v>
@@ -3861,7 +3927,7 @@
         <v>170</v>
       </c>
       <c r="S21" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
@@ -3872,13 +3938,13 @@
         <v>180</v>
       </c>
       <c r="X21" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y21" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z21" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA21" s="14">
         <v>0</v>
@@ -3887,34 +3953,37 @@
         <v>0</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD21" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AE21" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF21" s="14">
         <v>20000</v>
       </c>
-      <c r="AF21" s="14">
+      <c r="AG21" s="14">
         <v>13</v>
       </c>
-      <c r="AG21" s="33">
+      <c r="AH21" s="33">
         <v>13</v>
       </c>
-      <c r="AH21" s="34" t="str">
+      <c r="AI21" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="22" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A22" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D22" s="14">
         <v>20</v>
@@ -3930,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I22" s="14">
         <f t="shared" si="1"/>
@@ -3950,10 +4019,10 @@
         <v>25</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O22" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P22" s="22">
         <v>1.4</v>
@@ -3965,7 +4034,7 @@
         <v>170</v>
       </c>
       <c r="S22" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T22" s="22"/>
       <c r="U22" s="22"/>
@@ -3976,13 +4045,13 @@
         <v>180</v>
       </c>
       <c r="X22" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y22" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z22" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA22" s="22">
         <v>0</v>
@@ -3991,34 +4060,37 @@
         <v>0</v>
       </c>
       <c r="AC22" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD22" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE22" s="22">
+        <v>63</v>
+      </c>
+      <c r="AE22" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF22" s="22">
         <v>20000</v>
       </c>
-      <c r="AF22" s="22">
+      <c r="AG22" s="22">
         <v>13</v>
       </c>
-      <c r="AG22" s="35">
+      <c r="AH22" s="35">
         <v>13</v>
       </c>
-      <c r="AH22" s="34" t="str">
+      <c r="AI22" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="23" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A23" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D23" s="14">
         <v>21</v>
@@ -4034,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I23" s="14">
         <f t="shared" si="1"/>
@@ -4054,10 +4126,10 @@
         <v>25</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P23" s="22">
         <v>1.4</v>
@@ -4069,7 +4141,7 @@
         <v>170</v>
       </c>
       <c r="S23" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T23" s="22"/>
       <c r="U23" s="22"/>
@@ -4080,13 +4152,13 @@
         <v>180</v>
       </c>
       <c r="X23" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y23" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z23" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA23" s="22">
         <v>0</v>
@@ -4095,34 +4167,37 @@
         <v>0</v>
       </c>
       <c r="AC23" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD23" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE23" s="22">
+        <v>63</v>
+      </c>
+      <c r="AE23" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF23" s="22">
         <v>20000</v>
       </c>
-      <c r="AF23" s="22">
+      <c r="AG23" s="22">
         <v>13</v>
       </c>
-      <c r="AG23" s="35">
+      <c r="AH23" s="35">
         <v>13</v>
       </c>
-      <c r="AH23" s="34" t="str">
+      <c r="AI23" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="24" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A24" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D24" s="14">
         <v>22</v>
@@ -4138,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I24" s="14">
         <f t="shared" si="1"/>
@@ -4158,10 +4233,10 @@
         <v>25</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P24" s="22">
         <v>1.4</v>
@@ -4173,7 +4248,7 @@
         <v>170</v>
       </c>
       <c r="S24" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T24" s="22"/>
       <c r="U24" s="22"/>
@@ -4184,13 +4259,13 @@
         <v>180</v>
       </c>
       <c r="X24" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y24" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z24" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA24" s="22">
         <v>0</v>
@@ -4199,34 +4274,37 @@
         <v>0</v>
       </c>
       <c r="AC24" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD24" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE24" s="22">
+        <v>63</v>
+      </c>
+      <c r="AE24" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF24" s="22">
         <v>20000</v>
       </c>
-      <c r="AF24" s="22">
+      <c r="AG24" s="22">
         <v>13</v>
       </c>
-      <c r="AG24" s="35">
+      <c r="AH24" s="35">
         <v>13</v>
       </c>
-      <c r="AH24" s="34" t="str">
+      <c r="AI24" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="25" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A25" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D25" s="14">
         <v>23</v>
@@ -4242,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I25" s="14">
         <f t="shared" si="1"/>
@@ -4262,10 +4340,10 @@
         <v>25</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P25" s="22">
         <v>1.4</v>
@@ -4277,7 +4355,7 @@
         <v>170</v>
       </c>
       <c r="S25" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T25" s="22"/>
       <c r="U25" s="22"/>
@@ -4288,13 +4366,13 @@
         <v>180</v>
       </c>
       <c r="X25" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y25" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z25" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA25" s="22">
         <v>0</v>
@@ -4303,34 +4381,37 @@
         <v>0</v>
       </c>
       <c r="AC25" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD25" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE25" s="22">
+        <v>63</v>
+      </c>
+      <c r="AE25" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF25" s="22">
         <v>20000</v>
       </c>
-      <c r="AF25" s="22">
+      <c r="AG25" s="22">
         <v>13</v>
       </c>
-      <c r="AG25" s="35">
+      <c r="AH25" s="35">
         <v>13</v>
       </c>
-      <c r="AH25" s="34" t="str">
+      <c r="AI25" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="26" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A26" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D26" s="14">
         <v>24</v>
@@ -4346,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I26" s="14">
         <f t="shared" si="1"/>
@@ -4366,10 +4447,10 @@
         <v>25</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P26" s="22">
         <v>1.4</v>
@@ -4381,7 +4462,7 @@
         <v>170</v>
       </c>
       <c r="S26" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T26" s="22"/>
       <c r="U26" s="22"/>
@@ -4392,13 +4473,13 @@
         <v>180</v>
       </c>
       <c r="X26" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y26" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z26" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA26" s="22">
         <v>0</v>
@@ -4407,34 +4488,37 @@
         <v>0</v>
       </c>
       <c r="AC26" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE26" s="22">
+        <v>63</v>
+      </c>
+      <c r="AE26" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF26" s="22">
         <v>20000</v>
       </c>
-      <c r="AF26" s="22">
+      <c r="AG26" s="22">
         <v>13</v>
       </c>
-      <c r="AG26" s="35">
+      <c r="AH26" s="35">
         <v>13</v>
       </c>
-      <c r="AH26" s="34" t="str">
+      <c r="AI26" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" ht="39" customHeight="1" spans="1:34">
+    <row r="27" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A27" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D27" s="14">
         <v>25</v>
@@ -4450,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I27" s="14">
         <f t="shared" si="1"/>
@@ -4470,10 +4554,10 @@
         <v>25</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P27" s="22">
         <v>1.4</v>
@@ -4485,7 +4569,7 @@
         <v>170</v>
       </c>
       <c r="S27" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T27" s="22"/>
       <c r="U27" s="22"/>
@@ -4496,13 +4580,13 @@
         <v>180</v>
       </c>
       <c r="X27" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y27" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z27" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA27" s="22">
         <v>0</v>
@@ -4511,27 +4595,30 @@
         <v>0</v>
       </c>
       <c r="AC27" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD27" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE27" s="22">
+        <v>63</v>
+      </c>
+      <c r="AE27" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF27" s="22">
         <v>20000</v>
       </c>
-      <c r="AF27" s="22">
+      <c r="AG27" s="22">
         <v>13</v>
       </c>
-      <c r="AG27" s="35">
+      <c r="AH27" s="35">
         <v>13</v>
       </c>
-      <c r="AH27" s="34" t="str">
+      <c r="AI27" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AH3">
+  <conditionalFormatting sqref="AI3">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>""""""</formula>
     </cfRule>

--- a/excels/units/monster/normal.xlsx
+++ b/excels/units/monster/normal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="138">
   <si>
     <t>主键</t>
   </si>
@@ -220,52 +220,55 @@
     <t>DOTA_HULL_SIZE_SMALL</t>
   </si>
   <si>
+    <t>100|0|0</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_2</t>
+  </si>
+  <si>
+    <t>狗头人士兵</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_kobold/kobold_b/n_creep_kobold_b.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_3</t>
+  </si>
+  <si>
+    <t>狗头人长官</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_kobold/kobold_a/n_creep_kobold_a.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_4</t>
+  </si>
+  <si>
+    <t>豺狼人刺客</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_gnoll/n_creep_gnoll.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_5</t>
+  </si>
+  <si>
+    <t>冰霜豺狼人刺客</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_gnoll/n_creep_gnoll_frost.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_6</t>
+  </si>
+  <si>
+    <t>萨特放逐者</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_satyr_b/n_creep_satyr_b.vmdl</t>
+  </si>
+  <si>
     <t>70|30|0</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_2</t>
-  </si>
-  <si>
-    <t>狗头人士兵</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_kobold/kobold_b/n_creep_kobold_b.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_3</t>
-  </si>
-  <si>
-    <t>狗头人长官</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_kobold/kobold_a/n_creep_kobold_a.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_4</t>
-  </si>
-  <si>
-    <t>豺狼人刺客</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_gnoll/n_creep_gnoll.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_5</t>
-  </si>
-  <si>
-    <t>冰霜豺狼人刺客</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_gnoll/n_creep_gnoll_frost.vmdl</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_6</t>
-  </si>
-  <si>
-    <t>萨特放逐者</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_satyr_b/n_creep_satyr_b.vmdl</t>
   </si>
   <si>
     <t>npc_monster_normal_7</t>
@@ -1721,9 +1724,9 @@
   <dimension ref="A1:AI27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2080,11 +2083,11 @@
         <v>15</v>
       </c>
       <c r="J4" s="22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K4" s="22">
         <f>J4</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L4" s="22">
         <v>1.5</v>
@@ -2187,11 +2190,11 @@
         <v>35</v>
       </c>
       <c r="J5" s="14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K5" s="14">
         <f t="shared" ref="K5:K32" si="3">J5</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L5" s="14">
         <v>1.5</v>
@@ -2277,11 +2280,11 @@
         <v>4</v>
       </c>
       <c r="E6" s="16">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F6" s="16">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G6" s="16">
         <v>0</v>
@@ -2290,15 +2293,15 @@
         <v>55</v>
       </c>
       <c r="I6" s="14">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f>F6</f>
+        <v>50</v>
       </c>
       <c r="J6" s="22">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K6" s="22">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L6" s="22">
         <v>1.5</v>
@@ -2384,11 +2387,11 @@
         <v>5</v>
       </c>
       <c r="E7" s="15">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="G7" s="15">
         <v>10</v>
@@ -2398,14 +2401,14 @@
       </c>
       <c r="I7" s="14">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="J7" s="14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K7" s="14">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L7" s="14">
         <v>1.5</v>
@@ -2491,11 +2494,11 @@
         <v>6</v>
       </c>
       <c r="E8" s="16">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="F8" s="16">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="G8" s="16">
         <v>0</v>
@@ -2505,14 +2508,14 @@
       </c>
       <c r="I8" s="14">
         <f t="shared" si="1"/>
-        <v>320</v>
-      </c>
-      <c r="J8" s="22">
-        <v>22</v>
+        <v>80</v>
+      </c>
+      <c r="J8" s="14">
+        <v>6</v>
       </c>
       <c r="K8" s="22">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="L8" s="22">
         <v>1.5</v>
@@ -2565,7 +2568,7 @@
         <v>62</v>
       </c>
       <c r="AD8" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE8" s="14">
         <v>10</v>
@@ -2586,23 +2589,23 @@
     </row>
     <row r="9" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A9" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="14">
         <v>7</v>
       </c>
       <c r="E9" s="15">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="G9" s="15">
         <v>0</v>
@@ -2612,14 +2615,14 @@
       </c>
       <c r="I9" s="14">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="J9" s="14">
-        <v>25</v>
+        <v>95</v>
+      </c>
+      <c r="J9" s="22">
+        <v>7</v>
       </c>
       <c r="K9" s="14">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="L9" s="14">
         <v>1.5</v>
@@ -2631,7 +2634,7 @@
         <v>56</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P9" s="14">
         <v>1.3</v>
@@ -2672,7 +2675,7 @@
         <v>62</v>
       </c>
       <c r="AD9" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE9" s="14">
         <v>10</v>
@@ -2693,23 +2696,23 @@
     </row>
     <row r="10" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A10" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" s="14">
         <v>8</v>
       </c>
       <c r="E10" s="16">
-        <v>700</v>
+        <v>110</v>
       </c>
       <c r="F10" s="15">
         <f t="shared" ref="F10:F32" si="4">E10</f>
-        <v>700</v>
+        <v>110</v>
       </c>
       <c r="G10" s="16">
         <v>0</v>
@@ -2719,14 +2722,14 @@
       </c>
       <c r="I10" s="14">
         <f t="shared" si="1"/>
-        <v>700</v>
-      </c>
-      <c r="J10" s="22">
-        <v>28</v>
+        <v>110</v>
+      </c>
+      <c r="J10" s="14">
+        <v>8</v>
       </c>
       <c r="K10" s="22">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="L10" s="22">
         <v>1.5</v>
@@ -2738,7 +2741,7 @@
         <v>56</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P10" s="22">
         <v>1.3</v>
@@ -2779,7 +2782,7 @@
         <v>62</v>
       </c>
       <c r="AD10" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE10" s="14">
         <v>10</v>
@@ -2800,23 +2803,23 @@
     </row>
     <row r="11" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A11" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" s="14">
         <v>9</v>
       </c>
       <c r="E11" s="15">
-        <v>1050</v>
+        <v>200</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="4"/>
-        <v>1050</v>
+        <v>200</v>
       </c>
       <c r="G11" s="15">
         <v>0</v>
@@ -2826,14 +2829,14 @@
       </c>
       <c r="I11" s="14">
         <f t="shared" si="1"/>
-        <v>1050</v>
-      </c>
-      <c r="J11" s="14">
-        <v>31</v>
+        <v>200</v>
+      </c>
+      <c r="J11" s="22">
+        <v>9</v>
       </c>
       <c r="K11" s="14">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="L11" s="14">
         <v>1.5</v>
@@ -2845,7 +2848,7 @@
         <v>56</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P11" s="14">
         <v>1.3</v>
@@ -2886,7 +2889,7 @@
         <v>62</v>
       </c>
       <c r="AD11" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE11" s="14">
         <v>10</v>
@@ -2907,23 +2910,23 @@
     </row>
     <row r="12" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A12" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12" s="14">
         <v>10</v>
       </c>
       <c r="E12" s="16">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="4"/>
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="G12" s="16">
         <v>0</v>
@@ -2933,14 +2936,14 @@
       </c>
       <c r="I12" s="14">
         <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="J12" s="22">
-        <v>34</v>
+        <v>300</v>
+      </c>
+      <c r="J12" s="14">
+        <v>10</v>
       </c>
       <c r="K12" s="22">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="L12" s="22">
         <v>1.5</v>
@@ -2952,7 +2955,7 @@
         <v>56</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P12" s="22">
         <v>1.3</v>
@@ -2993,7 +2996,7 @@
         <v>62</v>
       </c>
       <c r="AD12" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE12" s="14">
         <v>10</v>
@@ -3014,13 +3017,13 @@
     </row>
     <row r="13" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A13" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D13" s="14">
         <v>11</v>
@@ -3059,7 +3062,7 @@
         <v>56</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="14">
         <v>1.4</v>
@@ -3100,7 +3103,7 @@
         <v>62</v>
       </c>
       <c r="AD13" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE13" s="14">
         <v>10</v>
@@ -3121,13 +3124,13 @@
     </row>
     <row r="14" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A14" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D14" s="14">
         <v>12</v>
@@ -3166,7 +3169,7 @@
         <v>56</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P14" s="22">
         <v>1.4</v>
@@ -3207,7 +3210,7 @@
         <v>62</v>
       </c>
       <c r="AD14" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE14" s="14">
         <v>10</v>
@@ -3228,13 +3231,13 @@
     </row>
     <row r="15" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A15" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D15" s="14">
         <v>13</v>
@@ -3273,7 +3276,7 @@
         <v>56</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P15" s="14">
         <v>1.4</v>
@@ -3314,7 +3317,7 @@
         <v>62</v>
       </c>
       <c r="AD15" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE15" s="14">
         <v>10</v>
@@ -3335,13 +3338,13 @@
     </row>
     <row r="16" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A16" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D16" s="14">
         <v>14</v>
@@ -3380,7 +3383,7 @@
         <v>56</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="22">
         <v>1.4</v>
@@ -3421,7 +3424,7 @@
         <v>62</v>
       </c>
       <c r="AD16" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE16" s="14">
         <v>10</v>
@@ -3442,13 +3445,13 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A17" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D17" s="14">
         <v>15</v>
@@ -3487,7 +3490,7 @@
         <v>56</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P17" s="14">
         <v>1.4</v>
@@ -3528,7 +3531,7 @@
         <v>62</v>
       </c>
       <c r="AD17" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE17" s="14">
         <v>10</v>
@@ -3549,13 +3552,13 @@
     </row>
     <row r="18" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A18" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D18" s="14">
         <v>16</v>
@@ -3594,7 +3597,7 @@
         <v>56</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P18" s="22">
         <v>1.4</v>
@@ -3620,7 +3623,7 @@
         <v>59</v>
       </c>
       <c r="Y18" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z18" s="22" t="s">
         <v>61</v>
@@ -3635,7 +3638,7 @@
         <v>62</v>
       </c>
       <c r="AD18" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE18" s="14">
         <v>10</v>
@@ -3656,13 +3659,13 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A19" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D19" s="14">
         <v>17</v>
@@ -3701,7 +3704,7 @@
         <v>56</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="14">
         <v>1.4</v>
@@ -3742,7 +3745,7 @@
         <v>62</v>
       </c>
       <c r="AD19" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE19" s="14">
         <v>10</v>
@@ -3763,13 +3766,13 @@
     </row>
     <row r="20" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A20" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D20" s="14">
         <v>18</v>
@@ -3808,7 +3811,7 @@
         <v>56</v>
       </c>
       <c r="O20" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P20" s="22">
         <v>1.4</v>
@@ -3849,7 +3852,7 @@
         <v>62</v>
       </c>
       <c r="AD20" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE20" s="14">
         <v>10</v>
@@ -3870,13 +3873,13 @@
     </row>
     <row r="21" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A21" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D21" s="14">
         <v>19</v>
@@ -3915,7 +3918,7 @@
         <v>56</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P21" s="14">
         <v>1.4</v>
@@ -3956,7 +3959,7 @@
         <v>62</v>
       </c>
       <c r="AD21" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE21" s="14">
         <v>10</v>
@@ -3977,13 +3980,13 @@
     </row>
     <row r="22" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A22" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D22" s="14">
         <v>20</v>
@@ -4022,7 +4025,7 @@
         <v>56</v>
       </c>
       <c r="O22" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P22" s="22">
         <v>1.4</v>
@@ -4063,7 +4066,7 @@
         <v>62</v>
       </c>
       <c r="AD22" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE22" s="14">
         <v>10</v>
@@ -4084,13 +4087,13 @@
     </row>
     <row r="23" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A23" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D23" s="14">
         <v>21</v>
@@ -4129,7 +4132,7 @@
         <v>56</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P23" s="22">
         <v>1.4</v>
@@ -4170,7 +4173,7 @@
         <v>62</v>
       </c>
       <c r="AD23" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE23" s="14">
         <v>10</v>
@@ -4191,13 +4194,13 @@
     </row>
     <row r="24" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A24" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D24" s="14">
         <v>22</v>
@@ -4236,7 +4239,7 @@
         <v>56</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P24" s="22">
         <v>1.4</v>
@@ -4277,7 +4280,7 @@
         <v>62</v>
       </c>
       <c r="AD24" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE24" s="14">
         <v>10</v>
@@ -4298,13 +4301,13 @@
     </row>
     <row r="25" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A25" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D25" s="14">
         <v>23</v>
@@ -4343,7 +4346,7 @@
         <v>56</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P25" s="22">
         <v>1.4</v>
@@ -4384,7 +4387,7 @@
         <v>62</v>
       </c>
       <c r="AD25" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE25" s="14">
         <v>10</v>
@@ -4405,13 +4408,13 @@
     </row>
     <row r="26" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A26" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D26" s="14">
         <v>24</v>
@@ -4450,7 +4453,7 @@
         <v>56</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P26" s="22">
         <v>1.4</v>
@@ -4491,7 +4494,7 @@
         <v>62</v>
       </c>
       <c r="AD26" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE26" s="14">
         <v>10</v>
@@ -4512,13 +4515,13 @@
     </row>
     <row r="27" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
       <c r="A27" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D27" s="14">
         <v>25</v>
@@ -4557,7 +4560,7 @@
         <v>56</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P27" s="22">
         <v>1.4</v>
@@ -4598,7 +4601,7 @@
         <v>62</v>
       </c>
       <c r="AD27" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AE27" s="14">
         <v>10</v>

--- a/excels/units/monster/normal.xlsx
+++ b/excels/units/monster/normal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="23145" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,8 @@
     <t>自定义基础元素抗性</t>
   </si>
   <si>
-    <t>抗性</t>
+    <t>抗性
+火|冰|雷|风</t>
   </si>
   <si>
     <t>基础生命值</t>
@@ -1726,7 +1727,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H7" sqref="H7"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1959,11 +1960,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="15">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F3" s="15">
         <f>E3</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G3" s="15">
         <v>0</v>
@@ -1973,7 +1974,7 @@
       </c>
       <c r="I3" s="14">
         <f>F3</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J3" s="14">
         <v>1</v>
@@ -2066,11 +2067,11 @@
         <v>2</v>
       </c>
       <c r="E4" s="16">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="F4" s="16">
         <f t="shared" ref="F3:F9" si="0">E4</f>
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G4" s="16">
         <v>0</v>
@@ -2080,7 +2081,7 @@
       </c>
       <c r="I4" s="14">
         <f t="shared" ref="I4:I27" si="1">F4</f>
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="J4" s="22">
         <v>2</v>
@@ -2173,11 +2174,11 @@
         <v>3</v>
       </c>
       <c r="E5" s="15">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G5" s="15">
         <v>0</v>
@@ -2187,7 +2188,7 @@
       </c>
       <c r="I5" s="14">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="J5" s="14">
         <v>3</v>
@@ -2280,11 +2281,11 @@
         <v>4</v>
       </c>
       <c r="E6" s="16">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F6" s="16">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G6" s="16">
         <v>0</v>
@@ -2293,8 +2294,8 @@
         <v>55</v>
       </c>
       <c r="I6" s="14">
-        <f>F6</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="J6" s="22">
         <v>4</v>
@@ -2387,11 +2388,11 @@
         <v>5</v>
       </c>
       <c r="E7" s="15">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="G7" s="15">
         <v>10</v>
@@ -2401,7 +2402,7 @@
       </c>
       <c r="I7" s="14">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="J7" s="14">
         <v>5</v>
@@ -2494,11 +2495,11 @@
         <v>6</v>
       </c>
       <c r="E8" s="16">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F8" s="16">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G8" s="16">
         <v>0</v>
@@ -2508,7 +2509,7 @@
       </c>
       <c r="I8" s="14">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="J8" s="14">
         <v>6</v>
@@ -2601,11 +2602,11 @@
         <v>7</v>
       </c>
       <c r="E9" s="15">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="G9" s="15">
         <v>0</v>
@@ -2615,7 +2616,7 @@
       </c>
       <c r="I9" s="14">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="J9" s="22">
         <v>7</v>
@@ -2708,11 +2709,11 @@
         <v>8</v>
       </c>
       <c r="E10" s="16">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="F10" s="15">
         <f t="shared" ref="F10:F32" si="4">E10</f>
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="G10" s="16">
         <v>0</v>
@@ -2722,7 +2723,7 @@
       </c>
       <c r="I10" s="14">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="J10" s="14">
         <v>8</v>
@@ -2815,11 +2816,11 @@
         <v>9</v>
       </c>
       <c r="E11" s="15">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G11" s="15">
         <v>0</v>
@@ -2829,7 +2830,7 @@
       </c>
       <c r="I11" s="14">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="J11" s="22">
         <v>9</v>
@@ -2922,11 +2923,11 @@
         <v>10</v>
       </c>
       <c r="E12" s="16">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="4"/>
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="G12" s="16">
         <v>0</v>
@@ -2936,7 +2937,7 @@
       </c>
       <c r="I12" s="14">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="J12" s="14">
         <v>10</v>

--- a/excels/units/monster/normal.xlsx
+++ b/excels/units/monster/normal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="232">
   <si>
     <t>主键</t>
   </si>
@@ -444,6 +444,288 @@
   </si>
   <si>
     <t>models/creeps/neutral_creeps/n_creep_satyr_spawn_a/n_creep_satyr_spawn_b.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_26</t>
+  </si>
+  <si>
+    <t>5|0|0|0</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_27</t>
+  </si>
+  <si>
+    <t>地狱羚羊</t>
+  </si>
+  <si>
+    <t>6|0|0|0</t>
+  </si>
+  <si>
+    <t>models/courier/ram/ram.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_28</t>
+  </si>
+  <si>
+    <t>疾行火熊</t>
+  </si>
+  <si>
+    <t>7|0|0|0</t>
+  </si>
+  <si>
+    <t>models/heroes/brewmaster/brewmaster_firespirit.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_29</t>
+  </si>
+  <si>
+    <t>炼狱亡魂</t>
+  </si>
+  <si>
+    <t>8|0|0|0</t>
+  </si>
+  <si>
+    <t>models/heroes/invoker/forge_spirit.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_30</t>
+  </si>
+  <si>
+    <t>炼狱狼</t>
+  </si>
+  <si>
+    <t>9|0|0|0</t>
+  </si>
+  <si>
+    <t>models/heroes/lycan/lycan_wolf.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_31</t>
+  </si>
+  <si>
+    <t>夜魇近战兵</t>
+  </si>
+  <si>
+    <t>10|0|0|0</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_bad_melee/creep_bad_flagbearer.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_32</t>
+  </si>
+  <si>
+    <t>夜魇远程兵</t>
+  </si>
+  <si>
+    <t>夜魇远程兵（远程）</t>
+  </si>
+  <si>
+    <t>11|0|0|0</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_bad_ranged/lane_dire_ranged.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_33</t>
+  </si>
+  <si>
+    <t>夜魇超级近战兵</t>
+  </si>
+  <si>
+    <t>12|0|0|0</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_bad_melee/creep_bad_melee_mega.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_34</t>
+  </si>
+  <si>
+    <t>炽甲虫战车</t>
+  </si>
+  <si>
+    <t>炽甲虫战车（远程）</t>
+  </si>
+  <si>
+    <t>13|0|0|0</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_2021_dire/creep_2021_dire_siege.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_35</t>
+  </si>
+  <si>
+    <t>炽甲虫战士</t>
+  </si>
+  <si>
+    <t>14|0|0|0</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_2021_dire/creep_2021_dire_melee.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_36</t>
+  </si>
+  <si>
+    <t>远古地狱巨人</t>
+  </si>
+  <si>
+    <t>15|0|0|0</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_dire_hulk/creep_dire_ancient_hulk.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_37</t>
+  </si>
+  <si>
+    <t>骷髅勇士</t>
+  </si>
+  <si>
+    <t>16|0|0|0</t>
+  </si>
+  <si>
+    <t>models/items/wraith_king/arcana/wk_arcana_skeleton.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_38</t>
+  </si>
+  <si>
+    <t>地狱火</t>
+  </si>
+  <si>
+    <t>17|0|0|0</t>
+  </si>
+  <si>
+    <t>models/heroes/warlock/warlock_demon.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_39</t>
+  </si>
+  <si>
+    <t>红眼臭虫</t>
+  </si>
+  <si>
+    <t>18|0|0|0</t>
+  </si>
+  <si>
+    <t>models/monster/monster0125/monster0125.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_40</t>
+  </si>
+  <si>
+    <t>地狱战熊</t>
+  </si>
+  <si>
+    <t>19|0|0|0</t>
+  </si>
+  <si>
+    <t>models/monster/monster0135/monster0135.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_41</t>
+  </si>
+  <si>
+    <t>烈焰战龟</t>
+  </si>
+  <si>
+    <t>20|0|0|0</t>
+  </si>
+  <si>
+    <t>models/items/courier/nexon_turtle_14_red/nexon_turtle_14_red.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_42</t>
+  </si>
+  <si>
+    <t>炼狱界弓</t>
+  </si>
+  <si>
+    <t>炼狱界弓（远程）</t>
+  </si>
+  <si>
+    <t>models/items/clinkz/clinkz_ti9_immortal_weapon/clinkz_ti9_immortal_army.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_43</t>
+  </si>
+  <si>
+    <t>炼狱蜘蛛</t>
+  </si>
+  <si>
+    <t>models/items/broodmother/spiderling/firemother_firemother_spiderling_ti8_3_styles/firemother_firemother_spiderling_ti8_3_styles.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_44</t>
+  </si>
+  <si>
+    <t>地狱猎蜥</t>
+  </si>
+  <si>
+    <t>地狱猎蜥（远程）</t>
+  </si>
+  <si>
+    <t>models/monster/monster0113/monster0113.vmdl</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_45</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_46</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_47</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_48</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_49</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_50</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_51</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_52</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_53</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_54</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_55</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_56</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_57</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_58</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_59</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_60</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_61</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_62</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_63</t>
   </si>
 </sst>
 </file>
@@ -458,7 +740,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,14 +767,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -661,19 +938,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5A5A5A"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6E6"/>
+        <fgColor theme="1" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="1" tint="0.9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +1141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -873,131 +1150,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
         <color rgb="FFFFFFFF"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FFFFFFFF"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FFFFFFFF"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="medium">
         <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF5A5A5A"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF5A5A5A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF5A5A5A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,153 +1293,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1272,56 +1461,86 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1329,35 +1548,26 @@
     <xf numFmtId="177" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1412,7 +1622,7 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 4" xfId="49"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1420,8 +1630,192 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFB6C7EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="medium">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="medium">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{CFDFFE3D-FDE4-4668-9F6A-C9F05ACD911F}">
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="totalRow" dxfId="5"/>
+      <tableStyleElement type="firstColumn" dxfId="4"/>
+      <tableStyleElement type="lastColumn" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="00FFFF00"/>
@@ -1722,660 +2116,660 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI27"/>
+  <dimension ref="A1:AI72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.5083333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="12.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="16.0083333333333" customWidth="1"/>
-    <col min="6" max="6" width="11.5083333333333" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.5083333333333" customWidth="1"/>
-    <col min="8" max="8" width="24.3416666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.175" style="5" customWidth="1"/>
-    <col min="10" max="10" width="23.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="23.675" customWidth="1"/>
-    <col min="12" max="12" width="14.5083333333333" customWidth="1"/>
-    <col min="13" max="13" width="16.175" customWidth="1"/>
-    <col min="14" max="14" width="21.675" customWidth="1"/>
-    <col min="15" max="15" width="50.625" customWidth="1"/>
-    <col min="16" max="16" width="7.34166666666667" customWidth="1"/>
-    <col min="17" max="17" width="15.175" customWidth="1"/>
-    <col min="18" max="18" width="21.0083333333333" customWidth="1"/>
-    <col min="19" max="19" width="16.5083333333333" customWidth="1"/>
-    <col min="20" max="20" width="27.375" customWidth="1"/>
-    <col min="21" max="21" width="11.675" customWidth="1"/>
-    <col min="22" max="22" width="21.8416666666667" customWidth="1"/>
-    <col min="23" max="23" width="24.3416666666667" customWidth="1"/>
-    <col min="24" max="24" width="32.5083333333333" customWidth="1"/>
-    <col min="25" max="25" width="33.5083333333333" customWidth="1"/>
-    <col min="26" max="26" width="17.175" customWidth="1"/>
-    <col min="27" max="27" width="14.625" customWidth="1"/>
-    <col min="28" max="28" width="17.675" customWidth="1"/>
-    <col min="29" max="29" width="27.0083333333333" customWidth="1"/>
-    <col min="30" max="31" width="20.375" customWidth="1"/>
-    <col min="32" max="32" width="14.625" customWidth="1"/>
-    <col min="33" max="34" width="7.00833333333333" customWidth="1"/>
+    <col min="1" max="1" width="23.175" customWidth="1"/>
+    <col min="2" max="2" width="16.3416666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.0083333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.3416666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.0083333333333" customWidth="1"/>
+    <col min="6" max="6" width="8.50833333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.5083333333333" customWidth="1"/>
+    <col min="8" max="8" width="21.3416666666667" customWidth="1"/>
+    <col min="9" max="9" width="14.175" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="20.675" customWidth="1"/>
+    <col min="12" max="12" width="12.5083333333333" customWidth="1"/>
+    <col min="13" max="13" width="14.175" customWidth="1"/>
+    <col min="14" max="14" width="18.675" customWidth="1"/>
+    <col min="15" max="15" width="40.625" customWidth="1"/>
+    <col min="16" max="16" width="5.34166666666667" customWidth="1"/>
+    <col min="17" max="17" width="13.175" customWidth="1"/>
+    <col min="18" max="18" width="18.0083333333333" customWidth="1"/>
+    <col min="19" max="19" width="15.3416666666667" customWidth="1"/>
+    <col min="20" max="21" width="9.675" customWidth="1"/>
+    <col min="22" max="22" width="18.8416666666667" customWidth="1"/>
+    <col min="23" max="23" width="21.3416666666667" customWidth="1"/>
+    <col min="24" max="24" width="29.5083333333333" customWidth="1"/>
+    <col min="25" max="25" width="30.5083333333333" customWidth="1"/>
+    <col min="26" max="26" width="15.175" customWidth="1"/>
+    <col min="27" max="27" width="12.625" customWidth="1"/>
+    <col min="28" max="28" width="15.675" customWidth="1"/>
+    <col min="29" max="29" width="24.0083333333333" customWidth="1"/>
+    <col min="30" max="30" width="19.625" customWidth="1"/>
+    <col min="31" max="31" width="14.0083333333333" customWidth="1"/>
+    <col min="32" max="32" width="12.625" customWidth="1"/>
+    <col min="33" max="34" width="5.00833333333333" customWidth="1"/>
     <col min="35" max="35" width="18.625" customWidth="1"/>
     <col min="36" max="36" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="77" customHeight="1" spans="1:34">
+    <row r="1" s="1" customFormat="1" ht="68" customHeight="1" spans="1:34">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7" t="s">
+      <c r="O1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7" t="s">
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="31"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="39" customHeight="1" spans="1:34">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="2" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10" t="s">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="27" t="s">
+      <c r="W2" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AB2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AC2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AE2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AF2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="32"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10">
         <v>1</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>50</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="12">
         <f>E3</f>
         <v>50</v>
       </c>
-      <c r="G3" s="15">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="10">
         <f>F3</f>
         <v>50</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="10">
         <v>1</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="10">
         <f>J3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="10">
         <v>1.5</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="10">
         <v>25</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="10">
         <v>1</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="10">
         <v>1</v>
       </c>
-      <c r="R3" s="28">
+      <c r="R3" s="36">
         <v>170</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14">
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10">
         <v>250</v>
       </c>
-      <c r="W3" s="29">
+      <c r="W3" s="37">
         <v>180</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="X3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="Y3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="Z3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AA3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="14" t="s">
+      <c r="AA3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AD3" s="14" t="s">
+      <c r="AD3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AE3" s="14">
+      <c r="AE3" s="10">
         <v>10</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AF3" s="10">
         <v>20000</v>
       </c>
-      <c r="AG3" s="14">
+      <c r="AG3" s="10">
         <v>10</v>
       </c>
-      <c r="AH3" s="33">
+      <c r="AH3" s="10">
         <v>10</v>
       </c>
-      <c r="AI3" s="34" t="str">
+      <c r="AI3" s="42" t="str">
         <f>IF(AG3&lt;=AH3,"","数据出错")</f>
         <v/>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>2</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>75</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <f t="shared" ref="F3:F9" si="0">E4</f>
         <v>75</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>0</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <f t="shared" ref="I4:I27" si="1">F4</f>
         <v>75</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="13">
         <v>2</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="13">
         <f>J4</f>
         <v>2</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="13">
         <v>1.5</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="13">
         <v>25</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="13">
         <v>1</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q4" s="13">
         <v>1</v>
       </c>
-      <c r="R4" s="28">
+      <c r="R4" s="38">
         <v>170</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22">
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13">
         <v>250</v>
       </c>
-      <c r="W4" s="30">
+      <c r="W4" s="39">
         <v>180</v>
       </c>
-      <c r="X4" s="22" t="s">
+      <c r="X4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Y4" s="22" t="s">
+      <c r="Y4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Z4" s="22" t="s">
+      <c r="Z4" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AA4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="22" t="s">
+      <c r="AA4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AD4" s="14" t="s">
+      <c r="AD4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AE4" s="13">
         <v>10</v>
       </c>
-      <c r="AF4" s="22">
+      <c r="AF4" s="13">
         <v>20000</v>
       </c>
-      <c r="AG4" s="22">
+      <c r="AG4" s="13">
         <v>10</v>
       </c>
-      <c r="AH4" s="35">
+      <c r="AH4" s="13">
         <v>10</v>
       </c>
-      <c r="AI4" s="34" t="str">
+      <c r="AI4" s="42" t="str">
         <f t="shared" ref="AI4:AI32" si="2">IF(AG4&lt;=AH4,"","数据出错")</f>
         <v/>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A5" s="12" t="s">
+    <row r="5" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A5" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="16">
         <v>3</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="18">
         <v>80</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="16">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="16">
         <v>3</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="16">
         <f t="shared" ref="K5:K32" si="3">J5</f>
         <v>3</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="16">
         <v>1.5</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="16">
         <v>25</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="16">
         <v>1</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="16">
         <v>1</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="40">
         <v>170</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14">
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16">
         <v>250</v>
       </c>
-      <c r="W5" s="29">
+      <c r="W5" s="41">
         <v>180</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="X5" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="Y5" s="14" t="s">
+      <c r="Y5" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Z5" s="14" t="s">
+      <c r="Z5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AA5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="14" t="s">
+      <c r="AA5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AD5" s="14" t="s">
+      <c r="AD5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AE5" s="14">
+      <c r="AE5" s="16">
         <v>10</v>
       </c>
-      <c r="AF5" s="14">
+      <c r="AF5" s="16">
         <v>20000</v>
       </c>
-      <c r="AG5" s="14">
+      <c r="AG5" s="16">
         <v>10</v>
       </c>
-      <c r="AH5" s="33">
+      <c r="AH5" s="16">
         <v>10</v>
       </c>
-      <c r="AI5" s="34" t="str">
+      <c r="AI5" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A6" s="12" t="s">
+    <row r="6" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>4</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>90</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>0</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="13">
         <v>4</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="13">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="13">
         <v>1.5</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="13">
         <v>25</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="13">
         <v>1</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="13">
         <v>1</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R6" s="38">
         <v>170</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22">
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13">
         <v>250</v>
       </c>
-      <c r="W6" s="30">
+      <c r="W6" s="39">
         <v>180</v>
       </c>
-      <c r="X6" s="22" t="s">
+      <c r="X6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Y6" s="22" t="s">
+      <c r="Y6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Z6" s="22" t="s">
+      <c r="Z6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AA6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="22" t="s">
+      <c r="AA6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AD6" s="14" t="s">
+      <c r="AD6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AE6" s="13">
         <v>10</v>
       </c>
-      <c r="AF6" s="22">
+      <c r="AF6" s="13">
         <v>20000</v>
       </c>
-      <c r="AG6" s="22">
+      <c r="AG6" s="13">
         <v>10</v>
       </c>
-      <c r="AH6" s="35">
+      <c r="AH6" s="13">
         <v>10</v>
       </c>
-      <c r="AI6" s="34" t="str">
+      <c r="AI6" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A7" s="12" t="s">
+    <row r="7" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A7" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -2384,212 +2778,212 @@
       <c r="C7" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="16">
         <v>5</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="18">
         <v>100</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="18">
         <v>10</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="16">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="16">
         <v>5</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="16">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="16">
         <v>1.5</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="16">
         <v>25</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="16">
         <v>1.1</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="16">
         <v>1</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="40">
         <v>170</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14">
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16">
         <v>200</v>
       </c>
-      <c r="W7" s="29">
+      <c r="W7" s="41">
         <v>180</v>
       </c>
-      <c r="X7" s="14" t="s">
+      <c r="X7" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="Y7" s="14" t="s">
+      <c r="Y7" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Z7" s="14" t="s">
+      <c r="Z7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AA7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="14" t="s">
+      <c r="AA7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AD7" s="14" t="s">
+      <c r="AD7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AE7" s="14">
+      <c r="AE7" s="16">
         <v>10</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AF7" s="16">
         <v>20000</v>
       </c>
-      <c r="AG7" s="14">
+      <c r="AG7" s="16">
         <v>1</v>
       </c>
-      <c r="AH7" s="33">
+      <c r="AH7" s="16">
         <v>1</v>
       </c>
-      <c r="AI7" s="34" t="str">
+      <c r="AI7" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A8" s="12" t="s">
+    <row r="8" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A8" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>6</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>200</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>0</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>6</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="13">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="13">
         <v>1.5</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="13">
         <v>25</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="13">
         <v>1.1</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="13">
         <v>1</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="38">
         <v>170</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22">
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13">
         <v>250</v>
       </c>
-      <c r="W8" s="30">
+      <c r="W8" s="39">
         <v>180</v>
       </c>
-      <c r="X8" s="22" t="s">
+      <c r="X8" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Y8" s="22" t="s">
+      <c r="Y8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Z8" s="22" t="s">
+      <c r="Z8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AA8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="22" t="s">
+      <c r="AA8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AD8" s="14" t="s">
+      <c r="AD8" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AE8" s="14">
+      <c r="AE8" s="13">
         <v>10</v>
       </c>
-      <c r="AF8" s="22">
+      <c r="AF8" s="13">
         <v>20000</v>
       </c>
-      <c r="AG8" s="22">
+      <c r="AG8" s="13">
         <v>11</v>
       </c>
-      <c r="AH8" s="35">
+      <c r="AH8" s="13">
         <v>11</v>
       </c>
-      <c r="AI8" s="34" t="str">
+      <c r="AI8" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A9" s="12" t="s">
+    <row r="9" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A9" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -2598,212 +2992,212 @@
       <c r="C9" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="16">
         <v>7</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="18">
         <v>300</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="18">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15" t="s">
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="16">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="16">
         <v>7</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="16">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="16">
         <v>1.5</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="16">
         <v>25</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="16">
         <v>1.3</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="16">
         <v>1</v>
       </c>
-      <c r="R9" s="28">
+      <c r="R9" s="40">
         <v>170</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="S9" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14">
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16">
         <v>250</v>
       </c>
-      <c r="W9" s="29">
+      <c r="W9" s="41">
         <v>180</v>
       </c>
-      <c r="X9" s="14" t="s">
+      <c r="X9" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="Y9" s="14" t="s">
+      <c r="Y9" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Z9" s="14" t="s">
+      <c r="Z9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AA9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="14" t="s">
+      <c r="AA9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AD9" s="14" t="s">
+      <c r="AD9" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AE9" s="14">
+      <c r="AE9" s="16">
         <v>10</v>
       </c>
-      <c r="AF9" s="14">
+      <c r="AF9" s="16">
         <v>20000</v>
       </c>
-      <c r="AG9" s="14">
+      <c r="AG9" s="16">
         <v>11</v>
       </c>
-      <c r="AH9" s="33">
+      <c r="AH9" s="16">
         <v>11</v>
       </c>
-      <c r="AI9" s="34" t="str">
+      <c r="AI9" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A10" s="12" t="s">
+    <row r="10" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A10" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>8</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>500</v>
       </c>
       <c r="F10" s="15">
         <f t="shared" ref="F10:F32" si="4">E10</f>
         <v>500</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>0</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>8</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="13">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="13">
         <v>1.5</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="13">
         <v>25</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="N10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="O10" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="13">
         <v>1.3</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="13">
         <v>1</v>
       </c>
-      <c r="R10" s="28">
+      <c r="R10" s="38">
         <v>170</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22">
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13">
         <v>250</v>
       </c>
-      <c r="W10" s="30">
+      <c r="W10" s="39">
         <v>180</v>
       </c>
-      <c r="X10" s="22" t="s">
+      <c r="X10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Y10" s="22" t="s">
+      <c r="Y10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Z10" s="22" t="s">
+      <c r="Z10" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AA10" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="22" t="s">
+      <c r="AA10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AD10" s="14" t="s">
+      <c r="AD10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AE10" s="14">
+      <c r="AE10" s="13">
         <v>10</v>
       </c>
-      <c r="AF10" s="22">
+      <c r="AF10" s="13">
         <v>20000</v>
       </c>
-      <c r="AG10" s="22">
+      <c r="AG10" s="13">
         <v>11</v>
       </c>
-      <c r="AH10" s="35">
+      <c r="AH10" s="13">
         <v>11</v>
       </c>
-      <c r="AI10" s="34" t="str">
+      <c r="AI10" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A11" s="12" t="s">
+    <row r="11" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A11" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -2812,426 +3206,426 @@
       <c r="C11" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="16">
         <v>9</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="18">
         <v>800</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="18">
         <f t="shared" si="4"/>
         <v>800</v>
       </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15" t="s">
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="16">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="16">
         <v>9</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="16">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="16">
         <v>1.5</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="16">
         <v>25</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="O11" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="16">
         <v>1.3</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="16">
         <v>1</v>
       </c>
-      <c r="R11" s="28">
+      <c r="R11" s="40">
         <v>170</v>
       </c>
-      <c r="S11" s="14" t="s">
+      <c r="S11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14">
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16">
         <v>250</v>
       </c>
-      <c r="W11" s="29">
+      <c r="W11" s="41">
         <v>180</v>
       </c>
-      <c r="X11" s="14" t="s">
+      <c r="X11" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="Y11" s="14" t="s">
+      <c r="Y11" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Z11" s="14" t="s">
+      <c r="Z11" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AA11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="14" t="s">
+      <c r="AA11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AD11" s="14" t="s">
+      <c r="AD11" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AE11" s="14">
+      <c r="AE11" s="16">
         <v>10</v>
       </c>
-      <c r="AF11" s="14">
+      <c r="AF11" s="16">
         <v>20000</v>
       </c>
-      <c r="AG11" s="14">
+      <c r="AG11" s="16">
         <v>11</v>
       </c>
-      <c r="AH11" s="33">
+      <c r="AH11" s="16">
         <v>11</v>
       </c>
-      <c r="AI11" s="34" t="str">
+      <c r="AI11" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A12" s="12" t="s">
+    <row r="12" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A12" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>10</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>1000</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>0</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>10</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="13">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="13">
         <v>1.5</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="13">
         <v>25</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="N12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="13">
         <v>1.3</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="13">
         <v>1</v>
       </c>
-      <c r="R12" s="28">
+      <c r="R12" s="38">
         <v>170</v>
       </c>
-      <c r="S12" s="14" t="s">
+      <c r="S12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22">
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13">
         <v>200</v>
       </c>
-      <c r="W12" s="30">
+      <c r="W12" s="39">
         <v>180</v>
       </c>
-      <c r="X12" s="22" t="s">
+      <c r="X12" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Y12" s="22" t="s">
+      <c r="Y12" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Z12" s="22" t="s">
+      <c r="Z12" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AA12" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="22" t="s">
+      <c r="AA12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AD12" s="14" t="s">
+      <c r="AD12" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AE12" s="14">
+      <c r="AE12" s="13">
         <v>10</v>
       </c>
-      <c r="AF12" s="22">
+      <c r="AF12" s="13">
         <v>20000</v>
       </c>
-      <c r="AG12" s="22">
+      <c r="AG12" s="13">
         <v>1</v>
       </c>
-      <c r="AH12" s="35">
+      <c r="AH12" s="13">
         <v>1</v>
       </c>
-      <c r="AI12" s="34" t="str">
+      <c r="AI12" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A13" s="12" t="s">
+    <row r="13" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A13" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="16">
         <v>11</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="18">
         <v>2000</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15" t="s">
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="16">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="16">
         <v>37</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="16">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="16">
         <v>1.5</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="16">
         <v>25</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="16">
         <v>1.4</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="16">
         <v>1</v>
       </c>
-      <c r="R13" s="28">
+      <c r="R13" s="40">
         <v>170</v>
       </c>
-      <c r="S13" s="14" t="s">
+      <c r="S13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14">
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16">
         <v>250</v>
       </c>
-      <c r="W13" s="29">
+      <c r="W13" s="41">
         <v>180</v>
       </c>
-      <c r="X13" s="14" t="s">
+      <c r="X13" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="Y13" s="14" t="s">
+      <c r="Y13" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Z13" s="14" t="s">
+      <c r="Z13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AA13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="14" t="s">
+      <c r="AA13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AD13" s="14" t="s">
+      <c r="AD13" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AE13" s="14">
+      <c r="AE13" s="16">
         <v>10</v>
       </c>
-      <c r="AF13" s="14">
+      <c r="AF13" s="16">
         <v>20000</v>
       </c>
-      <c r="AG13" s="14">
+      <c r="AG13" s="16">
         <v>12</v>
       </c>
-      <c r="AH13" s="33">
+      <c r="AH13" s="16">
         <v>12</v>
       </c>
-      <c r="AI13" s="34" t="str">
+      <c r="AI13" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A14" s="12" t="s">
+    <row r="14" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A14" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>12</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>2800</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="4"/>
         <v>2800</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>20</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <f t="shared" si="1"/>
         <v>2800</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="13">
         <v>40</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="13">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="13">
         <v>1.5</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="13">
         <v>25</v>
       </c>
-      <c r="N14" s="22" t="s">
+      <c r="N14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="O14" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="22">
+      <c r="P14" s="13">
         <v>1.4</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="13">
         <v>1</v>
       </c>
-      <c r="R14" s="28">
+      <c r="R14" s="38">
         <v>170</v>
       </c>
-      <c r="S14" s="14" t="s">
+      <c r="S14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22">
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13">
         <v>150</v>
       </c>
-      <c r="W14" s="30">
+      <c r="W14" s="39">
         <v>180</v>
       </c>
-      <c r="X14" s="22" t="s">
+      <c r="X14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Y14" s="22" t="s">
+      <c r="Y14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Z14" s="22" t="s">
+      <c r="Z14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AA14" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="22" t="s">
+      <c r="AA14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AD14" s="14" t="s">
+      <c r="AD14" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AE14" s="14">
+      <c r="AE14" s="13">
         <v>10</v>
       </c>
-      <c r="AF14" s="22">
+      <c r="AF14" s="13">
         <v>20000</v>
       </c>
-      <c r="AG14" s="22">
+      <c r="AG14" s="13">
         <v>12</v>
       </c>
-      <c r="AH14" s="35">
+      <c r="AH14" s="13">
         <v>12</v>
       </c>
-      <c r="AI14" s="34" t="str">
+      <c r="AI14" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A15" s="12" t="s">
+    <row r="15" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A15" s="16" t="s">
         <v>98</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -3240,212 +3634,212 @@
       <c r="C15" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="14">
-        <v>13</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="D15" s="16">
+        <v>13</v>
+      </c>
+      <c r="E15" s="18">
         <v>3500</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="18">
         <f t="shared" si="4"/>
         <v>3500</v>
       </c>
-      <c r="G15" s="15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15" t="s">
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="16">
         <f t="shared" si="1"/>
         <v>3500</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="16">
         <v>43</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="16">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="16">
         <v>1.5</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="16">
         <v>25</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="16">
         <v>1.4</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="16">
         <v>1</v>
       </c>
-      <c r="R15" s="28">
+      <c r="R15" s="40">
         <v>170</v>
       </c>
-      <c r="S15" s="14" t="s">
+      <c r="S15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14">
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16">
         <v>250</v>
       </c>
-      <c r="W15" s="29">
+      <c r="W15" s="41">
         <v>180</v>
       </c>
-      <c r="X15" s="14" t="s">
+      <c r="X15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="Y15" s="14" t="s">
+      <c r="Y15" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Z15" s="14" t="s">
+      <c r="Z15" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AA15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="14" t="s">
+      <c r="AA15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AD15" s="14" t="s">
+      <c r="AD15" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AE15" s="14">
+      <c r="AE15" s="16">
         <v>10</v>
       </c>
-      <c r="AF15" s="14">
+      <c r="AF15" s="16">
         <v>20000</v>
       </c>
-      <c r="AG15" s="14">
+      <c r="AG15" s="16">
         <v>12</v>
       </c>
-      <c r="AH15" s="33">
+      <c r="AH15" s="16">
         <v>12</v>
       </c>
-      <c r="AI15" s="34" t="str">
+      <c r="AI15" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A16" s="12" t="s">
+    <row r="16" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A16" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>14</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>4200</v>
       </c>
       <c r="F16" s="15">
         <f t="shared" si="4"/>
         <v>4200</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <v>0</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <f t="shared" si="1"/>
         <v>4200</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="13">
         <v>46</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="13">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="13">
         <v>1.5</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="13">
         <v>25</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="N16" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="22">
+      <c r="P16" s="13">
         <v>1.4</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16" s="13">
         <v>1</v>
       </c>
-      <c r="R16" s="28">
+      <c r="R16" s="38">
         <v>170</v>
       </c>
-      <c r="S16" s="14" t="s">
+      <c r="S16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22">
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13">
         <v>200</v>
       </c>
-      <c r="W16" s="30">
+      <c r="W16" s="39">
         <v>180</v>
       </c>
-      <c r="X16" s="22" t="s">
+      <c r="X16" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Y16" s="22" t="s">
+      <c r="Y16" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Z16" s="22" t="s">
+      <c r="Z16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AA16" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="22" t="s">
+      <c r="AA16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AD16" s="14" t="s">
+      <c r="AD16" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AE16" s="14">
+      <c r="AE16" s="13">
         <v>10</v>
       </c>
-      <c r="AF16" s="22">
+      <c r="AF16" s="13">
         <v>20000</v>
       </c>
-      <c r="AG16" s="22">
+      <c r="AG16" s="13">
         <v>12</v>
       </c>
-      <c r="AH16" s="35">
+      <c r="AH16" s="13">
         <v>12</v>
       </c>
-      <c r="AI16" s="34" t="str">
+      <c r="AI16" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A17" s="12" t="s">
+    <row r="17" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A17" s="16" t="s">
         <v>104</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -3454,212 +3848,212 @@
       <c r="C17" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="16">
         <v>15</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="18">
         <v>5000</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="18">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G17" s="15">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15" t="s">
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="16">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="16">
         <v>49</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="16">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="16">
         <v>1.5</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="16">
         <v>25</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="N17" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="O17" s="21" t="s">
+      <c r="O17" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="16">
         <v>1.4</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="16">
         <v>1</v>
       </c>
-      <c r="R17" s="28">
+      <c r="R17" s="40">
         <v>170</v>
       </c>
-      <c r="S17" s="14" t="s">
+      <c r="S17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14">
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16">
         <v>200</v>
       </c>
-      <c r="W17" s="29">
+      <c r="W17" s="41">
         <v>180</v>
       </c>
-      <c r="X17" s="14" t="s">
+      <c r="X17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="Y17" s="14" t="s">
+      <c r="Y17" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Z17" s="14" t="s">
+      <c r="Z17" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AA17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="14" t="s">
+      <c r="AA17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AD17" s="14" t="s">
+      <c r="AD17" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AE17" s="14">
+      <c r="AE17" s="16">
         <v>10</v>
       </c>
-      <c r="AF17" s="14">
+      <c r="AF17" s="16">
         <v>20000</v>
       </c>
-      <c r="AG17" s="14">
+      <c r="AG17" s="16">
         <v>1</v>
       </c>
-      <c r="AH17" s="33">
+      <c r="AH17" s="16">
         <v>1</v>
       </c>
-      <c r="AI17" s="34" t="str">
+      <c r="AI17" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A18" s="12" t="s">
+    <row r="18" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A18" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>16</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>6200</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="4"/>
         <v>6200</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <v>0</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <f t="shared" si="1"/>
         <v>6200</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="13">
         <v>52</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="13">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="13">
         <v>1.5</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="13">
         <v>25</v>
       </c>
-      <c r="N18" s="22" t="s">
+      <c r="N18" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="23" t="s">
+      <c r="O18" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="P18" s="22">
+      <c r="P18" s="13">
         <v>1.4</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q18" s="13">
         <v>1</v>
       </c>
-      <c r="R18" s="28">
+      <c r="R18" s="38">
         <v>170</v>
       </c>
-      <c r="S18" s="14" t="s">
+      <c r="S18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22">
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13">
         <v>300</v>
       </c>
-      <c r="W18" s="30">
+      <c r="W18" s="39">
         <v>180</v>
       </c>
-      <c r="X18" s="22" t="s">
+      <c r="X18" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Y18" s="22" t="s">
+      <c r="Y18" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="Z18" s="22" t="s">
+      <c r="Z18" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AA18" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="22" t="s">
+      <c r="AA18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AD18" s="14" t="s">
+      <c r="AD18" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AE18" s="14">
+      <c r="AE18" s="13">
         <v>10</v>
       </c>
-      <c r="AF18" s="22">
+      <c r="AF18" s="13">
         <v>20000</v>
       </c>
-      <c r="AG18" s="22">
-        <v>13</v>
-      </c>
-      <c r="AH18" s="35">
-        <v>13</v>
-      </c>
-      <c r="AI18" s="34" t="str">
+      <c r="AG18" s="13">
+        <v>13</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>13</v>
+      </c>
+      <c r="AI18" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A19" s="12" t="s">
+    <row r="19" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A19" s="16" t="s">
         <v>111</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -3668,212 +4062,212 @@
       <c r="C19" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="16">
         <v>17</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="18">
         <v>7349</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="18">
         <f t="shared" si="4"/>
         <v>7349</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="18">
         <v>30</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="16">
         <f t="shared" si="1"/>
         <v>7349</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="16">
         <v>55</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="16">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="16">
         <v>1.5</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="16">
         <v>25</v>
       </c>
-      <c r="N19" s="14" t="s">
+      <c r="N19" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="O19" s="21" t="s">
+      <c r="O19" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="16">
         <v>1.4</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="16">
         <v>1</v>
       </c>
-      <c r="R19" s="28">
+      <c r="R19" s="40">
         <v>170</v>
       </c>
-      <c r="S19" s="14" t="s">
+      <c r="S19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14">
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16">
         <v>100</v>
       </c>
-      <c r="W19" s="29">
+      <c r="W19" s="41">
         <v>180</v>
       </c>
-      <c r="X19" s="14" t="s">
+      <c r="X19" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="Y19" s="14" t="s">
+      <c r="Y19" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Z19" s="14" t="s">
+      <c r="Z19" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AA19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="14" t="s">
+      <c r="AA19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AD19" s="14" t="s">
+      <c r="AD19" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AE19" s="14">
+      <c r="AE19" s="16">
         <v>10</v>
       </c>
-      <c r="AF19" s="14">
+      <c r="AF19" s="16">
         <v>20000</v>
       </c>
-      <c r="AG19" s="14">
-        <v>13</v>
-      </c>
-      <c r="AH19" s="33">
-        <v>13</v>
-      </c>
-      <c r="AI19" s="34" t="str">
+      <c r="AG19" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH19" s="16">
+        <v>13</v>
+      </c>
+      <c r="AI19" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A20" s="12" t="s">
+    <row r="20" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A20" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>18</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>9200</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="4"/>
         <v>9200</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <v>0</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <f t="shared" si="1"/>
         <v>9200</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="13">
         <v>58</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="13">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="13">
         <v>1.5</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="13">
         <v>25</v>
       </c>
-      <c r="N20" s="22" t="s">
+      <c r="N20" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="23" t="s">
+      <c r="O20" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="P20" s="22">
+      <c r="P20" s="13">
         <v>1.4</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="13">
         <v>1</v>
       </c>
-      <c r="R20" s="28">
+      <c r="R20" s="38">
         <v>170</v>
       </c>
-      <c r="S20" s="14" t="s">
+      <c r="S20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22">
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13">
         <v>200</v>
       </c>
-      <c r="W20" s="30">
+      <c r="W20" s="39">
         <v>180</v>
       </c>
-      <c r="X20" s="22" t="s">
+      <c r="X20" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Y20" s="22" t="s">
+      <c r="Y20" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Z20" s="22" t="s">
+      <c r="Z20" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AA20" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="22" t="s">
+      <c r="AA20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AD20" s="14" t="s">
+      <c r="AD20" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AE20" s="14">
+      <c r="AE20" s="13">
         <v>10</v>
       </c>
-      <c r="AF20" s="22">
+      <c r="AF20" s="13">
         <v>20000</v>
       </c>
-      <c r="AG20" s="22">
-        <v>13</v>
-      </c>
-      <c r="AH20" s="35">
-        <v>13</v>
-      </c>
-      <c r="AI20" s="34" t="str">
+      <c r="AG20" s="13">
+        <v>13</v>
+      </c>
+      <c r="AH20" s="13">
+        <v>13</v>
+      </c>
+      <c r="AI20" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A21" s="12" t="s">
+    <row r="21" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A21" s="16" t="s">
         <v>117</v>
       </c>
       <c r="B21" s="17" t="s">
@@ -3882,117 +4276,117 @@
       <c r="C21" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="16">
         <v>19</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="18">
         <v>12000</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="18">
         <f t="shared" si="4"/>
         <v>12000</v>
       </c>
-      <c r="G21" s="15">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15" t="s">
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="16">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="16">
         <v>61</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="16">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="16">
         <v>1.5</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="16">
         <v>25</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="N21" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="O21" s="21" t="s">
+      <c r="O21" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="16">
         <v>1.4</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="16">
         <v>1</v>
       </c>
-      <c r="R21" s="28">
+      <c r="R21" s="40">
         <v>170</v>
       </c>
-      <c r="S21" s="14" t="s">
+      <c r="S21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14">
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16">
         <v>200</v>
       </c>
-      <c r="W21" s="29">
+      <c r="W21" s="41">
         <v>180</v>
       </c>
-      <c r="X21" s="14" t="s">
+      <c r="X21" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="Y21" s="14" t="s">
+      <c r="Y21" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Z21" s="14" t="s">
+      <c r="Z21" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AA21" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="14" t="s">
+      <c r="AA21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AD21" s="14" t="s">
+      <c r="AD21" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AE21" s="14">
+      <c r="AE21" s="16">
         <v>10</v>
       </c>
-      <c r="AF21" s="14">
+      <c r="AF21" s="16">
         <v>20000</v>
       </c>
-      <c r="AG21" s="14">
-        <v>13</v>
-      </c>
-      <c r="AH21" s="33">
-        <v>13</v>
-      </c>
-      <c r="AI21" s="34" t="str">
+      <c r="AG21" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH21" s="16">
+        <v>13</v>
+      </c>
+      <c r="AI21" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A22" s="12" t="s">
+    <row r="22" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A22" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>20</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>15000</v>
       </c>
       <c r="F22" s="15">
@@ -4005,208 +4399,208 @@
       <c r="H22" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="13">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="13">
         <v>64</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="13">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="13">
         <v>1.5</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="13">
         <v>25</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="N22" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O22" s="23" t="s">
+      <c r="O22" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="P22" s="22">
+      <c r="P22" s="13">
         <v>1.4</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q22" s="13">
         <v>1</v>
       </c>
-      <c r="R22" s="28">
+      <c r="R22" s="38">
         <v>170</v>
       </c>
-      <c r="S22" s="14" t="s">
+      <c r="S22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22">
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13">
         <v>200</v>
       </c>
-      <c r="W22" s="30">
+      <c r="W22" s="39">
         <v>180</v>
       </c>
-      <c r="X22" s="22" t="s">
+      <c r="X22" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Y22" s="22" t="s">
+      <c r="Y22" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Z22" s="22" t="s">
+      <c r="Z22" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AA22" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="22" t="s">
+      <c r="AA22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AD22" s="14" t="s">
+      <c r="AD22" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AE22" s="14">
+      <c r="AE22" s="13">
         <v>10</v>
       </c>
-      <c r="AF22" s="22">
+      <c r="AF22" s="13">
         <v>20000</v>
       </c>
-      <c r="AG22" s="22">
-        <v>13</v>
-      </c>
-      <c r="AH22" s="35">
-        <v>13</v>
-      </c>
-      <c r="AI22" s="34" t="str">
+      <c r="AG22" s="13">
+        <v>13</v>
+      </c>
+      <c r="AH22" s="13">
+        <v>13</v>
+      </c>
+      <c r="AI22" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A23" s="12" t="s">
+    <row r="23" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A23" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="16">
         <v>21</v>
       </c>
-      <c r="E23" s="16">
-        <v>15000</v>
-      </c>
-      <c r="F23" s="15">
+      <c r="E23" s="18">
+        <v>15000</v>
+      </c>
+      <c r="F23" s="18">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="G23" s="15">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15" t="s">
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="16">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="16">
         <v>64</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="16">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="16">
         <v>1.5</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="16">
         <v>25</v>
       </c>
-      <c r="N23" s="22" t="s">
+      <c r="N23" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="O23" s="23" t="s">
+      <c r="O23" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="P23" s="22">
+      <c r="P23" s="16">
         <v>1.4</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="Q23" s="16">
         <v>1</v>
       </c>
-      <c r="R23" s="28">
+      <c r="R23" s="40">
         <v>170</v>
       </c>
-      <c r="S23" s="14" t="s">
+      <c r="S23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22">
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16">
         <v>200</v>
       </c>
-      <c r="W23" s="30">
+      <c r="W23" s="41">
         <v>180</v>
       </c>
-      <c r="X23" s="22" t="s">
+      <c r="X23" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="Y23" s="22" t="s">
+      <c r="Y23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Z23" s="22" t="s">
+      <c r="Z23" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AA23" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="22" t="s">
+      <c r="AA23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AD23" s="14" t="s">
+      <c r="AD23" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AE23" s="14">
+      <c r="AE23" s="16">
         <v>10</v>
       </c>
-      <c r="AF23" s="22">
+      <c r="AF23" s="16">
         <v>20000</v>
       </c>
-      <c r="AG23" s="22">
-        <v>13</v>
-      </c>
-      <c r="AH23" s="35">
-        <v>13</v>
-      </c>
-      <c r="AI23" s="34" t="str">
+      <c r="AG23" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH23" s="16">
+        <v>13</v>
+      </c>
+      <c r="AI23" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A24" s="12" t="s">
+    <row r="24" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A24" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>22</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>15000</v>
       </c>
       <c r="F24" s="15">
@@ -4219,208 +4613,208 @@
       <c r="H24" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="13">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="13">
         <v>64</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="13">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="13">
         <v>1.5</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="13">
         <v>25</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="N24" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O24" s="23" t="s">
+      <c r="O24" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="P24" s="22">
+      <c r="P24" s="13">
         <v>1.4</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q24" s="13">
         <v>1</v>
       </c>
-      <c r="R24" s="28">
+      <c r="R24" s="38">
         <v>170</v>
       </c>
-      <c r="S24" s="14" t="s">
+      <c r="S24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22">
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13">
         <v>200</v>
       </c>
-      <c r="W24" s="30">
+      <c r="W24" s="39">
         <v>180</v>
       </c>
-      <c r="X24" s="22" t="s">
+      <c r="X24" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Y24" s="22" t="s">
+      <c r="Y24" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Z24" s="22" t="s">
+      <c r="Z24" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AA24" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="22" t="s">
+      <c r="AA24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AD24" s="14" t="s">
+      <c r="AD24" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AE24" s="14">
+      <c r="AE24" s="13">
         <v>10</v>
       </c>
-      <c r="AF24" s="22">
+      <c r="AF24" s="13">
         <v>20000</v>
       </c>
-      <c r="AG24" s="22">
-        <v>13</v>
-      </c>
-      <c r="AH24" s="35">
-        <v>13</v>
-      </c>
-      <c r="AI24" s="34" t="str">
+      <c r="AG24" s="13">
+        <v>13</v>
+      </c>
+      <c r="AH24" s="13">
+        <v>13</v>
+      </c>
+      <c r="AI24" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A25" s="12" t="s">
+    <row r="25" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A25" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="16">
         <v>23</v>
       </c>
-      <c r="E25" s="16">
-        <v>15000</v>
-      </c>
-      <c r="F25" s="15">
+      <c r="E25" s="18">
+        <v>15000</v>
+      </c>
+      <c r="F25" s="18">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="G25" s="15">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15" t="s">
+      <c r="G25" s="18">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="16">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="16">
         <v>64</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="16">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="16">
         <v>1.5</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="16">
         <v>25</v>
       </c>
-      <c r="N25" s="22" t="s">
+      <c r="N25" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="O25" s="23" t="s">
+      <c r="O25" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P25" s="16">
         <v>1.4</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="16">
         <v>1</v>
       </c>
-      <c r="R25" s="28">
+      <c r="R25" s="40">
         <v>170</v>
       </c>
-      <c r="S25" s="14" t="s">
+      <c r="S25" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22">
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16">
         <v>200</v>
       </c>
-      <c r="W25" s="30">
+      <c r="W25" s="41">
         <v>180</v>
       </c>
-      <c r="X25" s="22" t="s">
+      <c r="X25" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="Y25" s="22" t="s">
+      <c r="Y25" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Z25" s="22" t="s">
+      <c r="Z25" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AA25" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="22" t="s">
+      <c r="AA25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AD25" s="14" t="s">
+      <c r="AD25" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AE25" s="14">
+      <c r="AE25" s="16">
         <v>10</v>
       </c>
-      <c r="AF25" s="22">
+      <c r="AF25" s="16">
         <v>20000</v>
       </c>
-      <c r="AG25" s="22">
-        <v>13</v>
-      </c>
-      <c r="AH25" s="35">
-        <v>13</v>
-      </c>
-      <c r="AI25" s="34" t="str">
+      <c r="AG25" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH25" s="16">
+        <v>13</v>
+      </c>
+      <c r="AI25" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A26" s="12" t="s">
+    <row r="26" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A26" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>24</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <v>15000</v>
       </c>
       <c r="F26" s="15">
@@ -4433,194 +4827,3925 @@
       <c r="H26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="13">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="13">
         <v>64</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="13">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="13">
         <v>1.5</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="13">
         <v>25</v>
       </c>
-      <c r="N26" s="22" t="s">
+      <c r="N26" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O26" s="23" t="s">
+      <c r="O26" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="P26" s="22">
+      <c r="P26" s="13">
         <v>1.4</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q26" s="13">
         <v>1</v>
       </c>
-      <c r="R26" s="28">
+      <c r="R26" s="38">
         <v>170</v>
       </c>
-      <c r="S26" s="14" t="s">
+      <c r="S26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22">
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13">
         <v>200</v>
       </c>
-      <c r="W26" s="30">
+      <c r="W26" s="39">
         <v>180</v>
       </c>
-      <c r="X26" s="22" t="s">
+      <c r="X26" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Y26" s="22" t="s">
+      <c r="Y26" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Z26" s="22" t="s">
+      <c r="Z26" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AA26" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="22" t="s">
+      <c r="AA26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AD26" s="14" t="s">
+      <c r="AD26" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AE26" s="14">
+      <c r="AE26" s="13">
         <v>10</v>
       </c>
-      <c r="AF26" s="22">
+      <c r="AF26" s="13">
         <v>20000</v>
       </c>
-      <c r="AG26" s="22">
-        <v>13</v>
-      </c>
-      <c r="AH26" s="35">
-        <v>13</v>
-      </c>
-      <c r="AI26" s="34" t="str">
+      <c r="AG26" s="13">
+        <v>13</v>
+      </c>
+      <c r="AH26" s="13">
+        <v>13</v>
+      </c>
+      <c r="AI26" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" ht="39" customHeight="1" spans="1:35">
-      <c r="A27" s="12" t="s">
+    <row r="27" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
+      <c r="A27" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="16">
         <v>25</v>
       </c>
-      <c r="E27" s="16">
-        <v>15000</v>
-      </c>
-      <c r="F27" s="15">
+      <c r="E27" s="18">
+        <v>15000</v>
+      </c>
+      <c r="F27" s="18">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="G27" s="15">
-        <v>0</v>
-      </c>
-      <c r="H27" s="15" t="s">
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="16">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="16">
         <v>64</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="16">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="16">
         <v>1.5</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M27" s="16">
         <v>25</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="O27" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="P27" s="22">
+      <c r="P27" s="16">
         <v>1.4</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q27" s="16">
         <v>1</v>
       </c>
-      <c r="R27" s="28">
+      <c r="R27" s="40">
         <v>170</v>
       </c>
-      <c r="S27" s="14" t="s">
+      <c r="S27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22">
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16">
         <v>200</v>
       </c>
-      <c r="W27" s="30">
+      <c r="W27" s="41">
         <v>180</v>
       </c>
-      <c r="X27" s="22" t="s">
+      <c r="X27" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="Y27" s="22" t="s">
+      <c r="Y27" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Z27" s="22" t="s">
+      <c r="Z27" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AA27" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="22" t="s">
+      <c r="AA27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AD27" s="14" t="s">
+      <c r="AD27" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AE27" s="14">
+      <c r="AE27" s="16">
         <v>10</v>
       </c>
-      <c r="AF27" s="22">
+      <c r="AF27" s="16">
         <v>20000</v>
       </c>
-      <c r="AG27" s="22">
-        <v>13</v>
-      </c>
-      <c r="AH27" s="35">
-        <v>13</v>
-      </c>
-      <c r="AI27" s="34" t="str">
+      <c r="AG27" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH27" s="16">
+        <v>13</v>
+      </c>
+      <c r="AI27" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
+    <row r="28" ht="35" customHeight="1" spans="1:34">
+      <c r="A28" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F28" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G28" s="20">
+        <v>0</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J28" s="20">
+        <v>1</v>
+      </c>
+      <c r="K28" s="20">
+        <v>1</v>
+      </c>
+      <c r="L28" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M28" s="16">
+        <v>25</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="P28" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>1</v>
+      </c>
+      <c r="R28" s="40">
+        <v>170</v>
+      </c>
+      <c r="S28" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16">
+        <v>200</v>
+      </c>
+      <c r="W28" s="41">
+        <v>180</v>
+      </c>
+      <c r="X28" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y28" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z28" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD28" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE28" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF28" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG28" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH28" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" ht="18.5" customHeight="1" spans="1:34">
+      <c r="A29" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F29" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J29" s="20">
+        <v>2</v>
+      </c>
+      <c r="K29" s="20">
+        <v>2</v>
+      </c>
+      <c r="L29" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M29" s="16">
+        <v>25</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>1</v>
+      </c>
+      <c r="R29" s="40">
+        <v>170</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16">
+        <v>200</v>
+      </c>
+      <c r="W29" s="41">
+        <v>180</v>
+      </c>
+      <c r="X29" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y29" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z29" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD29" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE29" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF29" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG29" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH29" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" ht="35" customHeight="1" spans="1:34">
+      <c r="A30" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F30" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G30" s="20">
+        <v>0</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J30" s="20">
+        <v>3</v>
+      </c>
+      <c r="K30" s="20">
+        <v>3</v>
+      </c>
+      <c r="L30" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M30" s="16">
+        <v>25</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="P30" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>1</v>
+      </c>
+      <c r="R30" s="40">
+        <v>170</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16">
+        <v>200</v>
+      </c>
+      <c r="W30" s="41">
+        <v>180</v>
+      </c>
+      <c r="X30" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y30" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z30" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD30" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE30" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF30" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG30" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH30" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" ht="18.5" customHeight="1" spans="1:34">
+      <c r="A31" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F31" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J31" s="20">
+        <v>4</v>
+      </c>
+      <c r="K31" s="20">
+        <v>4</v>
+      </c>
+      <c r="L31" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M31" s="16">
+        <v>25</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="P31" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>1</v>
+      </c>
+      <c r="R31" s="40">
+        <v>170</v>
+      </c>
+      <c r="S31" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16">
+        <v>200</v>
+      </c>
+      <c r="W31" s="41">
+        <v>180</v>
+      </c>
+      <c r="X31" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y31" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z31" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD31" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE31" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF31" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG31" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH31" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" ht="18.5" customHeight="1" spans="1:34">
+      <c r="A32" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F32" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I32" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J32" s="20">
+        <v>5</v>
+      </c>
+      <c r="K32" s="20">
+        <v>5</v>
+      </c>
+      <c r="L32" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M32" s="16">
+        <v>25</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="P32" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>1</v>
+      </c>
+      <c r="R32" s="40">
+        <v>170</v>
+      </c>
+      <c r="S32" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16">
+        <v>200</v>
+      </c>
+      <c r="W32" s="41">
+        <v>180</v>
+      </c>
+      <c r="X32" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y32" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z32" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD32" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE32" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF32" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG32" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH32" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" ht="35" customHeight="1" spans="1:34">
+      <c r="A33" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F33" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="I33" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J33" s="20">
+        <v>6</v>
+      </c>
+      <c r="K33" s="20">
+        <v>6</v>
+      </c>
+      <c r="L33" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M33" s="16">
+        <v>25</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O33" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="P33" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>1</v>
+      </c>
+      <c r="R33" s="40">
+        <v>170</v>
+      </c>
+      <c r="S33" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16">
+        <v>200</v>
+      </c>
+      <c r="W33" s="41">
+        <v>180</v>
+      </c>
+      <c r="X33" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y33" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z33" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD33" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE33" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF33" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG33" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH33" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" ht="35" customHeight="1" spans="1:34">
+      <c r="A34" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F34" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G34" s="20">
+        <v>0</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I34" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J34" s="20">
+        <v>7</v>
+      </c>
+      <c r="K34" s="20">
+        <v>7</v>
+      </c>
+      <c r="L34" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M34" s="16">
+        <v>25</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O34" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="P34" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q34" s="16">
+        <v>1</v>
+      </c>
+      <c r="R34" s="40">
+        <v>170</v>
+      </c>
+      <c r="S34" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16">
+        <v>200</v>
+      </c>
+      <c r="W34" s="41">
+        <v>180</v>
+      </c>
+      <c r="X34" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y34" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z34" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD34" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE34" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF34" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG34" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH34" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" ht="35" customHeight="1" spans="1:34">
+      <c r="A35" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F35" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G35" s="18">
+        <v>0</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="I35" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J35" s="20">
+        <v>8</v>
+      </c>
+      <c r="K35" s="20">
+        <v>8</v>
+      </c>
+      <c r="L35" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M35" s="16">
+        <v>25</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="P35" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>1</v>
+      </c>
+      <c r="R35" s="40">
+        <v>170</v>
+      </c>
+      <c r="S35" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16">
+        <v>200</v>
+      </c>
+      <c r="W35" s="41">
+        <v>180</v>
+      </c>
+      <c r="X35" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y35" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z35" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD35" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE35" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF35" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG35" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH35" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" ht="35" customHeight="1" spans="1:34">
+      <c r="A36" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F36" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G36" s="20">
+        <v>0</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I36" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J36" s="20">
+        <v>9</v>
+      </c>
+      <c r="K36" s="20">
+        <v>9</v>
+      </c>
+      <c r="L36" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M36" s="16">
+        <v>25</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O36" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="P36" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q36" s="16">
+        <v>1</v>
+      </c>
+      <c r="R36" s="40">
+        <v>170</v>
+      </c>
+      <c r="S36" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16">
+        <v>200</v>
+      </c>
+      <c r="W36" s="41">
+        <v>180</v>
+      </c>
+      <c r="X36" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y36" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA36" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD36" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE36" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF36" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG36" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH36" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" ht="35" customHeight="1" spans="1:34">
+      <c r="A37" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F37" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G37" s="18">
+        <v>0</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="I37" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J37" s="20">
+        <v>10</v>
+      </c>
+      <c r="K37" s="20">
+        <v>10</v>
+      </c>
+      <c r="L37" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M37" s="16">
+        <v>25</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O37" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="P37" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q37" s="16">
+        <v>1</v>
+      </c>
+      <c r="R37" s="40">
+        <v>170</v>
+      </c>
+      <c r="S37" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16">
+        <v>200</v>
+      </c>
+      <c r="W37" s="41">
+        <v>180</v>
+      </c>
+      <c r="X37" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y37" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z37" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA37" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD37" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE37" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF37" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG37" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH37" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" ht="35" customHeight="1" spans="1:34">
+      <c r="A38" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F38" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G38" s="20">
+        <v>0</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I38" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J38" s="20">
+        <v>11</v>
+      </c>
+      <c r="K38" s="20">
+        <v>11</v>
+      </c>
+      <c r="L38" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M38" s="16">
+        <v>25</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="P38" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q38" s="16">
+        <v>1</v>
+      </c>
+      <c r="R38" s="40">
+        <v>170</v>
+      </c>
+      <c r="S38" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16">
+        <v>200</v>
+      </c>
+      <c r="W38" s="41">
+        <v>180</v>
+      </c>
+      <c r="X38" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y38" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z38" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA38" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD38" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE38" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF38" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG38" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH38" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" ht="35" customHeight="1" spans="1:34">
+      <c r="A39" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F39" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G39" s="18">
+        <v>0</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="I39" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J39" s="20">
+        <v>12</v>
+      </c>
+      <c r="K39" s="20">
+        <v>12</v>
+      </c>
+      <c r="L39" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M39" s="16">
+        <v>25</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="P39" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q39" s="16">
+        <v>1</v>
+      </c>
+      <c r="R39" s="40">
+        <v>170</v>
+      </c>
+      <c r="S39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16">
+        <v>200</v>
+      </c>
+      <c r="W39" s="41">
+        <v>180</v>
+      </c>
+      <c r="X39" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y39" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z39" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA39" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD39" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE39" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF39" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG39" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH39" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" ht="18.5" customHeight="1" spans="1:34">
+      <c r="A40" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F40" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G40" s="20">
+        <v>0</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="I40" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J40" s="20">
+        <v>13</v>
+      </c>
+      <c r="K40" s="20">
+        <v>13</v>
+      </c>
+      <c r="L40" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M40" s="16">
+        <v>25</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="P40" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q40" s="16">
+        <v>1</v>
+      </c>
+      <c r="R40" s="40">
+        <v>170</v>
+      </c>
+      <c r="S40" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16">
+        <v>200</v>
+      </c>
+      <c r="W40" s="41">
+        <v>180</v>
+      </c>
+      <c r="X40" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y40" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z40" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA40" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD40" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE40" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF40" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG40" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH40" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" ht="35" customHeight="1" spans="1:34">
+      <c r="A41" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F41" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G41" s="18">
+        <v>0</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="I41" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J41" s="20">
+        <v>14</v>
+      </c>
+      <c r="K41" s="20">
+        <v>14</v>
+      </c>
+      <c r="L41" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M41" s="16">
+        <v>25</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="P41" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q41" s="16">
+        <v>1</v>
+      </c>
+      <c r="R41" s="40">
+        <v>170</v>
+      </c>
+      <c r="S41" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16">
+        <v>200</v>
+      </c>
+      <c r="W41" s="41">
+        <v>180</v>
+      </c>
+      <c r="X41" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y41" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z41" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA41" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD41" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE41" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF41" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG41" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH41" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" ht="35" customHeight="1" spans="1:34">
+      <c r="A42" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F42" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G42" s="20">
+        <v>0</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="I42" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J42" s="20">
+        <v>15</v>
+      </c>
+      <c r="K42" s="20">
+        <v>15</v>
+      </c>
+      <c r="L42" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M42" s="16">
+        <v>25</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="P42" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q42" s="16">
+        <v>1</v>
+      </c>
+      <c r="R42" s="40">
+        <v>170</v>
+      </c>
+      <c r="S42" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16">
+        <v>200</v>
+      </c>
+      <c r="W42" s="41">
+        <v>180</v>
+      </c>
+      <c r="X42" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y42" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z42" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA42" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD42" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE42" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF42" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG42" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH42" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" ht="35" customHeight="1" spans="1:34">
+      <c r="A43" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F43" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G43" s="18">
+        <v>0</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I43" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J43" s="20">
+        <v>16</v>
+      </c>
+      <c r="K43" s="20">
+        <v>16</v>
+      </c>
+      <c r="L43" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M43" s="16">
+        <v>25</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="P43" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q43" s="16">
+        <v>1</v>
+      </c>
+      <c r="R43" s="40">
+        <v>170</v>
+      </c>
+      <c r="S43" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16">
+        <v>200</v>
+      </c>
+      <c r="W43" s="41">
+        <v>180</v>
+      </c>
+      <c r="X43" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y43" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z43" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA43" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD43" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE43" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF43" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG43" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH43" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" ht="35" customHeight="1" spans="1:34">
+      <c r="A44" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F44" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G44" s="20">
+        <v>0</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I44" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J44" s="20">
+        <v>17</v>
+      </c>
+      <c r="K44" s="20">
+        <v>17</v>
+      </c>
+      <c r="L44" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M44" s="16">
+        <v>25</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="P44" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q44" s="16">
+        <v>1</v>
+      </c>
+      <c r="R44" s="40">
+        <v>170</v>
+      </c>
+      <c r="S44" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16">
+        <v>200</v>
+      </c>
+      <c r="W44" s="41">
+        <v>180</v>
+      </c>
+      <c r="X44" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y44" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z44" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD44" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE44" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF44" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG44" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH44" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" ht="51.5" customHeight="1" spans="1:34">
+      <c r="A45" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F45" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G45" s="18">
+        <v>0</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I45" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J45" s="20">
+        <v>18</v>
+      </c>
+      <c r="K45" s="20">
+        <v>18</v>
+      </c>
+      <c r="L45" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M45" s="16">
+        <v>25</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="P45" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q45" s="16">
+        <v>1</v>
+      </c>
+      <c r="R45" s="40">
+        <v>170</v>
+      </c>
+      <c r="S45" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16">
+        <v>200</v>
+      </c>
+      <c r="W45" s="41">
+        <v>180</v>
+      </c>
+      <c r="X45" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y45" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z45" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA45" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD45" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE45" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF45" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG45" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH45" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" ht="35" customHeight="1" spans="1:34">
+      <c r="A46" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F46" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G46" s="20">
+        <v>0</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I46" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J46" s="20">
+        <v>19</v>
+      </c>
+      <c r="K46" s="20">
+        <v>19</v>
+      </c>
+      <c r="L46" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M46" s="16">
+        <v>25</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O46" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="P46" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q46" s="16">
+        <v>1</v>
+      </c>
+      <c r="R46" s="40">
+        <v>170</v>
+      </c>
+      <c r="S46" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16">
+        <v>200</v>
+      </c>
+      <c r="W46" s="41">
+        <v>180</v>
+      </c>
+      <c r="X46" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y46" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z46" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA46" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD46" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE46" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF46" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG46" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH46" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" ht="35" customHeight="1" spans="1:34">
+      <c r="A47" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F47" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G47" s="18">
+        <v>0</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I47" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J47" s="20">
+        <v>20</v>
+      </c>
+      <c r="K47" s="20">
+        <v>20</v>
+      </c>
+      <c r="L47" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M47" s="16">
+        <v>25</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O47" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="P47" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q47" s="16">
+        <v>1</v>
+      </c>
+      <c r="R47" s="40">
+        <v>170</v>
+      </c>
+      <c r="S47" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16">
+        <v>200</v>
+      </c>
+      <c r="W47" s="41">
+        <v>180</v>
+      </c>
+      <c r="X47" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y47" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z47" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD47" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE47" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF47" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG47" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH47" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" ht="18.5" customHeight="1" spans="1:34">
+      <c r="A48" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F48" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G48" s="20">
+        <v>0</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I48" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J48" s="20">
+        <v>21</v>
+      </c>
+      <c r="K48" s="20">
+        <v>21</v>
+      </c>
+      <c r="L48" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M48" s="16">
+        <v>25</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O48" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="P48" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q48" s="16">
+        <v>1</v>
+      </c>
+      <c r="R48" s="40">
+        <v>170</v>
+      </c>
+      <c r="S48" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16">
+        <v>200</v>
+      </c>
+      <c r="W48" s="41">
+        <v>180</v>
+      </c>
+      <c r="X48" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y48" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z48" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA48" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD48" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE48" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF48" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG48" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH48" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" ht="35" customHeight="1" spans="1:34">
+      <c r="A49" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F49" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G49" s="18">
+        <v>0</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I49" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J49" s="20">
+        <v>22</v>
+      </c>
+      <c r="K49" s="20">
+        <v>22</v>
+      </c>
+      <c r="L49" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M49" s="16">
+        <v>25</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O49" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="P49" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q49" s="16">
+        <v>1</v>
+      </c>
+      <c r="R49" s="40">
+        <v>170</v>
+      </c>
+      <c r="S49" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16">
+        <v>200</v>
+      </c>
+      <c r="W49" s="41">
+        <v>180</v>
+      </c>
+      <c r="X49" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y49" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z49" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA49" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD49" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE49" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF49" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG49" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH49" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" ht="18.5" customHeight="1" spans="1:34">
+      <c r="A50" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F50" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G50" s="20">
+        <v>0</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I50" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J50" s="20">
+        <v>23</v>
+      </c>
+      <c r="K50" s="20">
+        <v>23</v>
+      </c>
+      <c r="L50" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M50" s="16">
+        <v>25</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O50" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="P50" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q50" s="16">
+        <v>1</v>
+      </c>
+      <c r="R50" s="40">
+        <v>170</v>
+      </c>
+      <c r="S50" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16">
+        <v>200</v>
+      </c>
+      <c r="W50" s="41">
+        <v>180</v>
+      </c>
+      <c r="X50" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y50" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z50" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD50" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE50" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF50" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG50" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH50" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" ht="18.5" customHeight="1" spans="1:34">
+      <c r="A51" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F51" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G51" s="18">
+        <v>0</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I51" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J51" s="20">
+        <v>24</v>
+      </c>
+      <c r="K51" s="20">
+        <v>24</v>
+      </c>
+      <c r="L51" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M51" s="16">
+        <v>25</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O51" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="P51" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q51" s="16">
+        <v>1</v>
+      </c>
+      <c r="R51" s="40">
+        <v>170</v>
+      </c>
+      <c r="S51" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16">
+        <v>200</v>
+      </c>
+      <c r="W51" s="41">
+        <v>180</v>
+      </c>
+      <c r="X51" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y51" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z51" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD51" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE51" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF51" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG51" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH51" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" ht="35" customHeight="1" spans="1:34">
+      <c r="A52" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F52" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G52" s="20">
+        <v>0</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I52" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J52" s="20">
+        <v>25</v>
+      </c>
+      <c r="K52" s="20">
+        <v>25</v>
+      </c>
+      <c r="L52" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M52" s="16">
+        <v>25</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O52" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="P52" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q52" s="16">
+        <v>1</v>
+      </c>
+      <c r="R52" s="40">
+        <v>170</v>
+      </c>
+      <c r="S52" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="16">
+        <v>200</v>
+      </c>
+      <c r="W52" s="41">
+        <v>180</v>
+      </c>
+      <c r="X52" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y52" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z52" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD52" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE52" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF52" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG52" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH52" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" ht="35" customHeight="1" spans="1:34">
+      <c r="A53" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F53" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G53" s="18">
+        <v>0</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I53" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J53" s="20">
+        <v>26</v>
+      </c>
+      <c r="K53" s="20">
+        <v>26</v>
+      </c>
+      <c r="L53" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M53" s="16">
+        <v>25</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O53" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="P53" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q53" s="16">
+        <v>1</v>
+      </c>
+      <c r="R53" s="40">
+        <v>170</v>
+      </c>
+      <c r="S53" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16">
+        <v>200</v>
+      </c>
+      <c r="W53" s="41">
+        <v>180</v>
+      </c>
+      <c r="X53" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y53" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z53" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA53" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD53" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE53" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF53" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG53" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH53" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" ht="35" customHeight="1" spans="1:34">
+      <c r="A54" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F54" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G54" s="20">
+        <v>0</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I54" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J54" s="20">
+        <v>27</v>
+      </c>
+      <c r="K54" s="20">
+        <v>27</v>
+      </c>
+      <c r="L54" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M54" s="16">
+        <v>25</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O54" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="P54" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q54" s="16">
+        <v>1</v>
+      </c>
+      <c r="R54" s="40">
+        <v>170</v>
+      </c>
+      <c r="S54" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16">
+        <v>200</v>
+      </c>
+      <c r="W54" s="41">
+        <v>180</v>
+      </c>
+      <c r="X54" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y54" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z54" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA54" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD54" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE54" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF54" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG54" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH54" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" ht="35" customHeight="1" spans="1:34">
+      <c r="A55" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F55" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G55" s="18">
+        <v>0</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I55" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J55" s="20">
+        <v>28</v>
+      </c>
+      <c r="K55" s="20">
+        <v>28</v>
+      </c>
+      <c r="L55" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M55" s="16">
+        <v>25</v>
+      </c>
+      <c r="N55" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O55" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="P55" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q55" s="16">
+        <v>1</v>
+      </c>
+      <c r="R55" s="40">
+        <v>170</v>
+      </c>
+      <c r="S55" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16">
+        <v>200</v>
+      </c>
+      <c r="W55" s="41">
+        <v>180</v>
+      </c>
+      <c r="X55" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y55" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z55" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA55" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD55" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE55" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF55" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG55" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH55" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" ht="35" customHeight="1" spans="1:34">
+      <c r="A56" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F56" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G56" s="20">
+        <v>0</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I56" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J56" s="20">
+        <v>29</v>
+      </c>
+      <c r="K56" s="20">
+        <v>29</v>
+      </c>
+      <c r="L56" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M56" s="16">
+        <v>25</v>
+      </c>
+      <c r="N56" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O56" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="P56" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q56" s="16">
+        <v>1</v>
+      </c>
+      <c r="R56" s="40">
+        <v>170</v>
+      </c>
+      <c r="S56" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16">
+        <v>200</v>
+      </c>
+      <c r="W56" s="41">
+        <v>180</v>
+      </c>
+      <c r="X56" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y56" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z56" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA56" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD56" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE56" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF56" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG56" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH56" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" ht="35" customHeight="1" spans="1:34">
+      <c r="A57" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F57" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G57" s="18">
+        <v>0</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I57" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J57" s="20">
+        <v>30</v>
+      </c>
+      <c r="K57" s="20">
+        <v>30</v>
+      </c>
+      <c r="L57" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M57" s="16">
+        <v>25</v>
+      </c>
+      <c r="N57" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O57" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="P57" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q57" s="16">
+        <v>1</v>
+      </c>
+      <c r="R57" s="40">
+        <v>170</v>
+      </c>
+      <c r="S57" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16">
+        <v>200</v>
+      </c>
+      <c r="W57" s="41">
+        <v>180</v>
+      </c>
+      <c r="X57" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y57" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z57" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA57" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD57" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE57" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF57" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG57" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH57" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" ht="35" customHeight="1" spans="1:34">
+      <c r="A58" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F58" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G58" s="20">
+        <v>0</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I58" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J58" s="20">
+        <v>31</v>
+      </c>
+      <c r="K58" s="20">
+        <v>31</v>
+      </c>
+      <c r="L58" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M58" s="16">
+        <v>25</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O58" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="P58" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q58" s="16">
+        <v>1</v>
+      </c>
+      <c r="R58" s="40">
+        <v>170</v>
+      </c>
+      <c r="S58" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16">
+        <v>200</v>
+      </c>
+      <c r="W58" s="41">
+        <v>180</v>
+      </c>
+      <c r="X58" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y58" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z58" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA58" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD58" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE58" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF58" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG58" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH58" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" ht="18.5" customHeight="1" spans="1:34">
+      <c r="A59" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="22"/>
+      <c r="E59" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F59" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G59" s="18">
+        <v>0</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I59" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J59" s="20">
+        <v>32</v>
+      </c>
+      <c r="K59" s="20">
+        <v>32</v>
+      </c>
+      <c r="L59" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M59" s="16">
+        <v>25</v>
+      </c>
+      <c r="N59" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O59" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="P59" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q59" s="16">
+        <v>1</v>
+      </c>
+      <c r="R59" s="40">
+        <v>170</v>
+      </c>
+      <c r="S59" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16">
+        <v>200</v>
+      </c>
+      <c r="W59" s="41">
+        <v>180</v>
+      </c>
+      <c r="X59" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y59" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z59" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA59" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD59" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE59" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF59" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG59" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH59" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" ht="35" customHeight="1" spans="1:34">
+      <c r="A60" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F60" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G60" s="20">
+        <v>0</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I60" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J60" s="20">
+        <v>33</v>
+      </c>
+      <c r="K60" s="20">
+        <v>33</v>
+      </c>
+      <c r="L60" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M60" s="16">
+        <v>25</v>
+      </c>
+      <c r="N60" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O60" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="P60" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q60" s="16">
+        <v>1</v>
+      </c>
+      <c r="R60" s="40">
+        <v>170</v>
+      </c>
+      <c r="S60" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="16">
+        <v>200</v>
+      </c>
+      <c r="W60" s="41">
+        <v>180</v>
+      </c>
+      <c r="X60" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y60" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z60" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA60" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD60" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE60" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF60" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG60" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH60" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" ht="35" customHeight="1" spans="1:34">
+      <c r="A61" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="E61" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F61" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G61" s="18">
+        <v>0</v>
+      </c>
+      <c r="H61" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I61" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J61" s="20">
+        <v>34</v>
+      </c>
+      <c r="K61" s="20">
+        <v>34</v>
+      </c>
+      <c r="L61" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M61" s="16">
+        <v>25</v>
+      </c>
+      <c r="N61" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O61" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="P61" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q61" s="16">
+        <v>1</v>
+      </c>
+      <c r="R61" s="40">
+        <v>170</v>
+      </c>
+      <c r="S61" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T61" s="16"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="16">
+        <v>200</v>
+      </c>
+      <c r="W61" s="41">
+        <v>180</v>
+      </c>
+      <c r="X61" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y61" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z61" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA61" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD61" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE61" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF61" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG61" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH61" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" ht="35" customHeight="1" spans="1:34">
+      <c r="A62" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F62" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G62" s="20">
+        <v>0</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I62" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J62" s="20">
+        <v>35</v>
+      </c>
+      <c r="K62" s="20">
+        <v>35</v>
+      </c>
+      <c r="L62" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M62" s="16">
+        <v>25</v>
+      </c>
+      <c r="N62" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O62" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="P62" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q62" s="16">
+        <v>1</v>
+      </c>
+      <c r="R62" s="40">
+        <v>170</v>
+      </c>
+      <c r="S62" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T62" s="16"/>
+      <c r="U62" s="16"/>
+      <c r="V62" s="16">
+        <v>200</v>
+      </c>
+      <c r="W62" s="41">
+        <v>180</v>
+      </c>
+      <c r="X62" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y62" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z62" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA62" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD62" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE62" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF62" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG62" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH62" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" ht="35" customHeight="1" spans="1:34">
+      <c r="A63" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" s="22"/>
+      <c r="E63" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F63" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G63" s="18">
+        <v>0</v>
+      </c>
+      <c r="H63" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I63" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J63" s="20">
+        <v>36</v>
+      </c>
+      <c r="K63" s="20">
+        <v>36</v>
+      </c>
+      <c r="L63" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M63" s="16">
+        <v>25</v>
+      </c>
+      <c r="N63" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O63" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="P63" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q63" s="16">
+        <v>1</v>
+      </c>
+      <c r="R63" s="40">
+        <v>170</v>
+      </c>
+      <c r="S63" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16">
+        <v>200</v>
+      </c>
+      <c r="W63" s="41">
+        <v>180</v>
+      </c>
+      <c r="X63" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y63" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z63" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA63" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD63" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE63" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF63" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG63" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH63" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" ht="51.5" customHeight="1" spans="1:34">
+      <c r="A64" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F64" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G64" s="20">
+        <v>0</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I64" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J64" s="20">
+        <v>37</v>
+      </c>
+      <c r="K64" s="20">
+        <v>37</v>
+      </c>
+      <c r="L64" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M64" s="16">
+        <v>25</v>
+      </c>
+      <c r="N64" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O64" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="P64" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q64" s="16">
+        <v>1</v>
+      </c>
+      <c r="R64" s="40">
+        <v>170</v>
+      </c>
+      <c r="S64" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16">
+        <v>200</v>
+      </c>
+      <c r="W64" s="41">
+        <v>180</v>
+      </c>
+      <c r="X64" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y64" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z64" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA64" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD64" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE64" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF64" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG64" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH64" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" ht="35" customHeight="1" spans="1:34">
+      <c r="A65" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" s="22"/>
+      <c r="E65" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F65" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G65" s="18">
+        <v>0</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I65" s="29">
+        <v>15000</v>
+      </c>
+      <c r="J65" s="20">
+        <v>38</v>
+      </c>
+      <c r="K65" s="20">
+        <v>38</v>
+      </c>
+      <c r="L65" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="M65" s="16">
+        <v>25</v>
+      </c>
+      <c r="N65" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O65" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="P65" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="Q65" s="16">
+        <v>1</v>
+      </c>
+      <c r="R65" s="40">
+        <v>170</v>
+      </c>
+      <c r="S65" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T65" s="16"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="16">
+        <v>200</v>
+      </c>
+      <c r="W65" s="41">
+        <v>180</v>
+      </c>
+      <c r="X65" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y65" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z65" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA65" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD65" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE65" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF65" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AG65" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH65" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" ht="18.5" customHeight="1"/>
+    <row r="67" customFormat="1" ht="18.5" customHeight="1"/>
+    <row r="68" customFormat="1" ht="18.5" customHeight="1"/>
+    <row r="69" customFormat="1" ht="18.5" customHeight="1"/>
+    <row r="70" customFormat="1" ht="18.5" customHeight="1"/>
+    <row r="71" customFormat="1" ht="18.5" customHeight="1"/>
+    <row r="72" customFormat="1" ht="18.5" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="AI3">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">

--- a/excels/units/monster/normal.xlsx
+++ b/excels/units/monster/normal.xlsx
@@ -1022,12 +1022,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF48D8D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1044,6 +1056,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF48D8D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,7 +1431,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1431,16 +1455,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1449,25 +1473,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1530,9 +1542,21 @@
     <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1545,94 +1569,130 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1888,6 +1948,7 @@
   <colors>
     <mruColors>
       <color rgb="00FFFF00"/>
+      <color rgb="00F48D8D"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2188,9 +2249,9 @@
   <dimension ref="A1:AI65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2200,10 +2261,10 @@
     <col min="3" max="3" width="19.0083333333333" customWidth="1"/>
     <col min="4" max="4" width="10.3416666666667" customWidth="1"/>
     <col min="5" max="5" width="14.0083333333333" customWidth="1"/>
-    <col min="6" max="6" width="8.50833333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.50833333333333" style="6" customWidth="1"/>
     <col min="7" max="7" width="20.5083333333333" customWidth="1"/>
     <col min="8" max="8" width="21.3416666666667" customWidth="1"/>
-    <col min="9" max="9" width="14.175" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.175" style="7" customWidth="1"/>
     <col min="10" max="10" width="20.3416666666667" customWidth="1"/>
     <col min="11" max="11" width="20.675" customWidth="1"/>
     <col min="12" max="12" width="12.5083333333333" customWidth="1"/>
@@ -2232,6581 +2293,6581 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="68" customHeight="1" spans="1:34">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6" t="s">
+      <c r="O1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6" t="s">
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="35" customHeight="1" spans="1:34">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="28" t="s">
+      <c r="W2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="12">
         <v>1</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="14">
         <v>50</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="14">
         <f>E3</f>
         <v>50</v>
       </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="12">
         <f>F3</f>
         <v>50</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="12">
         <v>1</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="12">
         <f>J3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="12">
         <v>1.5</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="12">
         <v>25</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="12">
         <v>1</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="12">
         <v>1</v>
       </c>
-      <c r="R3" s="29">
+      <c r="R3" s="38">
         <v>170</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10">
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12">
         <v>250</v>
       </c>
-      <c r="W3" s="30">
+      <c r="W3" s="39">
         <v>180</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="X3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="Z3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AA3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AA3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AD3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AE3" s="10">
+      <c r="AE3" s="12">
         <v>10</v>
       </c>
-      <c r="AF3" s="10">
+      <c r="AF3" s="12">
         <v>20000</v>
       </c>
-      <c r="AG3" s="10">
+      <c r="AG3" s="12">
         <v>10</v>
       </c>
-      <c r="AH3" s="10">
+      <c r="AH3" s="12">
         <v>10</v>
       </c>
-      <c r="AI3" s="34" t="str">
+      <c r="AI3" s="46" t="str">
         <f>IF(AG3&lt;=AH3,"","数据出错")</f>
         <v/>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="16">
         <v>2</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="17">
         <v>75</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="17">
         <f t="shared" ref="F3:F9" si="0">E4</f>
         <v>75</v>
       </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="16">
         <f t="shared" ref="I4:I27" si="1">F4</f>
         <v>75</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="16">
         <v>2</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="16">
         <f>J4</f>
         <v>2</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="16">
         <v>1.5</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="16">
         <v>25</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="16">
         <v>1</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q4" s="16">
         <v>1</v>
       </c>
-      <c r="R4" s="24">
+      <c r="R4" s="40">
         <v>170</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14">
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16">
         <v>250</v>
       </c>
-      <c r="W4" s="31">
+      <c r="W4" s="41">
         <v>180</v>
       </c>
-      <c r="X4" s="14" t="s">
+      <c r="X4" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Y4" s="14" t="s">
+      <c r="Y4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="Z4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AA4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AA4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AD4" s="14" t="s">
+      <c r="AD4" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AE4" s="16">
         <v>10</v>
       </c>
-      <c r="AF4" s="14">
+      <c r="AF4" s="16">
         <v>20000</v>
       </c>
-      <c r="AG4" s="14">
+      <c r="AG4" s="16">
         <v>10</v>
       </c>
-      <c r="AH4" s="14">
+      <c r="AH4" s="16">
         <v>10</v>
       </c>
-      <c r="AI4" s="34" t="str">
+      <c r="AI4" s="46" t="str">
         <f t="shared" ref="AI4:AI32" si="2">IF(AG4&lt;=AH4,"","数据出错")</f>
         <v/>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="19">
         <v>3</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="20">
         <v>80</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="20">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="20">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="19">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="19">
         <v>3</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="19">
         <f t="shared" ref="K5:K32" si="3">J5</f>
         <v>3</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="19">
         <v>1.5</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="19">
         <v>25</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="19">
         <v>1</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="19">
         <v>1</v>
       </c>
-      <c r="R5" s="32">
+      <c r="R5" s="42">
         <v>170</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="S5" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17">
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19">
         <v>250</v>
       </c>
-      <c r="W5" s="33">
+      <c r="W5" s="43">
         <v>180</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="X5" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Y5" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Z5" s="17" t="s">
+      <c r="Z5" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AA5" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="17" t="s">
+      <c r="AA5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AD5" s="17" t="s">
+      <c r="AD5" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="AE5" s="17">
+      <c r="AE5" s="19">
         <v>10</v>
       </c>
-      <c r="AF5" s="17">
+      <c r="AF5" s="19">
         <v>20000</v>
       </c>
-      <c r="AG5" s="17">
+      <c r="AG5" s="19">
         <v>10</v>
       </c>
-      <c r="AH5" s="17">
+      <c r="AH5" s="19">
         <v>10</v>
       </c>
-      <c r="AI5" s="34" t="str">
+      <c r="AI5" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="16">
         <v>4</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="17">
         <v>90</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="17">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="16">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="16">
         <v>4</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="16">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="16">
         <v>1.5</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="16">
         <v>25</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="16">
         <v>1</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="16">
         <v>1</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="40">
         <v>170</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14">
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16">
         <v>250</v>
       </c>
-      <c r="W6" s="31">
+      <c r="W6" s="41">
         <v>180</v>
       </c>
-      <c r="X6" s="14" t="s">
+      <c r="X6" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="14" t="s">
+      <c r="Y6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="Z6" s="14" t="s">
+      <c r="Z6" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AA6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="14" t="s">
+      <c r="AA6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AD6" s="14" t="s">
+      <c r="AD6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AE6" s="16">
         <v>10</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AF6" s="16">
         <v>20000</v>
       </c>
-      <c r="AG6" s="14">
+      <c r="AG6" s="16">
         <v>10</v>
       </c>
-      <c r="AH6" s="14">
+      <c r="AH6" s="16">
         <v>10</v>
       </c>
-      <c r="AI6" s="34" t="str">
+      <c r="AI6" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="19">
         <v>5</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="20">
         <v>100</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="20">
         <v>10</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="19">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="19">
         <v>5</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="19">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="19">
         <v>1.5</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="19">
         <v>25</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="19">
         <v>1.1</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="19">
         <v>1</v>
       </c>
-      <c r="R7" s="32">
+      <c r="R7" s="42">
         <v>170</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="S7" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17">
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19">
         <v>200</v>
       </c>
-      <c r="W7" s="33">
+      <c r="W7" s="43">
         <v>180</v>
       </c>
-      <c r="X7" s="17" t="s">
+      <c r="X7" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="Y7" s="17" t="s">
+      <c r="Y7" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Z7" s="17" t="s">
+      <c r="Z7" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AA7" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="17" t="s">
+      <c r="AA7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AD7" s="17" t="s">
+      <c r="AD7" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="AE7" s="17">
+      <c r="AE7" s="19">
         <v>10</v>
       </c>
-      <c r="AF7" s="17">
+      <c r="AF7" s="19">
         <v>20000</v>
       </c>
-      <c r="AG7" s="17">
+      <c r="AG7" s="19">
         <v>1</v>
       </c>
-      <c r="AH7" s="17">
+      <c r="AH7" s="19">
         <v>1</v>
       </c>
-      <c r="AI7" s="34" t="str">
+      <c r="AI7" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="16">
         <v>6</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="17">
         <v>200</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="17">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15" t="s">
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="16">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="16">
         <v>6</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="16">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="16">
         <v>1.5</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="16">
         <v>25</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="16">
         <v>1.1</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="16">
         <v>1</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="40">
         <v>170</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14">
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16">
         <v>250</v>
       </c>
-      <c r="W8" s="31">
+      <c r="W8" s="41">
         <v>180</v>
       </c>
-      <c r="X8" s="14" t="s">
+      <c r="X8" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Y8" s="14" t="s">
+      <c r="Y8" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="Z8" s="14" t="s">
+      <c r="Z8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AA8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="14" t="s">
+      <c r="AA8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AD8" s="14" t="s">
+      <c r="AD8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AE8" s="14">
+      <c r="AE8" s="16">
         <v>10</v>
       </c>
-      <c r="AF8" s="14">
+      <c r="AF8" s="16">
         <v>20000</v>
       </c>
-      <c r="AG8" s="14">
+      <c r="AG8" s="16">
         <v>11</v>
       </c>
-      <c r="AH8" s="14">
+      <c r="AH8" s="16">
         <v>11</v>
       </c>
-      <c r="AI8" s="34" t="str">
+      <c r="AI8" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="19">
         <v>7</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="20">
         <v>300</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18" t="s">
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="19">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="19">
         <v>7</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="19">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="19">
         <v>1.5</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="19">
         <v>25</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="O9" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="19">
         <v>1.3</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="19">
         <v>1</v>
       </c>
-      <c r="R9" s="32">
+      <c r="R9" s="42">
         <v>170</v>
       </c>
-      <c r="S9" s="17" t="s">
+      <c r="S9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17">
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19">
         <v>250</v>
       </c>
-      <c r="W9" s="33">
+      <c r="W9" s="43">
         <v>180</v>
       </c>
-      <c r="X9" s="17" t="s">
+      <c r="X9" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="Y9" s="17" t="s">
+      <c r="Y9" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Z9" s="17" t="s">
+      <c r="Z9" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AA9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="17" t="s">
+      <c r="AA9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AD9" s="17" t="s">
+      <c r="AD9" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AE9" s="17">
+      <c r="AE9" s="19">
         <v>10</v>
       </c>
-      <c r="AF9" s="17">
+      <c r="AF9" s="19">
         <v>20000</v>
       </c>
-      <c r="AG9" s="17">
+      <c r="AG9" s="19">
         <v>11</v>
       </c>
-      <c r="AH9" s="17">
+      <c r="AH9" s="19">
         <v>11</v>
       </c>
-      <c r="AI9" s="34" t="str">
+      <c r="AI9" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="16">
         <v>8</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="17">
         <v>500</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="17">
         <f t="shared" ref="F10:F32" si="4">E10</f>
         <v>500</v>
       </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="16">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="16">
         <v>8</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="16">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="16">
         <v>1.5</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="16">
         <v>25</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="16">
         <v>1.3</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="16">
         <v>1</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="40">
         <v>170</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14">
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16">
         <v>250</v>
       </c>
-      <c r="W10" s="31">
+      <c r="W10" s="41">
         <v>180</v>
       </c>
-      <c r="X10" s="14" t="s">
+      <c r="X10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Y10" s="14" t="s">
+      <c r="Y10" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="Z10" s="14" t="s">
+      <c r="Z10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AA10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="14" t="s">
+      <c r="AA10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AD10" s="14" t="s">
+      <c r="AD10" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AE10" s="14">
+      <c r="AE10" s="16">
         <v>10</v>
       </c>
-      <c r="AF10" s="14">
+      <c r="AF10" s="16">
         <v>20000</v>
       </c>
-      <c r="AG10" s="14">
+      <c r="AG10" s="16">
         <v>11</v>
       </c>
-      <c r="AH10" s="14">
+      <c r="AH10" s="16">
         <v>11</v>
       </c>
-      <c r="AI10" s="34" t="str">
+      <c r="AI10" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="19">
         <v>9</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="20">
         <v>800</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="20">
         <f t="shared" si="4"/>
         <v>800</v>
       </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="18" t="s">
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="19">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="19">
         <v>9</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="19">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="19">
         <v>1.5</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="19">
         <v>25</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="19">
         <v>1.3</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="19">
         <v>1</v>
       </c>
-      <c r="R11" s="32">
+      <c r="R11" s="42">
         <v>170</v>
       </c>
-      <c r="S11" s="17" t="s">
+      <c r="S11" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17">
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19">
         <v>250</v>
       </c>
-      <c r="W11" s="33">
+      <c r="W11" s="43">
         <v>180</v>
       </c>
-      <c r="X11" s="17" t="s">
+      <c r="X11" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="Y11" s="17" t="s">
+      <c r="Y11" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Z11" s="17" t="s">
+      <c r="Z11" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AA11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="17" t="s">
+      <c r="AA11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AD11" s="17" t="s">
+      <c r="AD11" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AE11" s="17">
+      <c r="AE11" s="19">
         <v>10</v>
       </c>
-      <c r="AF11" s="17">
+      <c r="AF11" s="19">
         <v>20000</v>
       </c>
-      <c r="AG11" s="17">
+      <c r="AG11" s="19">
         <v>11</v>
       </c>
-      <c r="AH11" s="17">
+      <c r="AH11" s="19">
         <v>11</v>
       </c>
-      <c r="AI11" s="34" t="str">
+      <c r="AI11" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="16">
         <v>10</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="17">
         <v>1000</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="17">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="G12" s="15">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="16">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="16">
         <v>10</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="16">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="16">
         <v>1.5</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="16">
         <v>25</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O12" s="22" t="s">
+      <c r="O12" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="16">
         <v>1.3</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="16">
         <v>1</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="40">
         <v>170</v>
       </c>
-      <c r="S12" s="14" t="s">
+      <c r="S12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14">
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16">
         <v>200</v>
       </c>
-      <c r="W12" s="31">
+      <c r="W12" s="41">
         <v>180</v>
       </c>
-      <c r="X12" s="14" t="s">
+      <c r="X12" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Y12" s="14" t="s">
+      <c r="Y12" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="Z12" s="14" t="s">
+      <c r="Z12" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AA12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="14" t="s">
+      <c r="AA12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AD12" s="14" t="s">
+      <c r="AD12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AE12" s="14">
+      <c r="AE12" s="16">
         <v>10</v>
       </c>
-      <c r="AF12" s="14">
+      <c r="AF12" s="16">
         <v>20000</v>
       </c>
-      <c r="AG12" s="14">
+      <c r="AG12" s="16">
         <v>1</v>
       </c>
-      <c r="AH12" s="14">
+      <c r="AH12" s="16">
         <v>1</v>
       </c>
-      <c r="AI12" s="34" t="str">
+      <c r="AI12" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="19">
         <v>11</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="20">
         <v>2000</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="20">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18" t="s">
+      <c r="G13" s="20">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="19">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="19">
         <v>37</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="19">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="19">
         <v>1.5</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="19">
         <v>25</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="O13" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="19">
         <v>1.4</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="19">
         <v>1</v>
       </c>
-      <c r="R13" s="32">
+      <c r="R13" s="42">
         <v>170</v>
       </c>
-      <c r="S13" s="17" t="s">
+      <c r="S13" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17">
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19">
         <v>250</v>
       </c>
-      <c r="W13" s="33">
+      <c r="W13" s="43">
         <v>180</v>
       </c>
-      <c r="X13" s="17" t="s">
+      <c r="X13" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="Y13" s="17" t="s">
+      <c r="Y13" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Z13" s="17" t="s">
+      <c r="Z13" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AA13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="17" t="s">
+      <c r="AA13" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AD13" s="17" t="s">
+      <c r="AD13" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AE13" s="17">
+      <c r="AE13" s="19">
         <v>10</v>
       </c>
-      <c r="AF13" s="17">
+      <c r="AF13" s="19">
         <v>20000</v>
       </c>
-      <c r="AG13" s="17">
+      <c r="AG13" s="19">
         <v>12</v>
       </c>
-      <c r="AH13" s="17">
+      <c r="AH13" s="19">
         <v>12</v>
       </c>
-      <c r="AI13" s="34" t="str">
+      <c r="AI13" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="16">
         <v>12</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="17">
         <v>2800</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="17">
         <f t="shared" si="4"/>
         <v>2800</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="17">
         <v>20</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="16">
         <f t="shared" si="1"/>
         <v>2800</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="16">
         <v>40</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="16">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="16">
         <v>1.5</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="16">
         <v>25</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O14" s="22" t="s">
+      <c r="O14" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="16">
         <v>1.4</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="16">
         <v>1</v>
       </c>
-      <c r="R14" s="24">
+      <c r="R14" s="40">
         <v>170</v>
       </c>
-      <c r="S14" s="14" t="s">
+      <c r="S14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14">
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16">
         <v>150</v>
       </c>
-      <c r="W14" s="31">
+      <c r="W14" s="41">
         <v>180</v>
       </c>
-      <c r="X14" s="14" t="s">
+      <c r="X14" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Y14" s="14" t="s">
+      <c r="Y14" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="Z14" s="14" t="s">
+      <c r="Z14" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AA14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="14" t="s">
+      <c r="AA14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AD14" s="14" t="s">
+      <c r="AD14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AE14" s="14">
+      <c r="AE14" s="16">
         <v>10</v>
       </c>
-      <c r="AF14" s="14">
+      <c r="AF14" s="16">
         <v>20000</v>
       </c>
-      <c r="AG14" s="14">
+      <c r="AG14" s="16">
         <v>12</v>
       </c>
-      <c r="AH14" s="14">
+      <c r="AH14" s="16">
         <v>12</v>
       </c>
-      <c r="AI14" s="34" t="str">
+      <c r="AI14" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="17">
-        <v>13</v>
-      </c>
-      <c r="E15" s="18">
+      <c r="D15" s="19">
+        <v>13</v>
+      </c>
+      <c r="E15" s="20">
         <v>3500</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="20">
         <f t="shared" si="4"/>
         <v>3500</v>
       </c>
-      <c r="G15" s="18">
-        <v>0</v>
-      </c>
-      <c r="H15" s="18" t="s">
+      <c r="G15" s="20">
+        <v>0</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="19">
         <f t="shared" si="1"/>
         <v>3500</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="19">
         <v>43</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="19">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="19">
         <v>1.5</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="19">
         <v>25</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="N15" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="19">
         <v>1.4</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="19">
         <v>1</v>
       </c>
-      <c r="R15" s="32">
+      <c r="R15" s="42">
         <v>170</v>
       </c>
-      <c r="S15" s="17" t="s">
+      <c r="S15" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17">
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19">
         <v>250</v>
       </c>
-      <c r="W15" s="33">
+      <c r="W15" s="43">
         <v>180</v>
       </c>
-      <c r="X15" s="17" t="s">
+      <c r="X15" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="Y15" s="17" t="s">
+      <c r="Y15" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Z15" s="17" t="s">
+      <c r="Z15" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AA15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="17" t="s">
+      <c r="AA15" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AD15" s="17" t="s">
+      <c r="AD15" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AE15" s="17">
+      <c r="AE15" s="19">
         <v>10</v>
       </c>
-      <c r="AF15" s="17">
+      <c r="AF15" s="19">
         <v>20000</v>
       </c>
-      <c r="AG15" s="17">
+      <c r="AG15" s="19">
         <v>12</v>
       </c>
-      <c r="AH15" s="17">
+      <c r="AH15" s="19">
         <v>12</v>
       </c>
-      <c r="AI15" s="34" t="str">
+      <c r="AI15" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="16">
         <v>14</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="17">
         <v>4200</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="17">
         <f t="shared" si="4"/>
         <v>4200</v>
       </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15" t="s">
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="16">
         <f t="shared" si="1"/>
         <v>4200</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="16">
         <v>46</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="16">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="16">
         <v>1.5</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="16">
         <v>25</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="N16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O16" s="22" t="s">
+      <c r="O16" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="16">
         <v>1.4</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16" s="16">
         <v>1</v>
       </c>
-      <c r="R16" s="24">
+      <c r="R16" s="40">
         <v>170</v>
       </c>
-      <c r="S16" s="14" t="s">
+      <c r="S16" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14">
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16">
         <v>200</v>
       </c>
-      <c r="W16" s="31">
+      <c r="W16" s="41">
         <v>180</v>
       </c>
-      <c r="X16" s="14" t="s">
+      <c r="X16" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Y16" s="14" t="s">
+      <c r="Y16" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="Z16" s="14" t="s">
+      <c r="Z16" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AA16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="14" t="s">
+      <c r="AA16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AD16" s="14" t="s">
+      <c r="AD16" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AE16" s="14">
+      <c r="AE16" s="16">
         <v>10</v>
       </c>
-      <c r="AF16" s="14">
+      <c r="AF16" s="16">
         <v>20000</v>
       </c>
-      <c r="AG16" s="14">
+      <c r="AG16" s="16">
         <v>12</v>
       </c>
-      <c r="AH16" s="14">
+      <c r="AH16" s="16">
         <v>12</v>
       </c>
-      <c r="AI16" s="34" t="str">
+      <c r="AI16" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="19">
         <v>15</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="20">
         <v>5000</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="20">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G17" s="18">
-        <v>0</v>
-      </c>
-      <c r="H17" s="18" t="s">
+      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+      <c r="H17" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="19">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="19">
         <v>49</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="19">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="19">
         <v>1.5</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="19">
         <v>25</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="23" t="s">
+      <c r="O17" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="19">
         <v>1.4</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="19">
         <v>1</v>
       </c>
-      <c r="R17" s="32">
+      <c r="R17" s="42">
         <v>170</v>
       </c>
-      <c r="S17" s="17" t="s">
+      <c r="S17" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17">
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19">
         <v>200</v>
       </c>
-      <c r="W17" s="33">
+      <c r="W17" s="43">
         <v>180</v>
       </c>
-      <c r="X17" s="17" t="s">
+      <c r="X17" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="Y17" s="17" t="s">
+      <c r="Y17" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Z17" s="17" t="s">
+      <c r="Z17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AA17" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="17" t="s">
+      <c r="AA17" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AD17" s="17" t="s">
+      <c r="AD17" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AE17" s="17">
+      <c r="AE17" s="19">
         <v>10</v>
       </c>
-      <c r="AF17" s="17">
+      <c r="AF17" s="19">
         <v>20000</v>
       </c>
-      <c r="AG17" s="17">
+      <c r="AG17" s="19">
         <v>1</v>
       </c>
-      <c r="AH17" s="17">
+      <c r="AH17" s="19">
         <v>1</v>
       </c>
-      <c r="AI17" s="34" t="str">
+      <c r="AI17" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="16">
         <v>16</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="17">
         <v>6200</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="17">
         <f t="shared" si="4"/>
         <v>6200</v>
       </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15" t="s">
+      <c r="G18" s="17">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="16">
         <f t="shared" si="1"/>
         <v>6200</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="16">
         <v>52</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="16">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="16">
         <v>1.5</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="16">
         <v>25</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="N18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O18" s="22" t="s">
+      <c r="O18" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P18" s="16">
         <v>1.4</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q18" s="16">
         <v>1</v>
       </c>
-      <c r="R18" s="24">
+      <c r="R18" s="40">
         <v>170</v>
       </c>
-      <c r="S18" s="14" t="s">
+      <c r="S18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14">
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16">
         <v>300</v>
       </c>
-      <c r="W18" s="31">
+      <c r="W18" s="41">
         <v>180</v>
       </c>
-      <c r="X18" s="14" t="s">
+      <c r="X18" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Y18" s="14" t="s">
+      <c r="Y18" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="Z18" s="14" t="s">
+      <c r="Z18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AA18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="14" t="s">
+      <c r="AA18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AD18" s="14" t="s">
+      <c r="AD18" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AE18" s="14">
+      <c r="AE18" s="16">
         <v>10</v>
       </c>
-      <c r="AF18" s="14">
+      <c r="AF18" s="16">
         <v>20000</v>
       </c>
-      <c r="AG18" s="14">
-        <v>13</v>
-      </c>
-      <c r="AH18" s="14">
-        <v>13</v>
-      </c>
-      <c r="AI18" s="34" t="str">
+      <c r="AG18" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH18" s="16">
+        <v>13</v>
+      </c>
+      <c r="AI18" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="19">
         <v>17</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="20">
         <v>7349</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="20">
         <f t="shared" si="4"/>
         <v>7349</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="20">
         <v>30</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="19">
         <f t="shared" si="1"/>
         <v>7349</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="19">
         <v>55</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="19">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="19">
         <v>1.5</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="19">
         <v>25</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O19" s="23" t="s">
+      <c r="O19" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="17">
+      <c r="P19" s="19">
         <v>1.4</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="Q19" s="19">
         <v>1</v>
       </c>
-      <c r="R19" s="32">
+      <c r="R19" s="42">
         <v>170</v>
       </c>
-      <c r="S19" s="17" t="s">
+      <c r="S19" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17">
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19">
         <v>100</v>
       </c>
-      <c r="W19" s="33">
+      <c r="W19" s="43">
         <v>180</v>
       </c>
-      <c r="X19" s="17" t="s">
+      <c r="X19" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="Y19" s="17" t="s">
+      <c r="Y19" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Z19" s="17" t="s">
+      <c r="Z19" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AA19" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="17" t="s">
+      <c r="AA19" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AD19" s="17" t="s">
+      <c r="AD19" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AE19" s="17">
+      <c r="AE19" s="19">
         <v>10</v>
       </c>
-      <c r="AF19" s="17">
+      <c r="AF19" s="19">
         <v>20000</v>
       </c>
-      <c r="AG19" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH19" s="17">
-        <v>13</v>
-      </c>
-      <c r="AI19" s="34" t="str">
+      <c r="AG19" s="19">
+        <v>13</v>
+      </c>
+      <c r="AH19" s="19">
+        <v>13</v>
+      </c>
+      <c r="AI19" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="16">
         <v>18</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="17">
         <v>9200</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="17">
         <f t="shared" si="4"/>
         <v>9200</v>
       </c>
-      <c r="G20" s="15">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15" t="s">
+      <c r="G20" s="17">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="16">
         <f t="shared" si="1"/>
         <v>9200</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="16">
         <v>58</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="16">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="16">
         <v>1.5</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="16">
         <v>25</v>
       </c>
-      <c r="N20" s="14" t="s">
+      <c r="N20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="22" t="s">
+      <c r="O20" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="16">
         <v>1.4</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="16">
         <v>1</v>
       </c>
-      <c r="R20" s="24">
+      <c r="R20" s="40">
         <v>170</v>
       </c>
-      <c r="S20" s="14" t="s">
+      <c r="S20" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14">
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16">
         <v>200</v>
       </c>
-      <c r="W20" s="31">
+      <c r="W20" s="41">
         <v>180</v>
       </c>
-      <c r="X20" s="14" t="s">
+      <c r="X20" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Y20" s="14" t="s">
+      <c r="Y20" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="Z20" s="14" t="s">
+      <c r="Z20" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AA20" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="14" t="s">
+      <c r="AA20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AD20" s="14" t="s">
+      <c r="AD20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AE20" s="14">
+      <c r="AE20" s="16">
         <v>10</v>
       </c>
-      <c r="AF20" s="14">
+      <c r="AF20" s="16">
         <v>20000</v>
       </c>
-      <c r="AG20" s="14">
-        <v>13</v>
-      </c>
-      <c r="AH20" s="14">
-        <v>13</v>
-      </c>
-      <c r="AI20" s="34" t="str">
+      <c r="AG20" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH20" s="16">
+        <v>13</v>
+      </c>
+      <c r="AI20" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="19">
         <v>19</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="20">
         <v>12000</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="20">
         <f t="shared" si="4"/>
         <v>12000</v>
       </c>
-      <c r="G21" s="18">
-        <v>0</v>
-      </c>
-      <c r="H21" s="18" t="s">
+      <c r="G21" s="20">
+        <v>0</v>
+      </c>
+      <c r="H21" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="19">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="19">
         <v>61</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="19">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="19">
         <v>1.5</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="19">
         <v>25</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="O21" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P21" s="19">
         <v>1.4</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="19">
         <v>1</v>
       </c>
-      <c r="R21" s="32">
+      <c r="R21" s="42">
         <v>170</v>
       </c>
-      <c r="S21" s="17" t="s">
+      <c r="S21" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17">
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19">
         <v>200</v>
       </c>
-      <c r="W21" s="33">
+      <c r="W21" s="43">
         <v>180</v>
       </c>
-      <c r="X21" s="17" t="s">
+      <c r="X21" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="Y21" s="17" t="s">
+      <c r="Y21" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Z21" s="17" t="s">
+      <c r="Z21" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AA21" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="17" t="s">
+      <c r="AA21" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AD21" s="17" t="s">
+      <c r="AD21" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AE21" s="17">
+      <c r="AE21" s="19">
         <v>10</v>
       </c>
-      <c r="AF21" s="17">
+      <c r="AF21" s="19">
         <v>20000</v>
       </c>
-      <c r="AG21" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH21" s="17">
-        <v>13</v>
-      </c>
-      <c r="AI21" s="34" t="str">
+      <c r="AG21" s="19">
+        <v>13</v>
+      </c>
+      <c r="AH21" s="19">
+        <v>13</v>
+      </c>
+      <c r="AI21" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="16">
         <v>20</v>
       </c>
-      <c r="E22" s="15">
-        <v>15000</v>
-      </c>
-      <c r="F22" s="15">
+      <c r="E22" s="17">
+        <v>15000</v>
+      </c>
+      <c r="F22" s="17">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="G22" s="15">
-        <v>0</v>
-      </c>
-      <c r="H22" s="15" t="s">
+      <c r="G22" s="17">
+        <v>0</v>
+      </c>
+      <c r="H22" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="16">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="16">
         <v>64</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="16">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="16">
         <v>1.5</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="16">
         <v>25</v>
       </c>
-      <c r="N22" s="14" t="s">
+      <c r="N22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O22" s="22" t="s">
+      <c r="O22" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="16">
         <v>1.4</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q22" s="16">
         <v>1</v>
       </c>
-      <c r="R22" s="24">
+      <c r="R22" s="40">
         <v>170</v>
       </c>
-      <c r="S22" s="14" t="s">
+      <c r="S22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14">
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16">
         <v>200</v>
       </c>
-      <c r="W22" s="31">
+      <c r="W22" s="41">
         <v>180</v>
       </c>
-      <c r="X22" s="14" t="s">
+      <c r="X22" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Y22" s="14" t="s">
+      <c r="Y22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="Z22" s="14" t="s">
+      <c r="Z22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AA22" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="14" t="s">
+      <c r="AA22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AD22" s="14" t="s">
+      <c r="AD22" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AE22" s="14">
+      <c r="AE22" s="16">
         <v>10</v>
       </c>
-      <c r="AF22" s="14">
+      <c r="AF22" s="16">
         <v>20000</v>
       </c>
-      <c r="AG22" s="14">
-        <v>13</v>
-      </c>
-      <c r="AH22" s="14">
-        <v>13</v>
-      </c>
-      <c r="AI22" s="34" t="str">
+      <c r="AG22" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH22" s="16">
+        <v>13</v>
+      </c>
+      <c r="AI22" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="19">
         <v>21</v>
       </c>
-      <c r="E23" s="18">
-        <v>15000</v>
-      </c>
-      <c r="F23" s="18">
+      <c r="E23" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F23" s="20">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="G23" s="18">
-        <v>0</v>
-      </c>
-      <c r="H23" s="18" t="s">
+      <c r="G23" s="20">
+        <v>0</v>
+      </c>
+      <c r="H23" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="19">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="19">
         <v>64</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="19">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="19">
         <v>1.5</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="19">
         <v>25</v>
       </c>
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O23" s="23" t="s">
+      <c r="O23" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P23" s="19">
         <v>1.4</v>
       </c>
-      <c r="Q23" s="17">
+      <c r="Q23" s="19">
         <v>1</v>
       </c>
-      <c r="R23" s="32">
+      <c r="R23" s="42">
         <v>170</v>
       </c>
-      <c r="S23" s="17" t="s">
+      <c r="S23" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17">
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19">
         <v>200</v>
       </c>
-      <c r="W23" s="33">
+      <c r="W23" s="43">
         <v>180</v>
       </c>
-      <c r="X23" s="17" t="s">
+      <c r="X23" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="Y23" s="17" t="s">
+      <c r="Y23" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Z23" s="17" t="s">
+      <c r="Z23" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AA23" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="17" t="s">
+      <c r="AA23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AD23" s="17" t="s">
+      <c r="AD23" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AE23" s="17">
+      <c r="AE23" s="19">
         <v>10</v>
       </c>
-      <c r="AF23" s="17">
+      <c r="AF23" s="19">
         <v>20000</v>
       </c>
-      <c r="AG23" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH23" s="17">
-        <v>13</v>
-      </c>
-      <c r="AI23" s="34" t="str">
+      <c r="AG23" s="19">
+        <v>13</v>
+      </c>
+      <c r="AH23" s="19">
+        <v>13</v>
+      </c>
+      <c r="AI23" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="16">
         <v>22</v>
       </c>
-      <c r="E24" s="15">
-        <v>15000</v>
-      </c>
-      <c r="F24" s="15">
+      <c r="E24" s="17">
+        <v>15000</v>
+      </c>
+      <c r="F24" s="17">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15" t="s">
+      <c r="G24" s="17">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="16">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="16">
         <v>64</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="16">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="16">
         <v>1.5</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="16">
         <v>25</v>
       </c>
-      <c r="N24" s="14" t="s">
+      <c r="N24" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O24" s="22" t="s">
+      <c r="O24" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="16">
         <v>1.4</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q24" s="16">
         <v>1</v>
       </c>
-      <c r="R24" s="24">
+      <c r="R24" s="40">
         <v>170</v>
       </c>
-      <c r="S24" s="14" t="s">
+      <c r="S24" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14">
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16">
         <v>200</v>
       </c>
-      <c r="W24" s="31">
+      <c r="W24" s="41">
         <v>180</v>
       </c>
-      <c r="X24" s="14" t="s">
+      <c r="X24" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Y24" s="14" t="s">
+      <c r="Y24" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="Z24" s="14" t="s">
+      <c r="Z24" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AA24" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="14" t="s">
+      <c r="AA24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AD24" s="14" t="s">
+      <c r="AD24" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AE24" s="14">
+      <c r="AE24" s="16">
         <v>10</v>
       </c>
-      <c r="AF24" s="14">
+      <c r="AF24" s="16">
         <v>20000</v>
       </c>
-      <c r="AG24" s="14">
-        <v>13</v>
-      </c>
-      <c r="AH24" s="14">
-        <v>13</v>
-      </c>
-      <c r="AI24" s="34" t="str">
+      <c r="AG24" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH24" s="16">
+        <v>13</v>
+      </c>
+      <c r="AI24" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="19">
         <v>23</v>
       </c>
-      <c r="E25" s="18">
-        <v>15000</v>
-      </c>
-      <c r="F25" s="18">
+      <c r="E25" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F25" s="20">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="G25" s="18">
-        <v>0</v>
-      </c>
-      <c r="H25" s="18" t="s">
+      <c r="G25" s="20">
+        <v>0</v>
+      </c>
+      <c r="H25" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="19">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="19">
         <v>64</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="19">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="19">
         <v>1.5</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="19">
         <v>25</v>
       </c>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O25" s="23" t="s">
+      <c r="O25" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="P25" s="17">
+      <c r="P25" s="19">
         <v>1.4</v>
       </c>
-      <c r="Q25" s="17">
+      <c r="Q25" s="19">
         <v>1</v>
       </c>
-      <c r="R25" s="32">
+      <c r="R25" s="42">
         <v>170</v>
       </c>
-      <c r="S25" s="17" t="s">
+      <c r="S25" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17">
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19">
         <v>200</v>
       </c>
-      <c r="W25" s="33">
+      <c r="W25" s="43">
         <v>180</v>
       </c>
-      <c r="X25" s="17" t="s">
+      <c r="X25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="Y25" s="17" t="s">
+      <c r="Y25" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Z25" s="17" t="s">
+      <c r="Z25" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AA25" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="17" t="s">
+      <c r="AA25" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AD25" s="17" t="s">
+      <c r="AD25" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AE25" s="17">
+      <c r="AE25" s="19">
         <v>10</v>
       </c>
-      <c r="AF25" s="17">
+      <c r="AF25" s="19">
         <v>20000</v>
       </c>
-      <c r="AG25" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH25" s="17">
-        <v>13</v>
-      </c>
-      <c r="AI25" s="34" t="str">
+      <c r="AG25" s="19">
+        <v>13</v>
+      </c>
+      <c r="AH25" s="19">
+        <v>13</v>
+      </c>
+      <c r="AI25" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="16">
         <v>24</v>
       </c>
-      <c r="E26" s="15">
-        <v>15000</v>
-      </c>
-      <c r="F26" s="15">
+      <c r="E26" s="17">
+        <v>15000</v>
+      </c>
+      <c r="F26" s="17">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="G26" s="15">
-        <v>0</v>
-      </c>
-      <c r="H26" s="15" t="s">
+      <c r="G26" s="17">
+        <v>0</v>
+      </c>
+      <c r="H26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="16">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="16">
         <v>64</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="16">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="16">
         <v>1.5</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="16">
         <v>25</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="N26" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O26" s="22" t="s">
+      <c r="O26" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26" s="16">
         <v>1.4</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q26" s="16">
         <v>1</v>
       </c>
-      <c r="R26" s="24">
+      <c r="R26" s="40">
         <v>170</v>
       </c>
-      <c r="S26" s="14" t="s">
+      <c r="S26" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14">
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16">
         <v>200</v>
       </c>
-      <c r="W26" s="31">
+      <c r="W26" s="41">
         <v>180</v>
       </c>
-      <c r="X26" s="14" t="s">
+      <c r="X26" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Y26" s="14" t="s">
+      <c r="Y26" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="Z26" s="14" t="s">
+      <c r="Z26" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AA26" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="14" t="s">
+      <c r="AA26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AD26" s="14" t="s">
+      <c r="AD26" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AE26" s="14">
+      <c r="AE26" s="16">
         <v>10</v>
       </c>
-      <c r="AF26" s="14">
+      <c r="AF26" s="16">
         <v>20000</v>
       </c>
-      <c r="AG26" s="14">
-        <v>13</v>
-      </c>
-      <c r="AH26" s="14">
-        <v>13</v>
-      </c>
-      <c r="AI26" s="34" t="str">
+      <c r="AG26" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH26" s="16">
+        <v>13</v>
+      </c>
+      <c r="AI26" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="27" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="19">
         <v>25</v>
       </c>
-      <c r="E27" s="18">
-        <v>15000</v>
-      </c>
-      <c r="F27" s="18">
+      <c r="E27" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F27" s="20">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="G27" s="18">
-        <v>0</v>
-      </c>
-      <c r="H27" s="18" t="s">
+      <c r="G27" s="20">
+        <v>0</v>
+      </c>
+      <c r="H27" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="19">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="19">
         <v>64</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="19">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="19">
         <v>1.5</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="19">
         <v>25</v>
       </c>
-      <c r="N27" s="14" t="s">
+      <c r="N27" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="O27" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="P27" s="17">
+      <c r="P27" s="19">
         <v>1.4</v>
       </c>
-      <c r="Q27" s="17">
+      <c r="Q27" s="19">
         <v>1</v>
       </c>
-      <c r="R27" s="32">
+      <c r="R27" s="42">
         <v>170</v>
       </c>
-      <c r="S27" s="17" t="s">
+      <c r="S27" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17">
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19">
         <v>200</v>
       </c>
-      <c r="W27" s="33">
+      <c r="W27" s="43">
         <v>180</v>
       </c>
-      <c r="X27" s="17" t="s">
+      <c r="X27" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="Y27" s="17" t="s">
+      <c r="Y27" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Z27" s="17" t="s">
+      <c r="Z27" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AA27" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="17" t="s">
+      <c r="AA27" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AD27" s="17" t="s">
+      <c r="AD27" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AE27" s="17">
+      <c r="AE27" s="19">
         <v>10</v>
       </c>
-      <c r="AF27" s="17">
+      <c r="AF27" s="19">
         <v>20000</v>
       </c>
-      <c r="AG27" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH27" s="17">
-        <v>13</v>
-      </c>
-      <c r="AI27" s="34" t="str">
+      <c r="AG27" s="19">
+        <v>13</v>
+      </c>
+      <c r="AH27" s="19">
+        <v>13</v>
+      </c>
+      <c r="AI27" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="28" ht="35" customHeight="1" spans="1:34">
-      <c r="A28" s="14" t="s">
+    <row r="28" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A28" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F28" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G28" s="14">
-        <v>0</v>
-      </c>
-      <c r="H28" s="14" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F28" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G28" s="21">
+        <v>0</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="I28" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J28" s="14">
+      <c r="I28" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J28" s="21">
         <v>1</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="21">
         <v>1</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="21">
         <v>1.5</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M28" s="21">
         <v>25</v>
       </c>
-      <c r="N28" s="14" t="s">
+      <c r="N28" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O28" s="22" t="s">
+      <c r="O28" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P28" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="Q28" s="21">
         <v>1</v>
       </c>
-      <c r="R28" s="32">
+      <c r="R28" s="30">
         <v>170</v>
       </c>
-      <c r="S28" s="17" t="s">
+      <c r="S28" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17">
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21">
         <v>200</v>
       </c>
-      <c r="W28" s="33">
+      <c r="W28" s="44">
         <v>180</v>
       </c>
-      <c r="X28" s="17" t="s">
+      <c r="X28" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y28" s="17" t="s">
+      <c r="Y28" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z28" s="17" t="s">
+      <c r="Z28" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="17" t="s">
+      <c r="AA28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD28" s="17" t="s">
+      <c r="AD28" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE28" s="17">
+      <c r="AE28" s="21">
         <v>10</v>
       </c>
-      <c r="AF28" s="17">
+      <c r="AF28" s="21">
         <v>20000</v>
       </c>
-      <c r="AG28" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH28" s="17">
+      <c r="AG28" s="21">
+        <v>13</v>
+      </c>
+      <c r="AH28" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="29" ht="18.5" customHeight="1" spans="1:34">
-      <c r="A29" s="14" t="s">
+    <row r="29" s="4" customFormat="1" ht="18.5" customHeight="1" spans="1:34">
+      <c r="A29" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F29" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G29" s="18">
-        <v>0</v>
-      </c>
-      <c r="H29" s="17" t="s">
+      <c r="D29" s="21"/>
+      <c r="E29" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F29" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G29" s="22">
+        <v>0</v>
+      </c>
+      <c r="H29" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="I29" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J29" s="14">
+      <c r="I29" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J29" s="21">
         <v>2</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="21">
         <v>2</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="21">
         <v>1.5</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="21">
         <v>25</v>
       </c>
-      <c r="N29" s="14" t="s">
+      <c r="N29" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O29" s="23" t="s">
+      <c r="O29" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="P29" s="17">
+      <c r="P29" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="Q29" s="21">
         <v>1</v>
       </c>
-      <c r="R29" s="32">
+      <c r="R29" s="30">
         <v>170</v>
       </c>
-      <c r="S29" s="17" t="s">
+      <c r="S29" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17">
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21">
         <v>200</v>
       </c>
-      <c r="W29" s="33">
+      <c r="W29" s="44">
         <v>180</v>
       </c>
-      <c r="X29" s="17" t="s">
+      <c r="X29" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y29" s="17" t="s">
+      <c r="Y29" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="17" t="s">
+      <c r="Z29" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA29" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="17" t="s">
+      <c r="AA29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD29" s="17" t="s">
+      <c r="AD29" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE29" s="17">
+      <c r="AE29" s="21">
         <v>10</v>
       </c>
-      <c r="AF29" s="17">
+      <c r="AF29" s="21">
         <v>20000</v>
       </c>
-      <c r="AG29" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH29" s="17">
+      <c r="AG29" s="21">
+        <v>13</v>
+      </c>
+      <c r="AH29" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="30" ht="35" customHeight="1" spans="1:34">
-      <c r="A30" s="14" t="s">
+    <row r="30" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A30" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F30" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G30" s="14">
-        <v>0</v>
-      </c>
-      <c r="H30" s="14" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F30" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G30" s="21">
+        <v>0</v>
+      </c>
+      <c r="H30" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="I30" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J30" s="14">
+      <c r="I30" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J30" s="21">
         <v>3</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="21">
         <v>3</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="21">
         <v>1.5</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M30" s="21">
         <v>25</v>
       </c>
-      <c r="N30" s="14" t="s">
+      <c r="N30" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O30" s="22" t="s">
+      <c r="O30" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P30" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="Q30" s="21">
         <v>1</v>
       </c>
-      <c r="R30" s="32">
+      <c r="R30" s="30">
         <v>170</v>
       </c>
-      <c r="S30" s="17" t="s">
+      <c r="S30" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17">
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21">
         <v>200</v>
       </c>
-      <c r="W30" s="33">
+      <c r="W30" s="44">
         <v>180</v>
       </c>
-      <c r="X30" s="17" t="s">
+      <c r="X30" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y30" s="17" t="s">
+      <c r="Y30" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z30" s="17" t="s">
+      <c r="Z30" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA30" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="17" t="s">
+      <c r="AA30" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD30" s="17" t="s">
+      <c r="AD30" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE30" s="17">
+      <c r="AE30" s="21">
         <v>10</v>
       </c>
-      <c r="AF30" s="17">
+      <c r="AF30" s="21">
         <v>20000</v>
       </c>
-      <c r="AG30" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH30" s="17">
+      <c r="AG30" s="21">
+        <v>13</v>
+      </c>
+      <c r="AH30" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="31" ht="18.5" customHeight="1" spans="1:34">
-      <c r="A31" s="14" t="s">
+    <row r="31" s="4" customFormat="1" ht="18.5" customHeight="1" spans="1:34">
+      <c r="A31" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F31" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>0</v>
-      </c>
-      <c r="H31" s="17" t="s">
+      <c r="D31" s="21"/>
+      <c r="E31" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F31" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G31" s="22">
+        <v>0</v>
+      </c>
+      <c r="H31" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I31" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J31" s="14">
+      <c r="I31" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J31" s="21">
         <v>4</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="21">
         <v>4</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="21">
         <v>1.5</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="21">
         <v>25</v>
       </c>
-      <c r="N31" s="14" t="s">
+      <c r="N31" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O31" s="23" t="s">
+      <c r="O31" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="P31" s="17">
+      <c r="P31" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q31" s="17">
+      <c r="Q31" s="21">
         <v>1</v>
       </c>
-      <c r="R31" s="32">
+      <c r="R31" s="30">
         <v>170</v>
       </c>
-      <c r="S31" s="17" t="s">
+      <c r="S31" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17">
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21">
         <v>200</v>
       </c>
-      <c r="W31" s="33">
+      <c r="W31" s="44">
         <v>180</v>
       </c>
-      <c r="X31" s="17" t="s">
+      <c r="X31" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y31" s="17" t="s">
+      <c r="Y31" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z31" s="17" t="s">
+      <c r="Z31" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA31" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="17" t="s">
+      <c r="AA31" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD31" s="17" t="s">
+      <c r="AD31" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE31" s="17">
+      <c r="AE31" s="21">
         <v>10</v>
       </c>
-      <c r="AF31" s="17">
+      <c r="AF31" s="21">
         <v>20000</v>
       </c>
-      <c r="AG31" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH31" s="17">
+      <c r="AG31" s="21">
+        <v>13</v>
+      </c>
+      <c r="AH31" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="32" ht="18.5" customHeight="1" spans="1:34">
-      <c r="A32" s="14" t="s">
+    <row r="32" s="4" customFormat="1" ht="18.5" customHeight="1" spans="1:34">
+      <c r="A32" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F32" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G32" s="14">
-        <v>0</v>
-      </c>
-      <c r="H32" s="14" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F32" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G32" s="21">
+        <v>0</v>
+      </c>
+      <c r="H32" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="I32" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J32" s="14">
+      <c r="I32" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J32" s="21">
         <v>5</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="21">
         <v>5</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="21">
         <v>1.5</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="21">
         <v>25</v>
       </c>
-      <c r="N32" s="14" t="s">
+      <c r="N32" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O32" s="22" t="s">
+      <c r="O32" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="P32" s="17">
+      <c r="P32" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q32" s="17">
+      <c r="Q32" s="21">
         <v>1</v>
       </c>
-      <c r="R32" s="32">
+      <c r="R32" s="30">
         <v>170</v>
       </c>
-      <c r="S32" s="17" t="s">
+      <c r="S32" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17">
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21">
         <v>200</v>
       </c>
-      <c r="W32" s="33">
+      <c r="W32" s="44">
         <v>180</v>
       </c>
-      <c r="X32" s="17" t="s">
+      <c r="X32" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y32" s="17" t="s">
+      <c r="Y32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z32" s="17" t="s">
+      <c r="Z32" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA32" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="17" t="s">
+      <c r="AA32" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD32" s="17" t="s">
+      <c r="AD32" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE32" s="17">
+      <c r="AE32" s="21">
         <v>10</v>
       </c>
-      <c r="AF32" s="17">
+      <c r="AF32" s="21">
         <v>20000</v>
       </c>
-      <c r="AG32" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH32" s="17">
+      <c r="AG32" s="21">
+        <v>13</v>
+      </c>
+      <c r="AH32" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="33" ht="35" customHeight="1" spans="1:34">
-      <c r="A33" s="14" t="s">
+    <row r="33" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A33" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F33" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>0</v>
-      </c>
-      <c r="H33" s="17" t="s">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F33" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G33" s="22">
+        <v>0</v>
+      </c>
+      <c r="H33" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="I33" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J33" s="14">
+      <c r="I33" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J33" s="21">
         <v>6</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="21">
         <v>6</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="21">
         <v>1.5</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="21">
         <v>25</v>
       </c>
-      <c r="N33" s="14" t="s">
+      <c r="N33" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O33" s="23" t="s">
+      <c r="O33" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="P33" s="17">
+      <c r="P33" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q33" s="17">
+      <c r="Q33" s="21">
         <v>1</v>
       </c>
-      <c r="R33" s="32">
+      <c r="R33" s="30">
         <v>170</v>
       </c>
-      <c r="S33" s="17" t="s">
+      <c r="S33" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17">
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21">
         <v>200</v>
       </c>
-      <c r="W33" s="33">
+      <c r="W33" s="44">
         <v>180</v>
       </c>
-      <c r="X33" s="17" t="s">
+      <c r="X33" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y33" s="17" t="s">
+      <c r="Y33" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z33" s="17" t="s">
+      <c r="Z33" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA33" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="17" t="s">
+      <c r="AA33" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD33" s="17" t="s">
+      <c r="AD33" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE33" s="17">
+      <c r="AE33" s="21">
         <v>10</v>
       </c>
-      <c r="AF33" s="17">
+      <c r="AF33" s="21">
         <v>20000</v>
       </c>
-      <c r="AG33" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH33" s="17">
+      <c r="AG33" s="21">
+        <v>13</v>
+      </c>
+      <c r="AH33" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="34" ht="35" customHeight="1" spans="1:34">
-      <c r="A34" s="14" t="s">
+    <row r="34" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A34" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F34" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G34" s="14">
-        <v>0</v>
-      </c>
-      <c r="H34" s="14" t="s">
+      <c r="D34" s="21"/>
+      <c r="E34" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F34" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G34" s="21">
+        <v>0</v>
+      </c>
+      <c r="H34" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="I34" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J34" s="14">
+      <c r="I34" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J34" s="21">
         <v>7</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="21">
         <v>7</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="21">
         <v>1.5</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="21">
         <v>25</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="N34" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O34" s="22" t="s">
+      <c r="O34" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="P34" s="17">
+      <c r="P34" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q34" s="17">
+      <c r="Q34" s="21">
         <v>1</v>
       </c>
-      <c r="R34" s="32">
+      <c r="R34" s="30">
         <v>170</v>
       </c>
-      <c r="S34" s="17" t="s">
+      <c r="S34" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17">
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21">
         <v>200</v>
       </c>
-      <c r="W34" s="33">
+      <c r="W34" s="44">
         <v>180</v>
       </c>
-      <c r="X34" s="17" t="s">
+      <c r="X34" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y34" s="17" t="s">
+      <c r="Y34" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z34" s="17" t="s">
+      <c r="Z34" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA34" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="17" t="s">
+      <c r="AA34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD34" s="17" t="s">
+      <c r="AD34" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE34" s="17">
+      <c r="AE34" s="21">
         <v>10</v>
       </c>
-      <c r="AF34" s="17">
+      <c r="AF34" s="21">
         <v>20000</v>
       </c>
-      <c r="AG34" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH34" s="17">
+      <c r="AG34" s="21">
+        <v>13</v>
+      </c>
+      <c r="AH34" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="35" ht="35" customHeight="1" spans="1:34">
-      <c r="A35" s="14" t="s">
+    <row r="35" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A35" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F35" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>0</v>
-      </c>
-      <c r="H35" s="17" t="s">
+      <c r="D35" s="21"/>
+      <c r="E35" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F35" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G35" s="22">
+        <v>0</v>
+      </c>
+      <c r="H35" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="I35" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J35" s="14">
+      <c r="I35" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J35" s="21">
         <v>8</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="21">
         <v>8</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="21">
         <v>1.5</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M35" s="21">
         <v>25</v>
       </c>
-      <c r="N35" s="14" t="s">
+      <c r="N35" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O35" s="23" t="s">
+      <c r="O35" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="P35" s="17">
+      <c r="P35" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q35" s="17">
+      <c r="Q35" s="21">
         <v>1</v>
       </c>
-      <c r="R35" s="32">
+      <c r="R35" s="30">
         <v>170</v>
       </c>
-      <c r="S35" s="17" t="s">
+      <c r="S35" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17">
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21">
         <v>200</v>
       </c>
-      <c r="W35" s="33">
+      <c r="W35" s="44">
         <v>180</v>
       </c>
-      <c r="X35" s="17" t="s">
+      <c r="X35" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y35" s="17" t="s">
+      <c r="Y35" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z35" s="17" t="s">
+      <c r="Z35" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA35" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="17" t="s">
+      <c r="AA35" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD35" s="17" t="s">
+      <c r="AD35" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE35" s="17">
+      <c r="AE35" s="21">
         <v>10</v>
       </c>
-      <c r="AF35" s="17">
+      <c r="AF35" s="21">
         <v>20000</v>
       </c>
-      <c r="AG35" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH35" s="17">
+      <c r="AG35" s="21">
+        <v>13</v>
+      </c>
+      <c r="AH35" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="36" ht="35" customHeight="1" spans="1:34">
-      <c r="A36" s="14" t="s">
+    <row r="36" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A36" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F36" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G36" s="14">
-        <v>0</v>
-      </c>
-      <c r="H36" s="14" t="s">
+      <c r="D36" s="21"/>
+      <c r="E36" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F36" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G36" s="21">
+        <v>0</v>
+      </c>
+      <c r="H36" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="I36" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J36" s="14">
+      <c r="I36" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J36" s="21">
         <v>9</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K36" s="21">
         <v>9</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L36" s="21">
         <v>1.5</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M36" s="21">
         <v>25</v>
       </c>
-      <c r="N36" s="14" t="s">
+      <c r="N36" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="22" t="s">
+      <c r="O36" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="P36" s="17">
+      <c r="P36" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q36" s="17">
+      <c r="Q36" s="21">
         <v>1</v>
       </c>
-      <c r="R36" s="32">
+      <c r="R36" s="30">
         <v>170</v>
       </c>
-      <c r="S36" s="17" t="s">
+      <c r="S36" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17">
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21">
         <v>200</v>
       </c>
-      <c r="W36" s="33">
+      <c r="W36" s="44">
         <v>180</v>
       </c>
-      <c r="X36" s="17" t="s">
+      <c r="X36" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y36" s="17" t="s">
+      <c r="Y36" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z36" s="17" t="s">
+      <c r="Z36" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA36" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="17" t="s">
+      <c r="AA36" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD36" s="17" t="s">
+      <c r="AD36" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE36" s="17">
+      <c r="AE36" s="21">
         <v>10</v>
       </c>
-      <c r="AF36" s="17">
+      <c r="AF36" s="21">
         <v>20000</v>
       </c>
-      <c r="AG36" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH36" s="17">
+      <c r="AG36" s="21">
+        <v>13</v>
+      </c>
+      <c r="AH36" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="37" ht="35" customHeight="1" spans="1:34">
-      <c r="A37" s="14" t="s">
+    <row r="37" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A37" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F37" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>0</v>
-      </c>
-      <c r="H37" s="17" t="s">
+      <c r="D37" s="21"/>
+      <c r="E37" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F37" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G37" s="22">
+        <v>0</v>
+      </c>
+      <c r="H37" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="I37" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J37" s="14">
+      <c r="I37" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J37" s="21">
         <v>10</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="21">
         <v>10</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37" s="21">
         <v>1.5</v>
       </c>
-      <c r="M37" s="17">
+      <c r="M37" s="21">
         <v>25</v>
       </c>
-      <c r="N37" s="14" t="s">
+      <c r="N37" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O37" s="23" t="s">
+      <c r="O37" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="P37" s="17">
+      <c r="P37" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q37" s="17">
+      <c r="Q37" s="21">
         <v>1</v>
       </c>
-      <c r="R37" s="32">
+      <c r="R37" s="30">
         <v>170</v>
       </c>
-      <c r="S37" s="17" t="s">
+      <c r="S37" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17">
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21">
         <v>200</v>
       </c>
-      <c r="W37" s="33">
+      <c r="W37" s="44">
         <v>180</v>
       </c>
-      <c r="X37" s="17" t="s">
+      <c r="X37" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y37" s="17" t="s">
+      <c r="Y37" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z37" s="17" t="s">
+      <c r="Z37" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA37" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="17" t="s">
+      <c r="AA37" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD37" s="17" t="s">
+      <c r="AD37" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE37" s="17">
+      <c r="AE37" s="21">
         <v>10</v>
       </c>
-      <c r="AF37" s="17">
+      <c r="AF37" s="21">
         <v>20000</v>
       </c>
-      <c r="AG37" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH37" s="17">
+      <c r="AG37" s="21">
+        <v>13</v>
+      </c>
+      <c r="AH37" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="38" ht="35" customHeight="1" spans="1:34">
-      <c r="A38" s="14" t="s">
+    <row r="38" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A38" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F38" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G38" s="14">
-        <v>0</v>
-      </c>
-      <c r="H38" s="14" t="s">
+      <c r="D38" s="21"/>
+      <c r="E38" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F38" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G38" s="21">
+        <v>0</v>
+      </c>
+      <c r="H38" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="I38" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J38" s="14">
+      <c r="I38" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J38" s="21">
         <v>11</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="21">
         <v>11</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="21">
         <v>1.5</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M38" s="21">
         <v>25</v>
       </c>
-      <c r="N38" s="14" t="s">
+      <c r="N38" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O38" s="22" t="s">
+      <c r="O38" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="P38" s="17">
+      <c r="P38" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q38" s="17">
+      <c r="Q38" s="21">
         <v>1</v>
       </c>
-      <c r="R38" s="32">
+      <c r="R38" s="30">
         <v>170</v>
       </c>
-      <c r="S38" s="17" t="s">
+      <c r="S38" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17">
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21">
         <v>200</v>
       </c>
-      <c r="W38" s="33">
+      <c r="W38" s="44">
         <v>180</v>
       </c>
-      <c r="X38" s="17" t="s">
+      <c r="X38" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y38" s="17" t="s">
+      <c r="Y38" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z38" s="17" t="s">
+      <c r="Z38" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="17" t="s">
+      <c r="AA38" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD38" s="17" t="s">
+      <c r="AD38" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE38" s="17">
+      <c r="AE38" s="21">
         <v>10</v>
       </c>
-      <c r="AF38" s="17">
+      <c r="AF38" s="21">
         <v>20000</v>
       </c>
-      <c r="AG38" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH38" s="17">
+      <c r="AG38" s="21">
+        <v>13</v>
+      </c>
+      <c r="AH38" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="39" ht="35" customHeight="1" spans="1:34">
-      <c r="A39" s="14" t="s">
+    <row r="39" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A39" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F39" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>0</v>
-      </c>
-      <c r="H39" s="17" t="s">
+      <c r="D39" s="21"/>
+      <c r="E39" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F39" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G39" s="22">
+        <v>0</v>
+      </c>
+      <c r="H39" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="I39" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J39" s="14">
+      <c r="I39" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J39" s="21">
         <v>12</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="21">
         <v>12</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="21">
         <v>1.5</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M39" s="21">
         <v>25</v>
       </c>
-      <c r="N39" s="14" t="s">
+      <c r="N39" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O39" s="23" t="s">
+      <c r="O39" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="P39" s="17">
+      <c r="P39" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q39" s="17">
+      <c r="Q39" s="21">
         <v>1</v>
       </c>
-      <c r="R39" s="32">
+      <c r="R39" s="30">
         <v>170</v>
       </c>
-      <c r="S39" s="17" t="s">
+      <c r="S39" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17">
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21">
         <v>200</v>
       </c>
-      <c r="W39" s="33">
+      <c r="W39" s="44">
         <v>180</v>
       </c>
-      <c r="X39" s="17" t="s">
+      <c r="X39" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y39" s="17" t="s">
+      <c r="Y39" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z39" s="17" t="s">
+      <c r="Z39" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA39" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="17" t="s">
+      <c r="AA39" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD39" s="17" t="s">
+      <c r="AD39" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE39" s="17">
+      <c r="AE39" s="21">
         <v>10</v>
       </c>
-      <c r="AF39" s="17">
+      <c r="AF39" s="21">
         <v>20000</v>
       </c>
-      <c r="AG39" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH39" s="17">
+      <c r="AG39" s="21">
+        <v>13</v>
+      </c>
+      <c r="AH39" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="40" ht="18.5" customHeight="1" spans="1:34">
-      <c r="A40" s="14" t="s">
+    <row r="40" s="4" customFormat="1" ht="18.5" customHeight="1" spans="1:34">
+      <c r="A40" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F40" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G40" s="14">
-        <v>0</v>
-      </c>
-      <c r="H40" s="14" t="s">
+      <c r="D40" s="21"/>
+      <c r="E40" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F40" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G40" s="21">
+        <v>0</v>
+      </c>
+      <c r="H40" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="I40" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J40" s="14">
-        <v>13</v>
-      </c>
-      <c r="K40" s="14">
-        <v>13</v>
-      </c>
-      <c r="L40" s="17">
+      <c r="I40" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J40" s="21">
+        <v>13</v>
+      </c>
+      <c r="K40" s="21">
+        <v>13</v>
+      </c>
+      <c r="L40" s="21">
         <v>1.5</v>
       </c>
-      <c r="M40" s="17">
+      <c r="M40" s="21">
         <v>25</v>
       </c>
-      <c r="N40" s="14" t="s">
+      <c r="N40" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O40" s="22" t="s">
+      <c r="O40" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="P40" s="17">
+      <c r="P40" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q40" s="17">
+      <c r="Q40" s="21">
         <v>1</v>
       </c>
-      <c r="R40" s="32">
+      <c r="R40" s="30">
         <v>170</v>
       </c>
-      <c r="S40" s="17" t="s">
+      <c r="S40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17">
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21">
         <v>200</v>
       </c>
-      <c r="W40" s="33">
+      <c r="W40" s="44">
         <v>180</v>
       </c>
-      <c r="X40" s="17" t="s">
+      <c r="X40" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y40" s="17" t="s">
+      <c r="Y40" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z40" s="17" t="s">
+      <c r="Z40" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA40" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="17" t="s">
+      <c r="AA40" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD40" s="17" t="s">
+      <c r="AD40" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE40" s="17">
+      <c r="AE40" s="21">
         <v>10</v>
       </c>
-      <c r="AF40" s="17">
+      <c r="AF40" s="21">
         <v>20000</v>
       </c>
-      <c r="AG40" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH40" s="17">
+      <c r="AG40" s="21">
+        <v>13</v>
+      </c>
+      <c r="AH40" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="41" ht="35" customHeight="1" spans="1:34">
-      <c r="A41" s="14" t="s">
+    <row r="41" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A41" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F41" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>0</v>
-      </c>
-      <c r="H41" s="17" t="s">
+      <c r="D41" s="21"/>
+      <c r="E41" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F41" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G41" s="22">
+        <v>0</v>
+      </c>
+      <c r="H41" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="I41" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J41" s="14">
+      <c r="I41" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J41" s="21">
         <v>14</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="21">
         <v>14</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L41" s="21">
         <v>1.5</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M41" s="21">
         <v>25</v>
       </c>
-      <c r="N41" s="14" t="s">
+      <c r="N41" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O41" s="23" t="s">
+      <c r="O41" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="P41" s="17">
+      <c r="P41" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q41" s="17">
+      <c r="Q41" s="21">
         <v>1</v>
       </c>
-      <c r="R41" s="32">
+      <c r="R41" s="30">
         <v>170</v>
       </c>
-      <c r="S41" s="17" t="s">
+      <c r="S41" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17">
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21">
         <v>200</v>
       </c>
-      <c r="W41" s="33">
+      <c r="W41" s="44">
         <v>180</v>
       </c>
-      <c r="X41" s="17" t="s">
+      <c r="X41" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y41" s="17" t="s">
+      <c r="Y41" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z41" s="17" t="s">
+      <c r="Z41" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA41" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="17" t="s">
+      <c r="AA41" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD41" s="17" t="s">
+      <c r="AD41" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE41" s="17">
+      <c r="AE41" s="21">
         <v>10</v>
       </c>
-      <c r="AF41" s="17">
+      <c r="AF41" s="21">
         <v>20000</v>
       </c>
-      <c r="AG41" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH41" s="17">
+      <c r="AG41" s="21">
+        <v>13</v>
+      </c>
+      <c r="AH41" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="42" ht="35" customHeight="1" spans="1:34">
-      <c r="A42" s="14" t="s">
+    <row r="42" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A42" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F42" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G42" s="14">
-        <v>0</v>
-      </c>
-      <c r="H42" s="14" t="s">
+      <c r="D42" s="21"/>
+      <c r="E42" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F42" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G42" s="21">
+        <v>0</v>
+      </c>
+      <c r="H42" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="I42" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J42" s="14">
+      <c r="I42" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J42" s="21">
         <v>15</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="21">
         <v>15</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="21">
         <v>1.5</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M42" s="21">
         <v>25</v>
       </c>
-      <c r="N42" s="14" t="s">
+      <c r="N42" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O42" s="22" t="s">
+      <c r="O42" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="P42" s="17">
+      <c r="P42" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q42" s="17">
+      <c r="Q42" s="21">
         <v>1</v>
       </c>
-      <c r="R42" s="32">
+      <c r="R42" s="30">
         <v>170</v>
       </c>
-      <c r="S42" s="17" t="s">
+      <c r="S42" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17">
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21">
         <v>200</v>
       </c>
-      <c r="W42" s="33">
+      <c r="W42" s="44">
         <v>180</v>
       </c>
-      <c r="X42" s="17" t="s">
+      <c r="X42" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y42" s="17" t="s">
+      <c r="Y42" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z42" s="17" t="s">
+      <c r="Z42" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA42" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="17" t="s">
+      <c r="AA42" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD42" s="17" t="s">
+      <c r="AD42" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE42" s="17">
+      <c r="AE42" s="21">
         <v>10</v>
       </c>
-      <c r="AF42" s="17">
+      <c r="AF42" s="21">
         <v>20000</v>
       </c>
-      <c r="AG42" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH42" s="17">
+      <c r="AG42" s="21">
+        <v>13</v>
+      </c>
+      <c r="AH42" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="43" ht="35" customHeight="1" spans="1:34">
-      <c r="A43" s="14" t="s">
+    <row r="43" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A43" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F43" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G43" s="14">
-        <v>0</v>
-      </c>
-      <c r="H43" s="14" t="s">
+      <c r="D43" s="21"/>
+      <c r="E43" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F43" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G43" s="21">
+        <v>0</v>
+      </c>
+      <c r="H43" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="I43" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J43" s="14">
+      <c r="I43" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J43" s="21">
         <v>17</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="21">
         <v>17</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L43" s="21">
         <v>1.5</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M43" s="21">
         <v>25</v>
       </c>
-      <c r="N43" s="14" t="s">
+      <c r="N43" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O43" s="22" t="s">
+      <c r="O43" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="P43" s="17">
+      <c r="P43" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q43" s="17">
+      <c r="Q43" s="21">
         <v>1</v>
       </c>
-      <c r="R43" s="32">
+      <c r="R43" s="30">
         <v>170</v>
       </c>
-      <c r="S43" s="17" t="s">
+      <c r="S43" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17">
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21">
         <v>200</v>
       </c>
-      <c r="W43" s="33">
+      <c r="W43" s="44">
         <v>180</v>
       </c>
-      <c r="X43" s="17" t="s">
+      <c r="X43" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y43" s="17" t="s">
+      <c r="Y43" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z43" s="17" t="s">
+      <c r="Z43" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA43" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="17" t="s">
+      <c r="AA43" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD43" s="17" t="s">
+      <c r="AD43" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE43" s="17">
+      <c r="AE43" s="21">
         <v>10</v>
       </c>
-      <c r="AF43" s="17">
+      <c r="AF43" s="21">
         <v>20000</v>
       </c>
-      <c r="AG43" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH43" s="17">
+      <c r="AG43" s="21">
+        <v>13</v>
+      </c>
+      <c r="AH43" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="44" ht="35" customHeight="1" spans="1:34">
-      <c r="A44" s="14" t="s">
+    <row r="44" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A44" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F44" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>0</v>
-      </c>
-      <c r="H44" s="17" t="s">
+      <c r="D44" s="21"/>
+      <c r="E44" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F44" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G44" s="22">
+        <v>0</v>
+      </c>
+      <c r="H44" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="I44" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J44" s="14">
+      <c r="I44" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J44" s="21">
         <v>16</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K44" s="21">
         <v>16</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="21">
         <v>1.5</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="21">
         <v>25</v>
       </c>
-      <c r="N44" s="14" t="s">
+      <c r="N44" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O44" s="23" t="s">
+      <c r="O44" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="P44" s="17">
+      <c r="P44" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q44" s="17">
+      <c r="Q44" s="21">
         <v>1</v>
       </c>
-      <c r="R44" s="32">
+      <c r="R44" s="30">
         <v>170</v>
       </c>
-      <c r="S44" s="17" t="s">
+      <c r="S44" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17">
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21">
         <v>200</v>
       </c>
-      <c r="W44" s="33">
+      <c r="W44" s="44">
         <v>180</v>
       </c>
-      <c r="X44" s="17" t="s">
+      <c r="X44" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y44" s="17" t="s">
+      <c r="Y44" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z44" s="17" t="s">
+      <c r="Z44" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA44" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="17" t="s">
+      <c r="AA44" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD44" s="17" t="s">
+      <c r="AD44" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE44" s="17">
+      <c r="AE44" s="21">
         <v>10</v>
       </c>
-      <c r="AF44" s="17">
+      <c r="AF44" s="21">
         <v>20000</v>
       </c>
-      <c r="AG44" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH44" s="17">
+      <c r="AG44" s="21">
+        <v>13</v>
+      </c>
+      <c r="AH44" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="45" ht="51.5" customHeight="1" spans="1:34">
-      <c r="A45" s="14" t="s">
+    <row r="45" s="4" customFormat="1" ht="51.5" customHeight="1" spans="1:34">
+      <c r="A45" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F45" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G45" s="18">
-        <v>0</v>
-      </c>
-      <c r="H45" s="17" t="s">
+      <c r="D45" s="21"/>
+      <c r="E45" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F45" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G45" s="22">
+        <v>0</v>
+      </c>
+      <c r="H45" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="I45" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J45" s="14">
+      <c r="I45" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J45" s="21">
         <v>18</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K45" s="21">
         <v>18</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="21">
         <v>1.5</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M45" s="21">
         <v>25</v>
       </c>
-      <c r="N45" s="14" t="s">
+      <c r="N45" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O45" s="23" t="s">
+      <c r="O45" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="P45" s="17">
+      <c r="P45" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q45" s="17">
+      <c r="Q45" s="21">
         <v>1</v>
       </c>
-      <c r="R45" s="32">
+      <c r="R45" s="30">
         <v>170</v>
       </c>
-      <c r="S45" s="17" t="s">
+      <c r="S45" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17">
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21">
         <v>200</v>
       </c>
-      <c r="W45" s="33">
+      <c r="W45" s="44">
         <v>180</v>
       </c>
-      <c r="X45" s="17" t="s">
+      <c r="X45" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y45" s="17" t="s">
+      <c r="Y45" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z45" s="17" t="s">
+      <c r="Z45" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA45" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="17" t="s">
+      <c r="AA45" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD45" s="17" t="s">
+      <c r="AD45" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE45" s="17">
+      <c r="AE45" s="21">
         <v>10</v>
       </c>
-      <c r="AF45" s="17">
+      <c r="AF45" s="21">
         <v>20000</v>
       </c>
-      <c r="AG45" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH45" s="17">
+      <c r="AG45" s="21">
+        <v>13</v>
+      </c>
+      <c r="AH45" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="46" ht="35" customHeight="1" spans="1:34">
-      <c r="A46" s="14" t="s">
+    <row r="46" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A46" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F46" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G46" s="14">
-        <v>0</v>
-      </c>
-      <c r="H46" s="14" t="s">
+      <c r="D46" s="21"/>
+      <c r="E46" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F46" s="22">
+        <v>15000</v>
+      </c>
+      <c r="G46" s="21">
+        <v>0</v>
+      </c>
+      <c r="H46" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="I46" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J46" s="14">
+      <c r="I46" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J46" s="21">
         <v>19</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K46" s="21">
         <v>19</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L46" s="21">
         <v>1.5</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M46" s="21">
         <v>25</v>
       </c>
-      <c r="N46" s="14" t="s">
+      <c r="N46" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O46" s="22" t="s">
+      <c r="O46" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="P46" s="17">
+      <c r="P46" s="21">
         <v>1.4</v>
       </c>
-      <c r="Q46" s="17">
+      <c r="Q46" s="21">
         <v>1</v>
       </c>
-      <c r="R46" s="32">
+      <c r="R46" s="30">
         <v>170</v>
       </c>
-      <c r="S46" s="17" t="s">
+      <c r="S46" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17">
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21">
         <v>200</v>
       </c>
-      <c r="W46" s="33">
+      <c r="W46" s="44">
         <v>180</v>
       </c>
-      <c r="X46" s="17" t="s">
+      <c r="X46" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y46" s="17" t="s">
+      <c r="Y46" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z46" s="17" t="s">
+      <c r="Z46" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA46" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="17" t="s">
+      <c r="AA46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD46" s="17" t="s">
+      <c r="AD46" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE46" s="17">
+      <c r="AE46" s="21">
         <v>10</v>
       </c>
-      <c r="AF46" s="17">
+      <c r="AF46" s="21">
         <v>20000</v>
       </c>
-      <c r="AG46" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH46" s="17">
+      <c r="AG46" s="21">
+        <v>13</v>
+      </c>
+      <c r="AH46" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="47" ht="35" customHeight="1" spans="1:34">
-      <c r="A47" s="14" t="s">
+    <row r="47" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A47" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F47" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G47" s="18">
-        <v>0</v>
-      </c>
-      <c r="H47" s="17" t="s">
+      <c r="D47" s="23"/>
+      <c r="E47" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F47" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G47" s="24">
+        <v>0</v>
+      </c>
+      <c r="H47" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="I47" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J47" s="14">
+      <c r="I47" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J47" s="23">
         <v>38</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="23">
         <v>38</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L47" s="23">
         <v>1.5</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M47" s="23">
         <v>25</v>
       </c>
-      <c r="N47" s="14" t="s">
+      <c r="N47" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O47" s="23" t="s">
+      <c r="O47" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="P47" s="17">
+      <c r="P47" s="23">
         <v>1.4</v>
       </c>
-      <c r="Q47" s="17">
+      <c r="Q47" s="23">
         <v>1</v>
       </c>
       <c r="R47" s="32">
         <v>170</v>
       </c>
-      <c r="S47" s="17" t="s">
+      <c r="S47" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17">
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23">
         <v>200</v>
       </c>
-      <c r="W47" s="33">
+      <c r="W47" s="45">
         <v>180</v>
       </c>
-      <c r="X47" s="17" t="s">
+      <c r="X47" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y47" s="17" t="s">
+      <c r="Y47" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z47" s="17" t="s">
+      <c r="Z47" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA47" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="17" t="s">
+      <c r="AA47" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD47" s="17" t="s">
+      <c r="AD47" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AE47" s="17">
+      <c r="AE47" s="23">
         <v>10</v>
       </c>
-      <c r="AF47" s="17">
+      <c r="AF47" s="23">
         <v>20000</v>
       </c>
-      <c r="AG47" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH47" s="17">
+      <c r="AG47" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH47" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="35" customHeight="1" spans="1:34">
-      <c r="A48" s="14" t="s">
+    <row r="48" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A48" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F48" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G48" s="14">
-        <v>0</v>
-      </c>
-      <c r="H48" s="14" t="s">
+      <c r="D48" s="23"/>
+      <c r="E48" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F48" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G48" s="23">
+        <v>0</v>
+      </c>
+      <c r="H48" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="I48" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J48" s="14">
+      <c r="I48" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J48" s="23">
         <v>1</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K48" s="23">
         <v>1</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L48" s="23">
         <v>1.5</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M48" s="23">
         <v>25</v>
       </c>
-      <c r="N48" s="14" t="s">
+      <c r="N48" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O48" s="22" t="s">
+      <c r="O48" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="P48" s="17">
+      <c r="P48" s="23">
         <v>1.4</v>
       </c>
-      <c r="Q48" s="17">
+      <c r="Q48" s="23">
         <v>1</v>
       </c>
       <c r="R48" s="32">
         <v>170</v>
       </c>
-      <c r="S48" s="17" t="s">
+      <c r="S48" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17">
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23">
         <v>200</v>
       </c>
-      <c r="W48" s="33">
+      <c r="W48" s="45">
         <v>180</v>
       </c>
-      <c r="X48" s="17" t="s">
+      <c r="X48" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y48" s="17" t="s">
+      <c r="Y48" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z48" s="17" t="s">
+      <c r="Z48" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA48" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="17" t="s">
+      <c r="AA48" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD48" s="17" t="s">
+      <c r="AD48" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AE48" s="17">
+      <c r="AE48" s="23">
         <v>10</v>
       </c>
-      <c r="AF48" s="17">
+      <c r="AF48" s="23">
         <v>20000</v>
       </c>
-      <c r="AG48" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH48" s="17">
+      <c r="AG48" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH48" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="18.5" customHeight="1" spans="1:34">
-      <c r="A49" s="14" t="s">
+    <row r="49" s="5" customFormat="1" ht="18.5" customHeight="1" spans="1:34">
+      <c r="A49" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F49" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G49" s="18">
-        <v>0</v>
-      </c>
-      <c r="H49" s="17" t="s">
+      <c r="D49" s="23"/>
+      <c r="E49" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F49" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G49" s="24">
+        <v>0</v>
+      </c>
+      <c r="H49" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="I49" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J49" s="14">
+      <c r="I49" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J49" s="23">
         <v>2</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K49" s="23">
         <v>2</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L49" s="23">
         <v>1.5</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M49" s="23">
         <v>25</v>
       </c>
-      <c r="N49" s="14" t="s">
+      <c r="N49" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O49" s="23" t="s">
+      <c r="O49" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="P49" s="17">
+      <c r="P49" s="23">
         <v>1.4</v>
       </c>
-      <c r="Q49" s="17">
+      <c r="Q49" s="23">
         <v>1</v>
       </c>
       <c r="R49" s="32">
         <v>170</v>
       </c>
-      <c r="S49" s="17" t="s">
+      <c r="S49" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17">
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23">
         <v>200</v>
       </c>
-      <c r="W49" s="33">
+      <c r="W49" s="45">
         <v>180</v>
       </c>
-      <c r="X49" s="17" t="s">
+      <c r="X49" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y49" s="17" t="s">
+      <c r="Y49" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z49" s="17" t="s">
+      <c r="Z49" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA49" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="17" t="s">
+      <c r="AA49" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD49" s="17" t="s">
+      <c r="AD49" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AE49" s="17">
+      <c r="AE49" s="23">
         <v>10</v>
       </c>
-      <c r="AF49" s="17">
+      <c r="AF49" s="23">
         <v>20000</v>
       </c>
-      <c r="AG49" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH49" s="17">
+      <c r="AG49" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH49" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="35" customHeight="1" spans="1:34">
-      <c r="A50" s="14" t="s">
+    <row r="50" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A50" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F50" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G50" s="14">
-        <v>0</v>
-      </c>
-      <c r="H50" s="14" t="s">
+      <c r="D50" s="23"/>
+      <c r="E50" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F50" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G50" s="23">
+        <v>0</v>
+      </c>
+      <c r="H50" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="I50" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J50" s="14">
+      <c r="I50" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J50" s="23">
         <v>3</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K50" s="23">
         <v>3</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L50" s="23">
         <v>1.5</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M50" s="23">
         <v>25</v>
       </c>
-      <c r="N50" s="14" t="s">
+      <c r="N50" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O50" s="22" t="s">
+      <c r="O50" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="P50" s="17">
+      <c r="P50" s="23">
         <v>1.4</v>
       </c>
-      <c r="Q50" s="17">
+      <c r="Q50" s="23">
         <v>1</v>
       </c>
       <c r="R50" s="32">
         <v>170</v>
       </c>
-      <c r="S50" s="17" t="s">
+      <c r="S50" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17">
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="23">
         <v>200</v>
       </c>
-      <c r="W50" s="33">
+      <c r="W50" s="45">
         <v>180</v>
       </c>
-      <c r="X50" s="17" t="s">
+      <c r="X50" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y50" s="17" t="s">
+      <c r="Y50" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z50" s="17" t="s">
+      <c r="Z50" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA50" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="17" t="s">
+      <c r="AA50" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD50" s="17" t="s">
+      <c r="AD50" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AE50" s="17">
+      <c r="AE50" s="23">
         <v>10</v>
       </c>
-      <c r="AF50" s="17">
+      <c r="AF50" s="23">
         <v>20000</v>
       </c>
-      <c r="AG50" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH50" s="17">
+      <c r="AG50" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH50" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="33.75" spans="1:34">
-      <c r="A51" s="14" t="s">
+    <row r="51" s="5" customFormat="1" ht="33.75" spans="1:34">
+      <c r="A51" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F51" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G51" s="18">
-        <v>0</v>
-      </c>
-      <c r="H51" s="17" t="s">
+      <c r="D51" s="23"/>
+      <c r="E51" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F51" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G51" s="24">
+        <v>0</v>
+      </c>
+      <c r="H51" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="I51" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J51" s="14">
+      <c r="I51" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J51" s="23">
         <v>4</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K51" s="23">
         <v>4</v>
       </c>
-      <c r="L51" s="17">
+      <c r="L51" s="23">
         <v>1.5</v>
       </c>
-      <c r="M51" s="17">
+      <c r="M51" s="23">
         <v>25</v>
       </c>
-      <c r="N51" s="14" t="s">
+      <c r="N51" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O51" s="23" t="s">
+      <c r="O51" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="P51" s="17">
+      <c r="P51" s="23">
         <v>1.4</v>
       </c>
-      <c r="Q51" s="17">
+      <c r="Q51" s="23">
         <v>1</v>
       </c>
       <c r="R51" s="32">
         <v>170</v>
       </c>
-      <c r="S51" s="17" t="s">
+      <c r="S51" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17">
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="23">
         <v>200</v>
       </c>
-      <c r="W51" s="33">
+      <c r="W51" s="45">
         <v>180</v>
       </c>
-      <c r="X51" s="17" t="s">
+      <c r="X51" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y51" s="17" t="s">
+      <c r="Y51" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z51" s="17" t="s">
+      <c r="Z51" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA51" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="17" t="s">
+      <c r="AA51" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD51" s="17" t="s">
+      <c r="AD51" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AE51" s="17">
+      <c r="AE51" s="23">
         <v>10</v>
       </c>
-      <c r="AF51" s="17">
+      <c r="AF51" s="23">
         <v>20000</v>
       </c>
-      <c r="AG51" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH51" s="17">
+      <c r="AG51" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH51" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="35" customHeight="1" spans="1:34">
-      <c r="A52" s="14" t="s">
+    <row r="52" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A52" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F52" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G52" s="14">
-        <v>0</v>
-      </c>
-      <c r="H52" s="14" t="s">
+      <c r="D52" s="23"/>
+      <c r="E52" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F52" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G52" s="23">
+        <v>0</v>
+      </c>
+      <c r="H52" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="I52" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J52" s="14">
+      <c r="I52" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J52" s="23">
         <v>9</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K52" s="23">
         <v>9</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L52" s="23">
         <v>1.5</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M52" s="23">
         <v>25</v>
       </c>
-      <c r="N52" s="14" t="s">
+      <c r="N52" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O52" s="22" t="s">
+      <c r="O52" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="P52" s="17">
+      <c r="P52" s="23">
         <v>1.4</v>
       </c>
-      <c r="Q52" s="17">
+      <c r="Q52" s="23">
         <v>1</v>
       </c>
       <c r="R52" s="32">
         <v>170</v>
       </c>
-      <c r="S52" s="17" t="s">
+      <c r="S52" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17">
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23">
         <v>200</v>
       </c>
-      <c r="W52" s="33">
+      <c r="W52" s="45">
         <v>180</v>
       </c>
-      <c r="X52" s="17" t="s">
+      <c r="X52" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y52" s="17" t="s">
+      <c r="Y52" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z52" s="17" t="s">
+      <c r="Z52" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA52" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="17" t="s">
+      <c r="AA52" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD52" s="17" t="s">
+      <c r="AD52" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AE52" s="17">
+      <c r="AE52" s="23">
         <v>10</v>
       </c>
-      <c r="AF52" s="17">
+      <c r="AF52" s="23">
         <v>20000</v>
       </c>
-      <c r="AG52" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH52" s="17">
+      <c r="AG52" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH52" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="35" customHeight="1" spans="1:34">
-      <c r="A53" s="14" t="s">
+    <row r="53" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A53" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F53" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G53" s="18">
-        <v>0</v>
-      </c>
-      <c r="H53" s="17" t="s">
+      <c r="D53" s="23"/>
+      <c r="E53" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F53" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G53" s="24">
+        <v>0</v>
+      </c>
+      <c r="H53" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="I53" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J53" s="14">
+      <c r="I53" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J53" s="23">
         <v>10</v>
       </c>
-      <c r="K53" s="14">
+      <c r="K53" s="23">
         <v>10</v>
       </c>
-      <c r="L53" s="17">
+      <c r="L53" s="23">
         <v>1.5</v>
       </c>
-      <c r="M53" s="17">
+      <c r="M53" s="23">
         <v>25</v>
       </c>
-      <c r="N53" s="14" t="s">
+      <c r="N53" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O53" s="23" t="s">
+      <c r="O53" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="P53" s="17">
+      <c r="P53" s="23">
         <v>1.4</v>
       </c>
-      <c r="Q53" s="17">
+      <c r="Q53" s="23">
         <v>1</v>
       </c>
       <c r="R53" s="32">
         <v>170</v>
       </c>
-      <c r="S53" s="17" t="s">
+      <c r="S53" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17">
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23">
         <v>200</v>
       </c>
-      <c r="W53" s="33">
+      <c r="W53" s="45">
         <v>180</v>
       </c>
-      <c r="X53" s="17" t="s">
+      <c r="X53" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y53" s="17" t="s">
+      <c r="Y53" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z53" s="17" t="s">
+      <c r="Z53" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA53" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="17" t="s">
+      <c r="AA53" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD53" s="17" t="s">
+      <c r="AD53" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AE53" s="17">
+      <c r="AE53" s="23">
         <v>10</v>
       </c>
-      <c r="AF53" s="17">
+      <c r="AF53" s="23">
         <v>20000</v>
       </c>
-      <c r="AG53" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH53" s="17">
+      <c r="AG53" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH53" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="54" customFormat="1" ht="33.75" spans="1:34">
-      <c r="A54" s="14" t="s">
+    <row r="54" s="5" customFormat="1" ht="33.75" spans="1:34">
+      <c r="A54" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F54" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G54" s="14">
-        <v>0</v>
-      </c>
-      <c r="H54" s="14" t="s">
+      <c r="D54" s="23"/>
+      <c r="E54" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F54" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G54" s="23">
+        <v>0</v>
+      </c>
+      <c r="H54" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="I54" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J54" s="14">
+      <c r="I54" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J54" s="23">
         <v>5</v>
       </c>
-      <c r="K54" s="14">
+      <c r="K54" s="23">
         <v>5</v>
       </c>
-      <c r="L54" s="17">
+      <c r="L54" s="23">
         <v>1.5</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M54" s="23">
         <v>25</v>
       </c>
-      <c r="N54" s="14" t="s">
+      <c r="N54" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O54" s="22" t="s">
+      <c r="O54" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="P54" s="17">
+      <c r="P54" s="23">
         <v>1.4</v>
       </c>
-      <c r="Q54" s="17">
+      <c r="Q54" s="23">
         <v>1</v>
       </c>
       <c r="R54" s="32">
         <v>170</v>
       </c>
-      <c r="S54" s="17" t="s">
+      <c r="S54" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17">
+      <c r="T54" s="23"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="23">
         <v>200</v>
       </c>
-      <c r="W54" s="33">
+      <c r="W54" s="45">
         <v>180</v>
       </c>
-      <c r="X54" s="17" t="s">
+      <c r="X54" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y54" s="17" t="s">
+      <c r="Y54" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z54" s="17" t="s">
+      <c r="Z54" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA54" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="17" t="s">
+      <c r="AA54" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD54" s="17" t="s">
+      <c r="AD54" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AE54" s="17">
+      <c r="AE54" s="23">
         <v>10</v>
       </c>
-      <c r="AF54" s="17">
+      <c r="AF54" s="23">
         <v>20000</v>
       </c>
-      <c r="AG54" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH54" s="17">
+      <c r="AG54" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH54" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="55" customFormat="1" ht="35" customHeight="1" spans="1:34">
-      <c r="A55" s="14" t="s">
+    <row r="55" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A55" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F55" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G55" s="14">
-        <v>0</v>
-      </c>
-      <c r="H55" s="14" t="s">
+      <c r="D55" s="23"/>
+      <c r="E55" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F55" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G55" s="23">
+        <v>0</v>
+      </c>
+      <c r="H55" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="I55" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J55" s="14">
+      <c r="I55" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J55" s="23">
         <v>11</v>
       </c>
-      <c r="K55" s="14">
+      <c r="K55" s="23">
         <v>11</v>
       </c>
-      <c r="L55" s="17">
+      <c r="L55" s="23">
         <v>1.5</v>
       </c>
-      <c r="M55" s="17">
+      <c r="M55" s="23">
         <v>25</v>
       </c>
-      <c r="N55" s="14" t="s">
+      <c r="N55" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O55" s="22" t="s">
+      <c r="O55" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="P55" s="17">
+      <c r="P55" s="23">
         <v>1.4</v>
       </c>
-      <c r="Q55" s="17">
+      <c r="Q55" s="23">
         <v>1</v>
       </c>
       <c r="R55" s="32">
         <v>170</v>
       </c>
-      <c r="S55" s="17" t="s">
+      <c r="S55" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17">
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="23">
         <v>200</v>
       </c>
-      <c r="W55" s="33">
+      <c r="W55" s="45">
         <v>180</v>
       </c>
-      <c r="X55" s="17" t="s">
+      <c r="X55" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y55" s="17" t="s">
+      <c r="Y55" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z55" s="17" t="s">
+      <c r="Z55" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="17" t="s">
+      <c r="AA55" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD55" s="17" t="s">
+      <c r="AD55" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AE55" s="17">
+      <c r="AE55" s="23">
         <v>10</v>
       </c>
-      <c r="AF55" s="17">
+      <c r="AF55" s="23">
         <v>20000</v>
       </c>
-      <c r="AG55" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH55" s="17">
+      <c r="AG55" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH55" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="56" customFormat="1" ht="35" customHeight="1" spans="1:34">
-      <c r="A56" s="14" t="s">
+    <row r="56" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A56" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F56" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G56" s="18">
-        <v>0</v>
-      </c>
-      <c r="H56" s="17" t="s">
+      <c r="D56" s="23"/>
+      <c r="E56" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F56" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G56" s="24">
+        <v>0</v>
+      </c>
+      <c r="H56" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="I56" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J56" s="14">
+      <c r="I56" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J56" s="23">
         <v>12</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K56" s="23">
         <v>12</v>
       </c>
-      <c r="L56" s="17">
+      <c r="L56" s="23">
         <v>1.5</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M56" s="23">
         <v>25</v>
       </c>
-      <c r="N56" s="14" t="s">
+      <c r="N56" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O56" s="23" t="s">
+      <c r="O56" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="P56" s="17">
+      <c r="P56" s="23">
         <v>1.4</v>
       </c>
-      <c r="Q56" s="17">
+      <c r="Q56" s="23">
         <v>1</v>
       </c>
       <c r="R56" s="32">
         <v>170</v>
       </c>
-      <c r="S56" s="17" t="s">
+      <c r="S56" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T56" s="17"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="17">
+      <c r="T56" s="23"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="23">
         <v>200</v>
       </c>
-      <c r="W56" s="33">
+      <c r="W56" s="45">
         <v>180</v>
       </c>
-      <c r="X56" s="17" t="s">
+      <c r="X56" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y56" s="17" t="s">
+      <c r="Y56" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z56" s="17" t="s">
+      <c r="Z56" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA56" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="17" t="s">
+      <c r="AA56" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD56" s="17" t="s">
+      <c r="AD56" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AE56" s="17">
+      <c r="AE56" s="23">
         <v>10</v>
       </c>
-      <c r="AF56" s="17">
+      <c r="AF56" s="23">
         <v>20000</v>
       </c>
-      <c r="AG56" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH56" s="17">
+      <c r="AG56" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH56" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="57" customFormat="1" ht="35" customHeight="1" spans="1:34">
-      <c r="A57" s="14" t="s">
+    <row r="57" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A57" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F57" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G57" s="18">
-        <v>0</v>
-      </c>
-      <c r="H57" s="17" t="s">
+      <c r="D57" s="23"/>
+      <c r="E57" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F57" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G57" s="24">
+        <v>0</v>
+      </c>
+      <c r="H57" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="I57" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J57" s="14">
+      <c r="I57" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J57" s="23">
         <v>6</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K57" s="23">
         <v>6</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="23">
         <v>1.5</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M57" s="23">
         <v>25</v>
       </c>
-      <c r="N57" s="14" t="s">
+      <c r="N57" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O57" s="23" t="s">
+      <c r="O57" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="P57" s="17">
+      <c r="P57" s="23">
         <v>1.4</v>
       </c>
-      <c r="Q57" s="17">
+      <c r="Q57" s="23">
         <v>1</v>
       </c>
       <c r="R57" s="32">
         <v>170</v>
       </c>
-      <c r="S57" s="17" t="s">
+      <c r="S57" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T57" s="17"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17">
+      <c r="T57" s="23"/>
+      <c r="U57" s="23"/>
+      <c r="V57" s="23">
         <v>200</v>
       </c>
-      <c r="W57" s="33">
+      <c r="W57" s="45">
         <v>180</v>
       </c>
-      <c r="X57" s="17" t="s">
+      <c r="X57" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y57" s="17" t="s">
+      <c r="Y57" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z57" s="17" t="s">
+      <c r="Z57" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA57" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="17" t="s">
+      <c r="AA57" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD57" s="17" t="s">
+      <c r="AD57" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AE57" s="17">
+      <c r="AE57" s="23">
         <v>10</v>
       </c>
-      <c r="AF57" s="17">
+      <c r="AF57" s="23">
         <v>20000</v>
       </c>
-      <c r="AG57" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH57" s="17">
+      <c r="AG57" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH57" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="58" customFormat="1" ht="35" customHeight="1" spans="1:34">
-      <c r="A58" s="14" t="s">
+    <row r="58" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A58" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F58" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G58" s="14">
-        <v>0</v>
-      </c>
-      <c r="H58" s="14" t="s">
+      <c r="D58" s="23"/>
+      <c r="E58" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F58" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G58" s="23">
+        <v>0</v>
+      </c>
+      <c r="H58" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="I58" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J58" s="14">
+      <c r="I58" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J58" s="23">
         <v>7</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K58" s="23">
         <v>7</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L58" s="23">
         <v>1.5</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M58" s="23">
         <v>25</v>
       </c>
-      <c r="N58" s="14" t="s">
+      <c r="N58" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O58" s="22" t="s">
+      <c r="O58" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="P58" s="17">
+      <c r="P58" s="23">
         <v>1.4</v>
       </c>
-      <c r="Q58" s="17">
+      <c r="Q58" s="23">
         <v>1</v>
       </c>
       <c r="R58" s="32">
         <v>170</v>
       </c>
-      <c r="S58" s="17" t="s">
+      <c r="S58" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17">
+      <c r="T58" s="23"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="23">
         <v>200</v>
       </c>
-      <c r="W58" s="33">
+      <c r="W58" s="45">
         <v>180</v>
       </c>
-      <c r="X58" s="17" t="s">
+      <c r="X58" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y58" s="17" t="s">
+      <c r="Y58" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z58" s="17" t="s">
+      <c r="Z58" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA58" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="17" t="s">
+      <c r="AA58" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD58" s="17" t="s">
+      <c r="AD58" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AE58" s="17">
+      <c r="AE58" s="23">
         <v>10</v>
       </c>
-      <c r="AF58" s="17">
+      <c r="AF58" s="23">
         <v>20000</v>
       </c>
-      <c r="AG58" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH58" s="17">
+      <c r="AG58" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH58" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="59" customFormat="1" ht="35" customHeight="1" spans="1:34">
-      <c r="A59" s="14" t="s">
+    <row r="59" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A59" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F59" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G59" s="18">
-        <v>0</v>
-      </c>
-      <c r="H59" s="17" t="s">
+      <c r="D59" s="23"/>
+      <c r="E59" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F59" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G59" s="24">
+        <v>0</v>
+      </c>
+      <c r="H59" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="I59" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J59" s="14">
+      <c r="I59" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J59" s="23">
         <v>8</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K59" s="23">
         <v>8</v>
       </c>
-      <c r="L59" s="17">
+      <c r="L59" s="23">
         <v>1.5</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M59" s="23">
         <v>25</v>
       </c>
-      <c r="N59" s="14" t="s">
+      <c r="N59" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O59" s="23" t="s">
+      <c r="O59" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="P59" s="17">
+      <c r="P59" s="23">
         <v>1.4</v>
       </c>
-      <c r="Q59" s="17">
+      <c r="Q59" s="23">
         <v>1</v>
       </c>
       <c r="R59" s="32">
         <v>170</v>
       </c>
-      <c r="S59" s="17" t="s">
+      <c r="S59" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T59" s="17"/>
-      <c r="U59" s="17"/>
-      <c r="V59" s="17">
+      <c r="T59" s="23"/>
+      <c r="U59" s="23"/>
+      <c r="V59" s="23">
         <v>200</v>
       </c>
-      <c r="W59" s="33">
+      <c r="W59" s="45">
         <v>180</v>
       </c>
-      <c r="X59" s="17" t="s">
+      <c r="X59" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y59" s="17" t="s">
+      <c r="Y59" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z59" s="17" t="s">
+      <c r="Z59" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA59" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="17" t="s">
+      <c r="AA59" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD59" s="17" t="s">
+      <c r="AD59" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AE59" s="17">
+      <c r="AE59" s="23">
         <v>10</v>
       </c>
-      <c r="AF59" s="17">
+      <c r="AF59" s="23">
         <v>20000</v>
       </c>
-      <c r="AG59" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH59" s="17">
+      <c r="AG59" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH59" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="60" customFormat="1" ht="33.75" spans="1:34">
-      <c r="A60" s="14" t="s">
+    <row r="60" s="5" customFormat="1" ht="33.75" spans="1:34">
+      <c r="A60" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F60" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G60" s="14">
-        <v>0</v>
-      </c>
-      <c r="H60" s="14" t="s">
+      <c r="D60" s="23"/>
+      <c r="E60" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F60" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G60" s="23">
+        <v>0</v>
+      </c>
+      <c r="H60" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="I60" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J60" s="14">
-        <v>13</v>
-      </c>
-      <c r="K60" s="14">
-        <v>13</v>
-      </c>
-      <c r="L60" s="17">
+      <c r="I60" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J60" s="23">
+        <v>13</v>
+      </c>
+      <c r="K60" s="23">
+        <v>13</v>
+      </c>
+      <c r="L60" s="23">
         <v>1.5</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M60" s="23">
         <v>25</v>
       </c>
-      <c r="N60" s="14" t="s">
+      <c r="N60" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O60" s="22" t="s">
+      <c r="O60" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="P60" s="17">
+      <c r="P60" s="23">
         <v>1.4</v>
       </c>
-      <c r="Q60" s="17">
+      <c r="Q60" s="23">
         <v>1</v>
       </c>
       <c r="R60" s="32">
         <v>170</v>
       </c>
-      <c r="S60" s="17" t="s">
+      <c r="S60" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T60" s="17"/>
-      <c r="U60" s="17"/>
-      <c r="V60" s="17">
+      <c r="T60" s="23"/>
+      <c r="U60" s="23"/>
+      <c r="V60" s="23">
         <v>200</v>
       </c>
-      <c r="W60" s="33">
+      <c r="W60" s="45">
         <v>180</v>
       </c>
-      <c r="X60" s="17" t="s">
+      <c r="X60" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y60" s="17" t="s">
+      <c r="Y60" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z60" s="17" t="s">
+      <c r="Z60" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA60" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="17" t="s">
+      <c r="AA60" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD60" s="17" t="s">
+      <c r="AD60" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AE60" s="17">
+      <c r="AE60" s="23">
         <v>10</v>
       </c>
-      <c r="AF60" s="17">
+      <c r="AF60" s="23">
         <v>20000</v>
       </c>
-      <c r="AG60" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH60" s="17">
+      <c r="AG60" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH60" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="61" customFormat="1" ht="35" customHeight="1" spans="1:34">
-      <c r="A61" s="14" t="s">
+    <row r="61" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A61" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F61" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G61" s="14">
-        <v>0</v>
-      </c>
-      <c r="H61" s="14" t="s">
+      <c r="D61" s="23"/>
+      <c r="E61" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F61" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G61" s="23">
+        <v>0</v>
+      </c>
+      <c r="H61" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="I61" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J61" s="14">
+      <c r="I61" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J61" s="23">
         <v>15</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K61" s="23">
         <v>15</v>
       </c>
-      <c r="L61" s="17">
+      <c r="L61" s="23">
         <v>1.5</v>
       </c>
-      <c r="M61" s="17">
+      <c r="M61" s="23">
         <v>25</v>
       </c>
-      <c r="N61" s="14" t="s">
+      <c r="N61" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="22" t="s">
+      <c r="O61" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="P61" s="17">
+      <c r="P61" s="23">
         <v>1.4</v>
       </c>
-      <c r="Q61" s="17">
+      <c r="Q61" s="23">
         <v>1</v>
       </c>
       <c r="R61" s="32">
         <v>170</v>
       </c>
-      <c r="S61" s="17" t="s">
+      <c r="S61" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T61" s="17"/>
-      <c r="U61" s="17"/>
-      <c r="V61" s="17">
+      <c r="T61" s="23"/>
+      <c r="U61" s="23"/>
+      <c r="V61" s="23">
         <v>200</v>
       </c>
-      <c r="W61" s="33">
+      <c r="W61" s="45">
         <v>180</v>
       </c>
-      <c r="X61" s="17" t="s">
+      <c r="X61" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y61" s="17" t="s">
+      <c r="Y61" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z61" s="17" t="s">
+      <c r="Z61" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA61" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="17" t="s">
+      <c r="AA61" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD61" s="17" t="s">
+      <c r="AD61" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AE61" s="17">
+      <c r="AE61" s="23">
         <v>10</v>
       </c>
-      <c r="AF61" s="17">
+      <c r="AF61" s="23">
         <v>20000</v>
       </c>
-      <c r="AG61" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH61" s="17">
+      <c r="AG61" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH61" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="62" customFormat="1" ht="35" customHeight="1" spans="1:34">
-      <c r="A62" s="14" t="s">
+    <row r="62" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A62" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F62" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G62" s="18">
-        <v>0</v>
-      </c>
-      <c r="H62" s="17" t="s">
+      <c r="D62" s="23"/>
+      <c r="E62" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F62" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G62" s="24">
+        <v>0</v>
+      </c>
+      <c r="H62" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="I62" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J62" s="14">
+      <c r="I62" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J62" s="23">
         <v>14</v>
       </c>
-      <c r="K62" s="14">
+      <c r="K62" s="23">
         <v>14</v>
       </c>
-      <c r="L62" s="17">
+      <c r="L62" s="23">
         <v>1.5</v>
       </c>
-      <c r="M62" s="17">
+      <c r="M62" s="23">
         <v>25</v>
       </c>
-      <c r="N62" s="14" t="s">
+      <c r="N62" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O62" s="23" t="s">
+      <c r="O62" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="P62" s="17">
+      <c r="P62" s="23">
         <v>1.4</v>
       </c>
-      <c r="Q62" s="17">
+      <c r="Q62" s="23">
         <v>1</v>
       </c>
       <c r="R62" s="32">
         <v>170</v>
       </c>
-      <c r="S62" s="17" t="s">
+      <c r="S62" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T62" s="17"/>
-      <c r="U62" s="17"/>
-      <c r="V62" s="17">
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="23">
         <v>200</v>
       </c>
-      <c r="W62" s="33">
+      <c r="W62" s="45">
         <v>180</v>
       </c>
-      <c r="X62" s="17" t="s">
+      <c r="X62" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y62" s="17" t="s">
+      <c r="Y62" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z62" s="17" t="s">
+      <c r="Z62" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA62" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="17" t="s">
+      <c r="AA62" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD62" s="17" t="s">
+      <c r="AD62" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AE62" s="17">
+      <c r="AE62" s="23">
         <v>10</v>
       </c>
-      <c r="AF62" s="17">
+      <c r="AF62" s="23">
         <v>20000</v>
       </c>
-      <c r="AG62" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH62" s="17">
+      <c r="AG62" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH62" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="63" customFormat="1" ht="51.5" customHeight="1" spans="1:34">
-      <c r="A63" s="14" t="s">
+    <row r="63" s="5" customFormat="1" ht="51.5" customHeight="1" spans="1:34">
+      <c r="A63" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F63" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G63" s="18">
-        <v>0</v>
-      </c>
-      <c r="H63" s="17" t="s">
+      <c r="D63" s="23"/>
+      <c r="E63" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F63" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G63" s="24">
+        <v>0</v>
+      </c>
+      <c r="H63" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="I63" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J63" s="14">
+      <c r="I63" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J63" s="23">
         <v>18</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K63" s="23">
         <v>18</v>
       </c>
-      <c r="L63" s="17">
+      <c r="L63" s="23">
         <v>1.5</v>
       </c>
-      <c r="M63" s="17">
+      <c r="M63" s="23">
         <v>25</v>
       </c>
-      <c r="N63" s="14" t="s">
+      <c r="N63" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O63" s="23" t="s">
+      <c r="O63" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="P63" s="17">
+      <c r="P63" s="23">
         <v>1.4</v>
       </c>
-      <c r="Q63" s="17">
+      <c r="Q63" s="23">
         <v>1</v>
       </c>
       <c r="R63" s="32">
         <v>170</v>
       </c>
-      <c r="S63" s="17" t="s">
+      <c r="S63" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T63" s="17"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="17">
+      <c r="T63" s="23"/>
+      <c r="U63" s="23"/>
+      <c r="V63" s="23">
         <v>200</v>
       </c>
-      <c r="W63" s="33">
+      <c r="W63" s="45">
         <v>180</v>
       </c>
-      <c r="X63" s="17" t="s">
+      <c r="X63" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y63" s="17" t="s">
+      <c r="Y63" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z63" s="17" t="s">
+      <c r="Z63" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA63" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="17" t="s">
+      <c r="AA63" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD63" s="17" t="s">
+      <c r="AD63" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AE63" s="17">
+      <c r="AE63" s="23">
         <v>10</v>
       </c>
-      <c r="AF63" s="17">
+      <c r="AF63" s="23">
         <v>20000</v>
       </c>
-      <c r="AG63" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH63" s="17">
+      <c r="AG63" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH63" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="64" customFormat="1" ht="35" customHeight="1" spans="1:34">
-      <c r="A64" s="14" t="s">
+    <row r="64" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A64" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F64" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G64" s="14">
-        <v>0</v>
-      </c>
-      <c r="H64" s="14" t="s">
+      <c r="D64" s="23"/>
+      <c r="E64" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F64" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G64" s="23">
+        <v>0</v>
+      </c>
+      <c r="H64" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="I64" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J64" s="14">
+      <c r="I64" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J64" s="23">
         <v>19</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K64" s="23">
         <v>19</v>
       </c>
-      <c r="L64" s="17">
+      <c r="L64" s="23">
         <v>1.5</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M64" s="23">
         <v>25</v>
       </c>
-      <c r="N64" s="14" t="s">
+      <c r="N64" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O64" s="22" t="s">
+      <c r="O64" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="P64" s="17">
+      <c r="P64" s="23">
         <v>1.4</v>
       </c>
-      <c r="Q64" s="17">
+      <c r="Q64" s="23">
         <v>1</v>
       </c>
       <c r="R64" s="32">
         <v>170</v>
       </c>
-      <c r="S64" s="17" t="s">
+      <c r="S64" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T64" s="17"/>
-      <c r="U64" s="17"/>
-      <c r="V64" s="17">
+      <c r="T64" s="23"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="23">
         <v>200</v>
       </c>
-      <c r="W64" s="33">
+      <c r="W64" s="45">
         <v>180</v>
       </c>
-      <c r="X64" s="17" t="s">
+      <c r="X64" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y64" s="17" t="s">
+      <c r="Y64" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z64" s="17" t="s">
+      <c r="Z64" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA64" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="17" t="s">
+      <c r="AA64" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD64" s="17" t="s">
+      <c r="AD64" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AE64" s="17">
+      <c r="AE64" s="23">
         <v>10</v>
       </c>
-      <c r="AF64" s="17">
+      <c r="AF64" s="23">
         <v>20000</v>
       </c>
-      <c r="AG64" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH64" s="17">
+      <c r="AG64" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH64" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="65" customFormat="1" ht="35" customHeight="1" spans="1:34">
-      <c r="A65" s="14" t="s">
+    <row r="65" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
+      <c r="A65" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F65" s="15">
-        <v>15000</v>
-      </c>
-      <c r="G65" s="14">
-        <v>0</v>
-      </c>
-      <c r="H65" s="14" t="s">
+      <c r="D65" s="23"/>
+      <c r="E65" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F65" s="24">
+        <v>15000</v>
+      </c>
+      <c r="G65" s="23">
+        <v>0</v>
+      </c>
+      <c r="H65" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="I65" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J65" s="14">
+      <c r="I65" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J65" s="23">
         <v>17</v>
       </c>
-      <c r="K65" s="14">
+      <c r="K65" s="23">
         <v>17</v>
       </c>
-      <c r="L65" s="17">
+      <c r="L65" s="23">
         <v>1.5</v>
       </c>
-      <c r="M65" s="17">
+      <c r="M65" s="23">
         <v>25</v>
       </c>
-      <c r="N65" s="14" t="s">
+      <c r="N65" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O65" s="22" t="s">
+      <c r="O65" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="P65" s="17">
+      <c r="P65" s="23">
         <v>1.4</v>
       </c>
-      <c r="Q65" s="17">
+      <c r="Q65" s="23">
         <v>1</v>
       </c>
       <c r="R65" s="32">
         <v>170</v>
       </c>
-      <c r="S65" s="17" t="s">
+      <c r="S65" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T65" s="17"/>
-      <c r="U65" s="17"/>
-      <c r="V65" s="17">
+      <c r="T65" s="23"/>
+      <c r="U65" s="23"/>
+      <c r="V65" s="23">
         <v>200</v>
       </c>
-      <c r="W65" s="33">
+      <c r="W65" s="45">
         <v>180</v>
       </c>
-      <c r="X65" s="17" t="s">
+      <c r="X65" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y65" s="17" t="s">
+      <c r="Y65" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z65" s="17" t="s">
+      <c r="Z65" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA65" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC65" s="17" t="s">
+      <c r="AA65" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD65" s="17" t="s">
+      <c r="AD65" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AE65" s="17">
+      <c r="AE65" s="23">
         <v>10</v>
       </c>
-      <c r="AF65" s="17">
+      <c r="AF65" s="23">
         <v>20000</v>
       </c>
-      <c r="AG65" s="17">
-        <v>13</v>
-      </c>
-      <c r="AH65" s="17">
+      <c r="AG65" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH65" s="23">
         <v>13</v>
       </c>
     </row>

--- a/excels/units/monster/normal.xlsx
+++ b/excels/units/monster/normal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="265">
   <si>
     <t>主键</t>
   </si>
@@ -116,6 +116,9 @@
     <t>UnitName</t>
   </si>
   <si>
+    <t>#Loc{}</t>
+  </si>
+  <si>
     <t>card_id</t>
   </si>
   <si>
@@ -528,6 +531,9 @@
   </si>
   <si>
     <t>models/creeps/lane_creeps/creep_bad_ranged/lane_dire_ranged.vmdl</t>
+  </si>
+  <si>
+    <t>creature_normal_1</t>
   </si>
   <si>
     <t>npc_monster_normal_20_7</t>
@@ -1022,7 +1028,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1056,18 +1062,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF48D8D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,7 +1425,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1455,16 +1449,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1473,85 +1467,85 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1620,16 +1614,16 @@
     <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1647,16 +1641,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1689,10 +1683,10 @@
     <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1935,7 +1929,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{1A2C7A8C-787C-4730-BF86-AFEA18B85C44}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{EA113B33-80EE-4366-97EA-01ED65379AB8}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
@@ -2249,9 +2243,11 @@
   <dimension ref="A1:AI65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="L30" activePane="bottomRight" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2275,7 +2271,8 @@
     <col min="17" max="17" width="13.175" customWidth="1"/>
     <col min="18" max="18" width="18.0083333333333" customWidth="1"/>
     <col min="19" max="19" width="15.3416666666667" customWidth="1"/>
-    <col min="20" max="21" width="9.675" customWidth="1"/>
+    <col min="20" max="20" width="20.75" customWidth="1"/>
+    <col min="21" max="21" width="9.675" customWidth="1"/>
     <col min="22" max="22" width="18.8416666666667" customWidth="1"/>
     <col min="23" max="23" width="21.3416666666667" customWidth="1"/>
     <col min="24" max="24" width="29.5083333333333" customWidth="1"/>
@@ -2386,101 +2383,103 @@
       <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="10"/>
       <c r="Q2" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" s="36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W2" s="37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD2" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A3" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="12">
         <v>1</v>
@@ -2496,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I3" s="12">
         <f>F3</f>
@@ -2516,10 +2515,10 @@
         <v>25</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P3" s="12">
         <v>1</v>
@@ -2531,7 +2530,7 @@
         <v>170</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
@@ -2542,13 +2541,13 @@
         <v>180</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA3" s="12">
         <v>0</v>
@@ -2557,10 +2556,10 @@
         <v>0</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD3" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE3" s="12">
         <v>10</v>
@@ -2581,13 +2580,13 @@
     </row>
     <row r="4" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A4" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="16">
         <v>2</v>
@@ -2603,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" ref="I4:I27" si="1">F4</f>
@@ -2623,10 +2622,10 @@
         <v>25</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P4" s="16">
         <v>1</v>
@@ -2638,7 +2637,7 @@
         <v>170</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
@@ -2649,13 +2648,13 @@
         <v>180</v>
       </c>
       <c r="X4" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y4" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z4" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA4" s="16">
         <v>0</v>
@@ -2664,10 +2663,10 @@
         <v>0</v>
       </c>
       <c r="AC4" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD4" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE4" s="16">
         <v>10</v>
@@ -2688,13 +2687,13 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A5" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" s="19">
         <v>3</v>
@@ -2710,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" si="1"/>
@@ -2730,10 +2729,10 @@
         <v>25</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P5" s="19">
         <v>1</v>
@@ -2745,7 +2744,7 @@
         <v>170</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
@@ -2756,13 +2755,13 @@
         <v>180</v>
       </c>
       <c r="X5" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y5" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z5" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA5" s="19">
         <v>0</v>
@@ -2771,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="AC5" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD5" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE5" s="19">
         <v>10</v>
@@ -2795,13 +2794,13 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A6" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="16">
         <v>4</v>
@@ -2817,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" si="1"/>
@@ -2837,10 +2836,10 @@
         <v>25</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O6" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P6" s="16">
         <v>1</v>
@@ -2852,7 +2851,7 @@
         <v>170</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
@@ -2863,13 +2862,13 @@
         <v>180</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y6" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z6" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA6" s="16">
         <v>0</v>
@@ -2878,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="AC6" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD6" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE6" s="16">
         <v>10</v>
@@ -2902,13 +2901,13 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A7" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="19">
         <v>5</v>
@@ -2924,7 +2923,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" si="1"/>
@@ -2944,10 +2943,10 @@
         <v>25</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" s="19">
         <v>1.1</v>
@@ -2959,7 +2958,7 @@
         <v>170</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
@@ -2970,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="X7" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z7" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA7" s="19">
         <v>0</v>
@@ -2985,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="AC7" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD7" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE7" s="19">
         <v>10</v>
@@ -3009,13 +3008,13 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A8" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8" s="16">
         <v>6</v>
@@ -3031,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" si="1"/>
@@ -3051,10 +3050,10 @@
         <v>25</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O8" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P8" s="16">
         <v>1.1</v>
@@ -3066,7 +3065,7 @@
         <v>170</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
@@ -3077,13 +3076,13 @@
         <v>180</v>
       </c>
       <c r="X8" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y8" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z8" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA8" s="16">
         <v>0</v>
@@ -3092,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="AC8" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD8" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE8" s="16">
         <v>10</v>
@@ -3116,13 +3115,13 @@
     </row>
     <row r="9" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A9" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D9" s="19">
         <v>7</v>
@@ -3138,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" si="1"/>
@@ -3158,10 +3157,10 @@
         <v>25</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O9" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P9" s="19">
         <v>1.3</v>
@@ -3173,7 +3172,7 @@
         <v>170</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
@@ -3184,13 +3183,13 @@
         <v>180</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA9" s="19">
         <v>0</v>
@@ -3199,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="AC9" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD9" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE9" s="19">
         <v>10</v>
@@ -3223,13 +3222,13 @@
     </row>
     <row r="10" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A10" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="16">
         <v>8</v>
@@ -3245,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="1"/>
@@ -3265,10 +3264,10 @@
         <v>25</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O10" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P10" s="16">
         <v>1.3</v>
@@ -3280,7 +3279,7 @@
         <v>170</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
@@ -3291,13 +3290,13 @@
         <v>180</v>
       </c>
       <c r="X10" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y10" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z10" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA10" s="16">
         <v>0</v>
@@ -3306,10 +3305,10 @@
         <v>0</v>
       </c>
       <c r="AC10" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD10" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE10" s="16">
         <v>10</v>
@@ -3330,13 +3329,13 @@
     </row>
     <row r="11" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A11" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11" s="19">
         <v>9</v>
@@ -3352,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" si="1"/>
@@ -3372,10 +3371,10 @@
         <v>25</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O11" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P11" s="19">
         <v>1.3</v>
@@ -3387,7 +3386,7 @@
         <v>170</v>
       </c>
       <c r="S11" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
@@ -3398,13 +3397,13 @@
         <v>180</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z11" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA11" s="19">
         <v>0</v>
@@ -3413,10 +3412,10 @@
         <v>0</v>
       </c>
       <c r="AC11" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD11" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE11" s="19">
         <v>10</v>
@@ -3437,13 +3436,13 @@
     </row>
     <row r="12" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A12" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D12" s="16">
         <v>10</v>
@@ -3459,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" si="1"/>
@@ -3479,10 +3478,10 @@
         <v>25</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O12" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P12" s="16">
         <v>1.3</v>
@@ -3494,7 +3493,7 @@
         <v>170</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
@@ -3505,13 +3504,13 @@
         <v>180</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y12" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z12" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA12" s="16">
         <v>0</v>
@@ -3520,10 +3519,10 @@
         <v>0</v>
       </c>
       <c r="AC12" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD12" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE12" s="16">
         <v>10</v>
@@ -3544,13 +3543,13 @@
     </row>
     <row r="13" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A13" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D13" s="19">
         <v>11</v>
@@ -3566,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I13" s="19">
         <f t="shared" si="1"/>
@@ -3586,10 +3585,10 @@
         <v>25</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O13" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P13" s="19">
         <v>1.4</v>
@@ -3601,7 +3600,7 @@
         <v>170</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
@@ -3612,13 +3611,13 @@
         <v>180</v>
       </c>
       <c r="X13" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y13" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z13" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA13" s="19">
         <v>0</v>
@@ -3627,10 +3626,10 @@
         <v>0</v>
       </c>
       <c r="AC13" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD13" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE13" s="19">
         <v>10</v>
@@ -3651,13 +3650,13 @@
     </row>
     <row r="14" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A14" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D14" s="16">
         <v>12</v>
@@ -3673,7 +3672,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" si="1"/>
@@ -3693,10 +3692,10 @@
         <v>25</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O14" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P14" s="16">
         <v>1.4</v>
@@ -3708,7 +3707,7 @@
         <v>170</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
@@ -3719,13 +3718,13 @@
         <v>180</v>
       </c>
       <c r="X14" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y14" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z14" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA14" s="16">
         <v>0</v>
@@ -3734,10 +3733,10 @@
         <v>0</v>
       </c>
       <c r="AC14" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD14" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE14" s="16">
         <v>10</v>
@@ -3758,13 +3757,13 @@
     </row>
     <row r="15" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A15" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D15" s="19">
         <v>13</v>
@@ -3780,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I15" s="19">
         <f t="shared" si="1"/>
@@ -3800,10 +3799,10 @@
         <v>25</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O15" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" s="19">
         <v>1.4</v>
@@ -3815,7 +3814,7 @@
         <v>170</v>
       </c>
       <c r="S15" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T15" s="19"/>
       <c r="U15" s="19"/>
@@ -3826,13 +3825,13 @@
         <v>180</v>
       </c>
       <c r="X15" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y15" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA15" s="19">
         <v>0</v>
@@ -3841,10 +3840,10 @@
         <v>0</v>
       </c>
       <c r="AC15" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD15" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE15" s="19">
         <v>10</v>
@@ -3865,13 +3864,13 @@
     </row>
     <row r="16" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A16" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D16" s="16">
         <v>14</v>
@@ -3887,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" si="1"/>
@@ -3907,10 +3906,10 @@
         <v>25</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O16" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P16" s="16">
         <v>1.4</v>
@@ -3922,7 +3921,7 @@
         <v>170</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
@@ -3933,13 +3932,13 @@
         <v>180</v>
       </c>
       <c r="X16" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y16" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z16" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA16" s="16">
         <v>0</v>
@@ -3948,10 +3947,10 @@
         <v>0</v>
       </c>
       <c r="AC16" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD16" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE16" s="16">
         <v>10</v>
@@ -3972,13 +3971,13 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A17" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D17" s="19">
         <v>15</v>
@@ -3994,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" si="1"/>
@@ -4014,10 +4013,10 @@
         <v>25</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O17" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P17" s="19">
         <v>1.4</v>
@@ -4029,7 +4028,7 @@
         <v>170</v>
       </c>
       <c r="S17" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T17" s="19"/>
       <c r="U17" s="19"/>
@@ -4040,13 +4039,13 @@
         <v>180</v>
       </c>
       <c r="X17" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z17" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA17" s="19">
         <v>0</v>
@@ -4055,10 +4054,10 @@
         <v>0</v>
       </c>
       <c r="AC17" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD17" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE17" s="19">
         <v>10</v>
@@ -4079,13 +4078,13 @@
     </row>
     <row r="18" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A18" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D18" s="16">
         <v>16</v>
@@ -4101,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="1"/>
@@ -4121,10 +4120,10 @@
         <v>25</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P18" s="16">
         <v>1.4</v>
@@ -4136,7 +4135,7 @@
         <v>170</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
@@ -4147,13 +4146,13 @@
         <v>180</v>
       </c>
       <c r="X18" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y18" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z18" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA18" s="16">
         <v>0</v>
@@ -4162,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="AC18" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD18" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE18" s="16">
         <v>10</v>
@@ -4186,13 +4185,13 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A19" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D19" s="19">
         <v>17</v>
@@ -4208,7 +4207,7 @@
         <v>30</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I19" s="19">
         <f t="shared" si="1"/>
@@ -4228,10 +4227,10 @@
         <v>25</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P19" s="19">
         <v>1.4</v>
@@ -4243,7 +4242,7 @@
         <v>170</v>
       </c>
       <c r="S19" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T19" s="19"/>
       <c r="U19" s="19"/>
@@ -4254,13 +4253,13 @@
         <v>180</v>
       </c>
       <c r="X19" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y19" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z19" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA19" s="19">
         <v>0</v>
@@ -4269,10 +4268,10 @@
         <v>0</v>
       </c>
       <c r="AC19" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD19" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE19" s="19">
         <v>10</v>
@@ -4293,13 +4292,13 @@
     </row>
     <row r="20" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A20" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D20" s="16">
         <v>18</v>
@@ -4315,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="1"/>
@@ -4335,10 +4334,10 @@
         <v>25</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O20" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P20" s="16">
         <v>1.4</v>
@@ -4350,7 +4349,7 @@
         <v>170</v>
       </c>
       <c r="S20" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T20" s="16"/>
       <c r="U20" s="16"/>
@@ -4361,13 +4360,13 @@
         <v>180</v>
       </c>
       <c r="X20" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y20" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z20" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA20" s="16">
         <v>0</v>
@@ -4376,10 +4375,10 @@
         <v>0</v>
       </c>
       <c r="AC20" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD20" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE20" s="16">
         <v>10</v>
@@ -4400,13 +4399,13 @@
     </row>
     <row r="21" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A21" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D21" s="19">
         <v>19</v>
@@ -4422,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I21" s="19">
         <f t="shared" si="1"/>
@@ -4442,10 +4441,10 @@
         <v>25</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O21" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P21" s="19">
         <v>1.4</v>
@@ -4457,7 +4456,7 @@
         <v>170</v>
       </c>
       <c r="S21" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
@@ -4468,13 +4467,13 @@
         <v>180</v>
       </c>
       <c r="X21" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y21" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z21" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA21" s="19">
         <v>0</v>
@@ -4483,10 +4482,10 @@
         <v>0</v>
       </c>
       <c r="AC21" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD21" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE21" s="19">
         <v>10</v>
@@ -4507,13 +4506,13 @@
     </row>
     <row r="22" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A22" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D22" s="16">
         <v>20</v>
@@ -4529,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="1"/>
@@ -4549,10 +4548,10 @@
         <v>25</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O22" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P22" s="16">
         <v>1.4</v>
@@ -4564,7 +4563,7 @@
         <v>170</v>
       </c>
       <c r="S22" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
@@ -4575,13 +4574,13 @@
         <v>180</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y22" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z22" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA22" s="16">
         <v>0</v>
@@ -4590,10 +4589,10 @@
         <v>0</v>
       </c>
       <c r="AC22" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD22" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE22" s="16">
         <v>10</v>
@@ -4614,13 +4613,13 @@
     </row>
     <row r="23" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A23" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D23" s="19">
         <v>21</v>
@@ -4636,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I23" s="19">
         <f t="shared" si="1"/>
@@ -4656,10 +4655,10 @@
         <v>25</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O23" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P23" s="19">
         <v>1.4</v>
@@ -4671,7 +4670,7 @@
         <v>170</v>
       </c>
       <c r="S23" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
@@ -4682,13 +4681,13 @@
         <v>180</v>
       </c>
       <c r="X23" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y23" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z23" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA23" s="19">
         <v>0</v>
@@ -4697,10 +4696,10 @@
         <v>0</v>
       </c>
       <c r="AC23" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD23" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE23" s="19">
         <v>10</v>
@@ -4721,13 +4720,13 @@
     </row>
     <row r="24" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A24" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D24" s="16">
         <v>22</v>
@@ -4743,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="1"/>
@@ -4763,10 +4762,10 @@
         <v>25</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O24" s="28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P24" s="16">
         <v>1.4</v>
@@ -4778,7 +4777,7 @@
         <v>170</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
@@ -4789,13 +4788,13 @@
         <v>180</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA24" s="16">
         <v>0</v>
@@ -4804,10 +4803,10 @@
         <v>0</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD24" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE24" s="16">
         <v>10</v>
@@ -4828,13 +4827,13 @@
     </row>
     <row r="25" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A25" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D25" s="19">
         <v>23</v>
@@ -4850,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I25" s="19">
         <f t="shared" si="1"/>
@@ -4870,10 +4869,10 @@
         <v>25</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O25" s="29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P25" s="19">
         <v>1.4</v>
@@ -4885,7 +4884,7 @@
         <v>170</v>
       </c>
       <c r="S25" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
@@ -4896,13 +4895,13 @@
         <v>180</v>
       </c>
       <c r="X25" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y25" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z25" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA25" s="19">
         <v>0</v>
@@ -4911,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="AC25" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD25" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE25" s="19">
         <v>10</v>
@@ -4935,13 +4934,13 @@
     </row>
     <row r="26" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A26" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D26" s="16">
         <v>24</v>
@@ -4957,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I26" s="16">
         <f t="shared" si="1"/>
@@ -4977,10 +4976,10 @@
         <v>25</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O26" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P26" s="16">
         <v>1.4</v>
@@ -4992,7 +4991,7 @@
         <v>170</v>
       </c>
       <c r="S26" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
@@ -5003,13 +5002,13 @@
         <v>180</v>
       </c>
       <c r="X26" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y26" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z26" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA26" s="16">
         <v>0</v>
@@ -5018,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="AC26" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD26" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE26" s="16">
         <v>10</v>
@@ -5042,13 +5041,13 @@
     </row>
     <row r="27" s="3" customFormat="1" ht="35" customHeight="1" spans="1:35">
       <c r="A27" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D27" s="19">
         <v>25</v>
@@ -5064,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I27" s="19">
         <f t="shared" si="1"/>
@@ -5084,10 +5083,10 @@
         <v>25</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O27" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P27" s="19">
         <v>1.4</v>
@@ -5099,7 +5098,7 @@
         <v>170</v>
       </c>
       <c r="S27" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T27" s="19"/>
       <c r="U27" s="19"/>
@@ -5110,13 +5109,13 @@
         <v>180</v>
       </c>
       <c r="X27" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y27" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z27" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA27" s="19">
         <v>0</v>
@@ -5125,10 +5124,10 @@
         <v>0</v>
       </c>
       <c r="AC27" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD27" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE27" s="19">
         <v>10</v>
@@ -5149,13 +5148,13 @@
     </row>
     <row r="28" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A28" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21">
@@ -5168,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I28" s="30">
         <v>15000</v>
@@ -5186,10 +5185,10 @@
         <v>25</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O28" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P28" s="21">
         <v>1.4</v>
@@ -5201,7 +5200,7 @@
         <v>170</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T28" s="21"/>
       <c r="U28" s="21"/>
@@ -5212,13 +5211,13 @@
         <v>180</v>
       </c>
       <c r="X28" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y28" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z28" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA28" s="21">
         <v>0</v>
@@ -5227,10 +5226,10 @@
         <v>0</v>
       </c>
       <c r="AC28" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD28" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE28" s="21">
         <v>10</v>
@@ -5247,13 +5246,13 @@
     </row>
     <row r="29" s="4" customFormat="1" ht="18.5" customHeight="1" spans="1:34">
       <c r="A29" s="21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21">
@@ -5266,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I29" s="30">
         <v>15000</v>
@@ -5284,10 +5283,10 @@
         <v>25</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O29" s="31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P29" s="21">
         <v>1.4</v>
@@ -5299,7 +5298,7 @@
         <v>170</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T29" s="21"/>
       <c r="U29" s="21"/>
@@ -5310,13 +5309,13 @@
         <v>180</v>
       </c>
       <c r="X29" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y29" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z29" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA29" s="21">
         <v>0</v>
@@ -5325,10 +5324,10 @@
         <v>0</v>
       </c>
       <c r="AC29" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD29" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE29" s="21">
         <v>10</v>
@@ -5345,13 +5344,13 @@
     </row>
     <row r="30" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A30" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21">
@@ -5364,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I30" s="30">
         <v>15000</v>
@@ -5382,10 +5381,10 @@
         <v>25</v>
       </c>
       <c r="N30" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P30" s="21">
         <v>1.4</v>
@@ -5397,7 +5396,7 @@
         <v>170</v>
       </c>
       <c r="S30" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T30" s="21"/>
       <c r="U30" s="21"/>
@@ -5408,13 +5407,13 @@
         <v>180</v>
       </c>
       <c r="X30" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y30" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z30" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA30" s="21">
         <v>0</v>
@@ -5423,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="AC30" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD30" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE30" s="21">
         <v>10</v>
@@ -5443,13 +5442,13 @@
     </row>
     <row r="31" s="4" customFormat="1" ht="18.5" customHeight="1" spans="1:34">
       <c r="A31" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21">
@@ -5462,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I31" s="30">
         <v>15000</v>
@@ -5480,10 +5479,10 @@
         <v>25</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P31" s="21">
         <v>1.4</v>
@@ -5495,7 +5494,7 @@
         <v>170</v>
       </c>
       <c r="S31" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T31" s="21"/>
       <c r="U31" s="21"/>
@@ -5506,13 +5505,13 @@
         <v>180</v>
       </c>
       <c r="X31" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y31" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z31" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA31" s="21">
         <v>0</v>
@@ -5521,10 +5520,10 @@
         <v>0</v>
       </c>
       <c r="AC31" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD31" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE31" s="21">
         <v>10</v>
@@ -5541,13 +5540,13 @@
     </row>
     <row r="32" s="4" customFormat="1" ht="18.5" customHeight="1" spans="1:34">
       <c r="A32" s="21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21">
@@ -5560,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I32" s="30">
         <v>15000</v>
@@ -5578,10 +5577,10 @@
         <v>25</v>
       </c>
       <c r="N32" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P32" s="21">
         <v>1.4</v>
@@ -5593,7 +5592,7 @@
         <v>170</v>
       </c>
       <c r="S32" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T32" s="21"/>
       <c r="U32" s="21"/>
@@ -5604,13 +5603,13 @@
         <v>180</v>
       </c>
       <c r="X32" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y32" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z32" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA32" s="21">
         <v>0</v>
@@ -5619,10 +5618,10 @@
         <v>0</v>
       </c>
       <c r="AC32" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD32" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE32" s="21">
         <v>10</v>
@@ -5639,13 +5638,13 @@
     </row>
     <row r="33" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A33" s="21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21">
@@ -5658,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I33" s="30">
         <v>15000</v>
@@ -5676,10 +5675,10 @@
         <v>25</v>
       </c>
       <c r="N33" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O33" s="31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P33" s="21">
         <v>1.4</v>
@@ -5691,7 +5690,7 @@
         <v>170</v>
       </c>
       <c r="S33" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T33" s="21"/>
       <c r="U33" s="21"/>
@@ -5702,13 +5701,13 @@
         <v>180</v>
       </c>
       <c r="X33" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y33" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z33" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA33" s="21">
         <v>0</v>
@@ -5717,10 +5716,10 @@
         <v>0</v>
       </c>
       <c r="AC33" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD33" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE33" s="21">
         <v>10</v>
@@ -5737,13 +5736,13 @@
     </row>
     <row r="34" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A34" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21">
@@ -5756,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I34" s="30">
         <v>15000</v>
@@ -5771,13 +5770,13 @@
         <v>1.5</v>
       </c>
       <c r="M34" s="21">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="N34" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O34" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P34" s="21">
         <v>1.4</v>
@@ -5789,9 +5788,11 @@
         <v>170</v>
       </c>
       <c r="S34" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="T34" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="T34" s="21" t="s">
+        <v>167</v>
+      </c>
       <c r="U34" s="21"/>
       <c r="V34" s="21">
         <v>200</v>
@@ -5800,13 +5801,13 @@
         <v>180</v>
       </c>
       <c r="X34" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y34" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z34" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA34" s="21">
         <v>0</v>
@@ -5815,10 +5816,10 @@
         <v>0</v>
       </c>
       <c r="AC34" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD34" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE34" s="21">
         <v>10</v>
@@ -5835,13 +5836,13 @@
     </row>
     <row r="35" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A35" s="21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21">
@@ -5854,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I35" s="30">
         <v>15000</v>
@@ -5872,10 +5873,10 @@
         <v>25</v>
       </c>
       <c r="N35" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O35" s="31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P35" s="21">
         <v>1.4</v>
@@ -5887,7 +5888,7 @@
         <v>170</v>
       </c>
       <c r="S35" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T35" s="21"/>
       <c r="U35" s="21"/>
@@ -5898,13 +5899,13 @@
         <v>180</v>
       </c>
       <c r="X35" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y35" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z35" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA35" s="21">
         <v>0</v>
@@ -5913,10 +5914,10 @@
         <v>0</v>
       </c>
       <c r="AC35" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD35" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE35" s="21">
         <v>10</v>
@@ -5933,13 +5934,13 @@
     </row>
     <row r="36" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A36" s="21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21">
@@ -5952,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I36" s="30">
         <v>15000</v>
@@ -5970,10 +5971,10 @@
         <v>25</v>
       </c>
       <c r="N36" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O36" s="31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P36" s="21">
         <v>1.4</v>
@@ -5985,7 +5986,7 @@
         <v>170</v>
       </c>
       <c r="S36" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T36" s="21"/>
       <c r="U36" s="21"/>
@@ -5996,13 +5997,13 @@
         <v>180</v>
       </c>
       <c r="X36" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y36" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z36" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA36" s="21">
         <v>0</v>
@@ -6011,10 +6012,10 @@
         <v>0</v>
       </c>
       <c r="AC36" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD36" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE36" s="21">
         <v>10</v>
@@ -6031,13 +6032,13 @@
     </row>
     <row r="37" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A37" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21">
@@ -6050,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I37" s="30">
         <v>15000</v>
@@ -6068,10 +6069,10 @@
         <v>25</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O37" s="31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P37" s="21">
         <v>1.4</v>
@@ -6083,7 +6084,7 @@
         <v>170</v>
       </c>
       <c r="S37" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T37" s="21"/>
       <c r="U37" s="21"/>
@@ -6094,13 +6095,13 @@
         <v>180</v>
       </c>
       <c r="X37" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y37" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z37" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA37" s="21">
         <v>0</v>
@@ -6109,10 +6110,10 @@
         <v>0</v>
       </c>
       <c r="AC37" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD37" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE37" s="21">
         <v>10</v>
@@ -6129,13 +6130,13 @@
     </row>
     <row r="38" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A38" s="21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21">
@@ -6148,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I38" s="30">
         <v>15000</v>
@@ -6166,10 +6167,10 @@
         <v>25</v>
       </c>
       <c r="N38" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O38" s="31" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P38" s="21">
         <v>1.4</v>
@@ -6181,7 +6182,7 @@
         <v>170</v>
       </c>
       <c r="S38" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T38" s="21"/>
       <c r="U38" s="21"/>
@@ -6192,13 +6193,13 @@
         <v>180</v>
       </c>
       <c r="X38" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y38" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z38" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA38" s="21">
         <v>0</v>
@@ -6207,10 +6208,10 @@
         <v>0</v>
       </c>
       <c r="AC38" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD38" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE38" s="21">
         <v>10</v>
@@ -6227,13 +6228,13 @@
     </row>
     <row r="39" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A39" s="21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21">
@@ -6246,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I39" s="30">
         <v>15000</v>
@@ -6264,10 +6265,10 @@
         <v>25</v>
       </c>
       <c r="N39" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O39" s="31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P39" s="21">
         <v>1.4</v>
@@ -6279,7 +6280,7 @@
         <v>170</v>
       </c>
       <c r="S39" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T39" s="21"/>
       <c r="U39" s="21"/>
@@ -6290,13 +6291,13 @@
         <v>180</v>
       </c>
       <c r="X39" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y39" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z39" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA39" s="21">
         <v>0</v>
@@ -6305,10 +6306,10 @@
         <v>0</v>
       </c>
       <c r="AC39" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD39" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE39" s="21">
         <v>10</v>
@@ -6325,13 +6326,13 @@
     </row>
     <row r="40" s="4" customFormat="1" ht="18.5" customHeight="1" spans="1:34">
       <c r="A40" s="21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21">
@@ -6344,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I40" s="30">
         <v>15000</v>
@@ -6362,10 +6363,10 @@
         <v>25</v>
       </c>
       <c r="N40" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O40" s="31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P40" s="21">
         <v>1.4</v>
@@ -6377,7 +6378,7 @@
         <v>170</v>
       </c>
       <c r="S40" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T40" s="21"/>
       <c r="U40" s="21"/>
@@ -6388,13 +6389,13 @@
         <v>180</v>
       </c>
       <c r="X40" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y40" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z40" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA40" s="21">
         <v>0</v>
@@ -6403,10 +6404,10 @@
         <v>0</v>
       </c>
       <c r="AC40" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD40" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE40" s="21">
         <v>10</v>
@@ -6423,13 +6424,13 @@
     </row>
     <row r="41" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A41" s="21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="21">
@@ -6442,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I41" s="30">
         <v>15000</v>
@@ -6460,10 +6461,10 @@
         <v>25</v>
       </c>
       <c r="N41" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O41" s="31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P41" s="21">
         <v>1.4</v>
@@ -6475,7 +6476,7 @@
         <v>170</v>
       </c>
       <c r="S41" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T41" s="21"/>
       <c r="U41" s="21"/>
@@ -6486,13 +6487,13 @@
         <v>180</v>
       </c>
       <c r="X41" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y41" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z41" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA41" s="21">
         <v>0</v>
@@ -6501,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="AC41" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD41" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE41" s="21">
         <v>10</v>
@@ -6521,13 +6522,13 @@
     </row>
     <row r="42" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A42" s="21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21">
@@ -6540,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I42" s="30">
         <v>15000</v>
@@ -6558,10 +6559,10 @@
         <v>25</v>
       </c>
       <c r="N42" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O42" s="31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P42" s="21">
         <v>1.4</v>
@@ -6573,7 +6574,7 @@
         <v>170</v>
       </c>
       <c r="S42" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T42" s="21"/>
       <c r="U42" s="21"/>
@@ -6584,13 +6585,13 @@
         <v>180</v>
       </c>
       <c r="X42" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y42" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z42" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA42" s="21">
         <v>0</v>
@@ -6599,10 +6600,10 @@
         <v>0</v>
       </c>
       <c r="AC42" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD42" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE42" s="21">
         <v>10</v>
@@ -6619,13 +6620,13 @@
     </row>
     <row r="43" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A43" s="21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21">
@@ -6638,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I43" s="30">
         <v>15000</v>
@@ -6656,10 +6657,10 @@
         <v>25</v>
       </c>
       <c r="N43" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O43" s="31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P43" s="21">
         <v>1.4</v>
@@ -6671,7 +6672,7 @@
         <v>170</v>
       </c>
       <c r="S43" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T43" s="21"/>
       <c r="U43" s="21"/>
@@ -6682,13 +6683,13 @@
         <v>180</v>
       </c>
       <c r="X43" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y43" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z43" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA43" s="21">
         <v>0</v>
@@ -6697,10 +6698,10 @@
         <v>0</v>
       </c>
       <c r="AC43" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD43" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE43" s="21">
         <v>10</v>
@@ -6717,13 +6718,13 @@
     </row>
     <row r="44" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A44" s="21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21">
@@ -6736,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I44" s="30">
         <v>15000</v>
@@ -6754,10 +6755,10 @@
         <v>25</v>
       </c>
       <c r="N44" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O44" s="31" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P44" s="21">
         <v>1.4</v>
@@ -6769,7 +6770,7 @@
         <v>170</v>
       </c>
       <c r="S44" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T44" s="21"/>
       <c r="U44" s="21"/>
@@ -6780,13 +6781,13 @@
         <v>180</v>
       </c>
       <c r="X44" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y44" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z44" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA44" s="21">
         <v>0</v>
@@ -6795,10 +6796,10 @@
         <v>0</v>
       </c>
       <c r="AC44" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD44" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE44" s="21">
         <v>10</v>
@@ -6815,13 +6816,13 @@
     </row>
     <row r="45" s="4" customFormat="1" ht="51.5" customHeight="1" spans="1:34">
       <c r="A45" s="21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21">
@@ -6834,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I45" s="30">
         <v>15000</v>
@@ -6852,10 +6853,10 @@
         <v>25</v>
       </c>
       <c r="N45" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O45" s="31" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P45" s="21">
         <v>1.4</v>
@@ -6867,7 +6868,7 @@
         <v>170</v>
       </c>
       <c r="S45" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T45" s="21"/>
       <c r="U45" s="21"/>
@@ -6878,13 +6879,13 @@
         <v>180</v>
       </c>
       <c r="X45" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y45" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z45" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA45" s="21">
         <v>0</v>
@@ -6893,10 +6894,10 @@
         <v>0</v>
       </c>
       <c r="AC45" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD45" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE45" s="21">
         <v>10</v>
@@ -6913,13 +6914,13 @@
     </row>
     <row r="46" s="4" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A46" s="21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="21">
@@ -6932,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I46" s="30">
         <v>15000</v>
@@ -6950,10 +6951,10 @@
         <v>25</v>
       </c>
       <c r="N46" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O46" s="31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P46" s="21">
         <v>1.4</v>
@@ -6965,7 +6966,7 @@
         <v>170</v>
       </c>
       <c r="S46" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T46" s="21"/>
       <c r="U46" s="21"/>
@@ -6976,13 +6977,13 @@
         <v>180</v>
       </c>
       <c r="X46" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y46" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z46" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA46" s="21">
         <v>0</v>
@@ -6991,10 +6992,10 @@
         <v>0</v>
       </c>
       <c r="AC46" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD46" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE46" s="21">
         <v>10</v>
@@ -7011,13 +7012,13 @@
     </row>
     <row r="47" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A47" s="23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47" s="23"/>
       <c r="E47" s="23">
@@ -7030,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I47" s="32">
         <v>15000</v>
@@ -7048,10 +7049,10 @@
         <v>25</v>
       </c>
       <c r="N47" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O47" s="33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P47" s="23">
         <v>1.4</v>
@@ -7063,7 +7064,7 @@
         <v>170</v>
       </c>
       <c r="S47" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T47" s="23"/>
       <c r="U47" s="23"/>
@@ -7074,13 +7075,13 @@
         <v>180</v>
       </c>
       <c r="X47" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y47" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z47" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA47" s="23">
         <v>0</v>
@@ -7089,10 +7090,10 @@
         <v>0</v>
       </c>
       <c r="AC47" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD47" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE47" s="23">
         <v>10</v>
@@ -7109,13 +7110,13 @@
     </row>
     <row r="48" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A48" s="23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D48" s="23"/>
       <c r="E48" s="23">
@@ -7128,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I48" s="32">
         <v>15000</v>
@@ -7146,10 +7147,10 @@
         <v>25</v>
       </c>
       <c r="N48" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O48" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P48" s="23">
         <v>1.4</v>
@@ -7161,7 +7162,7 @@
         <v>170</v>
       </c>
       <c r="S48" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T48" s="23"/>
       <c r="U48" s="23"/>
@@ -7172,13 +7173,13 @@
         <v>180</v>
       </c>
       <c r="X48" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y48" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z48" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA48" s="23">
         <v>0</v>
@@ -7187,10 +7188,10 @@
         <v>0</v>
       </c>
       <c r="AC48" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD48" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE48" s="23">
         <v>10</v>
@@ -7207,13 +7208,13 @@
     </row>
     <row r="49" s="5" customFormat="1" ht="18.5" customHeight="1" spans="1:34">
       <c r="A49" s="23" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D49" s="23"/>
       <c r="E49" s="23">
@@ -7226,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I49" s="32">
         <v>15000</v>
@@ -7244,10 +7245,10 @@
         <v>25</v>
       </c>
       <c r="N49" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O49" s="33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P49" s="23">
         <v>1.4</v>
@@ -7259,7 +7260,7 @@
         <v>170</v>
       </c>
       <c r="S49" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T49" s="23"/>
       <c r="U49" s="23"/>
@@ -7270,13 +7271,13 @@
         <v>180</v>
       </c>
       <c r="X49" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y49" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z49" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA49" s="23">
         <v>0</v>
@@ -7285,10 +7286,10 @@
         <v>0</v>
       </c>
       <c r="AC49" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD49" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE49" s="23">
         <v>10</v>
@@ -7305,13 +7306,13 @@
     </row>
     <row r="50" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A50" s="23" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" s="23">
@@ -7324,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I50" s="32">
         <v>15000</v>
@@ -7342,10 +7343,10 @@
         <v>25</v>
       </c>
       <c r="N50" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O50" s="33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P50" s="23">
         <v>1.4</v>
@@ -7357,7 +7358,7 @@
         <v>170</v>
       </c>
       <c r="S50" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T50" s="23"/>
       <c r="U50" s="23"/>
@@ -7368,13 +7369,13 @@
         <v>180</v>
       </c>
       <c r="X50" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y50" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z50" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA50" s="23">
         <v>0</v>
@@ -7383,10 +7384,10 @@
         <v>0</v>
       </c>
       <c r="AC50" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD50" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE50" s="23">
         <v>10</v>
@@ -7403,13 +7404,13 @@
     </row>
     <row r="51" s="5" customFormat="1" ht="33.75" spans="1:34">
       <c r="A51" s="23" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="23">
@@ -7422,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I51" s="32">
         <v>15000</v>
@@ -7440,10 +7441,10 @@
         <v>25</v>
       </c>
       <c r="N51" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O51" s="33" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P51" s="23">
         <v>1.4</v>
@@ -7455,7 +7456,7 @@
         <v>170</v>
       </c>
       <c r="S51" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T51" s="23"/>
       <c r="U51" s="23"/>
@@ -7466,13 +7467,13 @@
         <v>180</v>
       </c>
       <c r="X51" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y51" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z51" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA51" s="23">
         <v>0</v>
@@ -7481,10 +7482,10 @@
         <v>0</v>
       </c>
       <c r="AC51" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD51" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE51" s="23">
         <v>10</v>
@@ -7501,13 +7502,13 @@
     </row>
     <row r="52" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A52" s="23" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D52" s="23"/>
       <c r="E52" s="23">
@@ -7520,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I52" s="32">
         <v>15000</v>
@@ -7538,10 +7539,10 @@
         <v>25</v>
       </c>
       <c r="N52" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O52" s="33" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P52" s="23">
         <v>1.4</v>
@@ -7553,7 +7554,7 @@
         <v>170</v>
       </c>
       <c r="S52" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T52" s="23"/>
       <c r="U52" s="23"/>
@@ -7564,13 +7565,13 @@
         <v>180</v>
       </c>
       <c r="X52" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y52" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z52" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA52" s="23">
         <v>0</v>
@@ -7579,10 +7580,10 @@
         <v>0</v>
       </c>
       <c r="AC52" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD52" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE52" s="23">
         <v>10</v>
@@ -7599,13 +7600,13 @@
     </row>
     <row r="53" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A53" s="23" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" s="23">
@@ -7618,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I53" s="32">
         <v>15000</v>
@@ -7636,10 +7637,10 @@
         <v>25</v>
       </c>
       <c r="N53" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O53" s="33" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P53" s="23">
         <v>1.4</v>
@@ -7651,7 +7652,7 @@
         <v>170</v>
       </c>
       <c r="S53" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T53" s="23"/>
       <c r="U53" s="23"/>
@@ -7662,13 +7663,13 @@
         <v>180</v>
       </c>
       <c r="X53" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y53" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z53" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA53" s="23">
         <v>0</v>
@@ -7677,10 +7678,10 @@
         <v>0</v>
       </c>
       <c r="AC53" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD53" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE53" s="23">
         <v>10</v>
@@ -7697,13 +7698,13 @@
     </row>
     <row r="54" s="5" customFormat="1" ht="33.75" spans="1:34">
       <c r="A54" s="23" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D54" s="23"/>
       <c r="E54" s="23">
@@ -7716,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I54" s="32">
         <v>15000</v>
@@ -7734,10 +7735,10 @@
         <v>25</v>
       </c>
       <c r="N54" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O54" s="33" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P54" s="23">
         <v>1.4</v>
@@ -7749,7 +7750,7 @@
         <v>170</v>
       </c>
       <c r="S54" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T54" s="23"/>
       <c r="U54" s="23"/>
@@ -7760,13 +7761,13 @@
         <v>180</v>
       </c>
       <c r="X54" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y54" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z54" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA54" s="23">
         <v>0</v>
@@ -7775,10 +7776,10 @@
         <v>0</v>
       </c>
       <c r="AC54" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD54" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE54" s="23">
         <v>10</v>
@@ -7795,13 +7796,13 @@
     </row>
     <row r="55" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A55" s="23" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" s="23">
@@ -7814,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I55" s="32">
         <v>15000</v>
@@ -7832,10 +7833,10 @@
         <v>25</v>
       </c>
       <c r="N55" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O55" s="33" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P55" s="23">
         <v>1.4</v>
@@ -7847,7 +7848,7 @@
         <v>170</v>
       </c>
       <c r="S55" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T55" s="23"/>
       <c r="U55" s="23"/>
@@ -7858,13 +7859,13 @@
         <v>180</v>
       </c>
       <c r="X55" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y55" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z55" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA55" s="23">
         <v>0</v>
@@ -7873,10 +7874,10 @@
         <v>0</v>
       </c>
       <c r="AC55" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD55" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE55" s="23">
         <v>10</v>
@@ -7893,13 +7894,13 @@
     </row>
     <row r="56" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A56" s="23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D56" s="23"/>
       <c r="E56" s="23">
@@ -7912,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I56" s="32">
         <v>15000</v>
@@ -7930,10 +7931,10 @@
         <v>25</v>
       </c>
       <c r="N56" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O56" s="33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P56" s="23">
         <v>1.4</v>
@@ -7945,7 +7946,7 @@
         <v>170</v>
       </c>
       <c r="S56" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T56" s="23"/>
       <c r="U56" s="23"/>
@@ -7956,13 +7957,13 @@
         <v>180</v>
       </c>
       <c r="X56" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y56" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z56" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA56" s="23">
         <v>0</v>
@@ -7971,10 +7972,10 @@
         <v>0</v>
       </c>
       <c r="AC56" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD56" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE56" s="23">
         <v>10</v>
@@ -7991,13 +7992,13 @@
     </row>
     <row r="57" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A57" s="23" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D57" s="23"/>
       <c r="E57" s="23">
@@ -8010,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I57" s="32">
         <v>15000</v>
@@ -8028,10 +8029,10 @@
         <v>25</v>
       </c>
       <c r="N57" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O57" s="33" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P57" s="23">
         <v>1.4</v>
@@ -8043,7 +8044,7 @@
         <v>170</v>
       </c>
       <c r="S57" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T57" s="23"/>
       <c r="U57" s="23"/>
@@ -8054,13 +8055,13 @@
         <v>180</v>
       </c>
       <c r="X57" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y57" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z57" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA57" s="23">
         <v>0</v>
@@ -8069,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="AC57" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD57" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE57" s="23">
         <v>10</v>
@@ -8089,13 +8090,13 @@
     </row>
     <row r="58" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A58" s="23" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="23">
@@ -8108,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I58" s="32">
         <v>15000</v>
@@ -8126,10 +8127,10 @@
         <v>25</v>
       </c>
       <c r="N58" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O58" s="33" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P58" s="23">
         <v>1.4</v>
@@ -8141,7 +8142,7 @@
         <v>170</v>
       </c>
       <c r="S58" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T58" s="23"/>
       <c r="U58" s="23"/>
@@ -8152,13 +8153,13 @@
         <v>180</v>
       </c>
       <c r="X58" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y58" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z58" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA58" s="23">
         <v>0</v>
@@ -8167,10 +8168,10 @@
         <v>0</v>
       </c>
       <c r="AC58" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD58" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE58" s="23">
         <v>10</v>
@@ -8187,13 +8188,13 @@
     </row>
     <row r="59" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A59" s="23" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="23">
@@ -8206,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I59" s="32">
         <v>15000</v>
@@ -8224,10 +8225,10 @@
         <v>25</v>
       </c>
       <c r="N59" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O59" s="33" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P59" s="23">
         <v>1.4</v>
@@ -8239,7 +8240,7 @@
         <v>170</v>
       </c>
       <c r="S59" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T59" s="23"/>
       <c r="U59" s="23"/>
@@ -8250,13 +8251,13 @@
         <v>180</v>
       </c>
       <c r="X59" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y59" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z59" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA59" s="23">
         <v>0</v>
@@ -8265,10 +8266,10 @@
         <v>0</v>
       </c>
       <c r="AC59" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD59" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE59" s="23">
         <v>10</v>
@@ -8285,13 +8286,13 @@
     </row>
     <row r="60" s="5" customFormat="1" ht="33.75" spans="1:34">
       <c r="A60" s="23" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D60" s="23"/>
       <c r="E60" s="23">
@@ -8304,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I60" s="32">
         <v>15000</v>
@@ -8322,10 +8323,10 @@
         <v>25</v>
       </c>
       <c r="N60" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O60" s="33" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P60" s="23">
         <v>1.4</v>
@@ -8337,7 +8338,7 @@
         <v>170</v>
       </c>
       <c r="S60" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T60" s="23"/>
       <c r="U60" s="23"/>
@@ -8348,13 +8349,13 @@
         <v>180</v>
       </c>
       <c r="X60" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y60" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z60" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA60" s="23">
         <v>0</v>
@@ -8363,10 +8364,10 @@
         <v>0</v>
       </c>
       <c r="AC60" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD60" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE60" s="23">
         <v>10</v>
@@ -8383,13 +8384,13 @@
     </row>
     <row r="61" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A61" s="23" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D61" s="23"/>
       <c r="E61" s="23">
@@ -8402,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I61" s="32">
         <v>15000</v>
@@ -8420,10 +8421,10 @@
         <v>25</v>
       </c>
       <c r="N61" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O61" s="33" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P61" s="23">
         <v>1.4</v>
@@ -8435,7 +8436,7 @@
         <v>170</v>
       </c>
       <c r="S61" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T61" s="23"/>
       <c r="U61" s="23"/>
@@ -8446,13 +8447,13 @@
         <v>180</v>
       </c>
       <c r="X61" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y61" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z61" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA61" s="23">
         <v>0</v>
@@ -8461,10 +8462,10 @@
         <v>0</v>
       </c>
       <c r="AC61" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD61" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE61" s="23">
         <v>10</v>
@@ -8481,13 +8482,13 @@
     </row>
     <row r="62" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A62" s="23" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D62" s="23"/>
       <c r="E62" s="23">
@@ -8500,7 +8501,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I62" s="32">
         <v>15000</v>
@@ -8518,10 +8519,10 @@
         <v>25</v>
       </c>
       <c r="N62" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O62" s="33" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P62" s="23">
         <v>1.4</v>
@@ -8533,7 +8534,7 @@
         <v>170</v>
       </c>
       <c r="S62" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T62" s="23"/>
       <c r="U62" s="23"/>
@@ -8544,13 +8545,13 @@
         <v>180</v>
       </c>
       <c r="X62" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y62" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z62" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA62" s="23">
         <v>0</v>
@@ -8559,10 +8560,10 @@
         <v>0</v>
       </c>
       <c r="AC62" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD62" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE62" s="23">
         <v>10</v>
@@ -8579,13 +8580,13 @@
     </row>
     <row r="63" s="5" customFormat="1" ht="51.5" customHeight="1" spans="1:34">
       <c r="A63" s="23" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D63" s="23"/>
       <c r="E63" s="23">
@@ -8598,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I63" s="32">
         <v>15000</v>
@@ -8616,10 +8617,10 @@
         <v>25</v>
       </c>
       <c r="N63" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O63" s="33" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P63" s="23">
         <v>1.4</v>
@@ -8631,7 +8632,7 @@
         <v>170</v>
       </c>
       <c r="S63" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T63" s="23"/>
       <c r="U63" s="23"/>
@@ -8642,13 +8643,13 @@
         <v>180</v>
       </c>
       <c r="X63" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y63" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z63" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA63" s="23">
         <v>0</v>
@@ -8657,10 +8658,10 @@
         <v>0</v>
       </c>
       <c r="AC63" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD63" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE63" s="23">
         <v>10</v>
@@ -8677,13 +8678,13 @@
     </row>
     <row r="64" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A64" s="23" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D64" s="23"/>
       <c r="E64" s="23">
@@ -8696,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I64" s="32">
         <v>15000</v>
@@ -8714,10 +8715,10 @@
         <v>25</v>
       </c>
       <c r="N64" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O64" s="33" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P64" s="23">
         <v>1.4</v>
@@ -8729,7 +8730,7 @@
         <v>170</v>
       </c>
       <c r="S64" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T64" s="23"/>
       <c r="U64" s="23"/>
@@ -8740,13 +8741,13 @@
         <v>180</v>
       </c>
       <c r="X64" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y64" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z64" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA64" s="23">
         <v>0</v>
@@ -8755,10 +8756,10 @@
         <v>0</v>
       </c>
       <c r="AC64" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD64" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE64" s="23">
         <v>10</v>
@@ -8775,13 +8776,13 @@
     </row>
     <row r="65" s="5" customFormat="1" ht="35" customHeight="1" spans="1:34">
       <c r="A65" s="23" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="23">
@@ -8794,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I65" s="32">
         <v>15000</v>
@@ -8812,10 +8813,10 @@
         <v>25</v>
       </c>
       <c r="N65" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O65" s="33" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P65" s="23">
         <v>1.4</v>
@@ -8827,7 +8828,7 @@
         <v>170</v>
       </c>
       <c r="S65" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T65" s="23"/>
       <c r="U65" s="23"/>
@@ -8838,13 +8839,13 @@
         <v>180</v>
       </c>
       <c r="X65" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y65" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z65" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA65" s="23">
         <v>0</v>
@@ -8853,10 +8854,10 @@
         <v>0</v>
       </c>
       <c r="AC65" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD65" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE65" s="23">
         <v>10</v>

--- a/excels/units/monster/normal.xlsx
+++ b/excels/units/monster/normal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="2" r:id="rId1"/>
@@ -204,7 +204,7 @@
     <t>npc_monster_normal_10_1</t>
   </si>
   <si>
-    <t>地狱熊怪粉碎者</t>
+    <t>炼狱熊怪粉碎者</t>
   </si>
   <si>
     <t>5|0|0|0</t>
@@ -306,7 +306,7 @@
     <t>8|0|0|0</t>
   </si>
   <si>
-    <t>models/items/invoker/forge_spirit/arsenal_magus_forged_spirit/arsenal_magus_forged_spirit.vmdl</t>
+    <t>models/creeps/neutral_creeps/n_creep_ghost_b/n_creep_ghost_red.vmdl</t>
   </si>
   <si>
     <t>npc_monster_normal_10_9</t>
@@ -492,7 +492,7 @@
     <t>npc_monster_normal_20_2</t>
   </si>
   <si>
-    <t>地狱羚羊</t>
+    <t>炼狱羚羊</t>
   </si>
   <si>
     <t>models/courier/ram/ram.vmdl</t>
@@ -537,10 +537,10 @@
     <t>npc_monster_normal_20_7</t>
   </si>
   <si>
-    <t>夜魇超级近战兵</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/creep_bad_melee/creep_bad_melee_mega.vmdl</t>
+    <t>炼狱小双头犬</t>
+  </si>
+  <si>
+    <t>models/items/courier/starladder_grillhound/starladder_grillhound.vmdl</t>
   </si>
   <si>
     <t>npc_monster_normal_20_8</t>
@@ -570,7 +570,7 @@
     <t>npc_monster_normal_20_9</t>
   </si>
   <si>
-    <t>远古地狱巨人</t>
+    <t>远古炼狱巨人</t>
   </si>
   <si>
     <t>models/creeps/lane_creeps/creep_dire_hulk/creep_dire_ancient_hulk.vmdl</t>
@@ -591,7 +591,7 @@
     <t>npc_monster_normal_20_11</t>
   </si>
   <si>
-    <t>地狱火</t>
+    <t>炼狱火</t>
   </si>
   <si>
     <t>models/heroes/warlock/warlock_demon.vmdl</t>
@@ -636,7 +636,7 @@
     <t>npc_monster_normal_20_15_a</t>
   </si>
   <si>
-    <t>地狱猎蜥</t>
+    <t>炼狱猎蜥</t>
   </si>
   <si>
     <t>models/monster/monster0113/monster0113.vmdl</t>
@@ -2128,7 +2128,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{3093A2C0-B9BE-44D1-B133-23B423EFB2BB}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{55C04ADC-8F02-4B6F-9EFF-4C0F5D931B6D}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
@@ -2442,11 +2442,11 @@
   <dimension ref="A1:BA103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B27"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2775,7 +2775,7 @@
         <v>13</v>
       </c>
       <c r="AJ3" s="41" t="str">
-        <f>IF(AH3&lt;=AI3,"","数据出错")</f>
+        <f t="shared" ref="AJ3:AJ11" si="0">IF(AH3&lt;=AI3,"","数据出错")</f>
         <v/>
       </c>
     </row>
@@ -2880,7 +2880,7 @@
         <v>13</v>
       </c>
       <c r="AJ4" s="41" t="str">
-        <f>IF(AH4&lt;=AI4,"","数据出错")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
         <v>13</v>
       </c>
       <c r="AJ5" s="41" t="str">
-        <f>IF(AH5&lt;=AI5,"","数据出错")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
         <v>13</v>
       </c>
       <c r="AJ6" s="41" t="str">
-        <f>IF(AH6&lt;=AI6,"","数据出错")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3195,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="AJ7" s="41" t="str">
-        <f>IF(AH7&lt;=AI7,"","数据出错")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3300,7 +3300,7 @@
         <v>13</v>
       </c>
       <c r="AJ8" s="41" t="str">
-        <f>IF(AH8&lt;=AI8,"","数据出错")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
         <v>13</v>
       </c>
       <c r="AJ9" s="41" t="str">
-        <f>IF(AH9&lt;=AI9,"","数据出错")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3510,7 +3510,7 @@
         <v>13</v>
       </c>
       <c r="AJ10" s="41" t="str">
-        <f>IF(AH10&lt;=AI10,"","数据出错")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
         <v>13</v>
       </c>
       <c r="AJ11" s="41" t="str">
-        <f>IF(AH11&lt;=AI11,"","数据出错")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>

--- a/excels/units/monster/normal.xlsx
+++ b/excels/units/monster/normal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="2" r:id="rId1"/>
@@ -204,7 +204,7 @@
     <t>npc_monster_normal_10_1</t>
   </si>
   <si>
-    <t>炼狱熊怪粉碎者</t>
+    <t>炼狱熊怪</t>
   </si>
   <si>
     <t>5|0|0|0</t>
@@ -687,7 +687,7 @@
     <t>npc_monster_normal_30_6_a</t>
   </si>
   <si>
-    <t>雷须兽（远程）</t>
+    <t>雷须兽</t>
   </si>
   <si>
     <t>models/items/courier/supernova_rave_courier/supernova_rave_courier_flying.vmdl</t>
@@ -702,7 +702,7 @@
     <t>npc_monster_normal_30_8_a</t>
   </si>
   <si>
-    <t>幼年青眼雷龙（远程）</t>
+    <t>幼年青眼雷龙</t>
   </si>
   <si>
     <t>models/monster/monster0105/monster0105.vmdl</t>
@@ -738,7 +738,7 @@
     <t>npc_monster_normal_30_13_a</t>
   </si>
   <si>
-    <t>雷电见习者（远程）</t>
+    <t>雷电见习者</t>
   </si>
   <si>
     <t>models/heroes/zeus/zeus.vmdl</t>
@@ -765,7 +765,7 @@
     <t>npc_monster_normal_30_15_a</t>
   </si>
   <si>
-    <t>远古黑龙（远程）</t>
+    <t>远古黑龙</t>
   </si>
   <si>
     <t>models/creeps/neutral_creeps/n_creep_black_dragon/n_creep_black_dragon.vmdl</t>
@@ -816,7 +816,7 @@
     <t>npc_monster_normal_40_6_a</t>
   </si>
   <si>
-    <t>近代冰魂（远程）</t>
+    <t>近代冰魂</t>
   </si>
   <si>
     <t>models/heroes/ancient_apparition/ancient_apparition.vmdl</t>
@@ -837,7 +837,7 @@
     <t>npc_monster_normal_40_8_a</t>
   </si>
   <si>
-    <t>极地小飞龙（远程）</t>
+    <t>极地小飞龙</t>
   </si>
   <si>
     <t>models/courier/baby_winter_wyvern/baby_winter_wyvern_flying.vmdl</t>
@@ -873,7 +873,7 @@
     <t>npc_monster_normal_40_13_a</t>
   </si>
   <si>
-    <t>冰宫奴仆（远程）</t>
+    <t>冰宫奴仆</t>
   </si>
   <si>
     <t>models/monster/monster0234/monster0234.vmdl</t>
@@ -900,7 +900,7 @@
     <t>npc_monster_normal_40_15_a</t>
   </si>
   <si>
-    <t>寒霜萨满（远程）</t>
+    <t>寒霜萨满</t>
   </si>
   <si>
     <t>models/creeps/ice_biome/frostbitten/n_creep_frostbitten_shaman01.vmdl</t>
@@ -945,7 +945,7 @@
     <t>npc_monster_normal_50_6_a</t>
   </si>
   <si>
-    <t>绿洲剧毒飞蛇（远程）</t>
+    <t>绿洲剧毒飞蛇</t>
   </si>
   <si>
     <t>models/courier/venoling/venoling_flying.vmdl</t>
@@ -966,7 +966,7 @@
     <t>npc_monster_normal_50_8_a</t>
   </si>
   <si>
-    <t>绿洲魔法飞马（远程）</t>
+    <t>绿洲魔法飞马</t>
   </si>
   <si>
     <t>models/courier/winter2022/taffy_donkey_courier_wings.vmdl</t>
@@ -1002,7 +1002,7 @@
     <t>npc_monster_normal_50_13_a</t>
   </si>
   <si>
-    <t>天辉高级术士（远程）</t>
+    <t>天辉高级术士</t>
   </si>
   <si>
     <t>models/creeps/lane_creeps/creep_radiant_ranged/radiant_ranged_crystal.vmdl</t>
@@ -1029,7 +1029,7 @@
     <t>npc_monster_normal_50_15_a</t>
   </si>
   <si>
-    <t>高级精灵战车（远程）</t>
+    <t>高级精灵战车</t>
   </si>
   <si>
     <t>models/creeps/lane_creeps/creep_2021_radiant/creep_2021_radiant_siege.vmdl</t>
@@ -2128,7 +2128,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{55C04ADC-8F02-4B6F-9EFF-4C0F5D931B6D}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{1778B18C-E463-429F-A8A3-694F84D9960F}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
@@ -2442,11 +2442,11 @@
   <dimension ref="A1:BA103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="J81" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/units/monster/normal.xlsx
+++ b/excels/units/monster/normal.xlsx
@@ -46,12 +46,12 @@
 1火2雷3冰4风</t>
   </si>
   <si>
-    <t>元素克制
+    <t>克制的元素
 1火2雷3冰4风
 5光6暗</t>
   </si>
   <si>
-    <t>克制元素
+    <t>被克制的元素
 1火2雷3冰4风
 5光6暗</t>
   </si>
@@ -2210,7 +2210,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{4A5E6AFE-53EE-4C9C-9776-6E957E4465C1}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{F39B86F6-9168-438D-9621-A84BD041F747}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
@@ -2528,7 +2528,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13839,7 +13839,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>

--- a/excels/units/monster/normal.xlsx
+++ b/excels/units/monster/normal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="2" r:id="rId1"/>
@@ -43,17 +43,15 @@
   </si>
   <si>
     <t>元素类型
-1火2雷3冰4风</t>
+1火2冰3雷4风5光6暗</t>
   </si>
   <si>
     <t>克制的元素
-1火2雷3冰4风
-5光6暗</t>
+1火2冰3雷4风5光6暗</t>
   </si>
   <si>
     <t>被克制的元素
-1火2雷3冰4风
-5光6暗</t>
+1火2冰3雷4风5光6暗</t>
   </si>
   <si>
     <t>未计算的血量</t>
@@ -1047,7 +1045,7 @@
   </si>
   <si>
     <t>怪物携带元素
-1火2雷3冰4风5光6暗</t>
+1火2冰3雷4风5光6暗</t>
   </si>
   <si>
     <t xml:space="preserve">克制的元素
@@ -1063,28 +1061,28 @@
 默认克制4个元素</t>
   </si>
   <si>
+    <t>2|0</t>
+  </si>
+  <si>
+    <t>4|5|6</t>
+  </si>
+  <si>
     <t>3|0</t>
   </si>
   <si>
-    <t>4|5|6</t>
+    <t>1|5|6</t>
   </si>
   <si>
     <t>4|0</t>
   </si>
   <si>
+    <t>2|5|6</t>
+  </si>
+  <si>
+    <t>1|0</t>
+  </si>
+  <si>
     <t>3|5|6</t>
-  </si>
-  <si>
-    <t>2|0</t>
-  </si>
-  <si>
-    <t>1|5|6</t>
-  </si>
-  <si>
-    <t>1|0</t>
-  </si>
-  <si>
-    <t>2|5|6</t>
   </si>
   <si>
     <t>1|2|3|4</t>
@@ -2210,7 +2208,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{F39B86F6-9168-438D-9621-A84BD041F747}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{625E1073-A2E4-49F8-ABAC-280EB3F0AF83}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
@@ -2523,12 +2521,12 @@
   <sheetPr/>
   <dimension ref="A1:BC103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2781,7 +2779,7 @@
       </c>
       <c r="F3" s="3" t="str">
         <f>VLOOKUP(E3,__Sheet1!A:C,2,FALSE)</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="G3" s="3" t="str">
         <f>VLOOKUP(E3,__Sheet1!A:C,3,FALSE)</f>
@@ -2894,11 +2892,11 @@
       </c>
       <c r="F4" s="3" t="str">
         <f>VLOOKUP(E4,__Sheet1!A:C,2,FALSE)</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="G4" s="3" t="str">
         <f>VLOOKUP(E4,__Sheet1!A:C,3,FALSE)</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="H4" s="4">
         <v>15000</v>
@@ -3007,11 +3005,11 @@
       </c>
       <c r="F5" s="3" t="str">
         <f>VLOOKUP(E5,__Sheet1!A:C,2,FALSE)</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="G5" s="3" t="str">
         <f>VLOOKUP(E5,__Sheet1!A:C,3,FALSE)</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="H5" s="5">
         <v>15000</v>
@@ -3124,7 +3122,7 @@
       </c>
       <c r="G6" s="3" t="str">
         <f>VLOOKUP(E6,__Sheet1!A:C,3,FALSE)</f>
-        <v>2|5|6</v>
+        <v>3|5|6</v>
       </c>
       <c r="H6" s="6">
         <v>15000</v>
@@ -3233,11 +3231,11 @@
       </c>
       <c r="F7" s="3" t="str">
         <f>VLOOKUP(E7,__Sheet1!A:C,2,FALSE)</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="G7" s="3" t="str">
         <f>VLOOKUP(E7,__Sheet1!A:C,3,FALSE)</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="H7" s="4">
         <v>15000</v>
@@ -3350,7 +3348,7 @@
       </c>
       <c r="G8" s="3" t="str">
         <f>VLOOKUP(E8,__Sheet1!A:C,3,FALSE)</f>
-        <v>2|5|6</v>
+        <v>3|5|6</v>
       </c>
       <c r="H8" s="6">
         <v>15000</v>
@@ -3463,7 +3461,7 @@
       </c>
       <c r="G9" s="3" t="str">
         <f>VLOOKUP(E9,__Sheet1!A:C,3,FALSE)</f>
-        <v>2|5|6</v>
+        <v>3|5|6</v>
       </c>
       <c r="H9" s="6">
         <v>15000</v>
@@ -3572,7 +3570,7 @@
       </c>
       <c r="F10" s="3" t="str">
         <f>VLOOKUP(E10,__Sheet1!A:C,2,FALSE)</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="G10" s="3" t="str">
         <f>VLOOKUP(E10,__Sheet1!A:C,3,FALSE)</f>
@@ -3685,7 +3683,7 @@
       </c>
       <c r="F11" s="3" t="str">
         <f>VLOOKUP(E11,__Sheet1!A:C,2,FALSE)</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="G11" s="3" t="str">
         <f>VLOOKUP(E11,__Sheet1!A:C,3,FALSE)</f>
@@ -3798,7 +3796,7 @@
       </c>
       <c r="F12" s="3" t="str">
         <f>VLOOKUP(E12,__Sheet1!A:C,2,FALSE)</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="G12" s="3" t="str">
         <f>VLOOKUP(E12,__Sheet1!A:C,3,FALSE)</f>
@@ -3910,11 +3908,11 @@
       </c>
       <c r="F13" s="3" t="str">
         <f>VLOOKUP(E13,__Sheet1!A:C,2,FALSE)</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="G13" s="3" t="str">
         <f>VLOOKUP(E13,__Sheet1!A:C,3,FALSE)</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="H13" s="4">
         <v>15000</v>
@@ -4022,11 +4020,11 @@
       </c>
       <c r="F14" s="3" t="str">
         <f>VLOOKUP(E14,__Sheet1!A:C,2,FALSE)</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="G14" s="3" t="str">
         <f>VLOOKUP(E14,__Sheet1!A:C,3,FALSE)</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="H14" s="5">
         <v>15000</v>
@@ -4137,7 +4135,7 @@
       </c>
       <c r="G15" s="3" t="str">
         <f>VLOOKUP(E15,__Sheet1!A:C,3,FALSE)</f>
-        <v>2|5|6</v>
+        <v>3|5|6</v>
       </c>
       <c r="H15" s="6">
         <v>15000</v>
@@ -4244,7 +4242,7 @@
       </c>
       <c r="F16" s="3" t="str">
         <f>VLOOKUP(E16,__Sheet1!A:C,2,FALSE)</f>
-        <v>3|0</v>
+        <v>2|0</v>
       </c>
       <c r="G16" s="3" t="str">
         <f>VLOOKUP(E16,__Sheet1!A:C,3,FALSE)</f>
@@ -4357,11 +4355,11 @@
       </c>
       <c r="F17" s="3" t="str">
         <f>VLOOKUP(E17,__Sheet1!A:C,2,FALSE)</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="G17" s="3" t="str">
         <f>VLOOKUP(E17,__Sheet1!A:C,3,FALSE)</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="H17" s="5">
         <v>15000</v>
@@ -4470,11 +4468,11 @@
       </c>
       <c r="F18" s="3" t="str">
         <f>VLOOKUP(E18,__Sheet1!A:C,2,FALSE)</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="G18" s="3" t="str">
         <f>VLOOKUP(E18,__Sheet1!A:C,3,FALSE)</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="H18" s="4">
         <v>15000</v>
@@ -4590,7 +4588,7 @@
       </c>
       <c r="G19" s="3" t="str">
         <f>VLOOKUP(E19,__Sheet1!A:C,3,FALSE)</f>
-        <v>2|5|6</v>
+        <v>3|5|6</v>
       </c>
       <c r="H19" s="6">
         <v>15000</v>
@@ -4705,7 +4703,7 @@
       </c>
       <c r="G20" s="3" t="str">
         <f>VLOOKUP(E20,__Sheet1!A:C,3,FALSE)</f>
-        <v>2|5|6</v>
+        <v>3|5|6</v>
       </c>
       <c r="H20" s="6">
         <v>15000</v>
@@ -4828,11 +4826,11 @@
       </c>
       <c r="F21" s="3" t="str">
         <f>VLOOKUP(E21,__Sheet1!A:C,2,FALSE)</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="G21" s="3" t="str">
         <f>VLOOKUP(E21,__Sheet1!A:C,3,FALSE)</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="H21" s="4">
         <v>15000</v>
@@ -4943,11 +4941,11 @@
       </c>
       <c r="F22" s="3" t="str">
         <f>VLOOKUP(E22,__Sheet1!A:C,2,FALSE)</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="G22" s="3" t="str">
         <f>VLOOKUP(E22,__Sheet1!A:C,3,FALSE)</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="H22" s="4">
         <v>15000</v>
@@ -5058,11 +5056,11 @@
       </c>
       <c r="F23" s="3" t="str">
         <f>VLOOKUP(E23,__Sheet1!A:C,2,FALSE)</f>
-        <v>4|0</v>
+        <v>3|0</v>
       </c>
       <c r="G23" s="3" t="str">
         <f>VLOOKUP(E23,__Sheet1!A:C,3,FALSE)</f>
-        <v>3|5|6</v>
+        <v>1|5|6</v>
       </c>
       <c r="H23" s="4">
         <v>15000</v>
@@ -5177,7 +5175,7 @@
       </c>
       <c r="G24" s="3" t="str">
         <f>VLOOKUP(E24,__Sheet1!A:C,3,FALSE)</f>
-        <v>2|5|6</v>
+        <v>3|5|6</v>
       </c>
       <c r="H24" s="6">
         <v>15000</v>
@@ -5298,11 +5296,11 @@
       </c>
       <c r="F25" s="3" t="str">
         <f>VLOOKUP(E25,__Sheet1!A:C,2,FALSE)</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="G25" s="3" t="str">
         <f>VLOOKUP(E25,__Sheet1!A:C,3,FALSE)</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="H25" s="5">
         <v>15000</v>
@@ -5424,11 +5422,11 @@
       </c>
       <c r="F26" s="3" t="str">
         <f>VLOOKUP(E26,__Sheet1!A:C,2,FALSE)</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="G26" s="3" t="str">
         <f>VLOOKUP(E26,__Sheet1!A:C,3,FALSE)</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="H26" s="5">
         <v>15000</v>
@@ -5550,11 +5548,11 @@
       </c>
       <c r="F27" s="3" t="str">
         <f>VLOOKUP(E27,__Sheet1!A:C,2,FALSE)</f>
-        <v>2|0</v>
+        <v>4|0</v>
       </c>
       <c r="G27" s="3" t="str">
         <f>VLOOKUP(E27,__Sheet1!A:C,3,FALSE)</f>
-        <v>1|5|6</v>
+        <v>2|5|6</v>
       </c>
       <c r="H27" s="5">
         <v>15000</v>
@@ -13838,8 +13836,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>

--- a/excels/units/monster/normal.xlsx
+++ b/excels/units/monster/normal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="2" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t>creatur_normal</t>
   </si>
   <si>
-    <t>DOTA_HULL_SIZE_SMALL</t>
+    <t>DOTA_HULL_SIZE_HERO</t>
   </si>
   <si>
     <t>70|30|0</t>
@@ -2208,7 +2208,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{625E1073-A2E4-49F8-ABAC-280EB3F0AF83}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{D7089ABC-2D2F-47E0-A2E9-C81835BC6B52}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
@@ -2521,12 +2521,12 @@
   <sheetPr/>
   <dimension ref="A1:BC103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2966,7 +2966,7 @@
       <c r="AE4" s="4">
         <v>0</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AF4" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG4" s="4" t="s">
@@ -3079,7 +3079,7 @@
       <c r="AE5" s="5">
         <v>0</v>
       </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AF5" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG5" s="5" t="s">
@@ -3192,7 +3192,7 @@
       <c r="AE6" s="6">
         <v>0</v>
       </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AF6" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG6" s="6" t="s">
@@ -3305,7 +3305,7 @@
       <c r="AE7" s="4">
         <v>0</v>
       </c>
-      <c r="AF7" s="4" t="s">
+      <c r="AF7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG7" s="4" t="s">
@@ -3418,7 +3418,7 @@
       <c r="AE8" s="6">
         <v>0</v>
       </c>
-      <c r="AF8" s="6" t="s">
+      <c r="AF8" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG8" s="6" t="s">
@@ -3531,7 +3531,7 @@
       <c r="AE9" s="6">
         <v>0</v>
       </c>
-      <c r="AF9" s="6" t="s">
+      <c r="AF9" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG9" s="6" t="s">
@@ -3982,7 +3982,7 @@
       <c r="AE13" s="4">
         <v>0</v>
       </c>
-      <c r="AF13" s="4" t="s">
+      <c r="AF13" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG13" s="4" t="s">
@@ -4094,7 +4094,7 @@
       <c r="AE14" s="5">
         <v>0</v>
       </c>
-      <c r="AF14" s="5" t="s">
+      <c r="AF14" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG14" s="5" t="s">
@@ -4205,7 +4205,7 @@
       <c r="AE15" s="6">
         <v>0</v>
       </c>
-      <c r="AF15" s="6" t="s">
+      <c r="AF15" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG15" s="6" t="s">
@@ -4429,7 +4429,7 @@
       <c r="AE17" s="5">
         <v>0</v>
       </c>
-      <c r="AF17" s="5" t="s">
+      <c r="AF17" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG17" s="5" t="s">
@@ -4542,7 +4542,7 @@
       <c r="AE18" s="4">
         <v>0</v>
       </c>
-      <c r="AF18" s="4" t="s">
+      <c r="AF18" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG18" s="4" t="s">
@@ -4658,7 +4658,7 @@
       <c r="AE19" s="6">
         <v>0</v>
       </c>
-      <c r="AF19" s="6" t="s">
+      <c r="AF19" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG19" s="6" t="s">
@@ -4773,7 +4773,7 @@
       <c r="AE20" s="6">
         <v>0</v>
       </c>
-      <c r="AF20" s="6" t="s">
+      <c r="AF20" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG20" s="6" t="s">
@@ -4900,7 +4900,7 @@
       <c r="AE21" s="4">
         <v>0</v>
       </c>
-      <c r="AF21" s="4" t="s">
+      <c r="AF21" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG21" s="4" t="s">
@@ -5015,7 +5015,7 @@
       <c r="AE22" s="4">
         <v>0</v>
       </c>
-      <c r="AF22" s="4" t="s">
+      <c r="AF22" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG22" s="4" t="s">
@@ -5130,7 +5130,7 @@
       <c r="AE23" s="4">
         <v>0</v>
       </c>
-      <c r="AF23" s="4" t="s">
+      <c r="AF23" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG23" s="4" t="s">
@@ -5245,7 +5245,7 @@
       <c r="AE24" s="6">
         <v>0</v>
       </c>
-      <c r="AF24" s="6" t="s">
+      <c r="AF24" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG24" s="6" t="s">
@@ -5370,7 +5370,7 @@
       <c r="AE25" s="5">
         <v>0</v>
       </c>
-      <c r="AF25" s="5" t="s">
+      <c r="AF25" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG25" s="5" t="s">
@@ -5496,7 +5496,7 @@
       <c r="AE26" s="5">
         <v>0</v>
       </c>
-      <c r="AF26" s="5" t="s">
+      <c r="AF26" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG26" s="5" t="s">
@@ -5622,7 +5622,7 @@
       <c r="AE27" s="5">
         <v>0</v>
       </c>
-      <c r="AF27" s="5" t="s">
+      <c r="AF27" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG27" s="5" t="s">
@@ -7784,7 +7784,7 @@
       <c r="AE47" s="4">
         <v>0</v>
       </c>
-      <c r="AF47" s="4" t="s">
+      <c r="AF47" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG47" s="4" t="s">
@@ -7891,7 +7891,7 @@
       <c r="AE48" s="4">
         <v>0</v>
       </c>
-      <c r="AF48" s="4" t="s">
+      <c r="AF48" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG48" s="4" t="s">
@@ -7998,7 +7998,7 @@
       <c r="AE49" s="4">
         <v>0</v>
       </c>
-      <c r="AF49" s="4" t="s">
+      <c r="AF49" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG49" s="4" t="s">
@@ -8105,7 +8105,7 @@
       <c r="AE50" s="4">
         <v>0</v>
       </c>
-      <c r="AF50" s="4" t="s">
+      <c r="AF50" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG50" s="4" t="s">
@@ -8212,7 +8212,7 @@
       <c r="AE51" s="4">
         <v>0</v>
       </c>
-      <c r="AF51" s="4" t="s">
+      <c r="AF51" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG51" s="4" t="s">
@@ -8319,7 +8319,7 @@
       <c r="AE52" s="4">
         <v>0</v>
       </c>
-      <c r="AF52" s="4" t="s">
+      <c r="AF52" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG52" s="4" t="s">
@@ -8428,7 +8428,7 @@
       <c r="AE53" s="4">
         <v>0</v>
       </c>
-      <c r="AF53" s="4" t="s">
+      <c r="AF53" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG53" s="4" t="s">
@@ -8535,7 +8535,7 @@
       <c r="AE54" s="4">
         <v>0</v>
       </c>
-      <c r="AF54" s="4" t="s">
+      <c r="AF54" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG54" s="4" t="s">
@@ -8642,7 +8642,7 @@
       <c r="AE55" s="4">
         <v>0</v>
       </c>
-      <c r="AF55" s="4" t="s">
+      <c r="AF55" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG55" s="4" t="s">
@@ -8751,7 +8751,7 @@
       <c r="AE56" s="4">
         <v>0</v>
       </c>
-      <c r="AF56" s="4" t="s">
+      <c r="AF56" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG56" s="4" t="s">
@@ -8858,7 +8858,7 @@
       <c r="AE57" s="4">
         <v>0</v>
       </c>
-      <c r="AF57" s="4" t="s">
+      <c r="AF57" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG57" s="4" t="s">
@@ -8965,7 +8965,7 @@
       <c r="AE58" s="4">
         <v>0</v>
       </c>
-      <c r="AF58" s="4" t="s">
+      <c r="AF58" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG58" s="4" t="s">
@@ -9072,7 +9072,7 @@
       <c r="AE59" s="4">
         <v>0</v>
       </c>
-      <c r="AF59" s="4" t="s">
+      <c r="AF59" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG59" s="4" t="s">
@@ -9179,7 +9179,7 @@
       <c r="AE60" s="4">
         <v>0</v>
       </c>
-      <c r="AF60" s="4" t="s">
+      <c r="AF60" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG60" s="4" t="s">
@@ -9286,7 +9286,7 @@
       <c r="AE61" s="4">
         <v>0</v>
       </c>
-      <c r="AF61" s="4" t="s">
+      <c r="AF61" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG61" s="4" t="s">
@@ -9395,7 +9395,7 @@
       <c r="AE62" s="4">
         <v>0</v>
       </c>
-      <c r="AF62" s="4" t="s">
+      <c r="AF62" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG62" s="4" t="s">
@@ -9502,7 +9502,7 @@
       <c r="AE63" s="4">
         <v>0</v>
       </c>
-      <c r="AF63" s="4" t="s">
+      <c r="AF63" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG63" s="4" t="s">
@@ -9609,7 +9609,7 @@
       <c r="AE64" s="4">
         <v>0</v>
       </c>
-      <c r="AF64" s="4" t="s">
+      <c r="AF64" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG64" s="4" t="s">
@@ -9718,7 +9718,7 @@
       <c r="AE65" s="4">
         <v>0</v>
       </c>
-      <c r="AF65" s="4" t="s">
+      <c r="AF65" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG65" s="4" t="s">
@@ -9825,7 +9825,7 @@
       <c r="AE66" s="5">
         <v>0</v>
       </c>
-      <c r="AF66" s="5" t="s">
+      <c r="AF66" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG66" s="5" t="s">
@@ -9932,7 +9932,7 @@
       <c r="AE67" s="5">
         <v>0</v>
       </c>
-      <c r="AF67" s="5" t="s">
+      <c r="AF67" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG67" s="5" t="s">
@@ -10039,7 +10039,7 @@
       <c r="AE68" s="5">
         <v>0</v>
       </c>
-      <c r="AF68" s="5" t="s">
+      <c r="AF68" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG68" s="5" t="s">
@@ -10146,7 +10146,7 @@
       <c r="AE69" s="5">
         <v>0</v>
       </c>
-      <c r="AF69" s="5" t="s">
+      <c r="AF69" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG69" s="5" t="s">
@@ -10253,7 +10253,7 @@
       <c r="AE70" s="5">
         <v>0</v>
       </c>
-      <c r="AF70" s="5" t="s">
+      <c r="AF70" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG70" s="5" t="s">
@@ -10360,7 +10360,7 @@
       <c r="AE71" s="5">
         <v>0</v>
       </c>
-      <c r="AF71" s="5" t="s">
+      <c r="AF71" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG71" s="5" t="s">
@@ -10469,7 +10469,7 @@
       <c r="AE72" s="5">
         <v>0</v>
       </c>
-      <c r="AF72" s="5" t="s">
+      <c r="AF72" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG72" s="5" t="s">
@@ -10576,7 +10576,7 @@
       <c r="AE73" s="5">
         <v>0</v>
       </c>
-      <c r="AF73" s="5" t="s">
+      <c r="AF73" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG73" s="5" t="s">
@@ -10683,7 +10683,7 @@
       <c r="AE74" s="5">
         <v>0</v>
       </c>
-      <c r="AF74" s="5" t="s">
+      <c r="AF74" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG74" s="5" t="s">
@@ -10792,7 +10792,7 @@
       <c r="AE75" s="5">
         <v>0</v>
       </c>
-      <c r="AF75" s="5" t="s">
+      <c r="AF75" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG75" s="5" t="s">
@@ -10899,7 +10899,7 @@
       <c r="AE76" s="5">
         <v>0</v>
       </c>
-      <c r="AF76" s="5" t="s">
+      <c r="AF76" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG76" s="5" t="s">
@@ -11006,7 +11006,7 @@
       <c r="AE77" s="5">
         <v>0</v>
       </c>
-      <c r="AF77" s="5" t="s">
+      <c r="AF77" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG77" s="5" t="s">
@@ -11113,7 +11113,7 @@
       <c r="AE78" s="5">
         <v>0</v>
       </c>
-      <c r="AF78" s="5" t="s">
+      <c r="AF78" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG78" s="5" t="s">
@@ -11220,7 +11220,7 @@
       <c r="AE79" s="5">
         <v>0</v>
       </c>
-      <c r="AF79" s="5" t="s">
+      <c r="AF79" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG79" s="5" t="s">
@@ -11327,7 +11327,7 @@
       <c r="AE80" s="5">
         <v>0</v>
       </c>
-      <c r="AF80" s="5" t="s">
+      <c r="AF80" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG80" s="5" t="s">
@@ -11436,7 +11436,7 @@
       <c r="AE81" s="5">
         <v>0</v>
       </c>
-      <c r="AF81" s="5" t="s">
+      <c r="AF81" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG81" s="5" t="s">
@@ -11543,7 +11543,7 @@
       <c r="AE82" s="5">
         <v>0</v>
       </c>
-      <c r="AF82" s="5" t="s">
+      <c r="AF82" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG82" s="5" t="s">
@@ -11650,7 +11650,7 @@
       <c r="AE83" s="5">
         <v>0</v>
       </c>
-      <c r="AF83" s="5" t="s">
+      <c r="AF83" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG83" s="5" t="s">
@@ -11759,7 +11759,7 @@
       <c r="AE84" s="5">
         <v>0</v>
       </c>
-      <c r="AF84" s="5" t="s">
+      <c r="AF84" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG84" s="5" t="s">
@@ -11866,7 +11866,7 @@
       <c r="AE85" s="6">
         <v>0</v>
       </c>
-      <c r="AF85" s="6" t="s">
+      <c r="AF85" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG85" s="6" t="s">
@@ -11973,7 +11973,7 @@
       <c r="AE86" s="6">
         <v>0</v>
       </c>
-      <c r="AF86" s="6" t="s">
+      <c r="AF86" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG86" s="6" t="s">
@@ -12080,7 +12080,7 @@
       <c r="AE87" s="6">
         <v>0</v>
       </c>
-      <c r="AF87" s="6" t="s">
+      <c r="AF87" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG87" s="6" t="s">
@@ -12187,7 +12187,7 @@
       <c r="AE88" s="6">
         <v>0</v>
       </c>
-      <c r="AF88" s="6" t="s">
+      <c r="AF88" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG88" s="6" t="s">
@@ -12294,7 +12294,7 @@
       <c r="AE89" s="6">
         <v>0</v>
       </c>
-      <c r="AF89" s="6" t="s">
+      <c r="AF89" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG89" s="6" t="s">
@@ -12401,7 +12401,7 @@
       <c r="AE90" s="6">
         <v>0</v>
       </c>
-      <c r="AF90" s="6" t="s">
+      <c r="AF90" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG90" s="6" t="s">
@@ -12510,7 +12510,7 @@
       <c r="AE91" s="6">
         <v>0</v>
       </c>
-      <c r="AF91" s="6" t="s">
+      <c r="AF91" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG91" s="6" t="s">
@@ -12617,7 +12617,7 @@
       <c r="AE92" s="6">
         <v>0</v>
       </c>
-      <c r="AF92" s="6" t="s">
+      <c r="AF92" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG92" s="6" t="s">
@@ -12724,7 +12724,7 @@
       <c r="AE93" s="6">
         <v>0</v>
       </c>
-      <c r="AF93" s="6" t="s">
+      <c r="AF93" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG93" s="6" t="s">
@@ -12833,7 +12833,7 @@
       <c r="AE94" s="6">
         <v>0</v>
       </c>
-      <c r="AF94" s="6" t="s">
+      <c r="AF94" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG94" s="6" t="s">
@@ -12940,7 +12940,7 @@
       <c r="AE95" s="6">
         <v>0</v>
       </c>
-      <c r="AF95" s="6" t="s">
+      <c r="AF95" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG95" s="6" t="s">
@@ -13047,7 +13047,7 @@
       <c r="AE96" s="6">
         <v>0</v>
       </c>
-      <c r="AF96" s="6" t="s">
+      <c r="AF96" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG96" s="6" t="s">
@@ -13154,7 +13154,7 @@
       <c r="AE97" s="6">
         <v>0</v>
       </c>
-      <c r="AF97" s="6" t="s">
+      <c r="AF97" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG97" s="6" t="s">
@@ -13261,7 +13261,7 @@
       <c r="AE98" s="6">
         <v>0</v>
       </c>
-      <c r="AF98" s="6" t="s">
+      <c r="AF98" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG98" s="6" t="s">
@@ -13368,7 +13368,7 @@
       <c r="AE99" s="6">
         <v>0</v>
       </c>
-      <c r="AF99" s="6" t="s">
+      <c r="AF99" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG99" s="6" t="s">
@@ -13477,7 +13477,7 @@
       <c r="AE100" s="6">
         <v>0</v>
       </c>
-      <c r="AF100" s="6" t="s">
+      <c r="AF100" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG100" s="6" t="s">
@@ -13584,7 +13584,7 @@
       <c r="AE101" s="6">
         <v>0</v>
       </c>
-      <c r="AF101" s="6" t="s">
+      <c r="AF101" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG101" s="6" t="s">
@@ -13691,7 +13691,7 @@
       <c r="AE102" s="6">
         <v>0</v>
       </c>
-      <c r="AF102" s="6" t="s">
+      <c r="AF102" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG102" s="6" t="s">
@@ -13800,7 +13800,7 @@
       <c r="AE103" s="6">
         <v>0</v>
       </c>
-      <c r="AF103" s="6" t="s">
+      <c r="AF103" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AG103" s="6" t="s">
@@ -13836,7 +13836,7 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>

--- a/excels/units/monster/normal.xlsx
+++ b/excels/units/monster/normal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="2" r:id="rId1"/>
@@ -1106,7 +1106,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1136,6 +1136,12 @@
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1295,7 +1301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1347,6 +1353,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1689,31 +1701,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1722,37 +1731,37 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1767,75 +1776,78 @@
     <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1894,6 +1906,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1968,7 +1986,7 @@
     <xf numFmtId="177" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2208,7 +2226,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{D7089ABC-2D2F-47E0-A2E9-C81835BC6B52}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{FDA8697C-39B9-4B1B-BA8A-0970131C88AF}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
@@ -2522,11 +2540,11 @@
   <dimension ref="A1:BC103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF8" sqref="AF8"/>
+      <selection pane="bottomRight" activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2594,14 +2612,14 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="23" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -2626,7 +2644,7 @@
       <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="34" t="s">
         <v>18</v>
       </c>
       <c r="V1" s="2"/>
@@ -2635,7 +2653,7 @@
       <c r="Y1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="Z1" s="40" t="s">
         <v>20</v>
       </c>
       <c r="AA1" s="2" t="s">
@@ -2683,14 +2701,14 @@
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="25" t="s">
         <v>35</v>
       </c>
       <c r="M2" s="18" t="s">
@@ -2715,7 +2733,7 @@
       <c r="T2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="U2" s="35" t="s">
         <v>43</v>
       </c>
       <c r="V2" s="18" t="s">
@@ -2730,7 +2748,7 @@
       <c r="Y2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="41" t="s">
         <v>48</v>
       </c>
       <c r="AA2" s="18" t="s">
@@ -2773,7 +2791,9 @@
       <c r="C3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>2001</v>
+      </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
@@ -2788,7 +2808,7 @@
       <c r="H3" s="3">
         <v>15000</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="26">
         <v>15000</v>
       </c>
       <c r="J3" s="3">
@@ -2797,7 +2817,7 @@
       <c r="K3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="27">
         <v>15000</v>
       </c>
       <c r="M3" s="3">
@@ -2815,7 +2835,7 @@
       <c r="Q3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="36" t="s">
         <v>62</v>
       </c>
       <c r="S3" s="3">
@@ -2824,7 +2844,7 @@
       <c r="T3" s="3">
         <v>1</v>
       </c>
-      <c r="U3" s="25">
+      <c r="U3" s="27">
         <v>170</v>
       </c>
       <c r="V3" s="3" t="s">
@@ -2835,7 +2855,7 @@
       <c r="Y3" s="3">
         <v>200</v>
       </c>
-      <c r="Z3" s="40">
+      <c r="Z3" s="42">
         <v>180</v>
       </c>
       <c r="AA3" s="3" t="s">
@@ -2871,7 +2891,7 @@
       <c r="AK3" s="3">
         <v>13</v>
       </c>
-      <c r="AL3" s="44" t="str">
+      <c r="AL3" s="46" t="str">
         <f t="shared" ref="AL3:AL11" si="0">IF(AJ3&lt;=AK3,"","数据出错")</f>
         <v/>
       </c>
@@ -2886,7 +2906,9 @@
       <c r="C4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4">
+        <v>2011</v>
+      </c>
       <c r="E4" s="4">
         <v>2</v>
       </c>
@@ -2901,16 +2923,16 @@
       <c r="H4" s="4">
         <v>15000</v>
       </c>
-      <c r="I4" s="26">
-        <v>15000</v>
-      </c>
-      <c r="J4" s="26">
+      <c r="I4" s="28">
+        <v>15000</v>
+      </c>
+      <c r="J4" s="28">
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="29">
         <v>15000</v>
       </c>
       <c r="M4" s="4">
@@ -2928,7 +2950,7 @@
       <c r="Q4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="37" t="s">
         <v>72</v>
       </c>
       <c r="S4" s="4">
@@ -2937,7 +2959,7 @@
       <c r="T4" s="4">
         <v>1</v>
       </c>
-      <c r="U4" s="27">
+      <c r="U4" s="29">
         <v>170</v>
       </c>
       <c r="V4" s="4" t="s">
@@ -2948,7 +2970,7 @@
       <c r="Y4" s="4">
         <v>200</v>
       </c>
-      <c r="Z4" s="41">
+      <c r="Z4" s="43">
         <v>180</v>
       </c>
       <c r="AA4" s="4" t="s">
@@ -2984,7 +3006,7 @@
       <c r="AK4" s="4">
         <v>13</v>
       </c>
-      <c r="AL4" s="44" t="str">
+      <c r="AL4" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2999,7 +3021,9 @@
       <c r="C5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>2022</v>
+      </c>
       <c r="E5" s="5">
         <v>3</v>
       </c>
@@ -3014,16 +3038,16 @@
       <c r="H5" s="5">
         <v>15000</v>
       </c>
-      <c r="I5" s="28">
-        <v>15000</v>
-      </c>
-      <c r="J5" s="28">
+      <c r="I5" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J5" s="30">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="31">
         <v>15000</v>
       </c>
       <c r="M5" s="5">
@@ -3041,7 +3065,7 @@
       <c r="Q5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="38" t="s">
         <v>75</v>
       </c>
       <c r="S5" s="5">
@@ -3050,7 +3074,7 @@
       <c r="T5" s="5">
         <v>1</v>
       </c>
-      <c r="U5" s="29">
+      <c r="U5" s="31">
         <v>170</v>
       </c>
       <c r="V5" s="5" t="s">
@@ -3061,7 +3085,7 @@
       <c r="Y5" s="5">
         <v>200</v>
       </c>
-      <c r="Z5" s="42">
+      <c r="Z5" s="44">
         <v>180</v>
       </c>
       <c r="AA5" s="5" t="s">
@@ -3097,7 +3121,7 @@
       <c r="AK5" s="5">
         <v>13</v>
       </c>
-      <c r="AL5" s="44" t="str">
+      <c r="AL5" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3112,7 +3136,9 @@
       <c r="C6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6">
+        <v>2034</v>
+      </c>
       <c r="E6" s="6">
         <v>4</v>
       </c>
@@ -3127,16 +3153,16 @@
       <c r="H6" s="6">
         <v>15000</v>
       </c>
-      <c r="I6" s="30">
-        <v>15000</v>
-      </c>
-      <c r="J6" s="30">
+      <c r="I6" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J6" s="32">
         <v>0</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="33">
         <v>15000</v>
       </c>
       <c r="M6" s="6">
@@ -3154,7 +3180,7 @@
       <c r="Q6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R6" s="37" t="s">
+      <c r="R6" s="39" t="s">
         <v>78</v>
       </c>
       <c r="S6" s="6">
@@ -3163,7 +3189,7 @@
       <c r="T6" s="6">
         <v>1</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U6" s="33">
         <v>170</v>
       </c>
       <c r="V6" s="6" t="s">
@@ -3174,7 +3200,7 @@
       <c r="Y6" s="6">
         <v>200</v>
       </c>
-      <c r="Z6" s="43">
+      <c r="Z6" s="45">
         <v>180</v>
       </c>
       <c r="AA6" s="6" t="s">
@@ -3210,7 +3236,7 @@
       <c r="AK6" s="6">
         <v>13</v>
       </c>
-      <c r="AL6" s="44" t="str">
+      <c r="AL6" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3225,7 +3251,9 @@
       <c r="C7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <v>2012</v>
+      </c>
       <c r="E7" s="4">
         <v>2</v>
       </c>
@@ -3240,7 +3268,7 @@
       <c r="H7" s="4">
         <v>15000</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="28">
         <v>15000</v>
       </c>
       <c r="J7" s="4">
@@ -3249,7 +3277,7 @@
       <c r="K7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="29">
         <v>15000</v>
       </c>
       <c r="M7" s="4">
@@ -3267,7 +3295,7 @@
       <c r="Q7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R7" s="35" t="s">
+      <c r="R7" s="37" t="s">
         <v>81</v>
       </c>
       <c r="S7" s="4">
@@ -3276,7 +3304,7 @@
       <c r="T7" s="4">
         <v>1</v>
       </c>
-      <c r="U7" s="27">
+      <c r="U7" s="29">
         <v>170</v>
       </c>
       <c r="V7" s="4" t="s">
@@ -3287,7 +3315,7 @@
       <c r="Y7" s="4">
         <v>200</v>
       </c>
-      <c r="Z7" s="41">
+      <c r="Z7" s="43">
         <v>180</v>
       </c>
       <c r="AA7" s="4" t="s">
@@ -3323,7 +3351,7 @@
       <c r="AK7" s="4">
         <v>13</v>
       </c>
-      <c r="AL7" s="44" t="str">
+      <c r="AL7" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3338,7 +3366,9 @@
       <c r="C8" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6">
+        <v>2036</v>
+      </c>
       <c r="E8" s="6">
         <v>4</v>
       </c>
@@ -3353,16 +3383,16 @@
       <c r="H8" s="6">
         <v>15000</v>
       </c>
-      <c r="I8" s="30">
-        <v>15000</v>
-      </c>
-      <c r="J8" s="30">
+      <c r="I8" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J8" s="32">
         <v>0</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="33">
         <v>15000</v>
       </c>
       <c r="M8" s="6">
@@ -3380,7 +3410,7 @@
       <c r="Q8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R8" s="37" t="s">
+      <c r="R8" s="39" t="s">
         <v>85</v>
       </c>
       <c r="S8" s="6">
@@ -3389,7 +3419,7 @@
       <c r="T8" s="6">
         <v>1</v>
       </c>
-      <c r="U8" s="31">
+      <c r="U8" s="33">
         <v>170</v>
       </c>
       <c r="V8" s="6" t="s">
@@ -3400,7 +3430,7 @@
       <c r="Y8" s="6">
         <v>200</v>
       </c>
-      <c r="Z8" s="43">
+      <c r="Z8" s="45">
         <v>180</v>
       </c>
       <c r="AA8" s="6" t="s">
@@ -3436,7 +3466,7 @@
       <c r="AK8" s="6">
         <v>13</v>
       </c>
-      <c r="AL8" s="44" t="str">
+      <c r="AL8" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3451,7 +3481,9 @@
       <c r="C9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6">
+        <v>2037</v>
+      </c>
       <c r="E9" s="6">
         <v>4</v>
       </c>
@@ -3466,7 +3498,7 @@
       <c r="H9" s="6">
         <v>15000</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="32">
         <v>15000</v>
       </c>
       <c r="J9" s="6">
@@ -3475,7 +3507,7 @@
       <c r="K9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="33">
         <v>15000</v>
       </c>
       <c r="M9" s="6">
@@ -3493,7 +3525,7 @@
       <c r="Q9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R9" s="37" t="s">
+      <c r="R9" s="39" t="s">
         <v>89</v>
       </c>
       <c r="S9" s="6">
@@ -3502,7 +3534,7 @@
       <c r="T9" s="6">
         <v>1</v>
       </c>
-      <c r="U9" s="31">
+      <c r="U9" s="33">
         <v>170</v>
       </c>
       <c r="V9" s="6" t="s">
@@ -3513,7 +3545,7 @@
       <c r="Y9" s="6">
         <v>200</v>
       </c>
-      <c r="Z9" s="43">
+      <c r="Z9" s="45">
         <v>180</v>
       </c>
       <c r="AA9" s="6" t="s">
@@ -3549,7 +3581,7 @@
       <c r="AK9" s="6">
         <v>13</v>
       </c>
-      <c r="AL9" s="44" t="str">
+      <c r="AL9" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3564,7 +3596,9 @@
       <c r="C10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>2004</v>
+      </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
@@ -3579,16 +3613,16 @@
       <c r="H10" s="3">
         <v>15000</v>
       </c>
-      <c r="I10" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J10" s="24">
+      <c r="I10" s="26">
+        <v>15000</v>
+      </c>
+      <c r="J10" s="26">
         <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="27">
         <v>15000</v>
       </c>
       <c r="M10" s="3">
@@ -3606,7 +3640,7 @@
       <c r="Q10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="34" t="s">
+      <c r="R10" s="36" t="s">
         <v>93</v>
       </c>
       <c r="S10" s="3">
@@ -3615,7 +3649,7 @@
       <c r="T10" s="3">
         <v>1</v>
       </c>
-      <c r="U10" s="25">
+      <c r="U10" s="27">
         <v>170</v>
       </c>
       <c r="V10" s="3" t="s">
@@ -3626,7 +3660,7 @@
       <c r="Y10" s="3">
         <v>200</v>
       </c>
-      <c r="Z10" s="40">
+      <c r="Z10" s="42">
         <v>180</v>
       </c>
       <c r="AA10" s="3" t="s">
@@ -3662,7 +3696,7 @@
       <c r="AK10" s="3">
         <v>13</v>
       </c>
-      <c r="AL10" s="44" t="str">
+      <c r="AL10" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3677,7 +3711,9 @@
       <c r="C11" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>2501</v>
+      </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
@@ -3692,7 +3728,7 @@
       <c r="H11" s="3">
         <v>15000</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="26">
         <v>15000</v>
       </c>
       <c r="J11" s="3">
@@ -3701,7 +3737,7 @@
       <c r="K11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="27">
         <v>15000</v>
       </c>
       <c r="M11" s="3">
@@ -3719,7 +3755,7 @@
       <c r="Q11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R11" s="34" t="s">
+      <c r="R11" s="36" t="s">
         <v>97</v>
       </c>
       <c r="S11" s="3">
@@ -3728,7 +3764,7 @@
       <c r="T11" s="3">
         <v>1</v>
       </c>
-      <c r="U11" s="25">
+      <c r="U11" s="27">
         <v>170</v>
       </c>
       <c r="V11" s="3" t="s">
@@ -3739,7 +3775,7 @@
       <c r="Y11" s="3">
         <v>200</v>
       </c>
-      <c r="Z11" s="40">
+      <c r="Z11" s="42">
         <v>180</v>
       </c>
       <c r="AA11" s="3" t="s">
@@ -3775,7 +3811,7 @@
       <c r="AK11" s="3">
         <v>13</v>
       </c>
-      <c r="AL11" s="44" t="str">
+      <c r="AL11" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3790,7 +3826,9 @@
       <c r="C12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>2508</v>
+      </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
@@ -3805,16 +3843,16 @@
       <c r="H12" s="3">
         <v>15000</v>
       </c>
-      <c r="I12" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J12" s="24">
+      <c r="I12" s="26">
+        <v>15000</v>
+      </c>
+      <c r="J12" s="26">
         <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="27">
         <v>15000</v>
       </c>
       <c r="M12" s="3">
@@ -3832,7 +3870,7 @@
       <c r="Q12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R12" s="34" t="s">
+      <c r="R12" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S12" s="3">
@@ -3841,7 +3879,7 @@
       <c r="T12" s="3">
         <v>1</v>
       </c>
-      <c r="U12" s="25">
+      <c r="U12" s="27">
         <v>170</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3852,7 +3890,7 @@
       <c r="Y12" s="3">
         <v>200</v>
       </c>
-      <c r="Z12" s="40">
+      <c r="Z12" s="42">
         <v>180</v>
       </c>
       <c r="AA12" s="3" t="s">
@@ -3902,7 +3940,9 @@
       <c r="C13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4">
+        <v>2517</v>
+      </c>
       <c r="E13" s="4">
         <v>2</v>
       </c>
@@ -3917,7 +3957,7 @@
       <c r="H13" s="4">
         <v>15000</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="28">
         <v>15000</v>
       </c>
       <c r="J13" s="4">
@@ -3926,7 +3966,7 @@
       <c r="K13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="L13" s="27">
+      <c r="L13" s="29">
         <v>15000</v>
       </c>
       <c r="M13" s="4">
@@ -3944,7 +3984,7 @@
       <c r="Q13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R13" s="35" t="s">
+      <c r="R13" s="37" t="s">
         <v>105</v>
       </c>
       <c r="S13" s="4">
@@ -3953,7 +3993,7 @@
       <c r="T13" s="4">
         <v>1</v>
       </c>
-      <c r="U13" s="27">
+      <c r="U13" s="29">
         <v>170</v>
       </c>
       <c r="V13" s="4" t="s">
@@ -3964,7 +4004,7 @@
       <c r="Y13" s="4">
         <v>200</v>
       </c>
-      <c r="Z13" s="41">
+      <c r="Z13" s="43">
         <v>180</v>
       </c>
       <c r="AA13" s="4" t="s">
@@ -4014,7 +4054,9 @@
       <c r="C14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5">
+        <v>2531</v>
+      </c>
       <c r="E14" s="5">
         <v>3</v>
       </c>
@@ -4029,16 +4071,16 @@
       <c r="H14" s="5">
         <v>15000</v>
       </c>
-      <c r="I14" s="28">
-        <v>15000</v>
-      </c>
-      <c r="J14" s="28">
+      <c r="I14" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J14" s="30">
         <v>0</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="31">
         <v>15000</v>
       </c>
       <c r="M14" s="5">
@@ -4056,7 +4098,7 @@
       <c r="Q14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R14" s="36" t="s">
+      <c r="R14" s="38" t="s">
         <v>108</v>
       </c>
       <c r="S14" s="5">
@@ -4065,7 +4107,7 @@
       <c r="T14" s="5">
         <v>1</v>
       </c>
-      <c r="U14" s="29">
+      <c r="U14" s="31">
         <v>170</v>
       </c>
       <c r="V14" s="5" t="s">
@@ -4076,7 +4118,7 @@
       <c r="Y14" s="5">
         <v>200</v>
       </c>
-      <c r="Z14" s="42">
+      <c r="Z14" s="44">
         <v>180</v>
       </c>
       <c r="AA14" s="5" t="s">
@@ -4125,7 +4167,9 @@
       <c r="C15" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6">
+        <v>2043</v>
+      </c>
       <c r="E15" s="6">
         <v>4</v>
       </c>
@@ -4140,7 +4184,7 @@
       <c r="H15" s="6">
         <v>15000</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="32">
         <v>15000</v>
       </c>
       <c r="J15" s="6">
@@ -4149,7 +4193,7 @@
       <c r="K15" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="33">
         <v>15000</v>
       </c>
       <c r="M15" s="6">
@@ -4167,7 +4211,7 @@
       <c r="Q15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R15" s="37" t="s">
+      <c r="R15" s="39" t="s">
         <v>112</v>
       </c>
       <c r="S15" s="6">
@@ -4176,7 +4220,7 @@
       <c r="T15" s="6">
         <v>1</v>
       </c>
-      <c r="U15" s="31">
+      <c r="U15" s="33">
         <v>170</v>
       </c>
       <c r="V15" s="6" t="s">
@@ -4187,7 +4231,7 @@
       <c r="Y15" s="6">
         <v>200</v>
       </c>
-      <c r="Z15" s="43">
+      <c r="Z15" s="45">
         <v>180</v>
       </c>
       <c r="AA15" s="6" t="s">
@@ -4236,7 +4280,9 @@
       <c r="C16" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>2505</v>
+      </c>
       <c r="E16" s="3">
         <v>1</v>
       </c>
@@ -4251,16 +4297,16 @@
       <c r="H16" s="3">
         <v>15000</v>
       </c>
-      <c r="I16" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J16" s="24">
+      <c r="I16" s="26">
+        <v>15000</v>
+      </c>
+      <c r="J16" s="26">
         <v>0</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="27">
         <v>15000</v>
       </c>
       <c r="M16" s="3">
@@ -4278,7 +4324,7 @@
       <c r="Q16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R16" s="34" t="s">
+      <c r="R16" s="36" t="s">
         <v>116</v>
       </c>
       <c r="S16" s="3">
@@ -4287,7 +4333,7 @@
       <c r="T16" s="3">
         <v>1</v>
       </c>
-      <c r="U16" s="25">
+      <c r="U16" s="27">
         <v>170</v>
       </c>
       <c r="V16" s="3" t="s">
@@ -4298,7 +4344,7 @@
       <c r="Y16" s="3">
         <v>200</v>
       </c>
-      <c r="Z16" s="40">
+      <c r="Z16" s="42">
         <v>180</v>
       </c>
       <c r="AA16" s="3" t="s">
@@ -4349,7 +4395,9 @@
       <c r="C17" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5">
+        <v>2533</v>
+      </c>
       <c r="E17" s="5">
         <v>3</v>
       </c>
@@ -4364,16 +4412,16 @@
       <c r="H17" s="5">
         <v>15000</v>
       </c>
-      <c r="I17" s="28">
-        <v>15000</v>
-      </c>
-      <c r="J17" s="28">
+      <c r="I17" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J17" s="30">
         <v>0</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="31">
         <v>15000</v>
       </c>
       <c r="M17" s="5">
@@ -4391,7 +4439,7 @@
       <c r="Q17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R17" s="36" t="s">
+      <c r="R17" s="38" t="s">
         <v>120</v>
       </c>
       <c r="S17" s="5">
@@ -4400,7 +4448,7 @@
       <c r="T17" s="5">
         <v>1</v>
       </c>
-      <c r="U17" s="29">
+      <c r="U17" s="31">
         <v>170</v>
       </c>
       <c r="V17" s="5" t="s">
@@ -4411,7 +4459,7 @@
       <c r="Y17" s="5">
         <v>200</v>
       </c>
-      <c r="Z17" s="42">
+      <c r="Z17" s="44">
         <v>180</v>
       </c>
       <c r="AA17" s="5" t="s">
@@ -4462,7 +4510,9 @@
       <c r="C18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4">
+        <v>2017</v>
+      </c>
       <c r="E18" s="4">
         <v>2</v>
       </c>
@@ -4477,7 +4527,7 @@
       <c r="H18" s="4">
         <v>15000</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="28">
         <v>15000</v>
       </c>
       <c r="J18" s="4">
@@ -4486,7 +4536,7 @@
       <c r="K18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="29">
         <v>15000</v>
       </c>
       <c r="M18" s="4">
@@ -4504,7 +4554,7 @@
       <c r="Q18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R18" s="35" t="s">
+      <c r="R18" s="37" t="s">
         <v>123</v>
       </c>
       <c r="S18" s="4">
@@ -4513,7 +4563,7 @@
       <c r="T18" s="4">
         <v>1</v>
       </c>
-      <c r="U18" s="27">
+      <c r="U18" s="29">
         <v>170</v>
       </c>
       <c r="V18" s="4" t="s">
@@ -4524,7 +4574,7 @@
       <c r="Y18" s="4">
         <v>200</v>
       </c>
-      <c r="Z18" s="41">
+      <c r="Z18" s="43">
         <v>180</v>
       </c>
       <c r="AA18" s="4" t="s">
@@ -4578,7 +4628,9 @@
       <c r="C19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6">
+        <v>2040</v>
+      </c>
       <c r="E19" s="6">
         <v>4</v>
       </c>
@@ -4593,7 +4645,7 @@
       <c r="H19" s="6">
         <v>15000</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="32">
         <v>15000</v>
       </c>
       <c r="J19" s="6">
@@ -4602,7 +4654,7 @@
       <c r="K19" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="33">
         <v>15000</v>
       </c>
       <c r="M19" s="6">
@@ -4620,7 +4672,7 @@
       <c r="Q19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R19" s="37" t="s">
+      <c r="R19" s="39" t="s">
         <v>126</v>
       </c>
       <c r="S19" s="6">
@@ -4629,7 +4681,7 @@
       <c r="T19" s="6">
         <v>1</v>
       </c>
-      <c r="U19" s="31">
+      <c r="U19" s="33">
         <v>170</v>
       </c>
       <c r="V19" s="6" t="s">
@@ -4640,7 +4692,7 @@
       <c r="Y19" s="6">
         <v>200</v>
       </c>
-      <c r="Z19" s="43">
+      <c r="Z19" s="45">
         <v>180</v>
       </c>
       <c r="AA19" s="6" t="s">
@@ -4693,7 +4745,9 @@
       <c r="C20" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6">
+        <v>2548</v>
+      </c>
       <c r="E20" s="6">
         <v>4</v>
       </c>
@@ -4708,16 +4762,16 @@
       <c r="H20" s="6">
         <v>15000</v>
       </c>
-      <c r="I20" s="30">
-        <v>15000</v>
-      </c>
-      <c r="J20" s="30">
+      <c r="I20" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J20" s="32">
         <v>0</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="33">
         <v>15000</v>
       </c>
       <c r="M20" s="6">
@@ -4735,7 +4789,7 @@
       <c r="Q20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R20" s="37" t="s">
+      <c r="R20" s="39" t="s">
         <v>129</v>
       </c>
       <c r="S20" s="6">
@@ -4744,7 +4798,7 @@
       <c r="T20" s="6">
         <v>1</v>
       </c>
-      <c r="U20" s="31">
+      <c r="U20" s="33">
         <v>170</v>
       </c>
       <c r="V20" s="6" t="s">
@@ -4755,7 +4809,7 @@
       <c r="Y20" s="6">
         <v>200</v>
       </c>
-      <c r="Z20" s="43">
+      <c r="Z20" s="45">
         <v>180</v>
       </c>
       <c r="AA20" s="6" t="s">
@@ -4820,7 +4874,9 @@
       <c r="C21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4">
+        <v>2019</v>
+      </c>
       <c r="E21" s="4">
         <v>2</v>
       </c>
@@ -4835,16 +4891,16 @@
       <c r="H21" s="4">
         <v>15000</v>
       </c>
-      <c r="I21" s="26">
-        <v>15000</v>
-      </c>
-      <c r="J21" s="26">
+      <c r="I21" s="28">
+        <v>15000</v>
+      </c>
+      <c r="J21" s="28">
         <v>0</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="29">
         <v>15000</v>
       </c>
       <c r="M21" s="4">
@@ -4862,7 +4918,7 @@
       <c r="Q21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R21" s="35" t="s">
+      <c r="R21" s="37" t="s">
         <v>132</v>
       </c>
       <c r="S21" s="4">
@@ -4871,7 +4927,7 @@
       <c r="T21" s="4">
         <v>1</v>
       </c>
-      <c r="U21" s="27">
+      <c r="U21" s="29">
         <v>170</v>
       </c>
       <c r="V21" s="4" t="s">
@@ -4882,7 +4938,7 @@
       <c r="Y21" s="4">
         <v>200</v>
       </c>
-      <c r="Z21" s="41">
+      <c r="Z21" s="43">
         <v>180</v>
       </c>
       <c r="AA21" s="4" t="s">
@@ -4935,7 +4991,9 @@
       <c r="C22" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4">
+        <v>2020</v>
+      </c>
       <c r="E22" s="4">
         <v>2</v>
       </c>
@@ -4950,7 +5008,7 @@
       <c r="H22" s="4">
         <v>15000</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="28">
         <v>15000</v>
       </c>
       <c r="J22" s="4">
@@ -4959,7 +5017,7 @@
       <c r="K22" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="29">
         <v>15000</v>
       </c>
       <c r="M22" s="4">
@@ -4977,7 +5035,7 @@
       <c r="Q22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R22" s="35" t="s">
+      <c r="R22" s="37" t="s">
         <v>136</v>
       </c>
       <c r="S22" s="4">
@@ -4986,7 +5044,7 @@
       <c r="T22" s="4">
         <v>1</v>
       </c>
-      <c r="U22" s="27">
+      <c r="U22" s="29">
         <v>170</v>
       </c>
       <c r="V22" s="4" t="s">
@@ -4997,7 +5055,7 @@
       <c r="Y22" s="4">
         <v>200</v>
       </c>
-      <c r="Z22" s="41">
+      <c r="Z22" s="43">
         <v>180</v>
       </c>
       <c r="AA22" s="4" t="s">
@@ -5050,7 +5108,9 @@
       <c r="C23" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4">
+        <v>2021</v>
+      </c>
       <c r="E23" s="4">
         <v>2</v>
       </c>
@@ -5065,16 +5125,16 @@
       <c r="H23" s="4">
         <v>15000</v>
       </c>
-      <c r="I23" s="26">
-        <v>15000</v>
-      </c>
-      <c r="J23" s="26">
+      <c r="I23" s="28">
+        <v>15000</v>
+      </c>
+      <c r="J23" s="28">
         <v>0</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="L23" s="27">
+      <c r="L23" s="29">
         <v>15000</v>
       </c>
       <c r="M23" s="4">
@@ -5092,7 +5152,7 @@
       <c r="Q23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R23" s="35" t="s">
+      <c r="R23" s="37" t="s">
         <v>140</v>
       </c>
       <c r="S23" s="4">
@@ -5101,7 +5161,7 @@
       <c r="T23" s="4">
         <v>1</v>
       </c>
-      <c r="U23" s="27">
+      <c r="U23" s="29">
         <v>170</v>
       </c>
       <c r="V23" s="4" t="s">
@@ -5112,7 +5172,7 @@
       <c r="Y23" s="4">
         <v>200</v>
       </c>
-      <c r="Z23" s="41">
+      <c r="Z23" s="43">
         <v>180</v>
       </c>
       <c r="AA23" s="4" t="s">
@@ -5165,7 +5225,9 @@
       <c r="C24" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6">
+        <v>2549</v>
+      </c>
       <c r="E24" s="6">
         <v>4</v>
       </c>
@@ -5180,7 +5242,7 @@
       <c r="H24" s="6">
         <v>15000</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="32">
         <v>15000</v>
       </c>
       <c r="J24" s="6">
@@ -5189,7 +5251,7 @@
       <c r="K24" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L24" s="33">
         <v>15000</v>
       </c>
       <c r="M24" s="6">
@@ -5207,7 +5269,7 @@
       <c r="Q24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R24" s="37" t="s">
+      <c r="R24" s="39" t="s">
         <v>143</v>
       </c>
       <c r="S24" s="6">
@@ -5216,7 +5278,7 @@
       <c r="T24" s="6">
         <v>1</v>
       </c>
-      <c r="U24" s="31">
+      <c r="U24" s="33">
         <v>170</v>
       </c>
       <c r="V24" s="6" t="s">
@@ -5227,7 +5289,7 @@
       <c r="Y24" s="6">
         <v>200</v>
       </c>
-      <c r="Z24" s="43">
+      <c r="Z24" s="45">
         <v>180</v>
       </c>
       <c r="AA24" s="6" t="s">
@@ -5290,7 +5352,9 @@
       <c r="C25" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5">
+        <v>2031</v>
+      </c>
       <c r="E25" s="5">
         <v>3</v>
       </c>
@@ -5305,16 +5369,16 @@
       <c r="H25" s="5">
         <v>15000</v>
       </c>
-      <c r="I25" s="28">
-        <v>15000</v>
-      </c>
-      <c r="J25" s="28">
+      <c r="I25" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J25" s="30">
         <v>0</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="29">
+      <c r="L25" s="31">
         <v>15000</v>
       </c>
       <c r="M25" s="5">
@@ -5332,7 +5396,7 @@
       <c r="Q25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R25" s="36" t="s">
+      <c r="R25" s="38" t="s">
         <v>146</v>
       </c>
       <c r="S25" s="5">
@@ -5341,7 +5405,7 @@
       <c r="T25" s="5">
         <v>1</v>
       </c>
-      <c r="U25" s="29">
+      <c r="U25" s="31">
         <v>170</v>
       </c>
       <c r="V25" s="5" t="s">
@@ -5352,7 +5416,7 @@
       <c r="Y25" s="5">
         <v>200</v>
       </c>
-      <c r="Z25" s="42">
+      <c r="Z25" s="44">
         <v>180</v>
       </c>
       <c r="AA25" s="5" t="s">
@@ -5416,7 +5480,9 @@
       <c r="C26" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5">
+        <v>2534</v>
+      </c>
       <c r="E26" s="5">
         <v>3</v>
       </c>
@@ -5431,7 +5497,7 @@
       <c r="H26" s="5">
         <v>15000</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="30">
         <v>15000</v>
       </c>
       <c r="J26" s="5">
@@ -5440,7 +5506,7 @@
       <c r="K26" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L26" s="31">
         <v>15000</v>
       </c>
       <c r="M26" s="5">
@@ -5458,7 +5524,7 @@
       <c r="Q26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R26" s="36" t="s">
+      <c r="R26" s="38" t="s">
         <v>149</v>
       </c>
       <c r="S26" s="5">
@@ -5467,7 +5533,7 @@
       <c r="T26" s="5">
         <v>1</v>
       </c>
-      <c r="U26" s="29">
+      <c r="U26" s="31">
         <v>170</v>
       </c>
       <c r="V26" s="5" t="s">
@@ -5478,7 +5544,7 @@
       <c r="Y26" s="5">
         <v>200</v>
       </c>
-      <c r="Z26" s="42">
+      <c r="Z26" s="44">
         <v>180</v>
       </c>
       <c r="AA26" s="5" t="s">
@@ -5542,7 +5608,9 @@
       <c r="C27" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5">
+        <v>2027</v>
+      </c>
       <c r="E27" s="5">
         <v>3</v>
       </c>
@@ -5557,7 +5625,7 @@
       <c r="H27" s="5">
         <v>15000</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="30">
         <v>15000</v>
       </c>
       <c r="J27" s="5">
@@ -5566,7 +5634,7 @@
       <c r="K27" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="L27" s="29">
+      <c r="L27" s="31">
         <v>15000</v>
       </c>
       <c r="M27" s="5">
@@ -5584,7 +5652,7 @@
       <c r="Q27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R27" s="36" t="s">
+      <c r="R27" s="38" t="s">
         <v>152</v>
       </c>
       <c r="S27" s="5">
@@ -5593,7 +5661,7 @@
       <c r="T27" s="5">
         <v>1</v>
       </c>
-      <c r="U27" s="29">
+      <c r="U27" s="31">
         <v>170</v>
       </c>
       <c r="V27" s="5" t="s">
@@ -5604,7 +5672,7 @@
       <c r="Y27" s="5">
         <v>200</v>
       </c>
-      <c r="Z27" s="42">
+      <c r="Z27" s="44">
         <v>180</v>
       </c>
       <c r="AA27" s="5" t="s">
@@ -5665,7 +5733,9 @@
       <c r="C28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="20">
+        <v>2001</v>
+      </c>
       <c r="E28" s="3">
         <v>1</v>
       </c>
@@ -5678,7 +5748,7 @@
       <c r="H28" s="3">
         <v>15000</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="26">
         <v>15000</v>
       </c>
       <c r="J28" s="3">
@@ -5687,7 +5757,7 @@
       <c r="K28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="27">
         <v>15000</v>
       </c>
       <c r="M28" s="3">
@@ -5705,7 +5775,7 @@
       <c r="Q28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R28" s="34" t="s">
+      <c r="R28" s="36" t="s">
         <v>62</v>
       </c>
       <c r="S28" s="3">
@@ -5714,7 +5784,7 @@
       <c r="T28" s="3">
         <v>1</v>
       </c>
-      <c r="U28" s="25">
+      <c r="U28" s="27">
         <v>170</v>
       </c>
       <c r="V28" s="3" t="s">
@@ -5725,7 +5795,7 @@
       <c r="Y28" s="3">
         <v>200</v>
       </c>
-      <c r="Z28" s="40">
+      <c r="Z28" s="42">
         <v>180</v>
       </c>
       <c r="AA28" s="3" t="s">
@@ -5772,7 +5842,9 @@
       <c r="C29" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="21">
+        <v>2002</v>
+      </c>
       <c r="E29" s="3">
         <v>1</v>
       </c>
@@ -5785,16 +5857,16 @@
       <c r="H29" s="3">
         <v>15000</v>
       </c>
-      <c r="I29" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J29" s="24">
+      <c r="I29" s="26">
+        <v>15000</v>
+      </c>
+      <c r="J29" s="26">
         <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="27">
         <v>15000</v>
       </c>
       <c r="M29" s="3">
@@ -5812,7 +5884,7 @@
       <c r="Q29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R29" s="34" t="s">
+      <c r="R29" s="36" t="s">
         <v>156</v>
       </c>
       <c r="S29" s="3">
@@ -5821,7 +5893,7 @@
       <c r="T29" s="3">
         <v>1</v>
       </c>
-      <c r="U29" s="25">
+      <c r="U29" s="27">
         <v>170</v>
       </c>
       <c r="V29" s="3" t="s">
@@ -5832,7 +5904,7 @@
       <c r="Y29" s="3">
         <v>200</v>
       </c>
-      <c r="Z29" s="40">
+      <c r="Z29" s="42">
         <v>180</v>
       </c>
       <c r="AA29" s="3" t="s">
@@ -5879,7 +5951,9 @@
       <c r="C30" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="20">
+        <v>2003</v>
+      </c>
       <c r="E30" s="3">
         <v>1</v>
       </c>
@@ -5892,7 +5966,7 @@
       <c r="H30" s="3">
         <v>15000</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="26">
         <v>15000</v>
       </c>
       <c r="J30" s="3">
@@ -5901,7 +5975,7 @@
       <c r="K30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="27">
         <v>15000</v>
       </c>
       <c r="M30" s="3">
@@ -5919,7 +5993,7 @@
       <c r="Q30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R30" s="34" t="s">
+      <c r="R30" s="36" t="s">
         <v>159</v>
       </c>
       <c r="S30" s="3">
@@ -5928,7 +6002,7 @@
       <c r="T30" s="3">
         <v>1</v>
       </c>
-      <c r="U30" s="25">
+      <c r="U30" s="27">
         <v>170</v>
       </c>
       <c r="V30" s="3" t="s">
@@ -5939,7 +6013,7 @@
       <c r="Y30" s="3">
         <v>200</v>
       </c>
-      <c r="Z30" s="40">
+      <c r="Z30" s="42">
         <v>180</v>
       </c>
       <c r="AA30" s="3" t="s">
@@ -5986,7 +6060,9 @@
       <c r="C31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3">
+        <v>2004</v>
+      </c>
       <c r="E31" s="3">
         <v>1</v>
       </c>
@@ -5999,16 +6075,16 @@
       <c r="H31" s="3">
         <v>15000</v>
       </c>
-      <c r="I31" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J31" s="24">
+      <c r="I31" s="26">
+        <v>15000</v>
+      </c>
+      <c r="J31" s="26">
         <v>0</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L31" s="25">
+      <c r="L31" s="27">
         <v>15000</v>
       </c>
       <c r="M31" s="3">
@@ -6026,7 +6102,7 @@
       <c r="Q31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R31" s="34" t="s">
+      <c r="R31" s="36" t="s">
         <v>93</v>
       </c>
       <c r="S31" s="3">
@@ -6035,7 +6111,7 @@
       <c r="T31" s="3">
         <v>1</v>
       </c>
-      <c r="U31" s="25">
+      <c r="U31" s="27">
         <v>170</v>
       </c>
       <c r="V31" s="3" t="s">
@@ -6046,7 +6122,7 @@
       <c r="Y31" s="3">
         <v>200</v>
       </c>
-      <c r="Z31" s="40">
+      <c r="Z31" s="42">
         <v>180</v>
       </c>
       <c r="AA31" s="3" t="s">
@@ -6093,7 +6169,9 @@
       <c r="C32" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3">
+        <v>2501</v>
+      </c>
       <c r="E32" s="3">
         <v>1</v>
       </c>
@@ -6106,7 +6184,7 @@
       <c r="H32" s="3">
         <v>15000</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="26">
         <v>15000</v>
       </c>
       <c r="J32" s="3">
@@ -6115,7 +6193,7 @@
       <c r="K32" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L32" s="25">
+      <c r="L32" s="27">
         <v>15000</v>
       </c>
       <c r="M32" s="3">
@@ -6133,7 +6211,7 @@
       <c r="Q32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R32" s="34" t="s">
+      <c r="R32" s="36" t="s">
         <v>97</v>
       </c>
       <c r="S32" s="3">
@@ -6142,7 +6220,7 @@
       <c r="T32" s="3">
         <v>1</v>
       </c>
-      <c r="U32" s="25">
+      <c r="U32" s="27">
         <v>170</v>
       </c>
       <c r="V32" s="3" t="s">
@@ -6153,7 +6231,7 @@
       <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="40">
+      <c r="Z32" s="42">
         <v>180</v>
       </c>
       <c r="AA32" s="3" t="s">
@@ -6200,7 +6278,9 @@
       <c r="C33" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3">
+        <v>2005</v>
+      </c>
       <c r="E33" s="3">
         <v>1</v>
       </c>
@@ -6213,16 +6293,16 @@
       <c r="H33" s="3">
         <v>15000</v>
       </c>
-      <c r="I33" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J33" s="24">
+      <c r="I33" s="26">
+        <v>15000</v>
+      </c>
+      <c r="J33" s="26">
         <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L33" s="25">
+      <c r="L33" s="27">
         <v>15000</v>
       </c>
       <c r="M33" s="3">
@@ -6240,7 +6320,7 @@
       <c r="Q33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R33" s="34" t="s">
+      <c r="R33" s="36" t="s">
         <v>164</v>
       </c>
       <c r="S33" s="3">
@@ -6249,7 +6329,7 @@
       <c r="T33" s="3">
         <v>1</v>
       </c>
-      <c r="U33" s="25">
+      <c r="U33" s="27">
         <v>170</v>
       </c>
       <c r="V33" s="3" t="s">
@@ -6260,7 +6340,7 @@
       <c r="Y33" s="3">
         <v>200</v>
       </c>
-      <c r="Z33" s="40">
+      <c r="Z33" s="42">
         <v>180</v>
       </c>
       <c r="AA33" s="3" t="s">
@@ -6307,7 +6387,9 @@
       <c r="C34" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3">
+        <v>2502</v>
+      </c>
       <c r="E34" s="3">
         <v>1</v>
       </c>
@@ -6320,7 +6402,7 @@
       <c r="H34" s="3">
         <v>15000</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="26">
         <v>15000</v>
       </c>
       <c r="J34" s="3">
@@ -6329,7 +6411,7 @@
       <c r="K34" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L34" s="25">
+      <c r="L34" s="27">
         <v>15000</v>
       </c>
       <c r="M34" s="3">
@@ -6347,7 +6429,7 @@
       <c r="Q34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R34" s="34" t="s">
+      <c r="R34" s="36" t="s">
         <v>167</v>
       </c>
       <c r="S34" s="3">
@@ -6356,7 +6438,7 @@
       <c r="T34" s="3">
         <v>1</v>
       </c>
-      <c r="U34" s="25">
+      <c r="U34" s="27">
         <v>170</v>
       </c>
       <c r="V34" s="3" t="s">
@@ -6369,7 +6451,7 @@
       <c r="Y34" s="3">
         <v>200</v>
       </c>
-      <c r="Z34" s="40">
+      <c r="Z34" s="42">
         <v>180</v>
       </c>
       <c r="AA34" s="3" t="s">
@@ -6416,7 +6498,9 @@
       <c r="C35" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3">
+        <v>2503</v>
+      </c>
       <c r="E35" s="3">
         <v>1</v>
       </c>
@@ -6429,16 +6513,16 @@
       <c r="H35" s="3">
         <v>15000</v>
       </c>
-      <c r="I35" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J35" s="24">
+      <c r="I35" s="26">
+        <v>15000</v>
+      </c>
+      <c r="J35" s="26">
         <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L35" s="25">
+      <c r="L35" s="27">
         <v>15000</v>
       </c>
       <c r="M35" s="3">
@@ -6456,7 +6540,7 @@
       <c r="Q35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R35" s="34" t="s">
+      <c r="R35" s="36" t="s">
         <v>171</v>
       </c>
       <c r="S35" s="3">
@@ -6465,7 +6549,7 @@
       <c r="T35" s="3">
         <v>1</v>
       </c>
-      <c r="U35" s="25">
+      <c r="U35" s="27">
         <v>170</v>
       </c>
       <c r="V35" s="3" t="s">
@@ -6476,7 +6560,7 @@
       <c r="Y35" s="3">
         <v>200</v>
       </c>
-      <c r="Z35" s="40">
+      <c r="Z35" s="42">
         <v>180</v>
       </c>
       <c r="AA35" s="3" t="s">
@@ -6523,7 +6607,9 @@
       <c r="C36" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3">
+        <v>2006</v>
+      </c>
       <c r="E36" s="3">
         <v>1</v>
       </c>
@@ -6536,7 +6622,7 @@
       <c r="H36" s="3">
         <v>15000</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="26">
         <v>15000</v>
       </c>
       <c r="J36" s="3">
@@ -6545,7 +6631,7 @@
       <c r="K36" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="L36" s="25">
+      <c r="L36" s="27">
         <v>15000</v>
       </c>
       <c r="M36" s="3">
@@ -6563,7 +6649,7 @@
       <c r="Q36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R36" s="34" t="s">
+      <c r="R36" s="36" t="s">
         <v>175</v>
       </c>
       <c r="S36" s="3">
@@ -6572,7 +6658,7 @@
       <c r="T36" s="3">
         <v>1</v>
       </c>
-      <c r="U36" s="25">
+      <c r="U36" s="27">
         <v>170</v>
       </c>
       <c r="V36" s="3" t="s">
@@ -6583,7 +6669,7 @@
       <c r="Y36" s="3">
         <v>200</v>
       </c>
-      <c r="Z36" s="40">
+      <c r="Z36" s="42">
         <v>180</v>
       </c>
       <c r="AA36" s="3" t="s">
@@ -6630,7 +6716,9 @@
       <c r="C37" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3">
+        <v>2504</v>
+      </c>
       <c r="E37" s="3">
         <v>1</v>
       </c>
@@ -6643,16 +6731,16 @@
       <c r="H37" s="3">
         <v>15000</v>
       </c>
-      <c r="I37" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J37" s="24">
+      <c r="I37" s="26">
+        <v>15000</v>
+      </c>
+      <c r="J37" s="26">
         <v>0</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="L37" s="25">
+      <c r="L37" s="27">
         <v>15000</v>
       </c>
       <c r="M37" s="3">
@@ -6670,7 +6758,7 @@
       <c r="Q37" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R37" s="34" t="s">
+      <c r="R37" s="36" t="s">
         <v>179</v>
       </c>
       <c r="S37" s="3">
@@ -6679,7 +6767,7 @@
       <c r="T37" s="3">
         <v>1</v>
       </c>
-      <c r="U37" s="25">
+      <c r="U37" s="27">
         <v>170</v>
       </c>
       <c r="V37" s="3" t="s">
@@ -6692,7 +6780,7 @@
       <c r="Y37" s="3">
         <v>200</v>
       </c>
-      <c r="Z37" s="40">
+      <c r="Z37" s="42">
         <v>180</v>
       </c>
       <c r="AA37" s="3" t="s">
@@ -6739,7 +6827,9 @@
       <c r="C38" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3">
+        <v>2007</v>
+      </c>
       <c r="E38" s="3">
         <v>1</v>
       </c>
@@ -6752,7 +6842,7 @@
       <c r="H38" s="3">
         <v>15000</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="26">
         <v>15000</v>
       </c>
       <c r="J38" s="3">
@@ -6761,7 +6851,7 @@
       <c r="K38" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L38" s="25">
+      <c r="L38" s="27">
         <v>15000</v>
       </c>
       <c r="M38" s="3">
@@ -6779,7 +6869,7 @@
       <c r="Q38" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R38" s="34" t="s">
+      <c r="R38" s="36" t="s">
         <v>182</v>
       </c>
       <c r="S38" s="3">
@@ -6788,7 +6878,7 @@
       <c r="T38" s="3">
         <v>1</v>
       </c>
-      <c r="U38" s="25">
+      <c r="U38" s="27">
         <v>170</v>
       </c>
       <c r="V38" s="3" t="s">
@@ -6799,7 +6889,7 @@
       <c r="Y38" s="3">
         <v>200</v>
       </c>
-      <c r="Z38" s="40">
+      <c r="Z38" s="42">
         <v>180</v>
       </c>
       <c r="AA38" s="3" t="s">
@@ -6846,7 +6936,9 @@
       <c r="C39" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="21">
+        <v>2008</v>
+      </c>
       <c r="E39" s="3">
         <v>1</v>
       </c>
@@ -6859,16 +6951,16 @@
       <c r="H39" s="3">
         <v>15000</v>
       </c>
-      <c r="I39" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J39" s="24">
+      <c r="I39" s="26">
+        <v>15000</v>
+      </c>
+      <c r="J39" s="26">
         <v>0</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="L39" s="25">
+      <c r="L39" s="27">
         <v>15000</v>
       </c>
       <c r="M39" s="3">
@@ -6886,7 +6978,7 @@
       <c r="Q39" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R39" s="34" t="s">
+      <c r="R39" s="36" t="s">
         <v>186</v>
       </c>
       <c r="S39" s="3">
@@ -6895,7 +6987,7 @@
       <c r="T39" s="3">
         <v>1</v>
       </c>
-      <c r="U39" s="25">
+      <c r="U39" s="27">
         <v>170</v>
       </c>
       <c r="V39" s="3" t="s">
@@ -6906,7 +6998,7 @@
       <c r="Y39" s="3">
         <v>200</v>
       </c>
-      <c r="Z39" s="40">
+      <c r="Z39" s="42">
         <v>180</v>
       </c>
       <c r="AA39" s="3" t="s">
@@ -6953,7 +7045,9 @@
       <c r="C40" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="20">
+        <v>2009</v>
+      </c>
       <c r="E40" s="3">
         <v>1</v>
       </c>
@@ -6966,7 +7060,7 @@
       <c r="H40" s="3">
         <v>15000</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="26">
         <v>15000</v>
       </c>
       <c r="J40" s="3">
@@ -6975,7 +7069,7 @@
       <c r="K40" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L40" s="25">
+      <c r="L40" s="27">
         <v>15000</v>
       </c>
       <c r="M40" s="3">
@@ -6993,7 +7087,7 @@
       <c r="Q40" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R40" s="34" t="s">
+      <c r="R40" s="36" t="s">
         <v>189</v>
       </c>
       <c r="S40" s="3">
@@ -7002,7 +7096,7 @@
       <c r="T40" s="3">
         <v>1</v>
       </c>
-      <c r="U40" s="25">
+      <c r="U40" s="27">
         <v>170</v>
       </c>
       <c r="V40" s="3" t="s">
@@ -7013,7 +7107,7 @@
       <c r="Y40" s="3">
         <v>200</v>
       </c>
-      <c r="Z40" s="40">
+      <c r="Z40" s="42">
         <v>180</v>
       </c>
       <c r="AA40" s="3" t="s">
@@ -7060,7 +7154,9 @@
       <c r="C41" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="20">
+        <v>2505</v>
+      </c>
       <c r="E41" s="3">
         <v>1</v>
       </c>
@@ -7073,16 +7169,16 @@
       <c r="H41" s="3">
         <v>15000</v>
       </c>
-      <c r="I41" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J41" s="24">
+      <c r="I41" s="26">
+        <v>15000</v>
+      </c>
+      <c r="J41" s="26">
         <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L41" s="25">
+      <c r="L41" s="27">
         <v>15000</v>
       </c>
       <c r="M41" s="3">
@@ -7100,7 +7196,7 @@
       <c r="Q41" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R41" s="34" t="s">
+      <c r="R41" s="36" t="s">
         <v>116</v>
       </c>
       <c r="S41" s="3">
@@ -7109,7 +7205,7 @@
       <c r="T41" s="3">
         <v>1</v>
       </c>
-      <c r="U41" s="25">
+      <c r="U41" s="27">
         <v>170</v>
       </c>
       <c r="V41" s="3" t="s">
@@ -7120,7 +7216,7 @@
       <c r="Y41" s="3">
         <v>200</v>
       </c>
-      <c r="Z41" s="40">
+      <c r="Z41" s="42">
         <v>180</v>
       </c>
       <c r="AA41" s="3" t="s">
@@ -7167,7 +7263,9 @@
       <c r="C42" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="21">
+        <v>2506</v>
+      </c>
       <c r="E42" s="3">
         <v>1</v>
       </c>
@@ -7180,7 +7278,7 @@
       <c r="H42" s="3">
         <v>15000</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I42" s="26">
         <v>15000</v>
       </c>
       <c r="J42" s="3">
@@ -7189,7 +7287,7 @@
       <c r="K42" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="L42" s="25">
+      <c r="L42" s="27">
         <v>15000</v>
       </c>
       <c r="M42" s="3">
@@ -7207,7 +7305,7 @@
       <c r="Q42" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R42" s="34" t="s">
+      <c r="R42" s="36" t="s">
         <v>194</v>
       </c>
       <c r="S42" s="3">
@@ -7216,7 +7314,7 @@
       <c r="T42" s="3">
         <v>1</v>
       </c>
-      <c r="U42" s="25">
+      <c r="U42" s="27">
         <v>170</v>
       </c>
       <c r="V42" s="3" t="s">
@@ -7227,7 +7325,7 @@
       <c r="Y42" s="3">
         <v>200</v>
       </c>
-      <c r="Z42" s="40">
+      <c r="Z42" s="42">
         <v>180</v>
       </c>
       <c r="AA42" s="3" t="s">
@@ -7274,7 +7372,9 @@
       <c r="C43" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="20">
+        <v>2507</v>
+      </c>
       <c r="E43" s="3">
         <v>1</v>
       </c>
@@ -7287,7 +7387,7 @@
       <c r="H43" s="3">
         <v>15000</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="26">
         <v>15000</v>
       </c>
       <c r="J43" s="3">
@@ -7296,7 +7396,7 @@
       <c r="K43" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L43" s="25">
+      <c r="L43" s="27">
         <v>15000</v>
       </c>
       <c r="M43" s="3">
@@ -7314,7 +7414,7 @@
       <c r="Q43" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R43" s="34" t="s">
+      <c r="R43" s="36" t="s">
         <v>197</v>
       </c>
       <c r="S43" s="3">
@@ -7323,7 +7423,7 @@
       <c r="T43" s="3">
         <v>1</v>
       </c>
-      <c r="U43" s="25">
+      <c r="U43" s="27">
         <v>170</v>
       </c>
       <c r="V43" s="3" t="s">
@@ -7336,7 +7436,7 @@
       <c r="Y43" s="3">
         <v>200</v>
       </c>
-      <c r="Z43" s="40">
+      <c r="Z43" s="42">
         <v>180</v>
       </c>
       <c r="AA43" s="3" t="s">
@@ -7383,7 +7483,9 @@
       <c r="C44" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="21">
+        <v>2508</v>
+      </c>
       <c r="E44" s="3">
         <v>1</v>
       </c>
@@ -7396,16 +7498,16 @@
       <c r="H44" s="3">
         <v>15000</v>
       </c>
-      <c r="I44" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J44" s="24">
+      <c r="I44" s="26">
+        <v>15000</v>
+      </c>
+      <c r="J44" s="26">
         <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L44" s="25">
+      <c r="L44" s="27">
         <v>15000</v>
       </c>
       <c r="M44" s="3">
@@ -7423,7 +7525,7 @@
       <c r="Q44" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R44" s="34" t="s">
+      <c r="R44" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S44" s="3">
@@ -7432,7 +7534,7 @@
       <c r="T44" s="3">
         <v>1</v>
       </c>
-      <c r="U44" s="25">
+      <c r="U44" s="27">
         <v>170</v>
       </c>
       <c r="V44" s="3" t="s">
@@ -7443,7 +7545,7 @@
       <c r="Y44" s="3">
         <v>200</v>
       </c>
-      <c r="Z44" s="40">
+      <c r="Z44" s="42">
         <v>180</v>
       </c>
       <c r="AA44" s="3" t="s">
@@ -7490,7 +7592,9 @@
       <c r="C45" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="20">
+        <v>2509</v>
+      </c>
       <c r="E45" s="3">
         <v>1</v>
       </c>
@@ -7503,16 +7607,16 @@
       <c r="H45" s="3">
         <v>15000</v>
       </c>
-      <c r="I45" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J45" s="24">
+      <c r="I45" s="26">
+        <v>15000</v>
+      </c>
+      <c r="J45" s="26">
         <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L45" s="25">
+      <c r="L45" s="27">
         <v>15000</v>
       </c>
       <c r="M45" s="3">
@@ -7530,7 +7634,7 @@
       <c r="Q45" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R45" s="34" t="s">
+      <c r="R45" s="36" t="s">
         <v>201</v>
       </c>
       <c r="S45" s="3">
@@ -7539,7 +7643,7 @@
       <c r="T45" s="3">
         <v>1</v>
       </c>
-      <c r="U45" s="25">
+      <c r="U45" s="27">
         <v>170</v>
       </c>
       <c r="V45" s="3" t="s">
@@ -7550,7 +7654,7 @@
       <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="40">
+      <c r="Z45" s="42">
         <v>180</v>
       </c>
       <c r="AA45" s="3" t="s">
@@ -7597,7 +7701,9 @@
       <c r="C46" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="21">
+        <v>2510</v>
+      </c>
       <c r="E46" s="3">
         <v>1</v>
       </c>
@@ -7610,7 +7716,7 @@
       <c r="H46" s="3">
         <v>15000</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I46" s="26">
         <v>15000</v>
       </c>
       <c r="J46" s="3">
@@ -7619,7 +7725,7 @@
       <c r="K46" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L46" s="25">
+      <c r="L46" s="27">
         <v>15000</v>
       </c>
       <c r="M46" s="3">
@@ -7637,7 +7743,7 @@
       <c r="Q46" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R46" s="34" t="s">
+      <c r="R46" s="36" t="s">
         <v>204</v>
       </c>
       <c r="S46" s="3">
@@ -7646,7 +7752,7 @@
       <c r="T46" s="3">
         <v>1</v>
       </c>
-      <c r="U46" s="25">
+      <c r="U46" s="27">
         <v>170</v>
       </c>
       <c r="V46" s="3" t="s">
@@ -7659,7 +7765,7 @@
       <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="40">
+      <c r="Z46" s="42">
         <v>180</v>
       </c>
       <c r="AA46" s="3" t="s">
@@ -7706,7 +7812,9 @@
       <c r="C47" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="4"/>
+      <c r="D47" s="20">
+        <v>2011</v>
+      </c>
       <c r="E47" s="4">
         <v>2</v>
       </c>
@@ -7719,16 +7827,16 @@
       <c r="H47" s="4">
         <v>15000</v>
       </c>
-      <c r="I47" s="26">
-        <v>15000</v>
-      </c>
-      <c r="J47" s="26">
+      <c r="I47" s="28">
+        <v>15000</v>
+      </c>
+      <c r="J47" s="28">
         <v>0</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L47" s="27">
+      <c r="L47" s="29">
         <v>15000</v>
       </c>
       <c r="M47" s="4">
@@ -7746,7 +7854,7 @@
       <c r="Q47" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R47" s="35" t="s">
+      <c r="R47" s="37" t="s">
         <v>72</v>
       </c>
       <c r="S47" s="4">
@@ -7755,7 +7863,7 @@
       <c r="T47" s="4">
         <v>1</v>
       </c>
-      <c r="U47" s="27">
+      <c r="U47" s="29">
         <v>170</v>
       </c>
       <c r="V47" s="4" t="s">
@@ -7766,7 +7874,7 @@
       <c r="Y47" s="4">
         <v>200</v>
       </c>
-      <c r="Z47" s="41">
+      <c r="Z47" s="43">
         <v>180</v>
       </c>
       <c r="AA47" s="4" t="s">
@@ -7813,7 +7921,9 @@
       <c r="C48" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="4"/>
+      <c r="D48" s="21">
+        <v>2012</v>
+      </c>
       <c r="E48" s="4">
         <v>2</v>
       </c>
@@ -7826,7 +7936,7 @@
       <c r="H48" s="4">
         <v>15000</v>
       </c>
-      <c r="I48" s="26">
+      <c r="I48" s="28">
         <v>15000</v>
       </c>
       <c r="J48" s="4">
@@ -7835,7 +7945,7 @@
       <c r="K48" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L48" s="27">
+      <c r="L48" s="29">
         <v>15000</v>
       </c>
       <c r="M48" s="4">
@@ -7853,7 +7963,7 @@
       <c r="Q48" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R48" s="35" t="s">
+      <c r="R48" s="37" t="s">
         <v>81</v>
       </c>
       <c r="S48" s="4">
@@ -7862,7 +7972,7 @@
       <c r="T48" s="4">
         <v>1</v>
       </c>
-      <c r="U48" s="27">
+      <c r="U48" s="29">
         <v>170</v>
       </c>
       <c r="V48" s="4" t="s">
@@ -7873,7 +7983,7 @@
       <c r="Y48" s="4">
         <v>200</v>
       </c>
-      <c r="Z48" s="41">
+      <c r="Z48" s="43">
         <v>180</v>
       </c>
       <c r="AA48" s="4" t="s">
@@ -7920,7 +8030,9 @@
       <c r="C49" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="20">
+        <v>2013</v>
+      </c>
       <c r="E49" s="4">
         <v>2</v>
       </c>
@@ -7933,16 +8045,16 @@
       <c r="H49" s="4">
         <v>15000</v>
       </c>
-      <c r="I49" s="26">
-        <v>15000</v>
-      </c>
-      <c r="J49" s="26">
+      <c r="I49" s="28">
+        <v>15000</v>
+      </c>
+      <c r="J49" s="28">
         <v>0</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L49" s="27">
+      <c r="L49" s="29">
         <v>15000</v>
       </c>
       <c r="M49" s="4">
@@ -7960,7 +8072,7 @@
       <c r="Q49" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R49" s="35" t="s">
+      <c r="R49" s="37" t="s">
         <v>209</v>
       </c>
       <c r="S49" s="4">
@@ -7969,7 +8081,7 @@
       <c r="T49" s="4">
         <v>1</v>
       </c>
-      <c r="U49" s="27">
+      <c r="U49" s="29">
         <v>170</v>
       </c>
       <c r="V49" s="4" t="s">
@@ -7980,7 +8092,7 @@
       <c r="Y49" s="4">
         <v>200</v>
       </c>
-      <c r="Z49" s="41">
+      <c r="Z49" s="43">
         <v>180</v>
       </c>
       <c r="AA49" s="4" t="s">
@@ -8027,7 +8139,9 @@
       <c r="C50" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50" s="21">
+        <v>2014</v>
+      </c>
       <c r="E50" s="4">
         <v>2</v>
       </c>
@@ -8040,7 +8154,7 @@
       <c r="H50" s="4">
         <v>15000</v>
       </c>
-      <c r="I50" s="26">
+      <c r="I50" s="28">
         <v>15000</v>
       </c>
       <c r="J50" s="4">
@@ -8049,7 +8163,7 @@
       <c r="K50" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L50" s="27">
+      <c r="L50" s="29">
         <v>15000</v>
       </c>
       <c r="M50" s="4">
@@ -8067,7 +8181,7 @@
       <c r="Q50" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R50" s="35" t="s">
+      <c r="R50" s="37" t="s">
         <v>212</v>
       </c>
       <c r="S50" s="4">
@@ -8076,7 +8190,7 @@
       <c r="T50" s="4">
         <v>1</v>
       </c>
-      <c r="U50" s="27">
+      <c r="U50" s="29">
         <v>170</v>
       </c>
       <c r="V50" s="4" t="s">
@@ -8087,7 +8201,7 @@
       <c r="Y50" s="4">
         <v>200</v>
       </c>
-      <c r="Z50" s="41">
+      <c r="Z50" s="43">
         <v>180</v>
       </c>
       <c r="AA50" s="4" t="s">
@@ -8134,7 +8248,9 @@
       <c r="C51" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D51" s="4"/>
+      <c r="D51" s="20">
+        <v>2015</v>
+      </c>
       <c r="E51" s="4">
         <v>2</v>
       </c>
@@ -8147,16 +8263,16 @@
       <c r="H51" s="4">
         <v>15000</v>
       </c>
-      <c r="I51" s="26">
-        <v>15000</v>
-      </c>
-      <c r="J51" s="26">
+      <c r="I51" s="28">
+        <v>15000</v>
+      </c>
+      <c r="J51" s="28">
         <v>0</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L51" s="27">
+      <c r="L51" s="29">
         <v>15000</v>
       </c>
       <c r="M51" s="4">
@@ -8174,7 +8290,7 @@
       <c r="Q51" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R51" s="35" t="s">
+      <c r="R51" s="37" t="s">
         <v>215</v>
       </c>
       <c r="S51" s="4">
@@ -8183,7 +8299,7 @@
       <c r="T51" s="4">
         <v>1</v>
       </c>
-      <c r="U51" s="27">
+      <c r="U51" s="29">
         <v>170</v>
       </c>
       <c r="V51" s="4" t="s">
@@ -8194,7 +8310,7 @@
       <c r="Y51" s="4">
         <v>200</v>
       </c>
-      <c r="Z51" s="41">
+      <c r="Z51" s="43">
         <v>180</v>
       </c>
       <c r="AA51" s="4" t="s">
@@ -8241,7 +8357,9 @@
       <c r="C52" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="21">
+        <v>2016</v>
+      </c>
       <c r="E52" s="4">
         <v>2</v>
       </c>
@@ -8254,7 +8372,7 @@
       <c r="H52" s="4">
         <v>15000</v>
       </c>
-      <c r="I52" s="26">
+      <c r="I52" s="28">
         <v>15000</v>
       </c>
       <c r="J52" s="4">
@@ -8263,7 +8381,7 @@
       <c r="K52" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="L52" s="27">
+      <c r="L52" s="29">
         <v>15000</v>
       </c>
       <c r="M52" s="4">
@@ -8281,7 +8399,7 @@
       <c r="Q52" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R52" s="35" t="s">
+      <c r="R52" s="37" t="s">
         <v>218</v>
       </c>
       <c r="S52" s="4">
@@ -8290,7 +8408,7 @@
       <c r="T52" s="4">
         <v>1</v>
       </c>
-      <c r="U52" s="27">
+      <c r="U52" s="29">
         <v>170</v>
       </c>
       <c r="V52" s="4" t="s">
@@ -8301,7 +8419,7 @@
       <c r="Y52" s="4">
         <v>200</v>
       </c>
-      <c r="Z52" s="41">
+      <c r="Z52" s="43">
         <v>180</v>
       </c>
       <c r="AA52" s="4" t="s">
@@ -8348,7 +8466,9 @@
       <c r="C53" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="4">
+        <v>2516</v>
+      </c>
       <c r="E53" s="4">
         <v>2</v>
       </c>
@@ -8361,16 +8481,16 @@
       <c r="H53" s="4">
         <v>15000</v>
       </c>
-      <c r="I53" s="26">
-        <v>15000</v>
-      </c>
-      <c r="J53" s="26">
+      <c r="I53" s="28">
+        <v>15000</v>
+      </c>
+      <c r="J53" s="28">
         <v>0</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="L53" s="27">
+      <c r="L53" s="29">
         <v>15000</v>
       </c>
       <c r="M53" s="4">
@@ -8388,7 +8508,7 @@
       <c r="Q53" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R53" s="35" t="s">
+      <c r="R53" s="37" t="s">
         <v>221</v>
       </c>
       <c r="S53" s="4">
@@ -8397,7 +8517,7 @@
       <c r="T53" s="4">
         <v>1</v>
       </c>
-      <c r="U53" s="27">
+      <c r="U53" s="29">
         <v>170</v>
       </c>
       <c r="V53" s="4" t="s">
@@ -8410,7 +8530,7 @@
       <c r="Y53" s="4">
         <v>200</v>
       </c>
-      <c r="Z53" s="41">
+      <c r="Z53" s="43">
         <v>180</v>
       </c>
       <c r="AA53" s="4" t="s">
@@ -8457,7 +8577,9 @@
       <c r="C54" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="4">
+        <v>2017</v>
+      </c>
       <c r="E54" s="4">
         <v>2</v>
       </c>
@@ -8470,7 +8592,7 @@
       <c r="H54" s="4">
         <v>15000</v>
       </c>
-      <c r="I54" s="26">
+      <c r="I54" s="28">
         <v>15000</v>
       </c>
       <c r="J54" s="4">
@@ -8479,7 +8601,7 @@
       <c r="K54" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="L54" s="27">
+      <c r="L54" s="29">
         <v>15000</v>
       </c>
       <c r="M54" s="4">
@@ -8497,7 +8619,7 @@
       <c r="Q54" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R54" s="35" t="s">
+      <c r="R54" s="37" t="s">
         <v>123</v>
       </c>
       <c r="S54" s="4">
@@ -8506,7 +8628,7 @@
       <c r="T54" s="4">
         <v>1</v>
       </c>
-      <c r="U54" s="27">
+      <c r="U54" s="29">
         <v>170</v>
       </c>
       <c r="V54" s="4" t="s">
@@ -8517,7 +8639,7 @@
       <c r="Y54" s="4">
         <v>200</v>
       </c>
-      <c r="Z54" s="41">
+      <c r="Z54" s="43">
         <v>180</v>
       </c>
       <c r="AA54" s="4" t="s">
@@ -8564,7 +8686,9 @@
       <c r="C55" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="4">
+        <v>2517</v>
+      </c>
       <c r="E55" s="4">
         <v>2</v>
       </c>
@@ -8577,7 +8701,7 @@
       <c r="H55" s="4">
         <v>15000</v>
       </c>
-      <c r="I55" s="26">
+      <c r="I55" s="28">
         <v>15000</v>
       </c>
       <c r="J55" s="4">
@@ -8586,7 +8710,7 @@
       <c r="K55" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="L55" s="27">
+      <c r="L55" s="29">
         <v>15000</v>
       </c>
       <c r="M55" s="4">
@@ -8604,7 +8728,7 @@
       <c r="Q55" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R55" s="35" t="s">
+      <c r="R55" s="37" t="s">
         <v>105</v>
       </c>
       <c r="S55" s="4">
@@ -8613,7 +8737,7 @@
       <c r="T55" s="4">
         <v>1</v>
       </c>
-      <c r="U55" s="27">
+      <c r="U55" s="29">
         <v>170</v>
       </c>
       <c r="V55" s="4" t="s">
@@ -8624,7 +8748,7 @@
       <c r="Y55" s="4">
         <v>200</v>
       </c>
-      <c r="Z55" s="41">
+      <c r="Z55" s="43">
         <v>180</v>
       </c>
       <c r="AA55" s="4" t="s">
@@ -8671,7 +8795,9 @@
       <c r="C56" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D56" s="4"/>
+      <c r="D56" s="4">
+        <v>2560</v>
+      </c>
       <c r="E56" s="4">
         <v>2</v>
       </c>
@@ -8684,16 +8810,16 @@
       <c r="H56" s="4">
         <v>15000</v>
       </c>
-      <c r="I56" s="26">
-        <v>15000</v>
-      </c>
-      <c r="J56" s="26">
+      <c r="I56" s="28">
+        <v>15000</v>
+      </c>
+      <c r="J56" s="28">
         <v>0</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="L56" s="27">
+      <c r="L56" s="29">
         <v>15000</v>
       </c>
       <c r="M56" s="4">
@@ -8711,7 +8837,7 @@
       <c r="Q56" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R56" s="35" t="s">
+      <c r="R56" s="37" t="s">
         <v>226</v>
       </c>
       <c r="S56" s="4">
@@ -8720,7 +8846,7 @@
       <c r="T56" s="4">
         <v>1</v>
       </c>
-      <c r="U56" s="27">
+      <c r="U56" s="29">
         <v>170</v>
       </c>
       <c r="V56" s="4" t="s">
@@ -8733,7 +8859,7 @@
       <c r="Y56" s="4">
         <v>200</v>
       </c>
-      <c r="Z56" s="41">
+      <c r="Z56" s="43">
         <v>180</v>
       </c>
       <c r="AA56" s="4" t="s">
@@ -8780,7 +8906,9 @@
       <c r="C57" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D57" s="4"/>
+      <c r="D57" s="21">
+        <v>2019</v>
+      </c>
       <c r="E57" s="4">
         <v>2</v>
       </c>
@@ -8793,16 +8921,16 @@
       <c r="H57" s="4">
         <v>15000</v>
       </c>
-      <c r="I57" s="26">
-        <v>15000</v>
-      </c>
-      <c r="J57" s="26">
+      <c r="I57" s="28">
+        <v>15000</v>
+      </c>
+      <c r="J57" s="28">
         <v>0</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L57" s="27">
+      <c r="L57" s="29">
         <v>15000</v>
       </c>
       <c r="M57" s="4">
@@ -8820,7 +8948,7 @@
       <c r="Q57" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R57" s="35" t="s">
+      <c r="R57" s="37" t="s">
         <v>132</v>
       </c>
       <c r="S57" s="4">
@@ -8829,7 +8957,7 @@
       <c r="T57" s="4">
         <v>1</v>
       </c>
-      <c r="U57" s="27">
+      <c r="U57" s="29">
         <v>170</v>
       </c>
       <c r="V57" s="4" t="s">
@@ -8840,7 +8968,7 @@
       <c r="Y57" s="4">
         <v>200</v>
       </c>
-      <c r="Z57" s="41">
+      <c r="Z57" s="43">
         <v>180</v>
       </c>
       <c r="AA57" s="4" t="s">
@@ -8887,7 +9015,9 @@
       <c r="C58" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D58" s="4"/>
+      <c r="D58" s="20">
+        <v>2020</v>
+      </c>
       <c r="E58" s="4">
         <v>2</v>
       </c>
@@ -8900,7 +9030,7 @@
       <c r="H58" s="4">
         <v>15000</v>
       </c>
-      <c r="I58" s="26">
+      <c r="I58" s="28">
         <v>15000</v>
       </c>
       <c r="J58" s="4">
@@ -8909,7 +9039,7 @@
       <c r="K58" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="L58" s="27">
+      <c r="L58" s="29">
         <v>15000</v>
       </c>
       <c r="M58" s="4">
@@ -8927,7 +9057,7 @@
       <c r="Q58" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R58" s="35" t="s">
+      <c r="R58" s="37" t="s">
         <v>136</v>
       </c>
       <c r="S58" s="4">
@@ -8936,7 +9066,7 @@
       <c r="T58" s="4">
         <v>1</v>
       </c>
-      <c r="U58" s="27">
+      <c r="U58" s="29">
         <v>170</v>
       </c>
       <c r="V58" s="4" t="s">
@@ -8947,7 +9077,7 @@
       <c r="Y58" s="4">
         <v>200</v>
       </c>
-      <c r="Z58" s="41">
+      <c r="Z58" s="43">
         <v>180</v>
       </c>
       <c r="AA58" s="4" t="s">
@@ -8994,7 +9124,9 @@
       <c r="C59" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" s="21">
+        <v>2021</v>
+      </c>
       <c r="E59" s="4">
         <v>2</v>
       </c>
@@ -9007,16 +9139,16 @@
       <c r="H59" s="4">
         <v>15000</v>
       </c>
-      <c r="I59" s="26">
-        <v>15000</v>
-      </c>
-      <c r="J59" s="26">
+      <c r="I59" s="28">
+        <v>15000</v>
+      </c>
+      <c r="J59" s="28">
         <v>0</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="L59" s="27">
+      <c r="L59" s="29">
         <v>15000</v>
       </c>
       <c r="M59" s="4">
@@ -9034,7 +9166,7 @@
       <c r="Q59" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R59" s="35" t="s">
+      <c r="R59" s="37" t="s">
         <v>140</v>
       </c>
       <c r="S59" s="4">
@@ -9043,7 +9175,7 @@
       <c r="T59" s="4">
         <v>1</v>
       </c>
-      <c r="U59" s="27">
+      <c r="U59" s="29">
         <v>170</v>
       </c>
       <c r="V59" s="4" t="s">
@@ -9054,7 +9186,7 @@
       <c r="Y59" s="4">
         <v>200</v>
       </c>
-      <c r="Z59" s="41">
+      <c r="Z59" s="43">
         <v>180</v>
       </c>
       <c r="AA59" s="4" t="s">
@@ -9101,7 +9233,9 @@
       <c r="C60" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D60" s="4"/>
+      <c r="D60" s="20">
+        <v>2518</v>
+      </c>
       <c r="E60" s="4">
         <v>2</v>
       </c>
@@ -9114,7 +9248,7 @@
       <c r="H60" s="4">
         <v>15000</v>
       </c>
-      <c r="I60" s="26">
+      <c r="I60" s="28">
         <v>15000</v>
       </c>
       <c r="J60" s="4">
@@ -9123,7 +9257,7 @@
       <c r="K60" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="L60" s="27">
+      <c r="L60" s="29">
         <v>15000</v>
       </c>
       <c r="M60" s="4">
@@ -9141,7 +9275,7 @@
       <c r="Q60" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R60" s="35" t="s">
+      <c r="R60" s="37" t="s">
         <v>232</v>
       </c>
       <c r="S60" s="4">
@@ -9150,7 +9284,7 @@
       <c r="T60" s="4">
         <v>1</v>
       </c>
-      <c r="U60" s="27">
+      <c r="U60" s="29">
         <v>170</v>
       </c>
       <c r="V60" s="4" t="s">
@@ -9161,7 +9295,7 @@
       <c r="Y60" s="4">
         <v>200</v>
       </c>
-      <c r="Z60" s="41">
+      <c r="Z60" s="43">
         <v>180</v>
       </c>
       <c r="AA60" s="4" t="s">
@@ -9208,7 +9342,9 @@
       <c r="C61" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="D61" s="21">
+        <v>2519</v>
+      </c>
       <c r="E61" s="4">
         <v>2</v>
       </c>
@@ -9221,7 +9357,7 @@
       <c r="H61" s="4">
         <v>15000</v>
       </c>
-      <c r="I61" s="26">
+      <c r="I61" s="28">
         <v>15000</v>
       </c>
       <c r="J61" s="4">
@@ -9230,7 +9366,7 @@
       <c r="K61" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="L61" s="27">
+      <c r="L61" s="29">
         <v>15000</v>
       </c>
       <c r="M61" s="4">
@@ -9248,7 +9384,7 @@
       <c r="Q61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R61" s="35" t="s">
+      <c r="R61" s="37" t="s">
         <v>235</v>
       </c>
       <c r="S61" s="4">
@@ -9257,7 +9393,7 @@
       <c r="T61" s="4">
         <v>1</v>
       </c>
-      <c r="U61" s="27">
+      <c r="U61" s="29">
         <v>170</v>
       </c>
       <c r="V61" s="4" t="s">
@@ -9268,7 +9404,7 @@
       <c r="Y61" s="4">
         <v>200</v>
       </c>
-      <c r="Z61" s="41">
+      <c r="Z61" s="43">
         <v>180</v>
       </c>
       <c r="AA61" s="4" t="s">
@@ -9315,7 +9451,9 @@
       <c r="C62" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D62" s="4"/>
+      <c r="D62" s="20">
+        <v>2520</v>
+      </c>
       <c r="E62" s="4">
         <v>2</v>
       </c>
@@ -9328,16 +9466,16 @@
       <c r="H62" s="4">
         <v>15000</v>
       </c>
-      <c r="I62" s="26">
-        <v>15000</v>
-      </c>
-      <c r="J62" s="26">
+      <c r="I62" s="28">
+        <v>15000</v>
+      </c>
+      <c r="J62" s="28">
         <v>0</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L62" s="27">
+      <c r="L62" s="29">
         <v>15000</v>
       </c>
       <c r="M62" s="4">
@@ -9355,7 +9493,7 @@
       <c r="Q62" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R62" s="35" t="s">
+      <c r="R62" s="37" t="s">
         <v>238</v>
       </c>
       <c r="S62" s="4">
@@ -9364,7 +9502,7 @@
       <c r="T62" s="4">
         <v>1</v>
       </c>
-      <c r="U62" s="27">
+      <c r="U62" s="29">
         <v>170</v>
       </c>
       <c r="V62" s="4" t="s">
@@ -9377,7 +9515,7 @@
       <c r="Y62" s="4">
         <v>200</v>
       </c>
-      <c r="Z62" s="41">
+      <c r="Z62" s="43">
         <v>180</v>
       </c>
       <c r="AA62" s="4" t="s">
@@ -9424,7 +9562,9 @@
       <c r="C63" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="D63" s="21">
+        <v>2521</v>
+      </c>
       <c r="E63" s="4">
         <v>2</v>
       </c>
@@ -9437,16 +9577,16 @@
       <c r="H63" s="4">
         <v>15000</v>
       </c>
-      <c r="I63" s="26">
-        <v>15000</v>
-      </c>
-      <c r="J63" s="26">
+      <c r="I63" s="28">
+        <v>15000</v>
+      </c>
+      <c r="J63" s="28">
         <v>0</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L63" s="27">
+      <c r="L63" s="29">
         <v>15000</v>
       </c>
       <c r="M63" s="4">
@@ -9464,7 +9604,7 @@
       <c r="Q63" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R63" s="35" t="s">
+      <c r="R63" s="37" t="s">
         <v>241</v>
       </c>
       <c r="S63" s="4">
@@ -9473,7 +9613,7 @@
       <c r="T63" s="4">
         <v>1</v>
       </c>
-      <c r="U63" s="27">
+      <c r="U63" s="29">
         <v>170</v>
       </c>
       <c r="V63" s="4" t="s">
@@ -9484,7 +9624,7 @@
       <c r="Y63" s="4">
         <v>200</v>
       </c>
-      <c r="Z63" s="41">
+      <c r="Z63" s="43">
         <v>180</v>
       </c>
       <c r="AA63" s="4" t="s">
@@ -9531,7 +9671,9 @@
       <c r="C64" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D64" s="4"/>
+      <c r="D64" s="20">
+        <v>2522</v>
+      </c>
       <c r="E64" s="4">
         <v>2</v>
       </c>
@@ -9544,7 +9686,7 @@
       <c r="H64" s="4">
         <v>15000</v>
       </c>
-      <c r="I64" s="26">
+      <c r="I64" s="28">
         <v>15000</v>
       </c>
       <c r="J64" s="4">
@@ -9553,7 +9695,7 @@
       <c r="K64" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L64" s="27">
+      <c r="L64" s="29">
         <v>15000</v>
       </c>
       <c r="M64" s="4">
@@ -9571,7 +9713,7 @@
       <c r="Q64" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R64" s="35" t="s">
+      <c r="R64" s="37" t="s">
         <v>244</v>
       </c>
       <c r="S64" s="4">
@@ -9580,7 +9722,7 @@
       <c r="T64" s="4">
         <v>1</v>
       </c>
-      <c r="U64" s="27">
+      <c r="U64" s="29">
         <v>170</v>
       </c>
       <c r="V64" s="4" t="s">
@@ -9591,7 +9733,7 @@
       <c r="Y64" s="4">
         <v>200</v>
       </c>
-      <c r="Z64" s="41">
+      <c r="Z64" s="43">
         <v>180</v>
       </c>
       <c r="AA64" s="4" t="s">
@@ -9638,7 +9780,9 @@
       <c r="C65" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65" s="21">
+        <v>2523</v>
+      </c>
       <c r="E65" s="4">
         <v>2</v>
       </c>
@@ -9651,7 +9795,7 @@
       <c r="H65" s="4">
         <v>15000</v>
       </c>
-      <c r="I65" s="26">
+      <c r="I65" s="28">
         <v>15000</v>
       </c>
       <c r="J65" s="4">
@@ -9660,7 +9804,7 @@
       <c r="K65" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L65" s="27">
+      <c r="L65" s="29">
         <v>15000</v>
       </c>
       <c r="M65" s="4">
@@ -9678,7 +9822,7 @@
       <c r="Q65" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R65" s="35" t="s">
+      <c r="R65" s="37" t="s">
         <v>247</v>
       </c>
       <c r="S65" s="4">
@@ -9687,7 +9831,7 @@
       <c r="T65" s="4">
         <v>1</v>
       </c>
-      <c r="U65" s="27">
+      <c r="U65" s="29">
         <v>170</v>
       </c>
       <c r="V65" s="4" t="s">
@@ -9700,7 +9844,7 @@
       <c r="Y65" s="4">
         <v>200</v>
       </c>
-      <c r="Z65" s="41">
+      <c r="Z65" s="43">
         <v>180</v>
       </c>
       <c r="AA65" s="4" t="s">
@@ -9747,7 +9891,9 @@
       <c r="C66" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="5"/>
+      <c r="D66" s="20">
+        <v>2022</v>
+      </c>
       <c r="E66" s="5">
         <v>3</v>
       </c>
@@ -9760,16 +9906,16 @@
       <c r="H66" s="5">
         <v>15000</v>
       </c>
-      <c r="I66" s="28">
-        <v>15000</v>
-      </c>
-      <c r="J66" s="28">
+      <c r="I66" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J66" s="30">
         <v>0</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L66" s="29">
+      <c r="L66" s="31">
         <v>15000</v>
       </c>
       <c r="M66" s="5">
@@ -9787,7 +9933,7 @@
       <c r="Q66" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R66" s="36" t="s">
+      <c r="R66" s="38" t="s">
         <v>75</v>
       </c>
       <c r="S66" s="5">
@@ -9796,7 +9942,7 @@
       <c r="T66" s="5">
         <v>1</v>
       </c>
-      <c r="U66" s="29">
+      <c r="U66" s="31">
         <v>170</v>
       </c>
       <c r="V66" s="5" t="s">
@@ -9807,7 +9953,7 @@
       <c r="Y66" s="5">
         <v>200</v>
       </c>
-      <c r="Z66" s="42">
+      <c r="Z66" s="44">
         <v>180</v>
       </c>
       <c r="AA66" s="5" t="s">
@@ -9854,7 +10000,9 @@
       <c r="C67" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D67" s="5"/>
+      <c r="D67" s="21">
+        <v>2023</v>
+      </c>
       <c r="E67" s="5">
         <v>3</v>
       </c>
@@ -9867,7 +10015,7 @@
       <c r="H67" s="5">
         <v>15000</v>
       </c>
-      <c r="I67" s="28">
+      <c r="I67" s="30">
         <v>15000</v>
       </c>
       <c r="J67" s="5">
@@ -9876,7 +10024,7 @@
       <c r="K67" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L67" s="29">
+      <c r="L67" s="31">
         <v>15000</v>
       </c>
       <c r="M67" s="5">
@@ -9894,7 +10042,7 @@
       <c r="Q67" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R67" s="36" t="s">
+      <c r="R67" s="38" t="s">
         <v>251</v>
       </c>
       <c r="S67" s="5">
@@ -9903,7 +10051,7 @@
       <c r="T67" s="5">
         <v>1</v>
       </c>
-      <c r="U67" s="29">
+      <c r="U67" s="31">
         <v>170</v>
       </c>
       <c r="V67" s="5" t="s">
@@ -9914,7 +10062,7 @@
       <c r="Y67" s="5">
         <v>200</v>
       </c>
-      <c r="Z67" s="42">
+      <c r="Z67" s="44">
         <v>180</v>
       </c>
       <c r="AA67" s="5" t="s">
@@ -9961,7 +10109,9 @@
       <c r="C68" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D68" s="5"/>
+      <c r="D68" s="20">
+        <v>2024</v>
+      </c>
       <c r="E68" s="5">
         <v>3</v>
       </c>
@@ -9974,16 +10124,16 @@
       <c r="H68" s="5">
         <v>15000</v>
       </c>
-      <c r="I68" s="28">
-        <v>15000</v>
-      </c>
-      <c r="J68" s="28">
+      <c r="I68" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J68" s="30">
         <v>0</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L68" s="29">
+      <c r="L68" s="31">
         <v>15000</v>
       </c>
       <c r="M68" s="5">
@@ -10001,7 +10151,7 @@
       <c r="Q68" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R68" s="36" t="s">
+      <c r="R68" s="38" t="s">
         <v>254</v>
       </c>
       <c r="S68" s="5">
@@ -10010,7 +10160,7 @@
       <c r="T68" s="5">
         <v>1</v>
       </c>
-      <c r="U68" s="29">
+      <c r="U68" s="31">
         <v>170</v>
       </c>
       <c r="V68" s="5" t="s">
@@ -10021,7 +10171,7 @@
       <c r="Y68" s="5">
         <v>200</v>
       </c>
-      <c r="Z68" s="42">
+      <c r="Z68" s="44">
         <v>180</v>
       </c>
       <c r="AA68" s="5" t="s">
@@ -10068,7 +10218,9 @@
       <c r="C69" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D69" s="5"/>
+      <c r="D69" s="21">
+        <v>2025</v>
+      </c>
       <c r="E69" s="5">
         <v>3</v>
       </c>
@@ -10081,7 +10233,7 @@
       <c r="H69" s="5">
         <v>15000</v>
       </c>
-      <c r="I69" s="28">
+      <c r="I69" s="30">
         <v>15000</v>
       </c>
       <c r="J69" s="5">
@@ -10090,7 +10242,7 @@
       <c r="K69" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="L69" s="29">
+      <c r="L69" s="31">
         <v>15000</v>
       </c>
       <c r="M69" s="5">
@@ -10108,7 +10260,7 @@
       <c r="Q69" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R69" s="36" t="s">
+      <c r="R69" s="38" t="s">
         <v>257</v>
       </c>
       <c r="S69" s="5">
@@ -10117,7 +10269,7 @@
       <c r="T69" s="5">
         <v>1</v>
       </c>
-      <c r="U69" s="29">
+      <c r="U69" s="31">
         <v>170</v>
       </c>
       <c r="V69" s="5" t="s">
@@ -10128,7 +10280,7 @@
       <c r="Y69" s="5">
         <v>200</v>
       </c>
-      <c r="Z69" s="42">
+      <c r="Z69" s="44">
         <v>180</v>
       </c>
       <c r="AA69" s="5" t="s">
@@ -10175,7 +10327,9 @@
       <c r="C70" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D70" s="5"/>
+      <c r="D70" s="5">
+        <v>2531</v>
+      </c>
       <c r="E70" s="5">
         <v>3</v>
       </c>
@@ -10188,16 +10342,16 @@
       <c r="H70" s="5">
         <v>15000</v>
       </c>
-      <c r="I70" s="28">
-        <v>15000</v>
-      </c>
-      <c r="J70" s="28">
+      <c r="I70" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J70" s="30">
         <v>0</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="L70" s="29">
+      <c r="L70" s="31">
         <v>15000</v>
       </c>
       <c r="M70" s="5">
@@ -10215,7 +10369,7 @@
       <c r="Q70" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R70" s="36" t="s">
+      <c r="R70" s="38" t="s">
         <v>108</v>
       </c>
       <c r="S70" s="5">
@@ -10224,7 +10378,7 @@
       <c r="T70" s="5">
         <v>1</v>
       </c>
-      <c r="U70" s="29">
+      <c r="U70" s="31">
         <v>170</v>
       </c>
       <c r="V70" s="5" t="s">
@@ -10235,7 +10389,7 @@
       <c r="Y70" s="5">
         <v>200</v>
       </c>
-      <c r="Z70" s="42">
+      <c r="Z70" s="44">
         <v>180</v>
       </c>
       <c r="AA70" s="5" t="s">
@@ -10282,7 +10436,9 @@
       <c r="C71" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D71" s="5"/>
+      <c r="D71" s="5">
+        <v>2026</v>
+      </c>
       <c r="E71" s="5">
         <v>3</v>
       </c>
@@ -10295,7 +10451,7 @@
       <c r="H71" s="5">
         <v>15000</v>
       </c>
-      <c r="I71" s="28">
+      <c r="I71" s="30">
         <v>15000</v>
       </c>
       <c r="J71" s="5">
@@ -10304,7 +10460,7 @@
       <c r="K71" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="L71" s="29">
+      <c r="L71" s="31">
         <v>15000</v>
       </c>
       <c r="M71" s="5">
@@ -10322,7 +10478,7 @@
       <c r="Q71" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R71" s="36" t="s">
+      <c r="R71" s="38" t="s">
         <v>261</v>
       </c>
       <c r="S71" s="5">
@@ -10331,7 +10487,7 @@
       <c r="T71" s="5">
         <v>1</v>
       </c>
-      <c r="U71" s="29">
+      <c r="U71" s="31">
         <v>170</v>
       </c>
       <c r="V71" s="5" t="s">
@@ -10342,7 +10498,7 @@
       <c r="Y71" s="5">
         <v>200</v>
       </c>
-      <c r="Z71" s="42">
+      <c r="Z71" s="44">
         <v>180</v>
       </c>
       <c r="AA71" s="5" t="s">
@@ -10389,7 +10545,9 @@
       <c r="C72" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D72" s="5"/>
+      <c r="D72" s="5">
+        <v>2532</v>
+      </c>
       <c r="E72" s="5">
         <v>3</v>
       </c>
@@ -10402,16 +10560,16 @@
       <c r="H72" s="5">
         <v>15000</v>
       </c>
-      <c r="I72" s="28">
-        <v>15000</v>
-      </c>
-      <c r="J72" s="28">
+      <c r="I72" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J72" s="30">
         <v>0</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="L72" s="29">
+      <c r="L72" s="31">
         <v>15000</v>
       </c>
       <c r="M72" s="5">
@@ -10429,7 +10587,7 @@
       <c r="Q72" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R72" s="36" t="s">
+      <c r="R72" s="38" t="s">
         <v>264</v>
       </c>
       <c r="S72" s="5">
@@ -10438,7 +10596,7 @@
       <c r="T72" s="5">
         <v>1</v>
       </c>
-      <c r="U72" s="29">
+      <c r="U72" s="31">
         <v>170</v>
       </c>
       <c r="V72" s="5" t="s">
@@ -10451,7 +10609,7 @@
       <c r="Y72" s="5">
         <v>200</v>
       </c>
-      <c r="Z72" s="42">
+      <c r="Z72" s="44">
         <v>180</v>
       </c>
       <c r="AA72" s="5" t="s">
@@ -10498,7 +10656,9 @@
       <c r="C73" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D73" s="5"/>
+      <c r="D73" s="21">
+        <v>2027</v>
+      </c>
       <c r="E73" s="5">
         <v>3</v>
       </c>
@@ -10511,7 +10671,7 @@
       <c r="H73" s="5">
         <v>15000</v>
       </c>
-      <c r="I73" s="28">
+      <c r="I73" s="30">
         <v>15000</v>
       </c>
       <c r="J73" s="5">
@@ -10520,7 +10680,7 @@
       <c r="K73" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="L73" s="29">
+      <c r="L73" s="31">
         <v>15000</v>
       </c>
       <c r="M73" s="5">
@@ -10538,7 +10698,7 @@
       <c r="Q73" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R73" s="36" t="s">
+      <c r="R73" s="38" t="s">
         <v>152</v>
       </c>
       <c r="S73" s="5">
@@ -10547,7 +10707,7 @@
       <c r="T73" s="5">
         <v>1</v>
       </c>
-      <c r="U73" s="29">
+      <c r="U73" s="31">
         <v>170</v>
       </c>
       <c r="V73" s="5" t="s">
@@ -10558,7 +10718,7 @@
       <c r="Y73" s="5">
         <v>200</v>
       </c>
-      <c r="Z73" s="42">
+      <c r="Z73" s="44">
         <v>180</v>
       </c>
       <c r="AA73" s="5" t="s">
@@ -10605,7 +10765,9 @@
       <c r="C74" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D74" s="5"/>
+      <c r="D74" s="20">
+        <v>2028</v>
+      </c>
       <c r="E74" s="5">
         <v>3</v>
       </c>
@@ -10618,7 +10780,7 @@
       <c r="H74" s="5">
         <v>15000</v>
       </c>
-      <c r="I74" s="28">
+      <c r="I74" s="30">
         <v>15000</v>
       </c>
       <c r="J74" s="5">
@@ -10627,7 +10789,7 @@
       <c r="K74" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="L74" s="29">
+      <c r="L74" s="31">
         <v>15000</v>
       </c>
       <c r="M74" s="5">
@@ -10645,7 +10807,7 @@
       <c r="Q74" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R74" s="36" t="s">
+      <c r="R74" s="38" t="s">
         <v>268</v>
       </c>
       <c r="S74" s="5">
@@ -10654,7 +10816,7 @@
       <c r="T74" s="5">
         <v>1</v>
       </c>
-      <c r="U74" s="29">
+      <c r="U74" s="31">
         <v>170</v>
       </c>
       <c r="V74" s="5" t="s">
@@ -10665,7 +10827,7 @@
       <c r="Y74" s="5">
         <v>200</v>
       </c>
-      <c r="Z74" s="42">
+      <c r="Z74" s="44">
         <v>180</v>
       </c>
       <c r="AA74" s="5" t="s">
@@ -10712,7 +10874,9 @@
       <c r="C75" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="D75" s="5"/>
+      <c r="D75" s="21">
+        <v>2029</v>
+      </c>
       <c r="E75" s="5">
         <v>3</v>
       </c>
@@ -10725,16 +10889,16 @@
       <c r="H75" s="5">
         <v>15000</v>
       </c>
-      <c r="I75" s="28">
-        <v>15000</v>
-      </c>
-      <c r="J75" s="28">
+      <c r="I75" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J75" s="30">
         <v>0</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="L75" s="29">
+      <c r="L75" s="31">
         <v>15000</v>
       </c>
       <c r="M75" s="5">
@@ -10752,7 +10916,7 @@
       <c r="Q75" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R75" s="36" t="s">
+      <c r="R75" s="38" t="s">
         <v>271</v>
       </c>
       <c r="S75" s="5">
@@ -10761,7 +10925,7 @@
       <c r="T75" s="5">
         <v>1</v>
       </c>
-      <c r="U75" s="29">
+      <c r="U75" s="31">
         <v>170</v>
       </c>
       <c r="V75" s="5" t="s">
@@ -10774,7 +10938,7 @@
       <c r="Y75" s="5">
         <v>200</v>
       </c>
-      <c r="Z75" s="42">
+      <c r="Z75" s="44">
         <v>180</v>
       </c>
       <c r="AA75" s="5" t="s">
@@ -10821,7 +10985,9 @@
       <c r="C76" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D76" s="5"/>
+      <c r="D76" s="21">
+        <v>2533</v>
+      </c>
       <c r="E76" s="5">
         <v>3</v>
       </c>
@@ -10834,16 +11000,16 @@
       <c r="H76" s="5">
         <v>15000</v>
       </c>
-      <c r="I76" s="28">
-        <v>15000</v>
-      </c>
-      <c r="J76" s="28">
+      <c r="I76" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J76" s="30">
         <v>0</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="L76" s="29">
+      <c r="L76" s="31">
         <v>15000</v>
       </c>
       <c r="M76" s="5">
@@ -10861,7 +11027,7 @@
       <c r="Q76" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R76" s="36" t="s">
+      <c r="R76" s="38" t="s">
         <v>120</v>
       </c>
       <c r="S76" s="5">
@@ -10870,7 +11036,7 @@
       <c r="T76" s="5">
         <v>1</v>
       </c>
-      <c r="U76" s="29">
+      <c r="U76" s="31">
         <v>170</v>
       </c>
       <c r="V76" s="5" t="s">
@@ -10881,7 +11047,7 @@
       <c r="Y76" s="5">
         <v>200</v>
       </c>
-      <c r="Z76" s="42">
+      <c r="Z76" s="44">
         <v>180</v>
       </c>
       <c r="AA76" s="5" t="s">
@@ -10928,7 +11094,9 @@
       <c r="C77" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D77" s="5"/>
+      <c r="D77" s="20">
+        <v>2030</v>
+      </c>
       <c r="E77" s="5">
         <v>3</v>
       </c>
@@ -10941,7 +11109,7 @@
       <c r="H77" s="5">
         <v>15000</v>
       </c>
-      <c r="I77" s="28">
+      <c r="I77" s="30">
         <v>15000</v>
       </c>
       <c r="J77" s="5">
@@ -10950,7 +11118,7 @@
       <c r="K77" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="L77" s="29">
+      <c r="L77" s="31">
         <v>15000</v>
       </c>
       <c r="M77" s="5">
@@ -10968,7 +11136,7 @@
       <c r="Q77" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R77" s="36" t="s">
+      <c r="R77" s="38" t="s">
         <v>275</v>
       </c>
       <c r="S77" s="5">
@@ -10977,7 +11145,7 @@
       <c r="T77" s="5">
         <v>1</v>
       </c>
-      <c r="U77" s="29">
+      <c r="U77" s="31">
         <v>170</v>
       </c>
       <c r="V77" s="5" t="s">
@@ -10988,7 +11156,7 @@
       <c r="Y77" s="5">
         <v>200</v>
       </c>
-      <c r="Z77" s="42">
+      <c r="Z77" s="44">
         <v>180</v>
       </c>
       <c r="AA77" s="5" t="s">
@@ -11035,7 +11203,9 @@
       <c r="C78" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D78" s="5"/>
+      <c r="D78" s="21">
+        <v>2031</v>
+      </c>
       <c r="E78" s="5">
         <v>3</v>
       </c>
@@ -11048,16 +11218,16 @@
       <c r="H78" s="5">
         <v>15000</v>
       </c>
-      <c r="I78" s="28">
-        <v>15000</v>
-      </c>
-      <c r="J78" s="28">
+      <c r="I78" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J78" s="30">
         <v>0</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="L78" s="29">
+      <c r="L78" s="31">
         <v>15000</v>
       </c>
       <c r="M78" s="5">
@@ -11075,7 +11245,7 @@
       <c r="Q78" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R78" s="36" t="s">
+      <c r="R78" s="38" t="s">
         <v>146</v>
       </c>
       <c r="S78" s="5">
@@ -11084,7 +11254,7 @@
       <c r="T78" s="5">
         <v>1</v>
       </c>
-      <c r="U78" s="29">
+      <c r="U78" s="31">
         <v>170</v>
       </c>
       <c r="V78" s="5" t="s">
@@ -11095,7 +11265,7 @@
       <c r="Y78" s="5">
         <v>200</v>
       </c>
-      <c r="Z78" s="42">
+      <c r="Z78" s="44">
         <v>180</v>
       </c>
       <c r="AA78" s="5" t="s">
@@ -11142,7 +11312,9 @@
       <c r="C79" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D79" s="5"/>
+      <c r="D79" s="20">
+        <v>2534</v>
+      </c>
       <c r="E79" s="5">
         <v>3</v>
       </c>
@@ -11155,7 +11327,7 @@
       <c r="H79" s="5">
         <v>15000</v>
       </c>
-      <c r="I79" s="28">
+      <c r="I79" s="30">
         <v>15000</v>
       </c>
       <c r="J79" s="5">
@@ -11164,7 +11336,7 @@
       <c r="K79" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L79" s="29">
+      <c r="L79" s="31">
         <v>15000</v>
       </c>
       <c r="M79" s="5">
@@ -11182,7 +11354,7 @@
       <c r="Q79" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R79" s="36" t="s">
+      <c r="R79" s="38" t="s">
         <v>149</v>
       </c>
       <c r="S79" s="5">
@@ -11191,7 +11363,7 @@
       <c r="T79" s="5">
         <v>1</v>
       </c>
-      <c r="U79" s="29">
+      <c r="U79" s="31">
         <v>170</v>
       </c>
       <c r="V79" s="5" t="s">
@@ -11202,7 +11374,7 @@
       <c r="Y79" s="5">
         <v>200</v>
       </c>
-      <c r="Z79" s="42">
+      <c r="Z79" s="44">
         <v>180</v>
       </c>
       <c r="AA79" s="5" t="s">
@@ -11249,7 +11421,9 @@
       <c r="C80" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D80" s="5"/>
+      <c r="D80" s="20">
+        <v>2032</v>
+      </c>
       <c r="E80" s="5">
         <v>3</v>
       </c>
@@ -11262,7 +11436,7 @@
       <c r="H80" s="5">
         <v>15000</v>
       </c>
-      <c r="I80" s="28">
+      <c r="I80" s="30">
         <v>15000</v>
       </c>
       <c r="J80" s="5">
@@ -11271,7 +11445,7 @@
       <c r="K80" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="L80" s="29">
+      <c r="L80" s="31">
         <v>15000</v>
       </c>
       <c r="M80" s="5">
@@ -11289,7 +11463,7 @@
       <c r="Q80" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R80" s="36" t="s">
+      <c r="R80" s="38" t="s">
         <v>280</v>
       </c>
       <c r="S80" s="5">
@@ -11298,7 +11472,7 @@
       <c r="T80" s="5">
         <v>1</v>
       </c>
-      <c r="U80" s="29">
+      <c r="U80" s="31">
         <v>170</v>
       </c>
       <c r="V80" s="5" t="s">
@@ -11309,7 +11483,7 @@
       <c r="Y80" s="5">
         <v>200</v>
       </c>
-      <c r="Z80" s="42">
+      <c r="Z80" s="44">
         <v>180</v>
       </c>
       <c r="AA80" s="5" t="s">
@@ -11356,7 +11530,9 @@
       <c r="C81" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D81" s="5"/>
+      <c r="D81" s="21">
+        <v>2033</v>
+      </c>
       <c r="E81" s="5">
         <v>3</v>
       </c>
@@ -11369,16 +11545,16 @@
       <c r="H81" s="5">
         <v>15000</v>
       </c>
-      <c r="I81" s="28">
-        <v>15000</v>
-      </c>
-      <c r="J81" s="28">
+      <c r="I81" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J81" s="30">
         <v>0</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="L81" s="29">
+      <c r="L81" s="31">
         <v>15000</v>
       </c>
       <c r="M81" s="5">
@@ -11396,7 +11572,7 @@
       <c r="Q81" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R81" s="36" t="s">
+      <c r="R81" s="38" t="s">
         <v>283</v>
       </c>
       <c r="S81" s="5">
@@ -11405,7 +11581,7 @@
       <c r="T81" s="5">
         <v>1</v>
       </c>
-      <c r="U81" s="29">
+      <c r="U81" s="31">
         <v>170</v>
       </c>
       <c r="V81" s="5" t="s">
@@ -11418,7 +11594,7 @@
       <c r="Y81" s="5">
         <v>200</v>
       </c>
-      <c r="Z81" s="42">
+      <c r="Z81" s="44">
         <v>180</v>
       </c>
       <c r="AA81" s="5" t="s">
@@ -11465,7 +11641,9 @@
       <c r="C82" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D82" s="5"/>
+      <c r="D82" s="21">
+        <v>2535</v>
+      </c>
       <c r="E82" s="5">
         <v>3</v>
       </c>
@@ -11478,16 +11656,16 @@
       <c r="H82" s="5">
         <v>15000</v>
       </c>
-      <c r="I82" s="28">
-        <v>15000</v>
-      </c>
-      <c r="J82" s="28">
+      <c r="I82" s="30">
+        <v>15000</v>
+      </c>
+      <c r="J82" s="30">
         <v>0</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L82" s="29">
+      <c r="L82" s="31">
         <v>15000</v>
       </c>
       <c r="M82" s="5">
@@ -11505,7 +11683,7 @@
       <c r="Q82" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R82" s="36" t="s">
+      <c r="R82" s="38" t="s">
         <v>286</v>
       </c>
       <c r="S82" s="5">
@@ -11514,7 +11692,7 @@
       <c r="T82" s="5">
         <v>1</v>
       </c>
-      <c r="U82" s="29">
+      <c r="U82" s="31">
         <v>170</v>
       </c>
       <c r="V82" s="5" t="s">
@@ -11525,7 +11703,7 @@
       <c r="Y82" s="5">
         <v>200</v>
       </c>
-      <c r="Z82" s="42">
+      <c r="Z82" s="44">
         <v>180</v>
       </c>
       <c r="AA82" s="5" t="s">
@@ -11572,7 +11750,9 @@
       <c r="C83" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D83" s="5"/>
+      <c r="D83" s="20">
+        <v>2536</v>
+      </c>
       <c r="E83" s="5">
         <v>3</v>
       </c>
@@ -11585,7 +11765,7 @@
       <c r="H83" s="5">
         <v>15000</v>
       </c>
-      <c r="I83" s="28">
+      <c r="I83" s="30">
         <v>15000</v>
       </c>
       <c r="J83" s="5">
@@ -11594,7 +11774,7 @@
       <c r="K83" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L83" s="29">
+      <c r="L83" s="31">
         <v>15000</v>
       </c>
       <c r="M83" s="5">
@@ -11612,7 +11792,7 @@
       <c r="Q83" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R83" s="36" t="s">
+      <c r="R83" s="38" t="s">
         <v>289</v>
       </c>
       <c r="S83" s="5">
@@ -11621,7 +11801,7 @@
       <c r="T83" s="5">
         <v>1</v>
       </c>
-      <c r="U83" s="29">
+      <c r="U83" s="31">
         <v>170</v>
       </c>
       <c r="V83" s="5" t="s">
@@ -11632,7 +11812,7 @@
       <c r="Y83" s="5">
         <v>200</v>
       </c>
-      <c r="Z83" s="42">
+      <c r="Z83" s="44">
         <v>180</v>
       </c>
       <c r="AA83" s="5" t="s">
@@ -11679,7 +11859,9 @@
       <c r="C84" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D84" s="5"/>
+      <c r="D84" s="21">
+        <v>2537</v>
+      </c>
       <c r="E84" s="5">
         <v>3</v>
       </c>
@@ -11692,7 +11874,7 @@
       <c r="H84" s="5">
         <v>15000</v>
       </c>
-      <c r="I84" s="28">
+      <c r="I84" s="30">
         <v>15000</v>
       </c>
       <c r="J84" s="5">
@@ -11701,7 +11883,7 @@
       <c r="K84" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L84" s="29">
+      <c r="L84" s="31">
         <v>15000</v>
       </c>
       <c r="M84" s="5">
@@ -11719,7 +11901,7 @@
       <c r="Q84" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R84" s="36" t="s">
+      <c r="R84" s="38" t="s">
         <v>292</v>
       </c>
       <c r="S84" s="5">
@@ -11728,7 +11910,7 @@
       <c r="T84" s="5">
         <v>1</v>
       </c>
-      <c r="U84" s="29">
+      <c r="U84" s="31">
         <v>170</v>
       </c>
       <c r="V84" s="5" t="s">
@@ -11741,7 +11923,7 @@
       <c r="Y84" s="5">
         <v>200</v>
       </c>
-      <c r="Z84" s="42">
+      <c r="Z84" s="44">
         <v>180</v>
       </c>
       <c r="AA84" s="5" t="s">
@@ -11788,7 +11970,9 @@
       <c r="C85" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="6"/>
+      <c r="D85" s="20">
+        <v>2034</v>
+      </c>
       <c r="E85" s="6">
         <v>4</v>
       </c>
@@ -11801,16 +11985,16 @@
       <c r="H85" s="6">
         <v>15000</v>
       </c>
-      <c r="I85" s="30">
-        <v>15000</v>
-      </c>
-      <c r="J85" s="30">
+      <c r="I85" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J85" s="32">
         <v>0</v>
       </c>
       <c r="K85" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="L85" s="31">
+      <c r="L85" s="33">
         <v>15000</v>
       </c>
       <c r="M85" s="6">
@@ -11828,7 +12012,7 @@
       <c r="Q85" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R85" s="37" t="s">
+      <c r="R85" s="39" t="s">
         <v>78</v>
       </c>
       <c r="S85" s="6">
@@ -11837,7 +12021,7 @@
       <c r="T85" s="6">
         <v>1</v>
       </c>
-      <c r="U85" s="31">
+      <c r="U85" s="33">
         <v>170</v>
       </c>
       <c r="V85" s="6" t="s">
@@ -11848,7 +12032,7 @@
       <c r="Y85" s="6">
         <v>200</v>
       </c>
-      <c r="Z85" s="43">
+      <c r="Z85" s="45">
         <v>180</v>
       </c>
       <c r="AA85" s="6" t="s">
@@ -11895,7 +12079,9 @@
       <c r="C86" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D86" s="6"/>
+      <c r="D86" s="21">
+        <v>2035</v>
+      </c>
       <c r="E86" s="6">
         <v>4</v>
       </c>
@@ -11908,7 +12094,7 @@
       <c r="H86" s="6">
         <v>15000</v>
       </c>
-      <c r="I86" s="30">
+      <c r="I86" s="32">
         <v>15000</v>
       </c>
       <c r="J86" s="6">
@@ -11917,7 +12103,7 @@
       <c r="K86" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L86" s="31">
+      <c r="L86" s="33">
         <v>15000</v>
       </c>
       <c r="M86" s="6">
@@ -11935,7 +12121,7 @@
       <c r="Q86" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R86" s="37" t="s">
+      <c r="R86" s="39" t="s">
         <v>296</v>
       </c>
       <c r="S86" s="6">
@@ -11944,7 +12130,7 @@
       <c r="T86" s="6">
         <v>1</v>
       </c>
-      <c r="U86" s="31">
+      <c r="U86" s="33">
         <v>170</v>
       </c>
       <c r="V86" s="6" t="s">
@@ -11955,7 +12141,7 @@
       <c r="Y86" s="6">
         <v>200</v>
       </c>
-      <c r="Z86" s="43">
+      <c r="Z86" s="45">
         <v>180</v>
       </c>
       <c r="AA86" s="6" t="s">
@@ -12002,7 +12188,9 @@
       <c r="C87" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D87" s="6"/>
+      <c r="D87" s="20">
+        <v>2036</v>
+      </c>
       <c r="E87" s="6">
         <v>4</v>
       </c>
@@ -12015,16 +12203,16 @@
       <c r="H87" s="6">
         <v>15000</v>
       </c>
-      <c r="I87" s="30">
-        <v>15000</v>
-      </c>
-      <c r="J87" s="30">
+      <c r="I87" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J87" s="32">
         <v>0</v>
       </c>
       <c r="K87" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="L87" s="31">
+      <c r="L87" s="33">
         <v>15000</v>
       </c>
       <c r="M87" s="6">
@@ -12042,7 +12230,7 @@
       <c r="Q87" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R87" s="37" t="s">
+      <c r="R87" s="39" t="s">
         <v>85</v>
       </c>
       <c r="S87" s="6">
@@ -12051,7 +12239,7 @@
       <c r="T87" s="6">
         <v>1</v>
       </c>
-      <c r="U87" s="31">
+      <c r="U87" s="33">
         <v>170</v>
       </c>
       <c r="V87" s="6" t="s">
@@ -12062,7 +12250,7 @@
       <c r="Y87" s="6">
         <v>200</v>
       </c>
-      <c r="Z87" s="43">
+      <c r="Z87" s="45">
         <v>180</v>
       </c>
       <c r="AA87" s="6" t="s">
@@ -12109,7 +12297,9 @@
       <c r="C88" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D88" s="6"/>
+      <c r="D88" s="21">
+        <v>2037</v>
+      </c>
       <c r="E88" s="6">
         <v>4</v>
       </c>
@@ -12122,7 +12312,7 @@
       <c r="H88" s="6">
         <v>15000</v>
       </c>
-      <c r="I88" s="30">
+      <c r="I88" s="32">
         <v>15000</v>
       </c>
       <c r="J88" s="6">
@@ -12131,7 +12321,7 @@
       <c r="K88" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="L88" s="31">
+      <c r="L88" s="33">
         <v>15000</v>
       </c>
       <c r="M88" s="6">
@@ -12149,7 +12339,7 @@
       <c r="Q88" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R88" s="37" t="s">
+      <c r="R88" s="39" t="s">
         <v>89</v>
       </c>
       <c r="S88" s="6">
@@ -12158,7 +12348,7 @@
       <c r="T88" s="6">
         <v>1</v>
       </c>
-      <c r="U88" s="31">
+      <c r="U88" s="33">
         <v>170</v>
       </c>
       <c r="V88" s="6" t="s">
@@ -12169,7 +12359,7 @@
       <c r="Y88" s="6">
         <v>200</v>
       </c>
-      <c r="Z88" s="43">
+      <c r="Z88" s="45">
         <v>180</v>
       </c>
       <c r="AA88" s="6" t="s">
@@ -12216,7 +12406,9 @@
       <c r="C89" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="D89" s="6"/>
+      <c r="D89" s="20">
+        <v>2038</v>
+      </c>
       <c r="E89" s="6">
         <v>4</v>
       </c>
@@ -12229,16 +12421,16 @@
       <c r="H89" s="6">
         <v>15000</v>
       </c>
-      <c r="I89" s="30">
-        <v>15000</v>
-      </c>
-      <c r="J89" s="30">
+      <c r="I89" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J89" s="32">
         <v>0</v>
       </c>
       <c r="K89" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="L89" s="31">
+      <c r="L89" s="33">
         <v>15000</v>
       </c>
       <c r="M89" s="6">
@@ -12256,7 +12448,7 @@
       <c r="Q89" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R89" s="37" t="s">
+      <c r="R89" s="39" t="s">
         <v>301</v>
       </c>
       <c r="S89" s="6">
@@ -12265,7 +12457,7 @@
       <c r="T89" s="6">
         <v>1</v>
       </c>
-      <c r="U89" s="31">
+      <c r="U89" s="33">
         <v>170</v>
       </c>
       <c r="V89" s="6" t="s">
@@ -12276,7 +12468,7 @@
       <c r="Y89" s="6">
         <v>200</v>
       </c>
-      <c r="Z89" s="43">
+      <c r="Z89" s="45">
         <v>180</v>
       </c>
       <c r="AA89" s="6" t="s">
@@ -12323,7 +12515,9 @@
       <c r="C90" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="D90" s="6"/>
+      <c r="D90" s="21">
+        <v>2039</v>
+      </c>
       <c r="E90" s="6">
         <v>4</v>
       </c>
@@ -12336,7 +12530,7 @@
       <c r="H90" s="6">
         <v>15000</v>
       </c>
-      <c r="I90" s="30">
+      <c r="I90" s="32">
         <v>15000</v>
       </c>
       <c r="J90" s="6">
@@ -12345,7 +12539,7 @@
       <c r="K90" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="L90" s="31">
+      <c r="L90" s="33">
         <v>15000</v>
       </c>
       <c r="M90" s="6">
@@ -12363,7 +12557,7 @@
       <c r="Q90" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R90" s="37" t="s">
+      <c r="R90" s="39" t="s">
         <v>304</v>
       </c>
       <c r="S90" s="6">
@@ -12372,7 +12566,7 @@
       <c r="T90" s="6">
         <v>1</v>
       </c>
-      <c r="U90" s="31">
+      <c r="U90" s="33">
         <v>170</v>
       </c>
       <c r="V90" s="6" t="s">
@@ -12383,7 +12577,7 @@
       <c r="Y90" s="6">
         <v>200</v>
       </c>
-      <c r="Z90" s="43">
+      <c r="Z90" s="45">
         <v>180</v>
       </c>
       <c r="AA90" s="6" t="s">
@@ -12430,7 +12624,9 @@
       <c r="C91" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="D91" s="6"/>
+      <c r="D91" s="20">
+        <v>2546</v>
+      </c>
       <c r="E91" s="6">
         <v>4</v>
       </c>
@@ -12443,16 +12639,16 @@
       <c r="H91" s="6">
         <v>15000</v>
       </c>
-      <c r="I91" s="30">
-        <v>15000</v>
-      </c>
-      <c r="J91" s="30">
+      <c r="I91" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J91" s="32">
         <v>0</v>
       </c>
       <c r="K91" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="L91" s="31">
+      <c r="L91" s="33">
         <v>15000</v>
       </c>
       <c r="M91" s="6">
@@ -12470,7 +12666,7 @@
       <c r="Q91" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R91" s="37" t="s">
+      <c r="R91" s="39" t="s">
         <v>307</v>
       </c>
       <c r="S91" s="6">
@@ -12479,7 +12675,7 @@
       <c r="T91" s="6">
         <v>1</v>
       </c>
-      <c r="U91" s="31">
+      <c r="U91" s="33">
         <v>170</v>
       </c>
       <c r="V91" s="6" t="s">
@@ -12492,7 +12688,7 @@
       <c r="Y91" s="6">
         <v>200</v>
       </c>
-      <c r="Z91" s="43">
+      <c r="Z91" s="45">
         <v>180</v>
       </c>
       <c r="AA91" s="6" t="s">
@@ -12539,7 +12735,9 @@
       <c r="C92" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D92" s="6"/>
+      <c r="D92" s="20">
+        <v>2040</v>
+      </c>
       <c r="E92" s="6">
         <v>4</v>
       </c>
@@ -12552,7 +12750,7 @@
       <c r="H92" s="6">
         <v>15000</v>
       </c>
-      <c r="I92" s="30">
+      <c r="I92" s="32">
         <v>15000</v>
       </c>
       <c r="J92" s="6">
@@ -12561,7 +12759,7 @@
       <c r="K92" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L92" s="31">
+      <c r="L92" s="33">
         <v>15000</v>
       </c>
       <c r="M92" s="6">
@@ -12579,7 +12777,7 @@
       <c r="Q92" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R92" s="37" t="s">
+      <c r="R92" s="39" t="s">
         <v>126</v>
       </c>
       <c r="S92" s="6">
@@ -12588,7 +12786,7 @@
       <c r="T92" s="6">
         <v>1</v>
       </c>
-      <c r="U92" s="31">
+      <c r="U92" s="33">
         <v>170</v>
       </c>
       <c r="V92" s="6" t="s">
@@ -12599,7 +12797,7 @@
       <c r="Y92" s="6">
         <v>200</v>
       </c>
-      <c r="Z92" s="43">
+      <c r="Z92" s="45">
         <v>180</v>
       </c>
       <c r="AA92" s="6" t="s">
@@ -12646,7 +12844,9 @@
       <c r="C93" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="D93" s="6"/>
+      <c r="D93" s="21">
+        <v>2041</v>
+      </c>
       <c r="E93" s="6">
         <v>4</v>
       </c>
@@ -12659,7 +12859,7 @@
       <c r="H93" s="6">
         <v>15000</v>
       </c>
-      <c r="I93" s="30">
+      <c r="I93" s="32">
         <v>15000</v>
       </c>
       <c r="J93" s="6">
@@ -12668,7 +12868,7 @@
       <c r="K93" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L93" s="31">
+      <c r="L93" s="33">
         <v>15000</v>
       </c>
       <c r="M93" s="6">
@@ -12686,7 +12886,7 @@
       <c r="Q93" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R93" s="37" t="s">
+      <c r="R93" s="39" t="s">
         <v>311</v>
       </c>
       <c r="S93" s="6">
@@ -12695,7 +12895,7 @@
       <c r="T93" s="6">
         <v>1</v>
       </c>
-      <c r="U93" s="31">
+      <c r="U93" s="33">
         <v>170</v>
       </c>
       <c r="V93" s="6" t="s">
@@ -12706,7 +12906,7 @@
       <c r="Y93" s="6">
         <v>200</v>
       </c>
-      <c r="Z93" s="43">
+      <c r="Z93" s="45">
         <v>180</v>
       </c>
       <c r="AA93" s="6" t="s">
@@ -12753,7 +12953,9 @@
       <c r="C94" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D94" s="6"/>
+      <c r="D94" s="21">
+        <v>2547</v>
+      </c>
       <c r="E94" s="6">
         <v>4</v>
       </c>
@@ -12766,16 +12968,16 @@
       <c r="H94" s="6">
         <v>15000</v>
       </c>
-      <c r="I94" s="30">
-        <v>15000</v>
-      </c>
-      <c r="J94" s="30">
+      <c r="I94" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J94" s="32">
         <v>0</v>
       </c>
       <c r="K94" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="L94" s="31">
+      <c r="L94" s="33">
         <v>15000</v>
       </c>
       <c r="M94" s="6">
@@ -12793,7 +12995,7 @@
       <c r="Q94" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R94" s="37" t="s">
+      <c r="R94" s="39" t="s">
         <v>314</v>
       </c>
       <c r="S94" s="6">
@@ -12802,7 +13004,7 @@
       <c r="T94" s="6">
         <v>1</v>
       </c>
-      <c r="U94" s="31">
+      <c r="U94" s="33">
         <v>170</v>
       </c>
       <c r="V94" s="6" t="s">
@@ -12815,7 +13017,7 @@
       <c r="Y94" s="6">
         <v>200</v>
       </c>
-      <c r="Z94" s="43">
+      <c r="Z94" s="45">
         <v>180</v>
       </c>
       <c r="AA94" s="6" t="s">
@@ -12862,7 +13064,9 @@
       <c r="C95" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D95" s="6"/>
+      <c r="D95" s="20">
+        <v>2548</v>
+      </c>
       <c r="E95" s="6">
         <v>4</v>
       </c>
@@ -12875,16 +13079,16 @@
       <c r="H95" s="6">
         <v>15000</v>
       </c>
-      <c r="I95" s="30">
-        <v>15000</v>
-      </c>
-      <c r="J95" s="30">
+      <c r="I95" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J95" s="32">
         <v>0</v>
       </c>
       <c r="K95" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="L95" s="31">
+      <c r="L95" s="33">
         <v>15000</v>
       </c>
       <c r="M95" s="6">
@@ -12902,7 +13106,7 @@
       <c r="Q95" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R95" s="37" t="s">
+      <c r="R95" s="39" t="s">
         <v>129</v>
       </c>
       <c r="S95" s="6">
@@ -12911,7 +13115,7 @@
       <c r="T95" s="6">
         <v>1</v>
       </c>
-      <c r="U95" s="31">
+      <c r="U95" s="33">
         <v>170</v>
       </c>
       <c r="V95" s="6" t="s">
@@ -12922,7 +13126,7 @@
       <c r="Y95" s="6">
         <v>200</v>
       </c>
-      <c r="Z95" s="43">
+      <c r="Z95" s="45">
         <v>180</v>
       </c>
       <c r="AA95" s="6" t="s">
@@ -12969,7 +13173,9 @@
       <c r="C96" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D96" s="6"/>
+      <c r="D96" s="21">
+        <v>2549</v>
+      </c>
       <c r="E96" s="6">
         <v>4</v>
       </c>
@@ -12982,7 +13188,7 @@
       <c r="H96" s="6">
         <v>15000</v>
       </c>
-      <c r="I96" s="30">
+      <c r="I96" s="32">
         <v>15000</v>
       </c>
       <c r="J96" s="6">
@@ -12991,7 +13197,7 @@
       <c r="K96" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="L96" s="31">
+      <c r="L96" s="33">
         <v>15000</v>
       </c>
       <c r="M96" s="6">
@@ -13009,7 +13215,7 @@
       <c r="Q96" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R96" s="37" t="s">
+      <c r="R96" s="39" t="s">
         <v>143</v>
       </c>
       <c r="S96" s="6">
@@ -13018,7 +13224,7 @@
       <c r="T96" s="6">
         <v>1</v>
       </c>
-      <c r="U96" s="31">
+      <c r="U96" s="33">
         <v>170</v>
       </c>
       <c r="V96" s="6" t="s">
@@ -13029,7 +13235,7 @@
       <c r="Y96" s="6">
         <v>200</v>
       </c>
-      <c r="Z96" s="43">
+      <c r="Z96" s="45">
         <v>180</v>
       </c>
       <c r="AA96" s="6" t="s">
@@ -13076,7 +13282,9 @@
       <c r="C97" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D97" s="6"/>
+      <c r="D97" s="20">
+        <v>2042</v>
+      </c>
       <c r="E97" s="6">
         <v>4</v>
       </c>
@@ -13089,16 +13297,16 @@
       <c r="H97" s="6">
         <v>15000</v>
       </c>
-      <c r="I97" s="30">
-        <v>15000</v>
-      </c>
-      <c r="J97" s="30">
+      <c r="I97" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J97" s="32">
         <v>0</v>
       </c>
       <c r="K97" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="L97" s="31">
+      <c r="L97" s="33">
         <v>15000</v>
       </c>
       <c r="M97" s="6">
@@ -13116,7 +13324,7 @@
       <c r="Q97" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R97" s="37" t="s">
+      <c r="R97" s="39" t="s">
         <v>319</v>
       </c>
       <c r="S97" s="6">
@@ -13125,7 +13333,7 @@
       <c r="T97" s="6">
         <v>1</v>
       </c>
-      <c r="U97" s="31">
+      <c r="U97" s="33">
         <v>170</v>
       </c>
       <c r="V97" s="6" t="s">
@@ -13136,7 +13344,7 @@
       <c r="Y97" s="6">
         <v>200</v>
       </c>
-      <c r="Z97" s="43">
+      <c r="Z97" s="45">
         <v>180</v>
       </c>
       <c r="AA97" s="6" t="s">
@@ -13183,7 +13391,9 @@
       <c r="C98" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D98" s="6"/>
+      <c r="D98" s="21">
+        <v>2043</v>
+      </c>
       <c r="E98" s="6">
         <v>4</v>
       </c>
@@ -13196,7 +13406,7 @@
       <c r="H98" s="6">
         <v>15000</v>
       </c>
-      <c r="I98" s="30">
+      <c r="I98" s="32">
         <v>15000</v>
       </c>
       <c r="J98" s="6">
@@ -13205,7 +13415,7 @@
       <c r="K98" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="L98" s="31">
+      <c r="L98" s="33">
         <v>15000</v>
       </c>
       <c r="M98" s="6">
@@ -13223,7 +13433,7 @@
       <c r="Q98" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R98" s="37" t="s">
+      <c r="R98" s="39" t="s">
         <v>112</v>
       </c>
       <c r="S98" s="6">
@@ -13232,7 +13442,7 @@
       <c r="T98" s="6">
         <v>1</v>
       </c>
-      <c r="U98" s="31">
+      <c r="U98" s="33">
         <v>170</v>
       </c>
       <c r="V98" s="6" t="s">
@@ -13243,7 +13453,7 @@
       <c r="Y98" s="6">
         <v>200</v>
       </c>
-      <c r="Z98" s="43">
+      <c r="Z98" s="45">
         <v>180</v>
       </c>
       <c r="AA98" s="6" t="s">
@@ -13290,7 +13500,9 @@
       <c r="C99" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D99" s="6"/>
+      <c r="D99" s="20">
+        <v>2044</v>
+      </c>
       <c r="E99" s="6">
         <v>4</v>
       </c>
@@ -13303,7 +13515,7 @@
       <c r="H99" s="6">
         <v>15000</v>
       </c>
-      <c r="I99" s="30">
+      <c r="I99" s="32">
         <v>15000</v>
       </c>
       <c r="J99" s="6">
@@ -13312,7 +13524,7 @@
       <c r="K99" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="L99" s="31">
+      <c r="L99" s="33">
         <v>15000</v>
       </c>
       <c r="M99" s="6">
@@ -13330,7 +13542,7 @@
       <c r="Q99" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R99" s="37" t="s">
+      <c r="R99" s="39" t="s">
         <v>323</v>
       </c>
       <c r="S99" s="6">
@@ -13339,7 +13551,7 @@
       <c r="T99" s="6">
         <v>1</v>
       </c>
-      <c r="U99" s="31">
+      <c r="U99" s="33">
         <v>170</v>
       </c>
       <c r="V99" s="6" t="s">
@@ -13350,7 +13562,7 @@
       <c r="Y99" s="6">
         <v>200</v>
       </c>
-      <c r="Z99" s="43">
+      <c r="Z99" s="45">
         <v>180</v>
       </c>
       <c r="AA99" s="6" t="s">
@@ -13397,7 +13609,9 @@
       <c r="C100" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="D100" s="6"/>
+      <c r="D100" s="20">
+        <v>2550</v>
+      </c>
       <c r="E100" s="6">
         <v>4</v>
       </c>
@@ -13410,16 +13624,16 @@
       <c r="H100" s="6">
         <v>15000</v>
       </c>
-      <c r="I100" s="30">
-        <v>15000</v>
-      </c>
-      <c r="J100" s="30">
+      <c r="I100" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J100" s="32">
         <v>0</v>
       </c>
       <c r="K100" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L100" s="31">
+      <c r="L100" s="33">
         <v>15000</v>
       </c>
       <c r="M100" s="6">
@@ -13437,7 +13651,7 @@
       <c r="Q100" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R100" s="37" t="s">
+      <c r="R100" s="39" t="s">
         <v>326</v>
       </c>
       <c r="S100" s="6">
@@ -13446,7 +13660,7 @@
       <c r="T100" s="6">
         <v>1</v>
       </c>
-      <c r="U100" s="31">
+      <c r="U100" s="33">
         <v>170</v>
       </c>
       <c r="V100" s="6" t="s">
@@ -13459,7 +13673,7 @@
       <c r="Y100" s="6">
         <v>200</v>
       </c>
-      <c r="Z100" s="43">
+      <c r="Z100" s="45">
         <v>180</v>
       </c>
       <c r="AA100" s="6" t="s">
@@ -13506,7 +13720,9 @@
       <c r="C101" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D101" s="6"/>
+      <c r="D101" s="21">
+        <v>2551</v>
+      </c>
       <c r="E101" s="6">
         <v>4</v>
       </c>
@@ -13519,16 +13735,16 @@
       <c r="H101" s="6">
         <v>15000</v>
       </c>
-      <c r="I101" s="30">
-        <v>15000</v>
-      </c>
-      <c r="J101" s="30">
+      <c r="I101" s="32">
+        <v>15000</v>
+      </c>
+      <c r="J101" s="32">
         <v>0</v>
       </c>
       <c r="K101" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="L101" s="31">
+      <c r="L101" s="33">
         <v>15000</v>
       </c>
       <c r="M101" s="6">
@@ -13546,7 +13762,7 @@
       <c r="Q101" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R101" s="37" t="s">
+      <c r="R101" s="39" t="s">
         <v>329</v>
       </c>
       <c r="S101" s="6">
@@ -13555,7 +13771,7 @@
       <c r="T101" s="6">
         <v>1</v>
       </c>
-      <c r="U101" s="31">
+      <c r="U101" s="33">
         <v>170</v>
       </c>
       <c r="V101" s="6" t="s">
@@ -13566,7 +13782,7 @@
       <c r="Y101" s="6">
         <v>200</v>
       </c>
-      <c r="Z101" s="43">
+      <c r="Z101" s="45">
         <v>180</v>
       </c>
       <c r="AA101" s="6" t="s">
@@ -13613,7 +13829,9 @@
       <c r="C102" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D102" s="6"/>
+      <c r="D102" s="21">
+        <v>2045</v>
+      </c>
       <c r="E102" s="6">
         <v>4</v>
       </c>
@@ -13626,7 +13844,7 @@
       <c r="H102" s="6">
         <v>15000</v>
       </c>
-      <c r="I102" s="30">
+      <c r="I102" s="32">
         <v>15000</v>
       </c>
       <c r="J102" s="6">
@@ -13635,7 +13853,7 @@
       <c r="K102" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="L102" s="31">
+      <c r="L102" s="33">
         <v>15000</v>
       </c>
       <c r="M102" s="6">
@@ -13653,7 +13871,7 @@
       <c r="Q102" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R102" s="37" t="s">
+      <c r="R102" s="39" t="s">
         <v>332</v>
       </c>
       <c r="S102" s="6">
@@ -13662,7 +13880,7 @@
       <c r="T102" s="6">
         <v>1</v>
       </c>
-      <c r="U102" s="31">
+      <c r="U102" s="33">
         <v>170</v>
       </c>
       <c r="V102" s="6" t="s">
@@ -13673,7 +13891,7 @@
       <c r="Y102" s="6">
         <v>200</v>
       </c>
-      <c r="Z102" s="43">
+      <c r="Z102" s="45">
         <v>180</v>
       </c>
       <c r="AA102" s="6" t="s">
@@ -13720,7 +13938,9 @@
       <c r="C103" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D103" s="6"/>
+      <c r="D103" s="20">
+        <v>2552</v>
+      </c>
       <c r="E103" s="6">
         <v>4</v>
       </c>
@@ -13733,7 +13953,7 @@
       <c r="H103" s="6">
         <v>15000</v>
       </c>
-      <c r="I103" s="30">
+      <c r="I103" s="32">
         <v>15000</v>
       </c>
       <c r="J103" s="6">
@@ -13742,7 +13962,7 @@
       <c r="K103" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="L103" s="31">
+      <c r="L103" s="33">
         <v>15000</v>
       </c>
       <c r="M103" s="6">
@@ -13760,7 +13980,7 @@
       <c r="Q103" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R103" s="37" t="s">
+      <c r="R103" s="39" t="s">
         <v>335</v>
       </c>
       <c r="S103" s="6">
@@ -13769,7 +13989,7 @@
       <c r="T103" s="6">
         <v>1</v>
       </c>
-      <c r="U103" s="31">
+      <c r="U103" s="33">
         <v>170</v>
       </c>
       <c r="V103" s="6" t="s">
@@ -13782,7 +14002,7 @@
       <c r="Y103" s="6">
         <v>200</v>
       </c>
-      <c r="Z103" s="43">
+      <c r="Z103" s="45">
         <v>180</v>
       </c>
       <c r="AA103" s="6" t="s">
